--- a/GLIK Domain Mapping.xlsx
+++ b/GLIK Domain Mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toshiba\Documents\GitHub\GLIK-DM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73D81600-D32E-41E2-917B-B4846D77B9BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01F4E38-1A42-486A-A403-FB729C021ABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{BC9BC3D9-6FF2-4CB4-96B2-33CE5FEE1DBD}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="456">
   <si>
     <t>Kode Fitur</t>
   </si>
@@ -1244,9 +1244,6 @@
     <t>0a. Pilih BDL</t>
   </si>
   <si>
-    <t>GPRM.Bank, GPRM.Jaringan, BDL</t>
-  </si>
-  <si>
     <t>0b. Konfirmasi Pilih DBL</t>
   </si>
   <si>
@@ -1449,6 +1446,21 @@
   </si>
   <si>
     <t>17c. Dokumen Kewajiban</t>
+  </si>
+  <si>
+    <t>GPRM.Bank, GPRM.Pengurus, GPRM.Jaringan, BDL</t>
+  </si>
+  <si>
+    <t>GPRM.Bank, GPRM.Pengurus, BDL, RKABProfilBank, RKABPengurusProfilBank, RKABPeriodeProfilBank</t>
+  </si>
+  <si>
+    <t>GPRM.Bank, GPRM.Pengurus, BDL, RKABProfilBank, RKABDebiturHapusBuku</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>GPRM.Bank, GPRM.Pengurus, FiturUmum.Repository, BDL, PembubaranBadanHukum, DocBadanHukum, MasterStatus</t>
   </si>
 </sst>
 </file>
@@ -1499,7 +1511,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1516,6 +1528,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
         <bgColor theme="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1555,7 +1573,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1586,6 +1604,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3829,8 +3850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78815AC8-C3A4-42A1-9CFB-16EE2CA78EFD}">
   <dimension ref="B3:F72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -3838,12 +3859,12 @@
     <col min="1" max="1" width="8.7265625" style="1"/>
     <col min="2" max="2" width="3.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="58.81640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="92.08984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="14" t="s">
         <v>379</v>
       </c>
       <c r="C3" s="11" t="s">
@@ -3861,7 +3882,7 @@
         <v>382</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>383</v>
+        <v>451</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
@@ -3869,10 +3890,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>383</v>
+        <v>451</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
@@ -3880,27 +3901,33 @@
         <v>3</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="D6" s="8"/>
+        <v>384</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>452</v>
+      </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="9">
         <v>4</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="D7" s="8"/>
+        <v>385</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>453</v>
+      </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="9">
         <v>5</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="D8" s="8"/>
+        <v>386</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>453</v>
+      </c>
       <c r="F8" s="10"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
@@ -3908,34 +3935,40 @@
         <v>6</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>388</v>
-      </c>
-      <c r="D9" s="8"/>
+        <v>387</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>453</v>
+      </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="9">
         <v>7</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="D10" s="8"/>
+        <v>388</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>454</v>
+      </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="9">
         <v>8</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>390</v>
-      </c>
-      <c r="D11" s="8"/>
+        <v>389</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>455</v>
+      </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="9">
         <v>9</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D12" s="8"/>
     </row>
@@ -3944,7 +3977,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D13" s="8"/>
     </row>
@@ -3953,7 +3986,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D14" s="8"/>
     </row>
@@ -3962,7 +3995,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D15" s="8"/>
     </row>
@@ -3971,7 +4004,7 @@
         <v>13</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D16" s="8"/>
     </row>
@@ -3980,7 +4013,7 @@
         <v>14</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D17" s="8"/>
     </row>
@@ -3989,7 +4022,7 @@
         <v>15</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D18" s="8"/>
     </row>
@@ -3998,7 +4031,7 @@
         <v>16</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D19" s="8"/>
     </row>
@@ -4007,7 +4040,7 @@
         <v>17</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D20" s="8"/>
     </row>
@@ -4016,7 +4049,7 @@
         <v>18</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D21" s="8"/>
     </row>
@@ -4025,7 +4058,7 @@
         <v>19</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D22" s="8"/>
     </row>
@@ -4034,7 +4067,7 @@
         <v>20</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D23" s="8"/>
     </row>
@@ -4043,7 +4076,7 @@
         <v>21</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D24" s="8"/>
     </row>
@@ -4052,7 +4085,7 @@
         <v>22</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D25" s="8"/>
     </row>
@@ -4061,7 +4094,7 @@
         <v>23</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D26" s="8"/>
     </row>
@@ -4070,7 +4103,7 @@
         <v>24</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D27" s="8"/>
     </row>
@@ -4079,7 +4112,7 @@
         <v>25</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D28" s="8"/>
     </row>
@@ -4088,7 +4121,7 @@
         <v>26</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D29" s="8"/>
     </row>
@@ -4097,7 +4130,7 @@
         <v>27</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D30" s="8"/>
     </row>
@@ -4106,7 +4139,7 @@
         <v>28</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D31" s="8"/>
     </row>
@@ -4115,7 +4148,7 @@
         <v>29</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D32" s="8"/>
     </row>
@@ -4124,7 +4157,7 @@
         <v>30</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D33" s="8"/>
     </row>
@@ -4133,7 +4166,7 @@
         <v>31</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D34" s="8"/>
     </row>
@@ -4142,7 +4175,7 @@
         <v>32</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D35" s="8"/>
     </row>
@@ -4151,7 +4184,7 @@
         <v>33</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D36" s="8"/>
     </row>
@@ -4160,7 +4193,7 @@
         <v>34</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D37" s="8"/>
     </row>
@@ -4169,7 +4202,7 @@
         <v>35</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D38" s="8"/>
     </row>
@@ -4178,7 +4211,7 @@
         <v>36</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D39" s="8"/>
     </row>
@@ -4187,7 +4220,7 @@
         <v>37</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D40" s="8"/>
     </row>
@@ -4196,7 +4229,7 @@
         <v>38</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D41" s="8"/>
     </row>
@@ -4205,7 +4238,7 @@
         <v>39</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D42" s="8"/>
     </row>
@@ -4214,7 +4247,7 @@
         <v>40</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D43" s="8"/>
     </row>
@@ -4223,7 +4256,7 @@
         <v>41</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D44" s="8"/>
     </row>
@@ -4232,7 +4265,7 @@
         <v>42</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D45" s="8"/>
     </row>
@@ -4241,7 +4274,7 @@
         <v>43</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D46" s="8"/>
     </row>
@@ -4250,7 +4283,7 @@
         <v>44</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D47" s="8"/>
     </row>
@@ -4259,7 +4292,7 @@
         <v>45</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D48" s="8"/>
     </row>
@@ -4268,7 +4301,7 @@
         <v>46</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D49" s="8"/>
     </row>
@@ -4277,7 +4310,7 @@
         <v>47</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D50" s="8"/>
     </row>
@@ -4286,7 +4319,7 @@
         <v>48</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D51" s="8"/>
     </row>
@@ -4295,7 +4328,7 @@
         <v>49</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D52" s="8"/>
     </row>
@@ -4304,7 +4337,7 @@
         <v>50</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D53" s="8"/>
     </row>
@@ -4313,7 +4346,7 @@
         <v>51</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D54" s="8"/>
     </row>
@@ -4322,7 +4355,7 @@
         <v>52</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D55" s="8"/>
     </row>
@@ -4331,7 +4364,7 @@
         <v>53</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D56" s="8"/>
     </row>
@@ -4340,7 +4373,7 @@
         <v>54</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D57" s="8"/>
     </row>
@@ -4349,7 +4382,7 @@
         <v>55</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D58" s="8"/>
     </row>
@@ -4358,7 +4391,7 @@
         <v>56</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D59" s="8"/>
     </row>
@@ -4367,7 +4400,7 @@
         <v>57</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D60" s="8"/>
     </row>
@@ -4376,7 +4409,7 @@
         <v>58</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D61" s="8"/>
     </row>
@@ -4385,7 +4418,7 @@
         <v>59</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D62" s="8"/>
     </row>
@@ -4394,7 +4427,7 @@
         <v>60</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D63" s="8"/>
     </row>
@@ -4403,7 +4436,7 @@
         <v>61</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D64" s="8"/>
     </row>
@@ -4412,7 +4445,7 @@
         <v>62</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D65" s="8"/>
     </row>
@@ -4421,7 +4454,7 @@
         <v>63</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D66" s="8"/>
     </row>
@@ -4430,7 +4463,7 @@
         <v>64</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D67" s="8"/>
     </row>
@@ -4439,7 +4472,7 @@
         <v>65</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D68" s="8"/>
     </row>
@@ -4448,7 +4481,7 @@
         <v>66</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D69" s="8"/>
     </row>
@@ -4457,7 +4490,7 @@
         <v>67</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D70" s="8"/>
     </row>
@@ -4466,7 +4499,7 @@
         <v>68</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D71" s="8"/>
     </row>
@@ -4475,7 +4508,7 @@
         <v>69</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D72" s="8"/>
     </row>

--- a/GLIK Domain Mapping.xlsx
+++ b/GLIK Domain Mapping.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toshiba\Documents\GitHub\GLIK-DM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dimas\Downloads\LPS GLIK\GLIK-DM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01F4E38-1A42-486A-A403-FB729C021ABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0894063-CDAE-4283-97B0-79977DA0FB57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{BC9BC3D9-6FF2-4CB4-96B2-33CE5FEE1DBD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{BC9BC3D9-6FF2-4CB4-96B2-33CE5FEE1DBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Domain Mapping" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="456">
   <si>
     <t>Kode Fitur</t>
   </si>
@@ -1537,7 +1537,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1569,11 +1569,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1603,12 +1616,16 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1929,17 +1946,17 @@
       <selection activeCell="D2" sqref="D2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="6"/>
-    <col min="2" max="2" width="9.453125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="111.1796875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="6"/>
+    <col min="2" max="2" width="9.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="111.140625" style="6" customWidth="1"/>
     <col min="4" max="4" width="14" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="6"/>
+    <col min="5" max="5" width="14.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.7109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
@@ -1953,7 +1970,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
@@ -1963,7 +1980,7 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
@@ -1973,7 +1990,7 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -1983,7 +2000,7 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="7" t="s">
         <v>10</v>
       </c>
@@ -1993,7 +2010,7 @@
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
     </row>
-    <row r="7" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="7" t="s">
         <v>12</v>
       </c>
@@ -2003,7 +2020,7 @@
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
         <v>14</v>
       </c>
@@ -2013,7 +2030,7 @@
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
         <v>16</v>
       </c>
@@ -2023,7 +2040,7 @@
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
         <v>18</v>
       </c>
@@ -2033,7 +2050,7 @@
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
         <v>20</v>
       </c>
@@ -2043,7 +2060,7 @@
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
         <v>22</v>
       </c>
@@ -2053,7 +2070,7 @@
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
     </row>
-    <row r="13" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
         <v>24</v>
       </c>
@@ -2063,7 +2080,7 @@
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
     </row>
-    <row r="14" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="7" t="s">
         <v>26</v>
       </c>
@@ -2073,7 +2090,7 @@
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="7" t="s">
         <v>28</v>
       </c>
@@ -2083,7 +2100,7 @@
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
     </row>
-    <row r="16" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="7" t="s">
         <v>30</v>
       </c>
@@ -2093,7 +2110,7 @@
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
     </row>
-    <row r="17" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="7" t="s">
         <v>32</v>
       </c>
@@ -2103,7 +2120,7 @@
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
     </row>
-    <row r="18" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="7" t="s">
         <v>34</v>
       </c>
@@ -2113,7 +2130,7 @@
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
     </row>
-    <row r="19" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="7" t="s">
         <v>36</v>
       </c>
@@ -2123,7 +2140,7 @@
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
     </row>
-    <row r="20" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="7" t="s">
         <v>38</v>
       </c>
@@ -2133,7 +2150,7 @@
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
     </row>
-    <row r="21" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="7" t="s">
         <v>40</v>
       </c>
@@ -2143,7 +2160,7 @@
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
     </row>
-    <row r="22" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="7" t="s">
         <v>42</v>
       </c>
@@ -2153,7 +2170,7 @@
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
     </row>
-    <row r="23" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="7" t="s">
         <v>44</v>
       </c>
@@ -2163,7 +2180,7 @@
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
     </row>
-    <row r="24" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="7" t="s">
         <v>46</v>
       </c>
@@ -2173,7 +2190,7 @@
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
     </row>
-    <row r="25" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="7" t="s">
         <v>48</v>
       </c>
@@ -2183,7 +2200,7 @@
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
     </row>
-    <row r="26" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="7" t="s">
         <v>50</v>
       </c>
@@ -2193,7 +2210,7 @@
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
     </row>
-    <row r="27" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="7" t="s">
         <v>52</v>
       </c>
@@ -2203,7 +2220,7 @@
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
     </row>
-    <row r="28" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="7" t="s">
         <v>54</v>
       </c>
@@ -2213,7 +2230,7 @@
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
     </row>
-    <row r="29" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="7" t="s">
         <v>56</v>
       </c>
@@ -2223,7 +2240,7 @@
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
     </row>
-    <row r="30" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="7" t="s">
         <v>58</v>
       </c>
@@ -2233,7 +2250,7 @@
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
     </row>
-    <row r="31" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="7" t="s">
         <v>60</v>
       </c>
@@ -2243,7 +2260,7 @@
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
     </row>
-    <row r="32" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="7" t="s">
         <v>62</v>
       </c>
@@ -2253,7 +2270,7 @@
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
     </row>
-    <row r="33" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="7" t="s">
         <v>64</v>
       </c>
@@ -2263,7 +2280,7 @@
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
     </row>
-    <row r="34" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="7" t="s">
         <v>66</v>
       </c>
@@ -2273,7 +2290,7 @@
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
     </row>
-    <row r="35" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="7" t="s">
         <v>68</v>
       </c>
@@ -2283,7 +2300,7 @@
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
     </row>
-    <row r="36" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="7" t="s">
         <v>70</v>
       </c>
@@ -2293,7 +2310,7 @@
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
     </row>
-    <row r="37" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="7" t="s">
         <v>72</v>
       </c>
@@ -2303,7 +2320,7 @@
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
     </row>
-    <row r="38" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="7" t="s">
         <v>74</v>
       </c>
@@ -2313,7 +2330,7 @@
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
     </row>
-    <row r="39" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="7" t="s">
         <v>76</v>
       </c>
@@ -2323,7 +2340,7 @@
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
     </row>
-    <row r="40" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="7" t="s">
         <v>78</v>
       </c>
@@ -2333,7 +2350,7 @@
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
     </row>
-    <row r="41" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="7" t="s">
         <v>80</v>
       </c>
@@ -2343,7 +2360,7 @@
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
     </row>
-    <row r="42" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="7" t="s">
         <v>82</v>
       </c>
@@ -2353,7 +2370,7 @@
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
     </row>
-    <row r="43" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="7" t="s">
         <v>84</v>
       </c>
@@ -2363,7 +2380,7 @@
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
     </row>
-    <row r="44" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="7" t="s">
         <v>86</v>
       </c>
@@ -2373,7 +2390,7 @@
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
     </row>
-    <row r="45" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="7" t="s">
         <v>88</v>
       </c>
@@ -2383,7 +2400,7 @@
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
     </row>
-    <row r="46" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="7" t="s">
         <v>90</v>
       </c>
@@ -2393,7 +2410,7 @@
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
     </row>
-    <row r="47" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="7" t="s">
         <v>92</v>
       </c>
@@ -2403,7 +2420,7 @@
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
     </row>
-    <row r="48" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="7" t="s">
         <v>94</v>
       </c>
@@ -2413,7 +2430,7 @@
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
     </row>
-    <row r="49" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="7" t="s">
         <v>96</v>
       </c>
@@ -2423,7 +2440,7 @@
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
     </row>
-    <row r="50" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="7" t="s">
         <v>98</v>
       </c>
@@ -2433,7 +2450,7 @@
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
     </row>
-    <row r="51" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="7" t="s">
         <v>100</v>
       </c>
@@ -2443,7 +2460,7 @@
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
     </row>
-    <row r="52" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="7" t="s">
         <v>102</v>
       </c>
@@ -2453,7 +2470,7 @@
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
     </row>
-    <row r="53" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="7" t="s">
         <v>104</v>
       </c>
@@ -2463,7 +2480,7 @@
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
     </row>
-    <row r="54" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="7" t="s">
         <v>106</v>
       </c>
@@ -2473,7 +2490,7 @@
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
     </row>
-    <row r="55" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="7" t="s">
         <v>108</v>
       </c>
@@ -2483,7 +2500,7 @@
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
     </row>
-    <row r="56" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="7" t="s">
         <v>110</v>
       </c>
@@ -2493,7 +2510,7 @@
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
     </row>
-    <row r="57" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="7" t="s">
         <v>112</v>
       </c>
@@ -2503,7 +2520,7 @@
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
     </row>
-    <row r="58" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="7" t="s">
         <v>114</v>
       </c>
@@ -2513,7 +2530,7 @@
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
     </row>
-    <row r="59" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="7" t="s">
         <v>116</v>
       </c>
@@ -2523,7 +2540,7 @@
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
     </row>
-    <row r="60" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="7" t="s">
         <v>118</v>
       </c>
@@ -2533,7 +2550,7 @@
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
     </row>
-    <row r="61" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="7" t="s">
         <v>120</v>
       </c>
@@ -2543,7 +2560,7 @@
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
     </row>
-    <row r="62" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="7" t="s">
         <v>122</v>
       </c>
@@ -2553,7 +2570,7 @@
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
     </row>
-    <row r="63" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="7" t="s">
         <v>124</v>
       </c>
@@ -2563,7 +2580,7 @@
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
     </row>
-    <row r="64" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="7" t="s">
         <v>126</v>
       </c>
@@ -2573,7 +2590,7 @@
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
     </row>
-    <row r="65" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="7" t="s">
         <v>128</v>
       </c>
@@ -2583,7 +2600,7 @@
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
     </row>
-    <row r="66" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="7" t="s">
         <v>130</v>
       </c>
@@ -2593,7 +2610,7 @@
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
     </row>
-    <row r="67" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="7" t="s">
         <v>132</v>
       </c>
@@ -2603,7 +2620,7 @@
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
     </row>
-    <row r="68" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="7" t="s">
         <v>134</v>
       </c>
@@ -2613,7 +2630,7 @@
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
     </row>
-    <row r="69" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="7" t="s">
         <v>136</v>
       </c>
@@ -2623,7 +2640,7 @@
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
     </row>
-    <row r="70" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="7" t="s">
         <v>138</v>
       </c>
@@ -2633,7 +2650,7 @@
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
     </row>
-    <row r="71" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="7" t="s">
         <v>140</v>
       </c>
@@ -2643,7 +2660,7 @@
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
     </row>
-    <row r="72" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="7" t="s">
         <v>142</v>
       </c>
@@ -2653,7 +2670,7 @@
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
     </row>
-    <row r="73" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="7" t="s">
         <v>144</v>
       </c>
@@ -2663,7 +2680,7 @@
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
     </row>
-    <row r="74" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="7" t="s">
         <v>146</v>
       </c>
@@ -2673,7 +2690,7 @@
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
     </row>
-    <row r="75" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="7" t="s">
         <v>148</v>
       </c>
@@ -2683,7 +2700,7 @@
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
     </row>
-    <row r="76" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="7" t="s">
         <v>150</v>
       </c>
@@ -2693,7 +2710,7 @@
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
     </row>
-    <row r="77" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="7" t="s">
         <v>152</v>
       </c>
@@ -2703,7 +2720,7 @@
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
     </row>
-    <row r="78" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="7" t="s">
         <v>154</v>
       </c>
@@ -2713,7 +2730,7 @@
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
     </row>
-    <row r="79" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="7" t="s">
         <v>156</v>
       </c>
@@ -2723,7 +2740,7 @@
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
     </row>
-    <row r="80" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="7" t="s">
         <v>158</v>
       </c>
@@ -2733,7 +2750,7 @@
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
     </row>
-    <row r="81" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="7" t="s">
         <v>160</v>
       </c>
@@ -2743,7 +2760,7 @@
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
     </row>
-    <row r="82" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="7" t="s">
         <v>162</v>
       </c>
@@ -2753,8 +2770,8 @@
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
     </row>
-    <row r="83" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="13" t="s">
+    <row r="83" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B83" s="14" t="s">
         <v>164</v>
       </c>
       <c r="C83" s="3" t="s">
@@ -2763,31 +2780,31 @@
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
     </row>
-    <row r="84" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="13"/>
+    <row r="84" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B84" s="14"/>
       <c r="C84" s="4" t="s">
         <v>359</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
     </row>
-    <row r="85" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="13"/>
+    <row r="85" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B85" s="14"/>
       <c r="C85" s="4" t="s">
         <v>360</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
     </row>
-    <row r="86" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="13"/>
+    <row r="86" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B86" s="14"/>
       <c r="C86" s="4" t="s">
         <v>361</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
     </row>
-    <row r="87" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="7" t="s">
         <v>165</v>
       </c>
@@ -2797,7 +2814,7 @@
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
     </row>
-    <row r="88" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="7" t="s">
         <v>167</v>
       </c>
@@ -2807,7 +2824,7 @@
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
     </row>
-    <row r="89" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="7" t="s">
         <v>169</v>
       </c>
@@ -2817,7 +2834,7 @@
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
     </row>
-    <row r="90" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="7" t="s">
         <v>171</v>
       </c>
@@ -2827,7 +2844,7 @@
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
     </row>
-    <row r="91" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="7" t="s">
         <v>173</v>
       </c>
@@ -2837,7 +2854,7 @@
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
     </row>
-    <row r="92" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B92" s="7" t="s">
         <v>175</v>
       </c>
@@ -2847,7 +2864,7 @@
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
     </row>
-    <row r="93" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="7" t="s">
         <v>177</v>
       </c>
@@ -2857,7 +2874,7 @@
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
     </row>
-    <row r="94" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="7" t="s">
         <v>179</v>
       </c>
@@ -2867,7 +2884,7 @@
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
     </row>
-    <row r="95" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="7" t="s">
         <v>181</v>
       </c>
@@ -2877,7 +2894,7 @@
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
     </row>
-    <row r="96" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B96" s="7" t="s">
         <v>183</v>
       </c>
@@ -2887,7 +2904,7 @@
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
     </row>
-    <row r="97" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B97" s="7" t="s">
         <v>185</v>
       </c>
@@ -2897,7 +2914,7 @@
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
     </row>
-    <row r="98" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B98" s="7" t="s">
         <v>187</v>
       </c>
@@ -2907,7 +2924,7 @@
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
     </row>
-    <row r="99" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="7" t="s">
         <v>189</v>
       </c>
@@ -2917,7 +2934,7 @@
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
     </row>
-    <row r="100" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="7" t="s">
         <v>191</v>
       </c>
@@ -2927,7 +2944,7 @@
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
     </row>
-    <row r="101" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="7" t="s">
         <v>193</v>
       </c>
@@ -2937,7 +2954,7 @@
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
     </row>
-    <row r="102" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="7" t="s">
         <v>195</v>
       </c>
@@ -2947,7 +2964,7 @@
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
     </row>
-    <row r="103" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="7" t="s">
         <v>197</v>
       </c>
@@ -2957,7 +2974,7 @@
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
     </row>
-    <row r="104" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B104" s="7" t="s">
         <v>199</v>
       </c>
@@ -2967,7 +2984,7 @@
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
     </row>
-    <row r="105" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B105" s="7" t="s">
         <v>201</v>
       </c>
@@ -2977,7 +2994,7 @@
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
     </row>
-    <row r="106" spans="2:5" ht="26" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B106" s="7" t="s">
         <v>203</v>
       </c>
@@ -2987,7 +3004,7 @@
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
     </row>
-    <row r="107" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B107" s="7" t="s">
         <v>205</v>
       </c>
@@ -2997,7 +3014,7 @@
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
     </row>
-    <row r="108" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B108" s="7" t="s">
         <v>207</v>
       </c>
@@ -3007,7 +3024,7 @@
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
     </row>
-    <row r="109" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="7" t="s">
         <v>209</v>
       </c>
@@ -3017,7 +3034,7 @@
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
     </row>
-    <row r="110" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B110" s="7" t="s">
         <v>211</v>
       </c>
@@ -3027,7 +3044,7 @@
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
     </row>
-    <row r="111" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B111" s="7" t="s">
         <v>213</v>
       </c>
@@ -3037,7 +3054,7 @@
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
     </row>
-    <row r="112" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B112" s="7" t="s">
         <v>215</v>
       </c>
@@ -3047,7 +3064,7 @@
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
     </row>
-    <row r="113" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B113" s="7" t="s">
         <v>217</v>
       </c>
@@ -3057,7 +3074,7 @@
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
     </row>
-    <row r="114" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B114" s="7" t="s">
         <v>219</v>
       </c>
@@ -3067,7 +3084,7 @@
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
     </row>
-    <row r="115" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B115" s="7" t="s">
         <v>221</v>
       </c>
@@ -3077,7 +3094,7 @@
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
     </row>
-    <row r="116" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B116" s="7" t="s">
         <v>223</v>
       </c>
@@ -3087,7 +3104,7 @@
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
     </row>
-    <row r="117" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B117" s="7" t="s">
         <v>224</v>
       </c>
@@ -3097,7 +3114,7 @@
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
     </row>
-    <row r="118" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B118" s="7" t="s">
         <v>226</v>
       </c>
@@ -3107,7 +3124,7 @@
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
     </row>
-    <row r="119" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B119" s="7" t="s">
         <v>228</v>
       </c>
@@ -3117,7 +3134,7 @@
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
     </row>
-    <row r="120" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B120" s="7" t="s">
         <v>230</v>
       </c>
@@ -3127,7 +3144,7 @@
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
     </row>
-    <row r="121" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B121" s="7" t="s">
         <v>232</v>
       </c>
@@ -3137,7 +3154,7 @@
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
     </row>
-    <row r="122" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B122" s="7" t="s">
         <v>234</v>
       </c>
@@ -3147,7 +3164,7 @@
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
     </row>
-    <row r="123" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B123" s="7" t="s">
         <v>236</v>
       </c>
@@ -3157,7 +3174,7 @@
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
     </row>
-    <row r="124" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B124" s="7" t="s">
         <v>238</v>
       </c>
@@ -3167,7 +3184,7 @@
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
     </row>
-    <row r="125" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B125" s="7" t="s">
         <v>240</v>
       </c>
@@ -3177,7 +3194,7 @@
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
     </row>
-    <row r="126" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B126" s="7" t="s">
         <v>242</v>
       </c>
@@ -3187,7 +3204,7 @@
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
     </row>
-    <row r="127" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B127" s="7" t="s">
         <v>244</v>
       </c>
@@ -3197,7 +3214,7 @@
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
     </row>
-    <row r="128" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B128" s="7" t="s">
         <v>246</v>
       </c>
@@ -3207,7 +3224,7 @@
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
     </row>
-    <row r="129" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B129" s="7" t="s">
         <v>248</v>
       </c>
@@ -3217,7 +3234,7 @@
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
     </row>
-    <row r="130" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B130" s="7" t="s">
         <v>250</v>
       </c>
@@ -3227,7 +3244,7 @@
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
     </row>
-    <row r="131" spans="2:5" ht="26" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B131" s="7" t="s">
         <v>252</v>
       </c>
@@ -3237,7 +3254,7 @@
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
     </row>
-    <row r="132" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B132" s="7" t="s">
         <v>254</v>
       </c>
@@ -3247,7 +3264,7 @@
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
     </row>
-    <row r="133" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B133" s="7" t="s">
         <v>256</v>
       </c>
@@ -3257,7 +3274,7 @@
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
     </row>
-    <row r="134" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B134" s="7" t="s">
         <v>258</v>
       </c>
@@ -3267,7 +3284,7 @@
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
     </row>
-    <row r="135" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B135" s="7" t="s">
         <v>260</v>
       </c>
@@ -3277,7 +3294,7 @@
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
     </row>
-    <row r="136" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B136" s="7" t="s">
         <v>262</v>
       </c>
@@ -3287,7 +3304,7 @@
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
     </row>
-    <row r="137" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B137" s="7" t="s">
         <v>264</v>
       </c>
@@ -3297,7 +3314,7 @@
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
     </row>
-    <row r="138" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B138" s="7" t="s">
         <v>266</v>
       </c>
@@ -3307,7 +3324,7 @@
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
     </row>
-    <row r="139" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B139" s="7" t="s">
         <v>268</v>
       </c>
@@ -3317,7 +3334,7 @@
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
     </row>
-    <row r="140" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B140" s="7" t="s">
         <v>270</v>
       </c>
@@ -3327,7 +3344,7 @@
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
     </row>
-    <row r="141" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B141" s="7" t="s">
         <v>272</v>
       </c>
@@ -3337,7 +3354,7 @@
       <c r="D141" s="8"/>
       <c r="E141" s="8"/>
     </row>
-    <row r="142" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B142" s="7" t="s">
         <v>274</v>
       </c>
@@ -3347,7 +3364,7 @@
       <c r="D142" s="8"/>
       <c r="E142" s="8"/>
     </row>
-    <row r="143" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B143" s="7" t="s">
         <v>276</v>
       </c>
@@ -3357,7 +3374,7 @@
       <c r="D143" s="8"/>
       <c r="E143" s="8"/>
     </row>
-    <row r="144" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B144" s="7" t="s">
         <v>278</v>
       </c>
@@ -3367,7 +3384,7 @@
       <c r="D144" s="8"/>
       <c r="E144" s="8"/>
     </row>
-    <row r="145" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B145" s="7" t="s">
         <v>280</v>
       </c>
@@ -3377,7 +3394,7 @@
       <c r="D145" s="8"/>
       <c r="E145" s="8"/>
     </row>
-    <row r="146" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B146" s="7" t="s">
         <v>282</v>
       </c>
@@ -3387,7 +3404,7 @@
       <c r="D146" s="8"/>
       <c r="E146" s="8"/>
     </row>
-    <row r="147" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B147" s="7" t="s">
         <v>284</v>
       </c>
@@ -3397,7 +3414,7 @@
       <c r="D147" s="8"/>
       <c r="E147" s="8"/>
     </row>
-    <row r="148" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B148" s="7" t="s">
         <v>286</v>
       </c>
@@ -3407,7 +3424,7 @@
       <c r="D148" s="8"/>
       <c r="E148" s="8"/>
     </row>
-    <row r="149" spans="2:5" ht="26" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B149" s="7" t="s">
         <v>288</v>
       </c>
@@ -3417,7 +3434,7 @@
       <c r="D149" s="8"/>
       <c r="E149" s="8"/>
     </row>
-    <row r="150" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B150" s="7" t="s">
         <v>290</v>
       </c>
@@ -3427,7 +3444,7 @@
       <c r="D150" s="8"/>
       <c r="E150" s="8"/>
     </row>
-    <row r="151" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B151" s="7" t="s">
         <v>292</v>
       </c>
@@ -3437,7 +3454,7 @@
       <c r="D151" s="8"/>
       <c r="E151" s="8"/>
     </row>
-    <row r="152" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B152" s="7" t="s">
         <v>294</v>
       </c>
@@ -3447,7 +3464,7 @@
       <c r="D152" s="8"/>
       <c r="E152" s="8"/>
     </row>
-    <row r="153" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B153" s="7" t="s">
         <v>296</v>
       </c>
@@ -3457,7 +3474,7 @@
       <c r="D153" s="8"/>
       <c r="E153" s="8"/>
     </row>
-    <row r="154" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B154" s="7" t="s">
         <v>298</v>
       </c>
@@ -3467,7 +3484,7 @@
       <c r="D154" s="8"/>
       <c r="E154" s="8"/>
     </row>
-    <row r="155" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B155" s="7" t="s">
         <v>300</v>
       </c>
@@ -3477,7 +3494,7 @@
       <c r="D155" s="8"/>
       <c r="E155" s="8"/>
     </row>
-    <row r="156" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B156" s="7" t="s">
         <v>302</v>
       </c>
@@ -3487,7 +3504,7 @@
       <c r="D156" s="8"/>
       <c r="E156" s="8"/>
     </row>
-    <row r="157" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B157" s="7" t="s">
         <v>304</v>
       </c>
@@ -3497,7 +3514,7 @@
       <c r="D157" s="8"/>
       <c r="E157" s="8"/>
     </row>
-    <row r="158" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B158" s="7" t="s">
         <v>306</v>
       </c>
@@ -3507,7 +3524,7 @@
       <c r="D158" s="8"/>
       <c r="E158" s="8"/>
     </row>
-    <row r="159" spans="2:5" ht="26" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B159" s="7" t="s">
         <v>308</v>
       </c>
@@ -3517,7 +3534,7 @@
       <c r="D159" s="8"/>
       <c r="E159" s="8"/>
     </row>
-    <row r="160" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B160" s="7" t="s">
         <v>310</v>
       </c>
@@ -3527,7 +3544,7 @@
       <c r="D160" s="8"/>
       <c r="E160" s="8"/>
     </row>
-    <row r="161" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B161" s="7" t="s">
         <v>312</v>
       </c>
@@ -3537,7 +3554,7 @@
       <c r="D161" s="8"/>
       <c r="E161" s="8"/>
     </row>
-    <row r="162" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B162" s="7" t="s">
         <v>314</v>
       </c>
@@ -3547,7 +3564,7 @@
       <c r="D162" s="8"/>
       <c r="E162" s="8"/>
     </row>
-    <row r="163" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B163" s="7" t="s">
         <v>316</v>
       </c>
@@ -3557,7 +3574,7 @@
       <c r="D163" s="8"/>
       <c r="E163" s="8"/>
     </row>
-    <row r="164" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B164" s="7" t="s">
         <v>318</v>
       </c>
@@ -3567,7 +3584,7 @@
       <c r="D164" s="8"/>
       <c r="E164" s="8"/>
     </row>
-    <row r="165" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B165" s="7" t="s">
         <v>320</v>
       </c>
@@ -3577,7 +3594,7 @@
       <c r="D165" s="8"/>
       <c r="E165" s="8"/>
     </row>
-    <row r="166" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B166" s="7" t="s">
         <v>322</v>
       </c>
@@ -3587,7 +3604,7 @@
       <c r="D166" s="8"/>
       <c r="E166" s="8"/>
     </row>
-    <row r="167" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B167" s="7" t="s">
         <v>324</v>
       </c>
@@ -3597,7 +3614,7 @@
       <c r="D167" s="8"/>
       <c r="E167" s="8"/>
     </row>
-    <row r="168" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B168" s="7" t="s">
         <v>326</v>
       </c>
@@ -3607,7 +3624,7 @@
       <c r="D168" s="8"/>
       <c r="E168" s="8"/>
     </row>
-    <row r="169" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B169" s="7" t="s">
         <v>328</v>
       </c>
@@ -3617,7 +3634,7 @@
       <c r="D169" s="8"/>
       <c r="E169" s="8"/>
     </row>
-    <row r="170" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B170" s="7" t="s">
         <v>330</v>
       </c>
@@ -3627,7 +3644,7 @@
       <c r="D170" s="8"/>
       <c r="E170" s="8"/>
     </row>
-    <row r="171" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B171" s="7" t="s">
         <v>332</v>
       </c>
@@ -3637,7 +3654,7 @@
       <c r="D171" s="8"/>
       <c r="E171" s="8"/>
     </row>
-    <row r="172" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B172" s="7" t="s">
         <v>334</v>
       </c>
@@ -3647,7 +3664,7 @@
       <c r="D172" s="8"/>
       <c r="E172" s="8"/>
     </row>
-    <row r="173" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B173" s="7" t="s">
         <v>336</v>
       </c>
@@ -3657,7 +3674,7 @@
       <c r="D173" s="8"/>
       <c r="E173" s="8"/>
     </row>
-    <row r="174" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B174" s="7" t="s">
         <v>338</v>
       </c>
@@ -3667,7 +3684,7 @@
       <c r="D174" s="8"/>
       <c r="E174" s="8"/>
     </row>
-    <row r="175" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B175" s="7" t="s">
         <v>340</v>
       </c>
@@ -3677,7 +3694,7 @@
       <c r="D175" s="8"/>
       <c r="E175" s="8"/>
     </row>
-    <row r="176" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B176" s="7" t="s">
         <v>342</v>
       </c>
@@ -3687,7 +3704,7 @@
       <c r="D176" s="8"/>
       <c r="E176" s="8"/>
     </row>
-    <row r="177" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B177" s="7" t="s">
         <v>344</v>
       </c>
@@ -3697,7 +3714,7 @@
       <c r="D177" s="8"/>
       <c r="E177" s="8"/>
     </row>
-    <row r="178" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B178" s="7" t="s">
         <v>346</v>
       </c>
@@ -3707,7 +3724,7 @@
       <c r="D178" s="8"/>
       <c r="E178" s="8"/>
     </row>
-    <row r="179" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B179" s="7" t="s">
         <v>348</v>
       </c>
@@ -3717,7 +3734,7 @@
       <c r="D179" s="8"/>
       <c r="E179" s="8"/>
     </row>
-    <row r="180" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B180" s="7" t="s">
         <v>350</v>
       </c>
@@ -3727,7 +3744,7 @@
       <c r="D180" s="8"/>
       <c r="E180" s="8"/>
     </row>
-    <row r="181" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B181" s="7" t="s">
         <v>352</v>
       </c>
@@ -3737,7 +3754,7 @@
       <c r="D181" s="8"/>
       <c r="E181" s="8"/>
     </row>
-    <row r="182" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B182" s="7" t="s">
         <v>354</v>
       </c>
@@ -3747,7 +3764,7 @@
       <c r="D182" s="8"/>
       <c r="E182" s="8"/>
     </row>
-    <row r="183" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B183" s="7" t="s">
         <v>356</v>
       </c>
@@ -3757,7 +3774,7 @@
       <c r="D183" s="8"/>
       <c r="E183" s="8"/>
     </row>
-    <row r="184" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B184" s="7" t="s">
         <v>363</v>
       </c>
@@ -3767,7 +3784,7 @@
       <c r="D184" s="8"/>
       <c r="E184" s="8"/>
     </row>
-    <row r="185" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B185" s="7" t="s">
         <v>365</v>
       </c>
@@ -3777,7 +3794,7 @@
       <c r="D185" s="8"/>
       <c r="E185" s="8"/>
     </row>
-    <row r="186" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B186" s="7" t="s">
         <v>367</v>
       </c>
@@ -3787,7 +3804,7 @@
       <c r="D186" s="8"/>
       <c r="E186" s="8"/>
     </row>
-    <row r="187" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B187" s="7" t="s">
         <v>369</v>
       </c>
@@ -3797,7 +3814,7 @@
       <c r="D187" s="8"/>
       <c r="E187" s="8"/>
     </row>
-    <row r="188" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B188" s="7" t="s">
         <v>371</v>
       </c>
@@ -3807,7 +3824,7 @@
       <c r="D188" s="8"/>
       <c r="E188" s="8"/>
     </row>
-    <row r="189" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B189" s="7" t="s">
         <v>373</v>
       </c>
@@ -3817,7 +3834,7 @@
       <c r="D189" s="8"/>
       <c r="E189" s="8"/>
     </row>
-    <row r="190" spans="2:5" ht="26" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B190" s="7" t="s">
         <v>375</v>
       </c>
@@ -3827,7 +3844,7 @@
       <c r="D190" s="8"/>
       <c r="E190" s="8"/>
     </row>
-    <row r="191" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B191" s="7" t="s">
         <v>377</v>
       </c>
@@ -3850,480 +3867,532 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78815AC8-C3A4-42A1-9CFB-16EE2CA78EFD}">
   <dimension ref="B3:F72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
-    <col min="2" max="2" width="3.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="58.81640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="92.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="8.7109375" style="1"/>
+    <col min="2" max="2" width="3.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="96.28515625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="14" t="s">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B3" s="13" t="s">
         <v>379</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="15" t="s">
         <v>380</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" s="9">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="16" t="s">
         <v>382</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="8"/>
+      <c r="E4" s="8" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" s="9">
         <v>2</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="16" t="s">
         <v>383</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="8"/>
+      <c r="E5" s="8" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" s="9">
         <v>3</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="8"/>
+      <c r="E6" s="8" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" s="9">
         <v>4</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="16" t="s">
         <v>385</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="8"/>
+      <c r="E7" s="8" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" s="9">
         <v>5</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="16" t="s">
         <v>386</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="8"/>
+      <c r="E8" s="8" t="s">
         <v>453</v>
       </c>
       <c r="F8" s="10"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" s="9">
         <v>6</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="16" t="s">
         <v>387</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="8"/>
+      <c r="E9" s="8" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" s="9">
         <v>7</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="16" t="s">
         <v>388</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="8"/>
+      <c r="E10" s="8" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" s="9">
         <v>8</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="16" t="s">
         <v>389</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="8"/>
+      <c r="E11" s="8" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" s="9">
         <v>9</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="16" t="s">
         <v>390</v>
       </c>
       <c r="D12" s="8"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" s="9">
         <v>10</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="16" t="s">
         <v>391</v>
       </c>
       <c r="D13" s="8"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" s="9">
         <v>11</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="16" t="s">
         <v>392</v>
       </c>
       <c r="D14" s="8"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" s="9">
         <v>12</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="16" t="s">
         <v>393</v>
       </c>
       <c r="D15" s="8"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16" s="9">
         <v>13</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="16" t="s">
         <v>394</v>
       </c>
       <c r="D16" s="8"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="9">
         <v>14</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="16" t="s">
         <v>395</v>
       </c>
       <c r="D17" s="8"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="9">
         <v>15</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="16" t="s">
         <v>396</v>
       </c>
       <c r="D18" s="8"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="9">
         <v>16</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="16" t="s">
         <v>397</v>
       </c>
       <c r="D19" s="8"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="9">
         <v>17</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="16" t="s">
         <v>398</v>
       </c>
       <c r="D20" s="8"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="9">
         <v>18</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="16" t="s">
         <v>399</v>
       </c>
       <c r="D21" s="8"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="9">
         <v>19</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="16" t="s">
         <v>400</v>
       </c>
       <c r="D22" s="8"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="9">
         <v>20</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="16" t="s">
         <v>401</v>
       </c>
       <c r="D23" s="8"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E23" s="8"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="9">
         <v>21</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="16" t="s">
         <v>402</v>
       </c>
       <c r="D24" s="8"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E24" s="8"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="9">
         <v>22</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="16" t="s">
         <v>403</v>
       </c>
       <c r="D25" s="8"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E25" s="8"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="9">
         <v>23</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="16" t="s">
         <v>404</v>
       </c>
       <c r="D26" s="8"/>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E26" s="8"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="9">
         <v>24</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="16" t="s">
         <v>405</v>
       </c>
       <c r="D27" s="8"/>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E27" s="8"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28" s="9">
         <v>25</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="16" t="s">
         <v>406</v>
       </c>
       <c r="D28" s="8"/>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E28" s="8"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" s="9">
         <v>26</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="16" t="s">
         <v>407</v>
       </c>
       <c r="D29" s="8"/>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E29" s="8"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30" s="9">
         <v>27</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="16" t="s">
         <v>408</v>
       </c>
       <c r="D30" s="8"/>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E30" s="8"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B31" s="9">
         <v>28</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="16" t="s">
         <v>409</v>
       </c>
       <c r="D31" s="8"/>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E31" s="8"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32" s="9">
         <v>29</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="16" t="s">
         <v>410</v>
       </c>
       <c r="D32" s="8"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E32" s="8"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33" s="9">
         <v>30</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="16" t="s">
         <v>411</v>
       </c>
       <c r="D33" s="8"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E33" s="8"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" s="9">
         <v>31</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="16" t="s">
         <v>412</v>
       </c>
       <c r="D34" s="8"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E34" s="8"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35" s="9">
         <v>32</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="16" t="s">
         <v>413</v>
       </c>
       <c r="D35" s="8"/>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E35" s="8"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36" s="9">
         <v>33</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="16" t="s">
         <v>414</v>
       </c>
       <c r="D36" s="8"/>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E36" s="8"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B37" s="9">
         <v>34</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="16" t="s">
         <v>415</v>
       </c>
       <c r="D37" s="8"/>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E37" s="8"/>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B38" s="9">
         <v>35</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="16" t="s">
         <v>416</v>
       </c>
       <c r="D38" s="8"/>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E38" s="8"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B39" s="9">
         <v>36</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="16" t="s">
         <v>417</v>
       </c>
       <c r="D39" s="8"/>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E39" s="8"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B40" s="9">
         <v>37</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="16" t="s">
         <v>418</v>
       </c>
       <c r="D40" s="8"/>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E40" s="8"/>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B41" s="9">
         <v>38</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="16" t="s">
         <v>419</v>
       </c>
       <c r="D41" s="8"/>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E41" s="8"/>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B42" s="9">
         <v>39</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="16" t="s">
         <v>420</v>
       </c>
       <c r="D42" s="8"/>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E42" s="8"/>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B43" s="9">
         <v>40</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="16" t="s">
         <v>421</v>
       </c>
       <c r="D43" s="8"/>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E43" s="8"/>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B44" s="9">
         <v>41</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="16" t="s">
         <v>422</v>
       </c>
       <c r="D44" s="8"/>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E44" s="8"/>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B45" s="9">
         <v>42</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="16" t="s">
         <v>423</v>
       </c>
       <c r="D45" s="8"/>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E45" s="8"/>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B46" s="9">
         <v>43</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="16" t="s">
         <v>424</v>
       </c>
       <c r="D46" s="8"/>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E46" s="8"/>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B47" s="9">
         <v>44</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="16" t="s">
         <v>425</v>
       </c>
       <c r="D47" s="8"/>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E47" s="8"/>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B48" s="9">
         <v>45</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="16" t="s">
         <v>426</v>
       </c>
       <c r="D48" s="8"/>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E48" s="8"/>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B49" s="9">
         <v>46</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="16" t="s">
         <v>427</v>
       </c>
       <c r="D49" s="8"/>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E49" s="8"/>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B50" s="9">
         <v>47</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C50" s="16" t="s">
         <v>428</v>
       </c>
       <c r="D50" s="8"/>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E50" s="8"/>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B51" s="9">
         <v>48</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="16" t="s">
         <v>429</v>
       </c>
       <c r="D51" s="8"/>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E51" s="8"/>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B52" s="9">
         <v>49</v>
       </c>
@@ -4331,8 +4400,9 @@
         <v>430</v>
       </c>
       <c r="D52" s="8"/>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E52" s="8"/>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B53" s="9">
         <v>50</v>
       </c>
@@ -4340,177 +4410,199 @@
         <v>431</v>
       </c>
       <c r="D53" s="8"/>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E53" s="8"/>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B54" s="9">
         <v>51</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C54" s="16" t="s">
         <v>432</v>
       </c>
       <c r="D54" s="8"/>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E54" s="8"/>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B55" s="9">
         <v>52</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C55" s="16" t="s">
         <v>433</v>
       </c>
       <c r="D55" s="8"/>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E55" s="8"/>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B56" s="9">
         <v>53</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C56" s="16" t="s">
         <v>434</v>
       </c>
       <c r="D56" s="8"/>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E56" s="8"/>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B57" s="9">
         <v>54</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C57" s="16" t="s">
         <v>435</v>
       </c>
       <c r="D57" s="8"/>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E57" s="8"/>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B58" s="9">
         <v>55</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C58" s="16" t="s">
         <v>436</v>
       </c>
       <c r="D58" s="8"/>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E58" s="8"/>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B59" s="9">
         <v>56</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C59" s="16" t="s">
         <v>437</v>
       </c>
       <c r="D59" s="8"/>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E59" s="8"/>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B60" s="9">
         <v>57</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C60" s="16" t="s">
         <v>438</v>
       </c>
       <c r="D60" s="8"/>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E60" s="8"/>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B61" s="9">
         <v>58</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C61" s="16" t="s">
         <v>439</v>
       </c>
       <c r="D61" s="8"/>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E61" s="8"/>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B62" s="9">
         <v>59</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C62" s="16" t="s">
         <v>440</v>
       </c>
       <c r="D62" s="8"/>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E62" s="8"/>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B63" s="9">
         <v>60</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C63" s="16" t="s">
         <v>441</v>
       </c>
       <c r="D63" s="8"/>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E63" s="8"/>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B64" s="9">
         <v>61</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="C64" s="16" t="s">
         <v>442</v>
       </c>
       <c r="D64" s="8"/>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E64" s="8"/>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B65" s="9">
         <v>62</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="C65" s="16" t="s">
         <v>443</v>
       </c>
       <c r="D65" s="8"/>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E65" s="8"/>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B66" s="9">
         <v>63</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C66" s="16" t="s">
         <v>444</v>
       </c>
       <c r="D66" s="8"/>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E66" s="8"/>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B67" s="9">
         <v>64</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C67" s="16" t="s">
         <v>445</v>
       </c>
       <c r="D67" s="8"/>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E67" s="8"/>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B68" s="9">
         <v>65</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="C68" s="16" t="s">
         <v>446</v>
       </c>
       <c r="D68" s="8"/>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E68" s="8"/>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B69" s="9">
         <v>66</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C69" s="16" t="s">
         <v>447</v>
       </c>
       <c r="D69" s="8"/>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E69" s="8"/>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B70" s="9">
         <v>67</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="C70" s="16" t="s">
         <v>448</v>
       </c>
-      <c r="D70" s="8"/>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D70" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="E70" s="8"/>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B71" s="9">
         <v>68</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="C71" s="16" t="s">
         <v>449</v>
       </c>
       <c r="D71" s="8"/>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E71" s="8"/>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B72" s="9">
         <v>69</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="C72" s="16" t="s">
         <v>450</v>
       </c>
       <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GLIK Domain Mapping.xlsx
+++ b/GLIK Domain Mapping.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toshiba\Documents\GitHub\GLIK-DM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01F4E38-1A42-486A-A403-FB729C021ABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D1321F-849F-4B52-91AD-1FCAF353C8FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{BC9BC3D9-6FF2-4CB4-96B2-33CE5FEE1DBD}"/>
   </bookViews>
   <sheets>
-    <sheet name="Domain Mapping" sheetId="1" r:id="rId1"/>
+    <sheet name="Fitur Item" sheetId="1" r:id="rId1"/>
     <sheet name="Mockup &amp; Table Mapping" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="459">
   <si>
     <t>Kode Fitur</t>
   </si>
@@ -1454,13 +1454,22 @@
     <t>GPRM.Bank, GPRM.Pengurus, BDL, RKABProfilBank, RKABPengurusProfilBank, RKABPeriodeProfilBank</t>
   </si>
   <si>
-    <t>GPRM.Bank, GPRM.Pengurus, BDL, RKABProfilBank, RKABDebiturHapusBuku</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
-    <t>GPRM.Bank, GPRM.Pengurus, FiturUmum.Repository, BDL, PembubaranBadanHukum, DocBadanHukum, MasterStatus</t>
+    <t>GPRM.Bank, GPRM.Pengurus, FiturUmum.Repository, BDL, RKABProfilBank, PembubaranBadanHukum, DocBadanHukum, MasterStatus</t>
+  </si>
+  <si>
+    <t>GPRM.Bank, GPRM.Pengurus, BDL, RKABProfilBank, RKABPengurusProfilBank, RKABPeriodeProfilBank, HistoryGPDanTunjangan, TotalHistoryGPDanTunjangan</t>
+  </si>
+  <si>
+    <t>GPRM.Bank, GPRM.Pengurus, BDL, RKABProfilBank, RKABPengurusProfilBank, PembayaranKewajibanPegawai, TotalKewajibanDanPesangon</t>
+  </si>
+  <si>
+    <t>GPRM.Bank, GPRM.Pengurus, BDL, RKABProfilBank, RKABPengurusProfilBank, PembayaranKewajibanPegawai, TotalKewajibanDanPesangon, PerhitunganPesangon</t>
+  </si>
+  <si>
+    <t>GPRM.Bank, GPRM.Pengurus, BDL, RKABProfilBank, RKABDebiturDanHapusBuku</t>
   </si>
 </sst>
 </file>
@@ -1603,10 +1612,10 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1926,7 +1935,7 @@
   <dimension ref="B2:E191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E2"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2754,7 +2763,7 @@
       <c r="E82" s="8"/>
     </row>
     <row r="83" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="13" t="s">
+      <c r="B83" s="14" t="s">
         <v>164</v>
       </c>
       <c r="C83" s="3" t="s">
@@ -2764,7 +2773,7 @@
       <c r="E83" s="8"/>
     </row>
     <row r="84" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="13"/>
+      <c r="B84" s="14"/>
       <c r="C84" s="4" t="s">
         <v>359</v>
       </c>
@@ -2772,7 +2781,7 @@
       <c r="E84" s="8"/>
     </row>
     <row r="85" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="13"/>
+      <c r="B85" s="14"/>
       <c r="C85" s="4" t="s">
         <v>360</v>
       </c>
@@ -2780,7 +2789,7 @@
       <c r="E85" s="8"/>
     </row>
     <row r="86" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="13"/>
+      <c r="B86" s="14"/>
       <c r="C86" s="4" t="s">
         <v>361</v>
       </c>
@@ -3848,10 +3857,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78815AC8-C3A4-42A1-9CFB-16EE2CA78EFD}">
-  <dimension ref="B3:F72"/>
+  <dimension ref="B3:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -3859,658 +3868,747 @@
     <col min="1" max="1" width="8.7265625" style="1"/>
     <col min="2" max="2" width="3.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="58.81640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="92.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.7265625" style="1"/>
+    <col min="4" max="4" width="8.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="125.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="14" t="s">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="13" t="s">
         <v>379</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>380</v>
       </c>
       <c r="D3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="9">
         <v>1</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="9"/>
+      <c r="E4" s="8" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="9">
         <v>2</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>383</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="9"/>
+      <c r="E5" s="8" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="9">
         <v>3</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="9"/>
+      <c r="E6" s="8" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="9">
         <v>4</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>385</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D7" s="9"/>
+      <c r="E7" s="8" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="9">
         <v>5</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>453</v>
-      </c>
-      <c r="F8" s="10"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D8" s="9"/>
+      <c r="E8" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="9">
         <v>6</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>387</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D9" s="9"/>
+      <c r="E9" s="8" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="9">
         <v>7</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D10" s="9"/>
+      <c r="E10" s="8" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="9">
         <v>8</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>389</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D11" s="9"/>
+      <c r="E11" s="8" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="9">
         <v>9</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>390</v>
       </c>
-      <c r="D12" s="8"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D12" s="9"/>
+      <c r="E12" s="8" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="9">
         <v>10</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>391</v>
       </c>
-      <c r="D13" s="8"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D13" s="9"/>
+      <c r="E13" s="8" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="9">
         <v>11</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>392</v>
       </c>
-      <c r="D14" s="8"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D14" s="9"/>
+      <c r="E14" s="8" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="9">
         <v>12</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>393</v>
       </c>
-      <c r="D15" s="8"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D15" s="9"/>
+      <c r="E15" s="8" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" s="9">
         <v>13</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="D16" s="8"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D16" s="9"/>
+      <c r="E16" s="8" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="9">
         <v>14</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="D17" s="8"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D17" s="9"/>
+      <c r="E17" s="8" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="9">
         <v>15</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>396</v>
       </c>
-      <c r="D18" s="8"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D18" s="9"/>
+      <c r="E18" s="8" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="9">
         <v>16</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>397</v>
       </c>
-      <c r="D19" s="8"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D19" s="9"/>
+      <c r="E19" s="8" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="9">
         <v>17</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>398</v>
       </c>
-      <c r="D20" s="8"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D20" s="9"/>
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="9">
         <v>18</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>399</v>
       </c>
-      <c r="D21" s="8"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D21" s="9"/>
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="9">
         <v>19</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="D22" s="8"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D22" s="9"/>
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="9">
         <v>20</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>401</v>
       </c>
-      <c r="D23" s="8"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D23" s="9"/>
+      <c r="E23" s="8"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="9">
         <v>21</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>402</v>
       </c>
-      <c r="D24" s="8"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D24" s="9"/>
+      <c r="E24" s="8"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="9">
         <v>22</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>403</v>
       </c>
-      <c r="D25" s="8"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D25" s="9"/>
+      <c r="E25" s="8"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="9">
         <v>23</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>404</v>
       </c>
-      <c r="D26" s="8"/>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D26" s="9"/>
+      <c r="E26" s="8"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="9">
         <v>24</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="D27" s="8"/>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D27" s="9"/>
+      <c r="E27" s="8"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="9">
         <v>25</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>406</v>
       </c>
-      <c r="D28" s="8"/>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D28" s="9"/>
+      <c r="E28" s="8"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" s="9">
         <v>26</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>407</v>
       </c>
-      <c r="D29" s="8"/>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D29" s="9"/>
+      <c r="E29" s="8"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" s="9">
         <v>27</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>408</v>
       </c>
-      <c r="D30" s="8"/>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D30" s="9"/>
+      <c r="E30" s="8"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B31" s="9">
         <v>28</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>409</v>
       </c>
-      <c r="D31" s="8"/>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D31" s="9"/>
+      <c r="E31" s="8"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B32" s="9">
         <v>29</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>410</v>
       </c>
-      <c r="D32" s="8"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D32" s="9"/>
+      <c r="E32" s="8"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" s="9">
         <v>30</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>411</v>
       </c>
-      <c r="D33" s="8"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D33" s="9"/>
+      <c r="E33" s="8"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34" s="9">
         <v>31</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>412</v>
       </c>
-      <c r="D34" s="8"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D34" s="9"/>
+      <c r="E34" s="8"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" s="9">
         <v>32</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>413</v>
       </c>
-      <c r="D35" s="8"/>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D35" s="9"/>
+      <c r="E35" s="8"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36" s="9">
         <v>33</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>414</v>
       </c>
-      <c r="D36" s="8"/>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D36" s="9"/>
+      <c r="E36" s="8"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37" s="9">
         <v>34</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>415</v>
       </c>
-      <c r="D37" s="8"/>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D37" s="9"/>
+      <c r="E37" s="8"/>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38" s="9">
         <v>35</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>416</v>
       </c>
-      <c r="D38" s="8"/>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D38" s="9"/>
+      <c r="E38" s="8"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B39" s="9">
         <v>36</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="D39" s="8"/>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D39" s="9"/>
+      <c r="E39" s="8"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B40" s="9">
         <v>37</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>418</v>
       </c>
-      <c r="D40" s="8"/>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D40" s="9"/>
+      <c r="E40" s="8"/>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B41" s="9">
         <v>38</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="D41" s="8"/>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D41" s="9"/>
+      <c r="E41" s="8"/>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B42" s="9">
         <v>39</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>420</v>
       </c>
-      <c r="D42" s="8"/>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D42" s="9"/>
+      <c r="E42" s="8"/>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B43" s="9">
         <v>40</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>421</v>
       </c>
-      <c r="D43" s="8"/>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D43" s="9"/>
+      <c r="E43" s="8"/>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B44" s="9">
         <v>41</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>422</v>
       </c>
-      <c r="D44" s="8"/>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D44" s="9"/>
+      <c r="E44" s="8"/>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B45" s="9">
         <v>42</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>423</v>
       </c>
-      <c r="D45" s="8"/>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D45" s="9"/>
+      <c r="E45" s="8"/>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B46" s="9">
         <v>43</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>424</v>
       </c>
-      <c r="D46" s="8"/>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D46" s="9"/>
+      <c r="E46" s="8"/>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B47" s="9">
         <v>44</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>425</v>
       </c>
-      <c r="D47" s="8"/>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D47" s="9"/>
+      <c r="E47" s="8"/>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B48" s="9">
         <v>45</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>426</v>
       </c>
-      <c r="D48" s="8"/>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D48" s="9"/>
+      <c r="E48" s="8"/>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B49" s="9">
         <v>46</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>427</v>
       </c>
-      <c r="D49" s="8"/>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D49" s="9"/>
+      <c r="E49" s="8"/>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B50" s="9">
         <v>47</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>428</v>
       </c>
-      <c r="D50" s="8"/>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D50" s="9"/>
+      <c r="E50" s="8"/>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B51" s="9">
         <v>48</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>429</v>
       </c>
-      <c r="D51" s="8"/>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D51" s="9"/>
+      <c r="E51" s="8"/>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B52" s="9">
         <v>49</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="8" t="s">
         <v>430</v>
       </c>
-      <c r="D52" s="8"/>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D52" s="9"/>
+      <c r="E52" s="8"/>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B53" s="9">
         <v>50</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="8" t="s">
         <v>431</v>
       </c>
-      <c r="D53" s="8"/>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D53" s="9"/>
+      <c r="E53" s="8"/>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B54" s="9">
         <v>51</v>
       </c>
       <c r="C54" s="8" t="s">
         <v>432</v>
       </c>
-      <c r="D54" s="8"/>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D54" s="9"/>
+      <c r="E54" s="8"/>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B55" s="9">
         <v>52</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>433</v>
       </c>
-      <c r="D55" s="8"/>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D55" s="9"/>
+      <c r="E55" s="8"/>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B56" s="9">
         <v>53</v>
       </c>
       <c r="C56" s="8" t="s">
         <v>434</v>
       </c>
-      <c r="D56" s="8"/>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D56" s="9"/>
+      <c r="E56" s="8"/>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B57" s="9">
         <v>54</v>
       </c>
       <c r="C57" s="8" t="s">
         <v>435</v>
       </c>
-      <c r="D57" s="8"/>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D57" s="9"/>
+      <c r="E57" s="8"/>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B58" s="9">
         <v>55</v>
       </c>
       <c r="C58" s="8" t="s">
         <v>436</v>
       </c>
-      <c r="D58" s="8"/>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D58" s="9"/>
+      <c r="E58" s="8"/>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B59" s="9">
         <v>56</v>
       </c>
       <c r="C59" s="8" t="s">
         <v>437</v>
       </c>
-      <c r="D59" s="8"/>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D59" s="9"/>
+      <c r="E59" s="8"/>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B60" s="9">
         <v>57</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="D60" s="8"/>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D60" s="9"/>
+      <c r="E60" s="8"/>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B61" s="9">
         <v>58</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>439</v>
       </c>
-      <c r="D61" s="8"/>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D61" s="9"/>
+      <c r="E61" s="8"/>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B62" s="9">
         <v>59</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>440</v>
       </c>
-      <c r="D62" s="8"/>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D62" s="9"/>
+      <c r="E62" s="8"/>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B63" s="9">
         <v>60</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>441</v>
       </c>
-      <c r="D63" s="8"/>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D63" s="9"/>
+      <c r="E63" s="8"/>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B64" s="9">
         <v>61</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>442</v>
       </c>
-      <c r="D64" s="8"/>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D64" s="9"/>
+      <c r="E64" s="8"/>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B65" s="9">
         <v>62</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>443</v>
       </c>
-      <c r="D65" s="8"/>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D65" s="9"/>
+      <c r="E65" s="8"/>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B66" s="9">
         <v>63</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>444</v>
       </c>
-      <c r="D66" s="8"/>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D66" s="9"/>
+      <c r="E66" s="8"/>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B67" s="9">
         <v>64</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="D67" s="8"/>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D67" s="9"/>
+      <c r="E67" s="8"/>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B68" s="9">
         <v>65</v>
       </c>
       <c r="C68" s="8" t="s">
         <v>446</v>
       </c>
-      <c r="D68" s="8"/>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D68" s="9"/>
+      <c r="E68" s="8"/>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B69" s="9">
         <v>66</v>
       </c>
       <c r="C69" s="8" t="s">
         <v>447</v>
       </c>
-      <c r="D69" s="8"/>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D69" s="9"/>
+      <c r="E69" s="8"/>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B70" s="9">
         <v>67</v>
       </c>
       <c r="C70" s="8" t="s">
         <v>448</v>
       </c>
-      <c r="D70" s="8"/>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D70" s="9"/>
+      <c r="E70" s="8"/>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B71" s="9">
         <v>68</v>
       </c>
       <c r="C71" s="8" t="s">
         <v>449</v>
       </c>
-      <c r="D71" s="8"/>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D71" s="9"/>
+      <c r="E71" s="8"/>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B72" s="9">
         <v>69</v>
       </c>
       <c r="C72" s="8" t="s">
         <v>450</v>
       </c>
-      <c r="D72" s="8"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GLIK Domain Mapping.xlsx
+++ b/GLIK Domain Mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dimas\Downloads\LPS GLIK\GLIK-DM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0894063-CDAE-4283-97B0-79977DA0FB57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69797A3B-D2D1-4256-8151-037BDFF7E828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{BC9BC3D9-6FF2-4CB4-96B2-33CE5FEE1DBD}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="456">
   <si>
     <t>Kode Fitur</t>
   </si>
@@ -1619,13 +1619,13 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2771,7 +2771,7 @@
       <c r="E82" s="8"/>
     </row>
     <row r="83" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="14" t="s">
+      <c r="B83" s="16" t="s">
         <v>164</v>
       </c>
       <c r="C83" s="3" t="s">
@@ -2781,7 +2781,7 @@
       <c r="E83" s="8"/>
     </row>
     <row r="84" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B84" s="14"/>
+      <c r="B84" s="16"/>
       <c r="C84" s="4" t="s">
         <v>359</v>
       </c>
@@ -2789,7 +2789,7 @@
       <c r="E84" s="8"/>
     </row>
     <row r="85" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B85" s="14"/>
+      <c r="B85" s="16"/>
       <c r="C85" s="4" t="s">
         <v>360</v>
       </c>
@@ -2797,7 +2797,7 @@
       <c r="E85" s="8"/>
     </row>
     <row r="86" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B86" s="14"/>
+      <c r="B86" s="16"/>
       <c r="C86" s="4" t="s">
         <v>361</v>
       </c>
@@ -3867,8 +3867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78815AC8-C3A4-42A1-9CFB-16EE2CA78EFD}">
   <dimension ref="B3:F72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3885,10 +3885,10 @@
       <c r="B3" s="13" t="s">
         <v>379</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>380</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="14" t="s">
         <v>0</v>
       </c>
       <c r="E3" s="11" t="s">
@@ -3899,7 +3899,7 @@
       <c r="B4" s="9">
         <v>1</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="15" t="s">
         <v>382</v>
       </c>
       <c r="D4" s="8"/>
@@ -3911,7 +3911,7 @@
       <c r="B5" s="9">
         <v>2</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="15" t="s">
         <v>383</v>
       </c>
       <c r="D5" s="8"/>
@@ -3923,7 +3923,7 @@
       <c r="B6" s="9">
         <v>3</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="15" t="s">
         <v>384</v>
       </c>
       <c r="D6" s="8"/>
@@ -3935,7 +3935,7 @@
       <c r="B7" s="9">
         <v>4</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="15" t="s">
         <v>385</v>
       </c>
       <c r="D7" s="8"/>
@@ -3947,7 +3947,7 @@
       <c r="B8" s="9">
         <v>5</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="15" t="s">
         <v>386</v>
       </c>
       <c r="D8" s="8"/>
@@ -3960,7 +3960,7 @@
       <c r="B9" s="9">
         <v>6</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="15" t="s">
         <v>387</v>
       </c>
       <c r="D9" s="8"/>
@@ -3972,7 +3972,7 @@
       <c r="B10" s="9">
         <v>7</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="15" t="s">
         <v>388</v>
       </c>
       <c r="D10" s="8"/>
@@ -3984,7 +3984,7 @@
       <c r="B11" s="9">
         <v>8</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="15" t="s">
         <v>389</v>
       </c>
       <c r="D11" s="8"/>
@@ -3996,7 +3996,7 @@
       <c r="B12" s="9">
         <v>9</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="15" t="s">
         <v>390</v>
       </c>
       <c r="D12" s="8"/>
@@ -4006,7 +4006,7 @@
       <c r="B13" s="9">
         <v>10</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="15" t="s">
         <v>391</v>
       </c>
       <c r="D13" s="8"/>
@@ -4016,7 +4016,7 @@
       <c r="B14" s="9">
         <v>11</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="15" t="s">
         <v>392</v>
       </c>
       <c r="D14" s="8"/>
@@ -4026,7 +4026,7 @@
       <c r="B15" s="9">
         <v>12</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="15" t="s">
         <v>393</v>
       </c>
       <c r="D15" s="8"/>
@@ -4036,7 +4036,7 @@
       <c r="B16" s="9">
         <v>13</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="15" t="s">
         <v>394</v>
       </c>
       <c r="D16" s="8"/>
@@ -4046,7 +4046,7 @@
       <c r="B17" s="9">
         <v>14</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="15" t="s">
         <v>395</v>
       </c>
       <c r="D17" s="8"/>
@@ -4056,7 +4056,7 @@
       <c r="B18" s="9">
         <v>15</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="15" t="s">
         <v>396</v>
       </c>
       <c r="D18" s="8"/>
@@ -4066,7 +4066,7 @@
       <c r="B19" s="9">
         <v>16</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="15" t="s">
         <v>397</v>
       </c>
       <c r="D19" s="8"/>
@@ -4076,7 +4076,7 @@
       <c r="B20" s="9">
         <v>17</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="15" t="s">
         <v>398</v>
       </c>
       <c r="D20" s="8"/>
@@ -4086,7 +4086,7 @@
       <c r="B21" s="9">
         <v>18</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="15" t="s">
         <v>399</v>
       </c>
       <c r="D21" s="8"/>
@@ -4096,7 +4096,7 @@
       <c r="B22" s="9">
         <v>19</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="15" t="s">
         <v>400</v>
       </c>
       <c r="D22" s="8"/>
@@ -4106,7 +4106,7 @@
       <c r="B23" s="9">
         <v>20</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="15" t="s">
         <v>401</v>
       </c>
       <c r="D23" s="8"/>
@@ -4116,7 +4116,7 @@
       <c r="B24" s="9">
         <v>21</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="15" t="s">
         <v>402</v>
       </c>
       <c r="D24" s="8"/>
@@ -4126,7 +4126,7 @@
       <c r="B25" s="9">
         <v>22</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="15" t="s">
         <v>403</v>
       </c>
       <c r="D25" s="8"/>
@@ -4136,7 +4136,7 @@
       <c r="B26" s="9">
         <v>23</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="15" t="s">
         <v>404</v>
       </c>
       <c r="D26" s="8"/>
@@ -4146,7 +4146,7 @@
       <c r="B27" s="9">
         <v>24</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="15" t="s">
         <v>405</v>
       </c>
       <c r="D27" s="8"/>
@@ -4156,7 +4156,7 @@
       <c r="B28" s="9">
         <v>25</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="15" t="s">
         <v>406</v>
       </c>
       <c r="D28" s="8"/>
@@ -4166,7 +4166,7 @@
       <c r="B29" s="9">
         <v>26</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="15" t="s">
         <v>407</v>
       </c>
       <c r="D29" s="8"/>
@@ -4176,7 +4176,7 @@
       <c r="B30" s="9">
         <v>27</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="15" t="s">
         <v>408</v>
       </c>
       <c r="D30" s="8"/>
@@ -4186,7 +4186,7 @@
       <c r="B31" s="9">
         <v>28</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="15" t="s">
         <v>409</v>
       </c>
       <c r="D31" s="8"/>
@@ -4196,7 +4196,7 @@
       <c r="B32" s="9">
         <v>29</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C32" s="15" t="s">
         <v>410</v>
       </c>
       <c r="D32" s="8"/>
@@ -4206,7 +4206,7 @@
       <c r="B33" s="9">
         <v>30</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C33" s="15" t="s">
         <v>411</v>
       </c>
       <c r="D33" s="8"/>
@@ -4216,7 +4216,7 @@
       <c r="B34" s="9">
         <v>31</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C34" s="15" t="s">
         <v>412</v>
       </c>
       <c r="D34" s="8"/>
@@ -4226,7 +4226,7 @@
       <c r="B35" s="9">
         <v>32</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="C35" s="15" t="s">
         <v>413</v>
       </c>
       <c r="D35" s="8"/>
@@ -4236,7 +4236,7 @@
       <c r="B36" s="9">
         <v>33</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="C36" s="15" t="s">
         <v>414</v>
       </c>
       <c r="D36" s="8"/>
@@ -4246,7 +4246,7 @@
       <c r="B37" s="9">
         <v>34</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C37" s="15" t="s">
         <v>415</v>
       </c>
       <c r="D37" s="8"/>
@@ -4256,7 +4256,7 @@
       <c r="B38" s="9">
         <v>35</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="C38" s="15" t="s">
         <v>416</v>
       </c>
       <c r="D38" s="8"/>
@@ -4266,7 +4266,7 @@
       <c r="B39" s="9">
         <v>36</v>
       </c>
-      <c r="C39" s="16" t="s">
+      <c r="C39" s="15" t="s">
         <v>417</v>
       </c>
       <c r="D39" s="8"/>
@@ -4276,7 +4276,7 @@
       <c r="B40" s="9">
         <v>37</v>
       </c>
-      <c r="C40" s="16" t="s">
+      <c r="C40" s="15" t="s">
         <v>418</v>
       </c>
       <c r="D40" s="8"/>
@@ -4286,7 +4286,7 @@
       <c r="B41" s="9">
         <v>38</v>
       </c>
-      <c r="C41" s="16" t="s">
+      <c r="C41" s="15" t="s">
         <v>419</v>
       </c>
       <c r="D41" s="8"/>
@@ -4296,7 +4296,7 @@
       <c r="B42" s="9">
         <v>39</v>
       </c>
-      <c r="C42" s="16" t="s">
+      <c r="C42" s="15" t="s">
         <v>420</v>
       </c>
       <c r="D42" s="8"/>
@@ -4306,7 +4306,7 @@
       <c r="B43" s="9">
         <v>40</v>
       </c>
-      <c r="C43" s="16" t="s">
+      <c r="C43" s="15" t="s">
         <v>421</v>
       </c>
       <c r="D43" s="8"/>
@@ -4316,7 +4316,7 @@
       <c r="B44" s="9">
         <v>41</v>
       </c>
-      <c r="C44" s="16" t="s">
+      <c r="C44" s="15" t="s">
         <v>422</v>
       </c>
       <c r="D44" s="8"/>
@@ -4326,7 +4326,7 @@
       <c r="B45" s="9">
         <v>42</v>
       </c>
-      <c r="C45" s="16" t="s">
+      <c r="C45" s="15" t="s">
         <v>423</v>
       </c>
       <c r="D45" s="8"/>
@@ -4336,7 +4336,7 @@
       <c r="B46" s="9">
         <v>43</v>
       </c>
-      <c r="C46" s="16" t="s">
+      <c r="C46" s="15" t="s">
         <v>424</v>
       </c>
       <c r="D46" s="8"/>
@@ -4346,7 +4346,7 @@
       <c r="B47" s="9">
         <v>44</v>
       </c>
-      <c r="C47" s="16" t="s">
+      <c r="C47" s="15" t="s">
         <v>425</v>
       </c>
       <c r="D47" s="8"/>
@@ -4356,7 +4356,7 @@
       <c r="B48" s="9">
         <v>45</v>
       </c>
-      <c r="C48" s="16" t="s">
+      <c r="C48" s="15" t="s">
         <v>426</v>
       </c>
       <c r="D48" s="8"/>
@@ -4366,7 +4366,7 @@
       <c r="B49" s="9">
         <v>46</v>
       </c>
-      <c r="C49" s="16" t="s">
+      <c r="C49" s="15" t="s">
         <v>427</v>
       </c>
       <c r="D49" s="8"/>
@@ -4376,7 +4376,7 @@
       <c r="B50" s="9">
         <v>47</v>
       </c>
-      <c r="C50" s="16" t="s">
+      <c r="C50" s="15" t="s">
         <v>428</v>
       </c>
       <c r="D50" s="8"/>
@@ -4386,7 +4386,7 @@
       <c r="B51" s="9">
         <v>48</v>
       </c>
-      <c r="C51" s="16" t="s">
+      <c r="C51" s="15" t="s">
         <v>429</v>
       </c>
       <c r="D51" s="8"/>
@@ -4416,7 +4416,7 @@
       <c r="B54" s="9">
         <v>51</v>
       </c>
-      <c r="C54" s="16" t="s">
+      <c r="C54" s="15" t="s">
         <v>432</v>
       </c>
       <c r="D54" s="8"/>
@@ -4426,7 +4426,7 @@
       <c r="B55" s="9">
         <v>52</v>
       </c>
-      <c r="C55" s="16" t="s">
+      <c r="C55" s="15" t="s">
         <v>433</v>
       </c>
       <c r="D55" s="8"/>
@@ -4436,7 +4436,7 @@
       <c r="B56" s="9">
         <v>53</v>
       </c>
-      <c r="C56" s="16" t="s">
+      <c r="C56" s="15" t="s">
         <v>434</v>
       </c>
       <c r="D56" s="8"/>
@@ -4446,7 +4446,7 @@
       <c r="B57" s="9">
         <v>54</v>
       </c>
-      <c r="C57" s="16" t="s">
+      <c r="C57" s="15" t="s">
         <v>435</v>
       </c>
       <c r="D57" s="8"/>
@@ -4456,7 +4456,7 @@
       <c r="B58" s="9">
         <v>55</v>
       </c>
-      <c r="C58" s="16" t="s">
+      <c r="C58" s="15" t="s">
         <v>436</v>
       </c>
       <c r="D58" s="8"/>
@@ -4466,7 +4466,7 @@
       <c r="B59" s="9">
         <v>56</v>
       </c>
-      <c r="C59" s="16" t="s">
+      <c r="C59" s="15" t="s">
         <v>437</v>
       </c>
       <c r="D59" s="8"/>
@@ -4476,7 +4476,7 @@
       <c r="B60" s="9">
         <v>57</v>
       </c>
-      <c r="C60" s="16" t="s">
+      <c r="C60" s="15" t="s">
         <v>438</v>
       </c>
       <c r="D60" s="8"/>
@@ -4486,7 +4486,7 @@
       <c r="B61" s="9">
         <v>58</v>
       </c>
-      <c r="C61" s="16" t="s">
+      <c r="C61" s="15" t="s">
         <v>439</v>
       </c>
       <c r="D61" s="8"/>
@@ -4496,7 +4496,7 @@
       <c r="B62" s="9">
         <v>59</v>
       </c>
-      <c r="C62" s="16" t="s">
+      <c r="C62" s="15" t="s">
         <v>440</v>
       </c>
       <c r="D62" s="8"/>
@@ -4506,7 +4506,7 @@
       <c r="B63" s="9">
         <v>60</v>
       </c>
-      <c r="C63" s="16" t="s">
+      <c r="C63" s="15" t="s">
         <v>441</v>
       </c>
       <c r="D63" s="8"/>
@@ -4516,7 +4516,7 @@
       <c r="B64" s="9">
         <v>61</v>
       </c>
-      <c r="C64" s="16" t="s">
+      <c r="C64" s="15" t="s">
         <v>442</v>
       </c>
       <c r="D64" s="8"/>
@@ -4526,7 +4526,7 @@
       <c r="B65" s="9">
         <v>62</v>
       </c>
-      <c r="C65" s="16" t="s">
+      <c r="C65" s="15" t="s">
         <v>443</v>
       </c>
       <c r="D65" s="8"/>
@@ -4536,7 +4536,7 @@
       <c r="B66" s="9">
         <v>63</v>
       </c>
-      <c r="C66" s="16" t="s">
+      <c r="C66" s="15" t="s">
         <v>444</v>
       </c>
       <c r="D66" s="8"/>
@@ -4546,7 +4546,7 @@
       <c r="B67" s="9">
         <v>64</v>
       </c>
-      <c r="C67" s="16" t="s">
+      <c r="C67" s="15" t="s">
         <v>445</v>
       </c>
       <c r="D67" s="8"/>
@@ -4556,7 +4556,7 @@
       <c r="B68" s="9">
         <v>65</v>
       </c>
-      <c r="C68" s="16" t="s">
+      <c r="C68" s="15" t="s">
         <v>446</v>
       </c>
       <c r="D68" s="8"/>
@@ -4566,17 +4566,19 @@
       <c r="B69" s="9">
         <v>66</v>
       </c>
-      <c r="C69" s="16" t="s">
+      <c r="C69" s="15" t="s">
         <v>447</v>
       </c>
-      <c r="D69" s="8"/>
+      <c r="D69" s="8" t="s">
+        <v>352</v>
+      </c>
       <c r="E69" s="8"/>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B70" s="9">
         <v>67</v>
       </c>
-      <c r="C70" s="16" t="s">
+      <c r="C70" s="15" t="s">
         <v>448</v>
       </c>
       <c r="D70" s="8" t="s">
@@ -4588,7 +4590,7 @@
       <c r="B71" s="9">
         <v>68</v>
       </c>
-      <c r="C71" s="16" t="s">
+      <c r="C71" s="15" t="s">
         <v>449</v>
       </c>
       <c r="D71" s="8"/>
@@ -4598,7 +4600,7 @@
       <c r="B72" s="9">
         <v>69</v>
       </c>
-      <c r="C72" s="16" t="s">
+      <c r="C72" s="15" t="s">
         <v>450</v>
       </c>
       <c r="D72" s="8"/>

--- a/GLIK Domain Mapping.xlsx
+++ b/GLIK Domain Mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toshiba\Documents\GitHub\GLIK-DM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D1321F-849F-4B52-91AD-1FCAF353C8FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815366D8-A7C2-4AC6-907D-9F2567F8BA19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{BC9BC3D9-6FF2-4CB4-96B2-33CE5FEE1DBD}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="460">
   <si>
     <t>Kode Fitur</t>
   </si>
@@ -1460,16 +1460,30 @@
     <t>GPRM.Bank, GPRM.Pengurus, FiturUmum.Repository, BDL, RKABProfilBank, PembubaranBadanHukum, DocBadanHukum, MasterStatus</t>
   </si>
   <si>
-    <t>GPRM.Bank, GPRM.Pengurus, BDL, RKABProfilBank, RKABPengurusProfilBank, RKABPeriodeProfilBank, HistoryGPDanTunjangan, TotalHistoryGPDanTunjangan</t>
-  </si>
-  <si>
-    <t>GPRM.Bank, GPRM.Pengurus, BDL, RKABProfilBank, RKABPengurusProfilBank, PembayaranKewajibanPegawai, TotalKewajibanDanPesangon</t>
-  </si>
-  <si>
-    <t>GPRM.Bank, GPRM.Pengurus, BDL, RKABProfilBank, RKABPengurusProfilBank, PembayaranKewajibanPegawai, TotalKewajibanDanPesangon, PerhitunganPesangon</t>
-  </si>
-  <si>
     <t>GPRM.Bank, GPRM.Pengurus, BDL, RKABProfilBank, RKABDebiturDanHapusBuku</t>
+  </si>
+  <si>
+    <t>GPRM.Bank, GPRM.Pengurus, RKABProfilBank, BDL, RKABPengurusProfilBank, RKABPeriodeProfilBank, HistoryGPDanTunjangan, TotalHistoryGPDanTunjangan</t>
+  </si>
+  <si>
+    <t>GPRM.Bank, GPRM.Pengurus, RKABProfilBank, BDL, RKABPengurusProfilBank, PembayaranKewajibanPegawai, TotalKewajibanDanPesangon</t>
+  </si>
+  <si>
+    <t>GPRM.Bank, GPRM.Pengurus, RKABProfilBank, BDL, RKABPengurusProfilBank, PembayaranKewajibanPegawai, TotalKewajibanDanPesangon, PerhitunganPesangon</t>
+  </si>
+  <si>
+    <r>
+      <t>GPRM.Bank, GPRM.Pengurus, B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DL, RKABProfilBank, RKABDebiturDanHapusBuku</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -3859,8 +3873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78815AC8-C3A4-42A1-9CFB-16EE2CA78EFD}">
   <dimension ref="B3:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -3932,7 +3946,7 @@
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="8" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
@@ -3944,7 +3958,7 @@
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="8" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="G8" s="10"/>
     </row>
@@ -3957,7 +3971,7 @@
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="8" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
@@ -4029,7 +4043,7 @@
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="8" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
@@ -4041,7 +4055,7 @@
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="8" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
@@ -4053,7 +4067,7 @@
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="8" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
@@ -4065,7 +4079,7 @@
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="8" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
@@ -4077,7 +4091,7 @@
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="8" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
@@ -4612,5 +4626,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/GLIK Domain Mapping.xlsx
+++ b/GLIK Domain Mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toshiba\Documents\GitHub\GLIK-DM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815366D8-A7C2-4AC6-907D-9F2567F8BA19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFFE4F68-2CD7-429D-A5CE-A6FE83C411D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{BC9BC3D9-6FF2-4CB4-96B2-33CE5FEE1DBD}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="461">
   <si>
     <t>Kode Fitur</t>
   </si>
@@ -1484,6 +1484,9 @@
       </rPr>
       <t>DL, RKABProfilBank, RKABDebiturDanHapusBuku</t>
     </r>
+  </si>
+  <si>
+    <t>GPRM.Bank, GPRM.Pengurus, FiturUmum.Repository, RKABProfilBank, BDL, RKABPengurusProfilBank, DocURLRepository, DocGLIK, DocDanaTalangan</t>
   </si>
 </sst>
 </file>
@@ -3873,8 +3876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78815AC8-C3A4-42A1-9CFB-16EE2CA78EFD}">
   <dimension ref="B3:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -4102,7 +4105,9 @@
         <v>398</v>
       </c>
       <c r="D20" s="9"/>
-      <c r="E20" s="8"/>
+      <c r="E20" s="8" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="9">

--- a/GLIK Domain Mapping.xlsx
+++ b/GLIK Domain Mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toshiba\Documents\GitHub\GLIK-DM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFFE4F68-2CD7-429D-A5CE-A6FE83C411D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0869C0F6-8BF0-4241-98E3-FCB8FBA6EE08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{BC9BC3D9-6FF2-4CB4-96B2-33CE5FEE1DBD}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="462">
   <si>
     <t>Kode Fitur</t>
   </si>
@@ -1448,45 +1448,37 @@
     <t>17c. Dokumen Kewajiban</t>
   </si>
   <si>
-    <t>GPRM.Bank, GPRM.Pengurus, GPRM.Jaringan, BDL</t>
-  </si>
-  <si>
-    <t>GPRM.Bank, GPRM.Pengurus, BDL, RKABProfilBank, RKABPengurusProfilBank, RKABPeriodeProfilBank</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
-    <t>GPRM.Bank, GPRM.Pengurus, FiturUmum.Repository, BDL, RKABProfilBank, PembubaranBadanHukum, DocBadanHukum, MasterStatus</t>
-  </si>
-  <si>
-    <t>GPRM.Bank, GPRM.Pengurus, BDL, RKABProfilBank, RKABDebiturDanHapusBuku</t>
-  </si>
-  <si>
-    <t>GPRM.Bank, GPRM.Pengurus, RKABProfilBank, BDL, RKABPengurusProfilBank, RKABPeriodeProfilBank, HistoryGPDanTunjangan, TotalHistoryGPDanTunjangan</t>
-  </si>
-  <si>
-    <t>GPRM.Bank, GPRM.Pengurus, RKABProfilBank, BDL, RKABPengurusProfilBank, PembayaranKewajibanPegawai, TotalKewajibanDanPesangon</t>
-  </si>
-  <si>
-    <t>GPRM.Bank, GPRM.Pengurus, RKABProfilBank, BDL, RKABPengurusProfilBank, PembayaranKewajibanPegawai, TotalKewajibanDanPesangon, PerhitunganPesangon</t>
-  </si>
-  <si>
-    <r>
-      <t>GPRM.Bank, GPRM.Pengurus, B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DL, RKABProfilBank, RKABDebiturDanHapusBuku</t>
-    </r>
-  </si>
-  <si>
-    <t>GPRM.Bank, GPRM.Pengurus, FiturUmum.Repository, RKABProfilBank, BDL, RKABPengurusProfilBank, DocURLRepository, DocGLIK, DocDanaTalangan</t>
+    <t>GPRM.Bank, GPRM.Pengurus, BDL, RKABProfilBDL, RKABDebiturHapusBuku</t>
+  </si>
+  <si>
+    <t>GPRM.Bank, GPRM.Pengurus, FiturUmum.Repository, BDL, RKABProfilBDL, PembubaranBadanHukum, DocBadanHukum, MasterStatus</t>
+  </si>
+  <si>
+    <t>GPRM.Bank, GPRM.Pengurus, BDL, RKABProfilBDL, TenagaPendukung, TugasTenagaPendukung, MasterStatus</t>
+  </si>
+  <si>
+    <t>GPRM.Bank, GPRM.Pengurus, FiturUmum.Repository, BDL, RKABProfilBDL, KodeCabangBDL, TransaksiDataTalangan, JenisTransaksi, DocURLRepository, DocGLIK, DocTransaksiDanaTalangan, MasterStatus</t>
+  </si>
+  <si>
+    <t>GPRM.Bank, GPRM.Pengurus, GPRM.Jaringan, BDL, KodeCabangBDL</t>
+  </si>
+  <si>
+    <t>GPRM.Bank, GPRM.Pengurus, BDL, RKABProfilBDL, RKABPengurusBDL, ID_RKABPeriode</t>
+  </si>
+  <si>
+    <t>GPRM.Bank, GPRM.Pengurus, RKABProfilBDL, BDL, RKABPengurusBDL, ID_RKABPeriode, HistoryGPDanTunjangan, TotalGPDanTunjangan</t>
+  </si>
+  <si>
+    <t>GPRM.Bank, GPRM.Pengurus, RKABProfilBDL, BDL, RKABPengurusBDL, KewajibanPegawai, TotalKewajiban</t>
+  </si>
+  <si>
+    <t>GPRM.Bank, GPRM.Pengurus, RKABProfilBDL, BDL, RKABPengurusBDL, KewajibanPegawai, TotalKewajiban, PerhitunganPesangon, TotalPerhitunganPesangon</t>
+  </si>
+  <si>
+    <t>GPRM.Bank, GPRM.Pengurus, FiturUmum.Repository, BDL, RKABProfilBDL, RKABPengurusBDL, DocURLRepository, DocGLIK, DocDanaTalangan</t>
   </si>
 </sst>
 </file>
@@ -1599,7 +1591,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1634,6 +1626,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3876,7 +3877,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78815AC8-C3A4-42A1-9CFB-16EE2CA78EFD}">
   <dimension ref="B3:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
@@ -3884,9 +3885,9 @@
   <cols>
     <col min="1" max="1" width="8.7265625" style="1"/>
     <col min="2" max="2" width="3.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="58.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="58.81640625" style="16" customWidth="1"/>
     <col min="4" max="4" width="8.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="125.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="126.1796875" style="16" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
@@ -3908,60 +3909,60 @@
       <c r="B4" s="9">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="15" t="s">
         <v>382</v>
       </c>
       <c r="D4" s="9"/>
-      <c r="E4" s="8" t="s">
-        <v>451</v>
+      <c r="E4" s="15" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="9">
         <v>2</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="15" t="s">
         <v>383</v>
       </c>
       <c r="D5" s="9"/>
-      <c r="E5" s="8" t="s">
-        <v>451</v>
+      <c r="E5" s="15" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="9">
         <v>3</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="15" t="s">
         <v>384</v>
       </c>
       <c r="D6" s="9"/>
-      <c r="E6" s="8" t="s">
-        <v>452</v>
+      <c r="E6" s="15" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="9">
         <v>4</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="15" t="s">
         <v>385</v>
       </c>
       <c r="D7" s="9"/>
-      <c r="E7" s="8" t="s">
-        <v>459</v>
+      <c r="E7" s="15" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="9">
         <v>5</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="15" t="s">
         <v>386</v>
       </c>
       <c r="D8" s="9"/>
-      <c r="E8" s="8" t="s">
-        <v>455</v>
+      <c r="E8" s="15" t="s">
+        <v>452</v>
       </c>
       <c r="G8" s="10"/>
     </row>
@@ -3969,665 +3970,671 @@
       <c r="B9" s="9">
         <v>6</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="15" t="s">
         <v>387</v>
       </c>
       <c r="D9" s="9"/>
-      <c r="E9" s="8" t="s">
-        <v>455</v>
+      <c r="E9" s="15" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="9">
         <v>7</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="15" t="s">
         <v>388</v>
       </c>
       <c r="D10" s="9"/>
-      <c r="E10" s="8" t="s">
-        <v>453</v>
+      <c r="E10" s="15" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="9">
         <v>8</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="15" t="s">
         <v>389</v>
       </c>
       <c r="D11" s="9"/>
-      <c r="E11" s="8" t="s">
-        <v>454</v>
+      <c r="E11" s="15" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="9">
         <v>9</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="15" t="s">
         <v>390</v>
       </c>
       <c r="D12" s="9"/>
-      <c r="E12" s="8" t="s">
-        <v>454</v>
+      <c r="E12" s="15" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="9">
         <v>10</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="15" t="s">
         <v>391</v>
       </c>
       <c r="D13" s="9"/>
-      <c r="E13" s="8" t="s">
-        <v>454</v>
+      <c r="E13" s="15" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="9">
         <v>11</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="15" t="s">
         <v>392</v>
       </c>
       <c r="D14" s="9"/>
-      <c r="E14" s="8" t="s">
-        <v>454</v>
+      <c r="E14" s="15" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="9">
         <v>12</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="15" t="s">
         <v>393</v>
       </c>
       <c r="D15" s="9"/>
-      <c r="E15" s="8" t="s">
-        <v>456</v>
+      <c r="E15" s="15" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" s="9">
         <v>13</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="15" t="s">
         <v>394</v>
       </c>
       <c r="D16" s="9"/>
-      <c r="E16" s="8" t="s">
-        <v>456</v>
+      <c r="E16" s="15" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="9">
         <v>14</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="15" t="s">
         <v>395</v>
       </c>
       <c r="D17" s="9"/>
-      <c r="E17" s="8" t="s">
-        <v>457</v>
+      <c r="E17" s="15" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="9">
         <v>15</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="15" t="s">
         <v>396</v>
       </c>
       <c r="D18" s="9"/>
-      <c r="E18" s="8" t="s">
-        <v>458</v>
+      <c r="E18" s="15" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="9">
         <v>16</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="15" t="s">
         <v>397</v>
       </c>
       <c r="D19" s="9"/>
-      <c r="E19" s="8" t="s">
-        <v>458</v>
+      <c r="E19" s="15" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="9">
         <v>17</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="15" t="s">
         <v>398</v>
       </c>
       <c r="D20" s="9"/>
-      <c r="E20" s="8" t="s">
-        <v>460</v>
+      <c r="E20" s="15" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="9">
         <v>18</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="15" t="s">
         <v>399</v>
       </c>
       <c r="D21" s="9"/>
-      <c r="E21" s="8"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E21" s="15" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="26" x14ac:dyDescent="0.3">
       <c r="B22" s="9">
         <v>19</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="15" t="s">
         <v>400</v>
       </c>
       <c r="D22" s="9"/>
-      <c r="E22" s="8"/>
+      <c r="E22" s="17" t="s">
+        <v>455</v>
+      </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="9">
         <v>20</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="15" t="s">
         <v>401</v>
       </c>
       <c r="D23" s="9"/>
-      <c r="E23" s="8"/>
+      <c r="E23" s="15" t="s">
+        <v>454</v>
+      </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="9">
         <v>21</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="15" t="s">
         <v>402</v>
       </c>
       <c r="D24" s="9"/>
-      <c r="E24" s="8"/>
+      <c r="E24" s="15"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="9">
         <v>22</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="15" t="s">
         <v>403</v>
       </c>
       <c r="D25" s="9"/>
-      <c r="E25" s="8"/>
+      <c r="E25" s="15"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="9">
         <v>23</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="15" t="s">
         <v>404</v>
       </c>
       <c r="D26" s="9"/>
-      <c r="E26" s="8"/>
+      <c r="E26" s="15"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="9">
         <v>24</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="15" t="s">
         <v>405</v>
       </c>
       <c r="D27" s="9"/>
-      <c r="E27" s="8"/>
+      <c r="E27" s="15"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="9">
         <v>25</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="15" t="s">
         <v>406</v>
       </c>
       <c r="D28" s="9"/>
-      <c r="E28" s="8"/>
+      <c r="E28" s="15"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" s="9">
         <v>26</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="15" t="s">
         <v>407</v>
       </c>
       <c r="D29" s="9"/>
-      <c r="E29" s="8"/>
+      <c r="E29" s="15"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" s="9">
         <v>27</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="15" t="s">
         <v>408</v>
       </c>
       <c r="D30" s="9"/>
-      <c r="E30" s="8"/>
+      <c r="E30" s="15"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B31" s="9">
         <v>28</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="15" t="s">
         <v>409</v>
       </c>
       <c r="D31" s="9"/>
-      <c r="E31" s="8"/>
+      <c r="E31" s="15"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B32" s="9">
         <v>29</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="15" t="s">
         <v>410</v>
       </c>
       <c r="D32" s="9"/>
-      <c r="E32" s="8"/>
+      <c r="E32" s="15"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" s="9">
         <v>30</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="15" t="s">
         <v>411</v>
       </c>
       <c r="D33" s="9"/>
-      <c r="E33" s="8"/>
+      <c r="E33" s="15"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34" s="9">
         <v>31</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="15" t="s">
         <v>412</v>
       </c>
       <c r="D34" s="9"/>
-      <c r="E34" s="8"/>
+      <c r="E34" s="15"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" s="9">
         <v>32</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="15" t="s">
         <v>413</v>
       </c>
       <c r="D35" s="9"/>
-      <c r="E35" s="8"/>
+      <c r="E35" s="15"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36" s="9">
         <v>33</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="15" t="s">
         <v>414</v>
       </c>
       <c r="D36" s="9"/>
-      <c r="E36" s="8"/>
+      <c r="E36" s="15"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37" s="9">
         <v>34</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="15" t="s">
         <v>415</v>
       </c>
       <c r="D37" s="9"/>
-      <c r="E37" s="8"/>
+      <c r="E37" s="15"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38" s="9">
         <v>35</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="15" t="s">
         <v>416</v>
       </c>
       <c r="D38" s="9"/>
-      <c r="E38" s="8"/>
+      <c r="E38" s="15"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B39" s="9">
         <v>36</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="15" t="s">
         <v>417</v>
       </c>
       <c r="D39" s="9"/>
-      <c r="E39" s="8"/>
+      <c r="E39" s="15"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B40" s="9">
         <v>37</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="15" t="s">
         <v>418</v>
       </c>
       <c r="D40" s="9"/>
-      <c r="E40" s="8"/>
+      <c r="E40" s="15"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B41" s="9">
         <v>38</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="15" t="s">
         <v>419</v>
       </c>
       <c r="D41" s="9"/>
-      <c r="E41" s="8"/>
+      <c r="E41" s="15"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B42" s="9">
         <v>39</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="15" t="s">
         <v>420</v>
       </c>
       <c r="D42" s="9"/>
-      <c r="E42" s="8"/>
+      <c r="E42" s="15"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B43" s="9">
         <v>40</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="15" t="s">
         <v>421</v>
       </c>
       <c r="D43" s="9"/>
-      <c r="E43" s="8"/>
+      <c r="E43" s="15"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B44" s="9">
         <v>41</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="15" t="s">
         <v>422</v>
       </c>
       <c r="D44" s="9"/>
-      <c r="E44" s="8"/>
+      <c r="E44" s="15"/>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B45" s="9">
         <v>42</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="15" t="s">
         <v>423</v>
       </c>
       <c r="D45" s="9"/>
-      <c r="E45" s="8"/>
+      <c r="E45" s="15"/>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B46" s="9">
         <v>43</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="15" t="s">
         <v>424</v>
       </c>
       <c r="D46" s="9"/>
-      <c r="E46" s="8"/>
+      <c r="E46" s="15"/>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B47" s="9">
         <v>44</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="15" t="s">
         <v>425</v>
       </c>
       <c r="D47" s="9"/>
-      <c r="E47" s="8"/>
+      <c r="E47" s="15"/>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B48" s="9">
         <v>45</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="15" t="s">
         <v>426</v>
       </c>
       <c r="D48" s="9"/>
-      <c r="E48" s="8"/>
+      <c r="E48" s="15"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B49" s="9">
         <v>46</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="15" t="s">
         <v>427</v>
       </c>
       <c r="D49" s="9"/>
-      <c r="E49" s="8"/>
+      <c r="E49" s="15"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B50" s="9">
         <v>47</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C50" s="15" t="s">
         <v>428</v>
       </c>
       <c r="D50" s="9"/>
-      <c r="E50" s="8"/>
+      <c r="E50" s="15"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B51" s="9">
         <v>48</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="15" t="s">
         <v>429</v>
       </c>
       <c r="D51" s="9"/>
-      <c r="E51" s="8"/>
+      <c r="E51" s="15"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B52" s="9">
         <v>49</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="15" t="s">
         <v>430</v>
       </c>
       <c r="D52" s="9"/>
-      <c r="E52" s="8"/>
+      <c r="E52" s="15"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B53" s="9">
         <v>50</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C53" s="15" t="s">
         <v>431</v>
       </c>
       <c r="D53" s="9"/>
-      <c r="E53" s="8"/>
+      <c r="E53" s="15"/>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B54" s="9">
         <v>51</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C54" s="15" t="s">
         <v>432</v>
       </c>
       <c r="D54" s="9"/>
-      <c r="E54" s="8"/>
+      <c r="E54" s="15"/>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B55" s="9">
         <v>52</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C55" s="15" t="s">
         <v>433</v>
       </c>
       <c r="D55" s="9"/>
-      <c r="E55" s="8"/>
+      <c r="E55" s="15"/>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B56" s="9">
         <v>53</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C56" s="15" t="s">
         <v>434</v>
       </c>
       <c r="D56" s="9"/>
-      <c r="E56" s="8"/>
+      <c r="E56" s="15"/>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B57" s="9">
         <v>54</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C57" s="15" t="s">
         <v>435</v>
       </c>
       <c r="D57" s="9"/>
-      <c r="E57" s="8"/>
+      <c r="E57" s="15"/>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B58" s="9">
         <v>55</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C58" s="15" t="s">
         <v>436</v>
       </c>
       <c r="D58" s="9"/>
-      <c r="E58" s="8"/>
+      <c r="E58" s="15"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B59" s="9">
         <v>56</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C59" s="15" t="s">
         <v>437</v>
       </c>
       <c r="D59" s="9"/>
-      <c r="E59" s="8"/>
+      <c r="E59" s="15"/>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B60" s="9">
         <v>57</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C60" s="15" t="s">
         <v>438</v>
       </c>
       <c r="D60" s="9"/>
-      <c r="E60" s="8"/>
+      <c r="E60" s="15"/>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B61" s="9">
         <v>58</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C61" s="15" t="s">
         <v>439</v>
       </c>
       <c r="D61" s="9"/>
-      <c r="E61" s="8"/>
+      <c r="E61" s="15"/>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B62" s="9">
         <v>59</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C62" s="15" t="s">
         <v>440</v>
       </c>
       <c r="D62" s="9"/>
-      <c r="E62" s="8"/>
+      <c r="E62" s="15"/>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B63" s="9">
         <v>60</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C63" s="15" t="s">
         <v>441</v>
       </c>
       <c r="D63" s="9"/>
-      <c r="E63" s="8"/>
+      <c r="E63" s="15"/>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B64" s="9">
         <v>61</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="C64" s="15" t="s">
         <v>442</v>
       </c>
       <c r="D64" s="9"/>
-      <c r="E64" s="8"/>
+      <c r="E64" s="15"/>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B65" s="9">
         <v>62</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="C65" s="15" t="s">
         <v>443</v>
       </c>
       <c r="D65" s="9"/>
-      <c r="E65" s="8"/>
+      <c r="E65" s="15"/>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B66" s="9">
         <v>63</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C66" s="15" t="s">
         <v>444</v>
       </c>
       <c r="D66" s="9"/>
-      <c r="E66" s="8"/>
+      <c r="E66" s="15"/>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B67" s="9">
         <v>64</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C67" s="15" t="s">
         <v>445</v>
       </c>
       <c r="D67" s="9"/>
-      <c r="E67" s="8"/>
+      <c r="E67" s="15"/>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B68" s="9">
         <v>65</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="C68" s="15" t="s">
         <v>446</v>
       </c>
       <c r="D68" s="9"/>
-      <c r="E68" s="8"/>
+      <c r="E68" s="15"/>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B69" s="9">
         <v>66</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C69" s="15" t="s">
         <v>447</v>
       </c>
       <c r="D69" s="9"/>
-      <c r="E69" s="8"/>
+      <c r="E69" s="15"/>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B70" s="9">
         <v>67</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="C70" s="15" t="s">
         <v>448</v>
       </c>
       <c r="D70" s="9"/>
-      <c r="E70" s="8"/>
+      <c r="E70" s="15"/>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B71" s="9">
         <v>68</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="C71" s="15" t="s">
         <v>449</v>
       </c>
       <c r="D71" s="9"/>
-      <c r="E71" s="8"/>
+      <c r="E71" s="15"/>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B72" s="9">
         <v>69</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="C72" s="15" t="s">
         <v>450</v>
       </c>
       <c r="D72" s="9"/>
-      <c r="E72" s="8"/>
+      <c r="E72" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GLIK Domain Mapping.xlsx
+++ b/GLIK Domain Mapping.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toshiba\Documents\GitHub\GLIK-DM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0869C0F6-8BF0-4241-98E3-FCB8FBA6EE08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF68D4EB-2183-4C61-8572-4D0A418A130E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{BC9BC3D9-6FF2-4CB4-96B2-33CE5FEE1DBD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{BC9BC3D9-6FF2-4CB4-96B2-33CE5FEE1DBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Fitur Item" sheetId="1" r:id="rId1"/>
-    <sheet name="Mockup &amp; Table Mapping" sheetId="2" r:id="rId2"/>
+    <sheet name="Versi Mas Zaki" sheetId="6" r:id="rId2"/>
+    <sheet name="1. Persiapan Likuidasi" sheetId="4" r:id="rId3"/>
+    <sheet name="2. Pengawasan Likuidasi" sheetId="2" r:id="rId4"/>
+    <sheet name="Compare Table" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="515">
   <si>
     <t>Kode Fitur</t>
   </si>
@@ -1235,9 +1238,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>ID Gambar Mockup</t>
-  </si>
-  <si>
     <t>Table Name (Entity)</t>
   </si>
   <si>
@@ -1451,41 +1451,203 @@
     <t>-</t>
   </si>
   <si>
-    <t>GPRM.Bank, GPRM.Pengurus, BDL, RKABProfilBDL, RKABDebiturHapusBuku</t>
-  </si>
-  <si>
-    <t>GPRM.Bank, GPRM.Pengurus, FiturUmum.Repository, BDL, RKABProfilBDL, PembubaranBadanHukum, DocBadanHukum, MasterStatus</t>
-  </si>
-  <si>
-    <t>GPRM.Bank, GPRM.Pengurus, BDL, RKABProfilBDL, TenagaPendukung, TugasTenagaPendukung, MasterStatus</t>
-  </si>
-  <si>
-    <t>GPRM.Bank, GPRM.Pengurus, FiturUmum.Repository, BDL, RKABProfilBDL, KodeCabangBDL, TransaksiDataTalangan, JenisTransaksi, DocURLRepository, DocGLIK, DocTransaksiDanaTalangan, MasterStatus</t>
-  </si>
-  <si>
     <t>GPRM.Bank, GPRM.Pengurus, GPRM.Jaringan, BDL, KodeCabangBDL</t>
   </si>
   <si>
     <t>GPRM.Bank, GPRM.Pengurus, BDL, RKABProfilBDL, RKABPengurusBDL, ID_RKABPeriode</t>
   </si>
   <si>
-    <t>GPRM.Bank, GPRM.Pengurus, RKABProfilBDL, BDL, RKABPengurusBDL, ID_RKABPeriode, HistoryGPDanTunjangan, TotalGPDanTunjangan</t>
-  </si>
-  <si>
-    <t>GPRM.Bank, GPRM.Pengurus, RKABProfilBDL, BDL, RKABPengurusBDL, KewajibanPegawai, TotalKewajiban</t>
-  </si>
-  <si>
-    <t>GPRM.Bank, GPRM.Pengurus, RKABProfilBDL, BDL, RKABPengurusBDL, KewajibanPegawai, TotalKewajiban, PerhitunganPesangon, TotalPerhitunganPesangon</t>
-  </si>
-  <si>
-    <t>GPRM.Bank, GPRM.Pengurus, FiturUmum.Repository, BDL, RKABProfilBDL, RKABPengurusBDL, DocURLRepository, DocGLIK, DocDanaTalangan</t>
+    <t>Deskripsi</t>
+  </si>
+  <si>
+    <t>1. Pilih BDL</t>
+  </si>
+  <si>
+    <t>1a. Konfirmasi Pilih BDL</t>
+  </si>
+  <si>
+    <t>2. Mengelola Kegiatan</t>
+  </si>
+  <si>
+    <t>2a. Tambah Kegiatan Baru</t>
+  </si>
+  <si>
+    <t>2b. Assign PIC</t>
+  </si>
+  <si>
+    <t>2c. Mapping PIC</t>
+  </si>
+  <si>
+    <t>3. Mengisi Data BDL dan Upload Dokumen CIU</t>
+  </si>
+  <si>
+    <t>4. Mengelola Kertas Kerja Pengamanan Aset</t>
+  </si>
+  <si>
+    <t>4a. Check List Aset</t>
+  </si>
+  <si>
+    <t>4b. Upload Dokumen Checklist</t>
+  </si>
+  <si>
+    <t>4c. Detail Persetujuan Pengamanan Aset</t>
+  </si>
+  <si>
+    <t>4d. Konfirmasi Persetujuan Pengamana Aset</t>
+  </si>
+  <si>
+    <t>4e. Detail Persetujuan Pengamanan Aset Checklist</t>
+  </si>
+  <si>
+    <t>4f. Konfirmasi Persetujuan Checklist</t>
+  </si>
+  <si>
+    <t>5. To Do List</t>
+  </si>
+  <si>
+    <t>6. Melakukan Penilaian TL</t>
+  </si>
+  <si>
+    <t>6a. Konfirmasi Penilaian Seleksi TL</t>
+  </si>
+  <si>
+    <t>6b.Detail Persetujuan Seleksi TL</t>
+  </si>
+  <si>
+    <t>6c.Konfirmasi Persetujuan Seleksi TL</t>
+  </si>
+  <si>
+    <t>7. Mengelola Berita Pengamana Aset</t>
+  </si>
+  <si>
+    <t>8. Checklist Dokumen Usulan RUPS</t>
+  </si>
+  <si>
+    <t>8a. Persetujuan Usulan RUPS &amp; Pembentukan TL</t>
+  </si>
+  <si>
+    <t>8b Konfirmasi Persetujuan RUPS TL</t>
+  </si>
+  <si>
+    <t>BDL</t>
+  </si>
+  <si>
+    <t>MasterKegiatan</t>
+  </si>
+  <si>
+    <t>PICKegiatan</t>
+  </si>
+  <si>
+    <t>BDL, Repository</t>
+  </si>
+  <si>
+    <t>Aset, Repository</t>
+  </si>
+  <si>
+    <t>FU.Checklist, Aset, Repository</t>
+  </si>
+  <si>
+    <t>FU.WorkFlow, Aset</t>
+  </si>
+  <si>
+    <t>FU.CheckList, FU.WorkFlow, Aset</t>
+  </si>
+  <si>
+    <t>FU.ToDo, FU.WorkFlow,MasterKegiatan</t>
+  </si>
+  <si>
+    <t>SeleksiTL, DocSeleksiTL, FU.User, ProfilUser</t>
+  </si>
+  <si>
+    <t>FU.WorkFlow, SeleksiTL, DocSeleksiTL, FU.User, ProfilUser</t>
+  </si>
+  <si>
+    <t>7. Mengelola Berita Pengamanan Aset</t>
+  </si>
+  <si>
+    <t>FU.CheckList, FU.WorkFlow, DocUsulanRUPS</t>
+  </si>
+  <si>
+    <t>DocUsulanRUPS, FU.CheckList</t>
+  </si>
+  <si>
+    <t>Versi 1</t>
+  </si>
+  <si>
+    <t>Versi 2</t>
+  </si>
+  <si>
+    <t>Persiapan Likuidasi</t>
+  </si>
+  <si>
+    <t>Pengakhiran Likuidasi</t>
+  </si>
+  <si>
+    <t>Versi</t>
+  </si>
+  <si>
+    <t>GPRM.Bank, GPRM.Pengurus, GPRM.Jaringan, BDL</t>
+  </si>
+  <si>
+    <t>FiturUmum.Repository, FiturUmum.Notifikasi, GPRM.Bank, GPRM.Pengurus, BDL, RKABProfilBDL, PembubaranBadanHukum, DocBadanHukum, MasterStatus</t>
+  </si>
+  <si>
+    <t>FiturUmum.Repository, GPRM.Bank, GPRM.Pengurus, BDL, RKABProfilBDL, DocURLRepository, DocGLIK, DocSuratDanaTalangan, DocTransaksiDanaTalangan</t>
+  </si>
+  <si>
+    <t>FiturUmum.Repository, FiturUmum.Notifikasi, GPRM.Bank, GPRM.Pengurus, BDL, RKABProfilBDL, ChecklistDanaTalangan, DocURLRepository, DocGLIK</t>
+  </si>
+  <si>
+    <t>FiturUmum.Repository, FiturUmum.Notifikasi, GPRM.Bank, GPRM.Pengurus, BDL, RKABProfilBDL, KodeCabangBDL, TransaksiDataTalangan, JenisTransaksi, DocURLRepository, DocGLIK, DocTransaksiDanaTalangan, MasterStatus</t>
+  </si>
+  <si>
+    <t>FiturUmum.Notifikasi, GPRM.Bank, GPRM.Pengurus, BDL, RKABProfilBDL, TenagaPendukung, TugasTenagaPendukung, MasterStatus</t>
+  </si>
+  <si>
+    <t>4d. Konfirmasi Persetujuan Pengamanan Aset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FiturUmum.Repository, FiturUmum.CheckList, GPRM.Bank, GPRM.Jaringan, BDL, Aset, DocAset, DocGLIK, ChecklistAset </t>
+  </si>
+  <si>
+    <t>FiturUmum.Notifikasi, FiturUmum.Repository, FiturUmum.CheckList, GPRM.Bank, GPRM.Jaringan, BDL, Aset, DocAset, DocGLIK, ChecklistAset, MasterStatus</t>
+  </si>
+  <si>
+    <t>FiturUmum.Notifikasi, FiturUmum.Repository, GPRM.Bank, GRPM.Jaringan, BDL, NilaiTimLikuidasi, PICPenilai, DataTimLikuidasi, DocKelengkapanDataTL, DocGLIK, MasterStatus</t>
+  </si>
+  <si>
+    <t>GPRM.Bank, GPRM.Pengurus, RKABProfilBDL, BDL, RKABPengurusBDL, KewajibanPegawai</t>
+  </si>
+  <si>
+    <t>GPRM.Bank, GPRM.Pengurus, FiturUmum.Notifikasi, RKABProfilBDL, BDL, RKABPengurusBDL, KewajibanPegawai, PerhitunganPesangon</t>
+  </si>
+  <si>
+    <t>FiturUmum.Notifikasi, GPRM.Bank, GPRM.Pengurus, RKABProfilBDL, BDL, RKABPengurusBDL, KewajibanPegawai, PerhitunganPesangon</t>
+  </si>
+  <si>
+    <t>GPRM.Bank, GPRM.Pengurus, RKABProfilBDL, BDL, RKABPengurusBDL, ID_RKABPeriode, HistoryGPDanTunjangan</t>
+  </si>
+  <si>
+    <t>GPRM.Bank, GPRM.Pengurus, BDL, RKABProfilBDL, RKABDebitur</t>
+  </si>
+  <si>
+    <t>FiturUmum.Repository, FiturUmum.TemplateDoc, GPRM.Bank, GPRM.Jaringan, BDL, KeputusanCIU, DocGLIK, DocSKCIU, DocKKE, DocTemplateKKE, DocDraftKKE, DocFinalKKE</t>
+  </si>
+  <si>
+    <t>FiturUmum.ToDo, FiturUmum.CheckList, GPRM.Bank, GRPM.Jaringan, BDL, ToDoListPengajuan, JenisPengajuan, AssignPIC, MasterStatus</t>
+  </si>
+  <si>
+    <t>GPRM.Bank, GPRM.Jaringan, BDL, RencanaPersiapanLikuidasi, AssignPIC, MasterKegitan, TimeScheduleKegiatan, MasterStatus</t>
+  </si>
+  <si>
+    <t>FiturUmum.Notifikasi, GPRM.Bank, GPRM.Jaringan, BDL, RencanaPersiapanLikuidasi, AssignPIC, MasterKegitan, TimeScheduleKegiatan, MasterStatus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1528,8 +1690,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="6"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1554,8 +1722,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor theme="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1587,11 +1767,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1624,9 +1830,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1634,6 +1837,42 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1953,7 +2192,7 @@
   <dimension ref="B2:E191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1967,7 +2206,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="12" t="s">
@@ -2781,7 +3020,7 @@
       <c r="E82" s="8"/>
     </row>
     <row r="83" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="14" t="s">
+      <c r="B83" s="17" t="s">
         <v>164</v>
       </c>
       <c r="C83" s="3" t="s">
@@ -2791,7 +3030,7 @@
       <c r="E83" s="8"/>
     </row>
     <row r="84" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="14"/>
+      <c r="B84" s="17"/>
       <c r="C84" s="4" t="s">
         <v>359</v>
       </c>
@@ -2799,7 +3038,7 @@
       <c r="E84" s="8"/>
     </row>
     <row r="85" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="14"/>
+      <c r="B85" s="17"/>
       <c r="C85" s="4" t="s">
         <v>360</v>
       </c>
@@ -2807,7 +3046,7 @@
       <c r="E85" s="8"/>
     </row>
     <row r="86" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="14"/>
+      <c r="B86" s="17"/>
       <c r="C86" s="4" t="s">
         <v>361</v>
       </c>
@@ -3874,20 +4113,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78815AC8-C3A4-42A1-9CFB-16EE2CA78EFD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15F4E332-D133-4B0A-92C1-5633636035DF}">
   <dimension ref="B3:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.7265625" style="1"/>
     <col min="2" max="2" width="3.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="58.81640625" style="16" customWidth="1"/>
-    <col min="4" max="4" width="8.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="126.1796875" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.453125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.90625" style="15" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
@@ -3896,73 +4135,73 @@
         <v>379</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>380</v>
+        <v>453</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>381</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="9">
         <v>1</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>382</v>
+      <c r="C4" s="8" t="s">
+        <v>454</v>
       </c>
       <c r="D4" s="9"/>
-      <c r="E4" s="15" t="s">
-        <v>456</v>
+      <c r="E4" s="8" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="9">
         <v>2</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>383</v>
+      <c r="C5" s="8" t="s">
+        <v>455</v>
       </c>
       <c r="D5" s="9"/>
-      <c r="E5" s="15" t="s">
-        <v>456</v>
+      <c r="E5" s="8" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="9">
         <v>3</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>384</v>
+      <c r="C6" s="8" t="s">
+        <v>456</v>
       </c>
       <c r="D6" s="9"/>
-      <c r="E6" s="15" t="s">
-        <v>457</v>
+      <c r="E6" s="8" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="9">
         <v>4</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>385</v>
+      <c r="C7" s="8" t="s">
+        <v>457</v>
       </c>
       <c r="D7" s="9"/>
-      <c r="E7" s="15" t="s">
-        <v>452</v>
+      <c r="E7" s="8" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="9">
         <v>5</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>386</v>
+      <c r="C8" s="8" t="s">
+        <v>458</v>
       </c>
       <c r="D8" s="9"/>
-      <c r="E8" s="15" t="s">
-        <v>452</v>
+      <c r="E8" s="8" t="s">
+        <v>479</v>
       </c>
       <c r="G8" s="10"/>
     </row>
@@ -3970,674 +4209,2651 @@
       <c r="B9" s="9">
         <v>6</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>387</v>
+      <c r="C9" s="8" t="s">
+        <v>459</v>
       </c>
       <c r="D9" s="9"/>
-      <c r="E9" s="15" t="s">
-        <v>452</v>
+      <c r="E9" s="8" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="9">
         <v>7</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>388</v>
+      <c r="C10" s="8" t="s">
+        <v>460</v>
       </c>
       <c r="D10" s="9"/>
-      <c r="E10" s="15" t="s">
-        <v>451</v>
+      <c r="E10" s="14" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="9">
         <v>8</v>
       </c>
-      <c r="C11" s="15" t="s">
-        <v>389</v>
+      <c r="C11" s="8" t="s">
+        <v>461</v>
       </c>
       <c r="D11" s="9"/>
-      <c r="E11" s="15" t="s">
-        <v>453</v>
+      <c r="E11" s="14" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="9">
         <v>9</v>
       </c>
-      <c r="C12" s="15" t="s">
-        <v>390</v>
+      <c r="C12" s="8" t="s">
+        <v>462</v>
       </c>
       <c r="D12" s="9"/>
-      <c r="E12" s="15" t="s">
-        <v>453</v>
+      <c r="E12" s="14" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="9">
         <v>10</v>
       </c>
-      <c r="C13" s="15" t="s">
-        <v>391</v>
+      <c r="C13" s="8" t="s">
+        <v>463</v>
       </c>
       <c r="D13" s="9"/>
-      <c r="E13" s="15" t="s">
-        <v>453</v>
+      <c r="E13" s="14" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="9">
         <v>11</v>
       </c>
-      <c r="C14" s="15" t="s">
-        <v>392</v>
+      <c r="C14" s="8" t="s">
+        <v>464</v>
       </c>
       <c r="D14" s="9"/>
-      <c r="E14" s="15" t="s">
-        <v>453</v>
+      <c r="E14" s="14" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="9">
         <v>12</v>
       </c>
-      <c r="C15" s="15" t="s">
-        <v>393</v>
+      <c r="C15" s="8" t="s">
+        <v>465</v>
       </c>
       <c r="D15" s="9"/>
-      <c r="E15" s="15" t="s">
-        <v>458</v>
+      <c r="E15" s="14" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" s="9">
         <v>13</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>394</v>
+      <c r="C16" s="8" t="s">
+        <v>466</v>
       </c>
       <c r="D16" s="9"/>
-      <c r="E16" s="15" t="s">
-        <v>458</v>
+      <c r="E16" s="14" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="9">
         <v>14</v>
       </c>
-      <c r="C17" s="15" t="s">
-        <v>395</v>
+      <c r="C17" s="8" t="s">
+        <v>467</v>
       </c>
       <c r="D17" s="9"/>
-      <c r="E17" s="15" t="s">
-        <v>459</v>
+      <c r="E17" s="14" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="9">
         <v>15</v>
       </c>
-      <c r="C18" s="15" t="s">
-        <v>396</v>
+      <c r="C18" s="8" t="s">
+        <v>468</v>
       </c>
       <c r="D18" s="9"/>
-      <c r="E18" s="15" t="s">
-        <v>460</v>
+      <c r="E18" s="14" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="9">
         <v>16</v>
       </c>
-      <c r="C19" s="15" t="s">
-        <v>397</v>
+      <c r="C19" s="8" t="s">
+        <v>469</v>
       </c>
       <c r="D19" s="9"/>
-      <c r="E19" s="15" t="s">
-        <v>460</v>
+      <c r="E19" s="14" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="9">
         <v>17</v>
       </c>
-      <c r="C20" s="15" t="s">
-        <v>398</v>
+      <c r="C20" s="8" t="s">
+        <v>470</v>
       </c>
       <c r="D20" s="9"/>
-      <c r="E20" s="15" t="s">
-        <v>461</v>
+      <c r="E20" s="14" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="9">
         <v>18</v>
       </c>
-      <c r="C21" s="15" t="s">
-        <v>399</v>
+      <c r="C21" s="8" t="s">
+        <v>471</v>
       </c>
       <c r="D21" s="9"/>
-      <c r="E21" s="15" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="E21" s="14" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="9">
         <v>19</v>
       </c>
-      <c r="C22" s="15" t="s">
-        <v>400</v>
+      <c r="C22" s="8" t="s">
+        <v>472</v>
       </c>
       <c r="D22" s="9"/>
-      <c r="E22" s="17" t="s">
-        <v>455</v>
+      <c r="E22" s="14" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="9">
         <v>20</v>
       </c>
-      <c r="C23" s="15" t="s">
-        <v>401</v>
+      <c r="C23" s="8" t="s">
+        <v>488</v>
       </c>
       <c r="D23" s="9"/>
-      <c r="E23" s="15" t="s">
-        <v>454</v>
+      <c r="E23" s="14" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="9">
         <v>21</v>
       </c>
-      <c r="C24" s="15" t="s">
-        <v>402</v>
+      <c r="C24" s="8" t="s">
+        <v>474</v>
       </c>
       <c r="D24" s="9"/>
-      <c r="E24" s="15"/>
+      <c r="E24" s="14" t="s">
+        <v>490</v>
+      </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="9">
         <v>22</v>
       </c>
-      <c r="C25" s="15" t="s">
-        <v>403</v>
+      <c r="C25" s="8" t="s">
+        <v>475</v>
       </c>
       <c r="D25" s="9"/>
-      <c r="E25" s="15"/>
+      <c r="E25" s="14" t="s">
+        <v>489</v>
+      </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="9">
         <v>23</v>
       </c>
-      <c r="C26" s="15" t="s">
-        <v>404</v>
+      <c r="C26" s="8" t="s">
+        <v>476</v>
       </c>
       <c r="D26" s="9"/>
-      <c r="E26" s="15"/>
+      <c r="E26" s="14" t="s">
+        <v>489</v>
+      </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="9">
         <v>24</v>
       </c>
-      <c r="C27" s="15" t="s">
-        <v>405</v>
-      </c>
+      <c r="C27" s="14"/>
       <c r="D27" s="9"/>
-      <c r="E27" s="15"/>
+      <c r="E27" s="14"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="9">
         <v>25</v>
       </c>
-      <c r="C28" s="15" t="s">
-        <v>406</v>
-      </c>
+      <c r="C28" s="14"/>
       <c r="D28" s="9"/>
-      <c r="E28" s="15"/>
+      <c r="E28" s="14"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" s="9">
         <v>26</v>
       </c>
-      <c r="C29" s="15" t="s">
-        <v>407</v>
-      </c>
+      <c r="C29" s="14"/>
       <c r="D29" s="9"/>
-      <c r="E29" s="15"/>
+      <c r="E29" s="14"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" s="9">
         <v>27</v>
       </c>
-      <c r="C30" s="15" t="s">
-        <v>408</v>
-      </c>
+      <c r="C30" s="14"/>
       <c r="D30" s="9"/>
-      <c r="E30" s="15"/>
+      <c r="E30" s="14"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B31" s="9">
         <v>28</v>
       </c>
-      <c r="C31" s="15" t="s">
-        <v>409</v>
-      </c>
+      <c r="C31" s="14"/>
       <c r="D31" s="9"/>
-      <c r="E31" s="15"/>
+      <c r="E31" s="14"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B32" s="9">
         <v>29</v>
       </c>
-      <c r="C32" s="15" t="s">
-        <v>410</v>
-      </c>
+      <c r="C32" s="14"/>
       <c r="D32" s="9"/>
-      <c r="E32" s="15"/>
+      <c r="E32" s="14"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" s="9">
         <v>30</v>
       </c>
-      <c r="C33" s="15" t="s">
-        <v>411</v>
-      </c>
+      <c r="C33" s="14"/>
       <c r="D33" s="9"/>
-      <c r="E33" s="15"/>
+      <c r="E33" s="14"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34" s="9">
         <v>31</v>
       </c>
-      <c r="C34" s="15" t="s">
-        <v>412</v>
-      </c>
+      <c r="C34" s="14"/>
       <c r="D34" s="9"/>
-      <c r="E34" s="15"/>
+      <c r="E34" s="14"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" s="9">
         <v>32</v>
       </c>
-      <c r="C35" s="15" t="s">
-        <v>413</v>
-      </c>
+      <c r="C35" s="14"/>
       <c r="D35" s="9"/>
-      <c r="E35" s="15"/>
+      <c r="E35" s="14"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36" s="9">
         <v>33</v>
       </c>
-      <c r="C36" s="15" t="s">
-        <v>414</v>
-      </c>
+      <c r="C36" s="14"/>
       <c r="D36" s="9"/>
-      <c r="E36" s="15"/>
+      <c r="E36" s="14"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37" s="9">
         <v>34</v>
       </c>
-      <c r="C37" s="15" t="s">
-        <v>415</v>
-      </c>
+      <c r="C37" s="14"/>
       <c r="D37" s="9"/>
-      <c r="E37" s="15"/>
+      <c r="E37" s="14"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38" s="9">
         <v>35</v>
       </c>
-      <c r="C38" s="15" t="s">
-        <v>416</v>
-      </c>
+      <c r="C38" s="14"/>
       <c r="D38" s="9"/>
-      <c r="E38" s="15"/>
+      <c r="E38" s="14"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B39" s="9">
         <v>36</v>
       </c>
-      <c r="C39" s="15" t="s">
-        <v>417</v>
-      </c>
+      <c r="C39" s="14"/>
       <c r="D39" s="9"/>
-      <c r="E39" s="15"/>
+      <c r="E39" s="14"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B40" s="9">
         <v>37</v>
       </c>
-      <c r="C40" s="15" t="s">
-        <v>418</v>
-      </c>
+      <c r="C40" s="14"/>
       <c r="D40" s="9"/>
-      <c r="E40" s="15"/>
+      <c r="E40" s="14"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B41" s="9">
         <v>38</v>
       </c>
-      <c r="C41" s="15" t="s">
-        <v>419</v>
-      </c>
+      <c r="C41" s="14"/>
       <c r="D41" s="9"/>
-      <c r="E41" s="15"/>
+      <c r="E41" s="14"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B42" s="9">
         <v>39</v>
       </c>
-      <c r="C42" s="15" t="s">
-        <v>420</v>
-      </c>
+      <c r="C42" s="14"/>
       <c r="D42" s="9"/>
-      <c r="E42" s="15"/>
+      <c r="E42" s="14"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B43" s="9">
         <v>40</v>
       </c>
-      <c r="C43" s="15" t="s">
-        <v>421</v>
-      </c>
+      <c r="C43" s="14"/>
       <c r="D43" s="9"/>
-      <c r="E43" s="15"/>
+      <c r="E43" s="14"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B44" s="9">
         <v>41</v>
       </c>
-      <c r="C44" s="15" t="s">
-        <v>422</v>
-      </c>
+      <c r="C44" s="14"/>
       <c r="D44" s="9"/>
-      <c r="E44" s="15"/>
+      <c r="E44" s="14"/>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B45" s="9">
         <v>42</v>
       </c>
-      <c r="C45" s="15" t="s">
-        <v>423</v>
-      </c>
+      <c r="C45" s="14"/>
       <c r="D45" s="9"/>
-      <c r="E45" s="15"/>
+      <c r="E45" s="14"/>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B46" s="9">
         <v>43</v>
       </c>
-      <c r="C46" s="15" t="s">
-        <v>424</v>
-      </c>
+      <c r="C46" s="14"/>
       <c r="D46" s="9"/>
-      <c r="E46" s="15"/>
+      <c r="E46" s="14"/>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B47" s="9">
         <v>44</v>
       </c>
-      <c r="C47" s="15" t="s">
-        <v>425</v>
-      </c>
+      <c r="C47" s="14"/>
       <c r="D47" s="9"/>
-      <c r="E47" s="15"/>
+      <c r="E47" s="14"/>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B48" s="9">
         <v>45</v>
       </c>
-      <c r="C48" s="15" t="s">
-        <v>426</v>
-      </c>
+      <c r="C48" s="14"/>
       <c r="D48" s="9"/>
-      <c r="E48" s="15"/>
+      <c r="E48" s="14"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B49" s="9">
         <v>46</v>
       </c>
-      <c r="C49" s="15" t="s">
-        <v>427</v>
-      </c>
+      <c r="C49" s="14"/>
       <c r="D49" s="9"/>
-      <c r="E49" s="15"/>
+      <c r="E49" s="14"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B50" s="9">
         <v>47</v>
       </c>
-      <c r="C50" s="15" t="s">
-        <v>428</v>
-      </c>
+      <c r="C50" s="14"/>
       <c r="D50" s="9"/>
-      <c r="E50" s="15"/>
+      <c r="E50" s="14"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B51" s="9">
         <v>48</v>
       </c>
-      <c r="C51" s="15" t="s">
-        <v>429</v>
-      </c>
+      <c r="C51" s="14"/>
       <c r="D51" s="9"/>
-      <c r="E51" s="15"/>
+      <c r="E51" s="14"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B52" s="9">
         <v>49</v>
       </c>
-      <c r="C52" s="15" t="s">
-        <v>430</v>
-      </c>
+      <c r="C52" s="14"/>
       <c r="D52" s="9"/>
-      <c r="E52" s="15"/>
+      <c r="E52" s="14"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B53" s="9">
         <v>50</v>
       </c>
-      <c r="C53" s="15" t="s">
-        <v>431</v>
-      </c>
+      <c r="C53" s="14"/>
       <c r="D53" s="9"/>
-      <c r="E53" s="15"/>
+      <c r="E53" s="14"/>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B54" s="9">
         <v>51</v>
       </c>
-      <c r="C54" s="15" t="s">
-        <v>432</v>
-      </c>
+      <c r="C54" s="14"/>
       <c r="D54" s="9"/>
-      <c r="E54" s="15"/>
+      <c r="E54" s="14"/>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B55" s="9">
         <v>52</v>
       </c>
-      <c r="C55" s="15" t="s">
-        <v>433</v>
-      </c>
+      <c r="C55" s="14"/>
       <c r="D55" s="9"/>
-      <c r="E55" s="15"/>
+      <c r="E55" s="14"/>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B56" s="9">
         <v>53</v>
       </c>
-      <c r="C56" s="15" t="s">
-        <v>434</v>
-      </c>
+      <c r="C56" s="14"/>
       <c r="D56" s="9"/>
-      <c r="E56" s="15"/>
+      <c r="E56" s="14"/>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B57" s="9">
         <v>54</v>
       </c>
-      <c r="C57" s="15" t="s">
-        <v>435</v>
-      </c>
+      <c r="C57" s="14"/>
       <c r="D57" s="9"/>
-      <c r="E57" s="15"/>
+      <c r="E57" s="14"/>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B58" s="9">
         <v>55</v>
       </c>
-      <c r="C58" s="15" t="s">
-        <v>436</v>
-      </c>
+      <c r="C58" s="14"/>
       <c r="D58" s="9"/>
-      <c r="E58" s="15"/>
+      <c r="E58" s="14"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B59" s="9">
         <v>56</v>
       </c>
-      <c r="C59" s="15" t="s">
-        <v>437</v>
-      </c>
+      <c r="C59" s="14"/>
       <c r="D59" s="9"/>
-      <c r="E59" s="15"/>
+      <c r="E59" s="14"/>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B60" s="9">
         <v>57</v>
       </c>
-      <c r="C60" s="15" t="s">
-        <v>438</v>
-      </c>
+      <c r="C60" s="14"/>
       <c r="D60" s="9"/>
-      <c r="E60" s="15"/>
+      <c r="E60" s="14"/>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B61" s="9">
         <v>58</v>
       </c>
-      <c r="C61" s="15" t="s">
-        <v>439</v>
-      </c>
+      <c r="C61" s="14"/>
       <c r="D61" s="9"/>
-      <c r="E61" s="15"/>
+      <c r="E61" s="14"/>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B62" s="9">
         <v>59</v>
       </c>
-      <c r="C62" s="15" t="s">
-        <v>440</v>
-      </c>
+      <c r="C62" s="14"/>
       <c r="D62" s="9"/>
-      <c r="E62" s="15"/>
+      <c r="E62" s="14"/>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B63" s="9">
         <v>60</v>
       </c>
-      <c r="C63" s="15" t="s">
-        <v>441</v>
-      </c>
+      <c r="C63" s="14"/>
       <c r="D63" s="9"/>
-      <c r="E63" s="15"/>
+      <c r="E63" s="14"/>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B64" s="9">
         <v>61</v>
       </c>
-      <c r="C64" s="15" t="s">
-        <v>442</v>
-      </c>
+      <c r="C64" s="14"/>
       <c r="D64" s="9"/>
-      <c r="E64" s="15"/>
+      <c r="E64" s="14"/>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B65" s="9">
         <v>62</v>
       </c>
-      <c r="C65" s="15" t="s">
-        <v>443</v>
-      </c>
+      <c r="C65" s="14"/>
       <c r="D65" s="9"/>
-      <c r="E65" s="15"/>
+      <c r="E65" s="14"/>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B66" s="9">
         <v>63</v>
       </c>
-      <c r="C66" s="15" t="s">
-        <v>444</v>
-      </c>
+      <c r="C66" s="14"/>
       <c r="D66" s="9"/>
-      <c r="E66" s="15"/>
+      <c r="E66" s="14"/>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B67" s="9">
         <v>64</v>
       </c>
-      <c r="C67" s="15" t="s">
-        <v>445</v>
-      </c>
+      <c r="C67" s="14"/>
       <c r="D67" s="9"/>
-      <c r="E67" s="15"/>
+      <c r="E67" s="14"/>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B68" s="9">
         <v>65</v>
       </c>
-      <c r="C68" s="15" t="s">
-        <v>446</v>
-      </c>
+      <c r="C68" s="14"/>
       <c r="D68" s="9"/>
-      <c r="E68" s="15"/>
+      <c r="E68" s="14"/>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B69" s="9">
         <v>66</v>
       </c>
-      <c r="C69" s="15" t="s">
-        <v>447</v>
-      </c>
+      <c r="C69" s="14"/>
       <c r="D69" s="9"/>
-      <c r="E69" s="15"/>
+      <c r="E69" s="14"/>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B70" s="9">
         <v>67</v>
       </c>
-      <c r="C70" s="15" t="s">
-        <v>448</v>
-      </c>
+      <c r="C70" s="14"/>
       <c r="D70" s="9"/>
-      <c r="E70" s="15"/>
+      <c r="E70" s="14"/>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B71" s="9">
         <v>68</v>
       </c>
-      <c r="C71" s="15" t="s">
-        <v>449</v>
-      </c>
+      <c r="C71" s="14"/>
       <c r="D71" s="9"/>
-      <c r="E71" s="15"/>
+      <c r="E71" s="14"/>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B72" s="9">
         <v>69</v>
       </c>
-      <c r="C72" s="15" t="s">
-        <v>450</v>
-      </c>
+      <c r="C72" s="14"/>
       <c r="D72" s="9"/>
-      <c r="E72" s="15"/>
+      <c r="E72" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B759393E-1290-4E33-A086-7F2745429EA5}">
+  <dimension ref="B3:G72"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19:E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="3.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.453125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="105.54296875" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="9">
+        <v>1</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>454</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="16" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="9">
+        <v>2</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>455</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="16" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="9">
+        <v>3</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>456</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="16" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="26" x14ac:dyDescent="0.3">
+      <c r="B7" s="9">
+        <v>4</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>457</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="16" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="26" x14ac:dyDescent="0.3">
+      <c r="B8" s="9">
+        <v>5</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>458</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="16" t="s">
+        <v>514</v>
+      </c>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="2:7" ht="26" x14ac:dyDescent="0.3">
+      <c r="B9" s="9">
+        <v>6</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="16" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="26" x14ac:dyDescent="0.3">
+      <c r="B10" s="9">
+        <v>7</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="16" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="9">
+        <v>8</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>461</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="16" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="9">
+        <v>9</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>462</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="16" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="26" x14ac:dyDescent="0.3">
+      <c r="B13" s="9">
+        <v>10</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>463</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="16" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="26" x14ac:dyDescent="0.3">
+      <c r="B14" s="9">
+        <v>11</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>464</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="16" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="26" x14ac:dyDescent="0.3">
+      <c r="B15" s="9">
+        <v>12</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>502</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="16" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="26" x14ac:dyDescent="0.3">
+      <c r="B16" s="9">
+        <v>13</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="16" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="B17" s="9">
+        <v>14</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>467</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="16" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="B18" s="9">
+        <v>15</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>468</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="16" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="B19" s="9">
+        <v>16</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>469</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="16" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="B20" s="9">
+        <v>17</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>470</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="16" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="B21" s="9">
+        <v>18</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="16" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="B22" s="9">
+        <v>19</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="16" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="9">
+        <v>20</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>473</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="16"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="9">
+        <v>21</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>474</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="16"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="9">
+        <v>22</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>475</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="16"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B26" s="9">
+        <v>23</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" s="16"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B27" s="9">
+        <v>24</v>
+      </c>
+      <c r="C27" s="14"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="16"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B28" s="9">
+        <v>25</v>
+      </c>
+      <c r="C28" s="14"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="16"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B29" s="9">
+        <v>26</v>
+      </c>
+      <c r="C29" s="14"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="16"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B30" s="9">
+        <v>27</v>
+      </c>
+      <c r="C30" s="14"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="16"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B31" s="9">
+        <v>28</v>
+      </c>
+      <c r="C31" s="14"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="16"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B32" s="9">
+        <v>29</v>
+      </c>
+      <c r="C32" s="14"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="16"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B33" s="9">
+        <v>30</v>
+      </c>
+      <c r="C33" s="14"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="16"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B34" s="9">
+        <v>31</v>
+      </c>
+      <c r="C34" s="14"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="16"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B35" s="9">
+        <v>32</v>
+      </c>
+      <c r="C35" s="14"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="16"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B36" s="9">
+        <v>33</v>
+      </c>
+      <c r="C36" s="14"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="16"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B37" s="9">
+        <v>34</v>
+      </c>
+      <c r="C37" s="14"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="16"/>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B38" s="9">
+        <v>35</v>
+      </c>
+      <c r="C38" s="14"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="16"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B39" s="9">
+        <v>36</v>
+      </c>
+      <c r="C39" s="14"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="16"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B40" s="9">
+        <v>37</v>
+      </c>
+      <c r="C40" s="14"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="16"/>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B41" s="9">
+        <v>38</v>
+      </c>
+      <c r="C41" s="14"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="16"/>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B42" s="9">
+        <v>39</v>
+      </c>
+      <c r="C42" s="14"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="16"/>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B43" s="9">
+        <v>40</v>
+      </c>
+      <c r="C43" s="14"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="16"/>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B44" s="9">
+        <v>41</v>
+      </c>
+      <c r="C44" s="14"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="16"/>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B45" s="9">
+        <v>42</v>
+      </c>
+      <c r="C45" s="14"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="16"/>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B46" s="9">
+        <v>43</v>
+      </c>
+      <c r="C46" s="14"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="16"/>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B47" s="9">
+        <v>44</v>
+      </c>
+      <c r="C47" s="14"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="16"/>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B48" s="9">
+        <v>45</v>
+      </c>
+      <c r="C48" s="14"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="16"/>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B49" s="9">
+        <v>46</v>
+      </c>
+      <c r="C49" s="14"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="16"/>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B50" s="9">
+        <v>47</v>
+      </c>
+      <c r="C50" s="14"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="16"/>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B51" s="9">
+        <v>48</v>
+      </c>
+      <c r="C51" s="14"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="16"/>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B52" s="9">
+        <v>49</v>
+      </c>
+      <c r="C52" s="14"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="16"/>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B53" s="9">
+        <v>50</v>
+      </c>
+      <c r="C53" s="14"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="16"/>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B54" s="9">
+        <v>51</v>
+      </c>
+      <c r="C54" s="14"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="16"/>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B55" s="9">
+        <v>52</v>
+      </c>
+      <c r="C55" s="14"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="16"/>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B56" s="9">
+        <v>53</v>
+      </c>
+      <c r="C56" s="14"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="16"/>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B57" s="9">
+        <v>54</v>
+      </c>
+      <c r="C57" s="14"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="16"/>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B58" s="9">
+        <v>55</v>
+      </c>
+      <c r="C58" s="14"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="16"/>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B59" s="9">
+        <v>56</v>
+      </c>
+      <c r="C59" s="14"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="16"/>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B60" s="9">
+        <v>57</v>
+      </c>
+      <c r="C60" s="14"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="16"/>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B61" s="9">
+        <v>58</v>
+      </c>
+      <c r="C61" s="14"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="16"/>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B62" s="9">
+        <v>59</v>
+      </c>
+      <c r="C62" s="14"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="16"/>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B63" s="9">
+        <v>60</v>
+      </c>
+      <c r="C63" s="14"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="16"/>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B64" s="9">
+        <v>61</v>
+      </c>
+      <c r="C64" s="14"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="16"/>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B65" s="9">
+        <v>62</v>
+      </c>
+      <c r="C65" s="14"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="16"/>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B66" s="9">
+        <v>63</v>
+      </c>
+      <c r="C66" s="14"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="16"/>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B67" s="9">
+        <v>64</v>
+      </c>
+      <c r="C67" s="14"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="16"/>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B68" s="9">
+        <v>65</v>
+      </c>
+      <c r="C68" s="14"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="16"/>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B69" s="9">
+        <v>66</v>
+      </c>
+      <c r="C69" s="14"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="16"/>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B70" s="9">
+        <v>67</v>
+      </c>
+      <c r="C70" s="14"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="16"/>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B71" s="9">
+        <v>68</v>
+      </c>
+      <c r="C71" s="14"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="16"/>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B72" s="9">
+        <v>69</v>
+      </c>
+      <c r="C72" s="14"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78815AC8-C3A4-42A1-9CFB-16EE2CA78EFD}">
+  <dimension ref="B3:G72"/>
+  <sheetViews>
+    <sheetView topLeftCell="B63" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="3.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.81640625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="122.81640625" style="30" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="9">
+        <v>1</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="16" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="9">
+        <v>2</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="16" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="9">
+        <v>3</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="16" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="9">
+        <v>4</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="16" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="9">
+        <v>5</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>385</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="16" t="s">
+        <v>510</v>
+      </c>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="9">
+        <v>6</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>386</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="16" t="s">
+        <v>510</v>
+      </c>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="9">
+        <v>7</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="16" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="9">
+        <v>8</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>388</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="16" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="9">
+        <v>9</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="16" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="9">
+        <v>10</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="16" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="9">
+        <v>11</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="16" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="9">
+        <v>12</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="16" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="9">
+        <v>13</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="16" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="9">
+        <v>14</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="16" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="9">
+        <v>15</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="16" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="9">
+        <v>16</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>396</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="16" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="9">
+        <v>17</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="16" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="9">
+        <v>18</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>398</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="16" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="B22" s="9">
+        <v>19</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>399</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="9">
+        <v>20</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="16" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="9">
+        <v>21</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="16"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="9">
+        <v>22</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="16"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B26" s="9">
+        <v>23</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" s="16"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B27" s="9">
+        <v>24</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="D27" s="9"/>
+      <c r="E27" s="16"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B28" s="9">
+        <v>25</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>405</v>
+      </c>
+      <c r="D28" s="9"/>
+      <c r="E28" s="16"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B29" s="9">
+        <v>26</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="D29" s="9"/>
+      <c r="E29" s="16"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B30" s="9">
+        <v>27</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="D30" s="9"/>
+      <c r="E30" s="16"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B31" s="9">
+        <v>28</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>408</v>
+      </c>
+      <c r="D31" s="9"/>
+      <c r="E31" s="16"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B32" s="9">
+        <v>29</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="D32" s="9"/>
+      <c r="E32" s="16"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B33" s="9">
+        <v>30</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="D33" s="9"/>
+      <c r="E33" s="16"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B34" s="9">
+        <v>31</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="D34" s="9"/>
+      <c r="E34" s="16"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B35" s="9">
+        <v>32</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>412</v>
+      </c>
+      <c r="D35" s="9"/>
+      <c r="E35" s="16"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B36" s="9">
+        <v>33</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="D36" s="9"/>
+      <c r="E36" s="16"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B37" s="9">
+        <v>34</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>414</v>
+      </c>
+      <c r="D37" s="9"/>
+      <c r="E37" s="16"/>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B38" s="9">
+        <v>35</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>415</v>
+      </c>
+      <c r="D38" s="9"/>
+      <c r="E38" s="16"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B39" s="9">
+        <v>36</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="D39" s="9"/>
+      <c r="E39" s="16"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B40" s="9">
+        <v>37</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="D40" s="9"/>
+      <c r="E40" s="16"/>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B41" s="9">
+        <v>38</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>418</v>
+      </c>
+      <c r="D41" s="9"/>
+      <c r="E41" s="16"/>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B42" s="9">
+        <v>39</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>419</v>
+      </c>
+      <c r="D42" s="9"/>
+      <c r="E42" s="16"/>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B43" s="9">
+        <v>40</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>420</v>
+      </c>
+      <c r="D43" s="9"/>
+      <c r="E43" s="16"/>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B44" s="9">
+        <v>41</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="D44" s="9"/>
+      <c r="E44" s="16"/>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B45" s="9">
+        <v>42</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>422</v>
+      </c>
+      <c r="D45" s="9"/>
+      <c r="E45" s="16"/>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B46" s="9">
+        <v>43</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>423</v>
+      </c>
+      <c r="D46" s="9"/>
+      <c r="E46" s="16"/>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B47" s="9">
+        <v>44</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>424</v>
+      </c>
+      <c r="D47" s="9"/>
+      <c r="E47" s="16"/>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B48" s="9">
+        <v>45</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>425</v>
+      </c>
+      <c r="D48" s="9"/>
+      <c r="E48" s="16"/>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B49" s="9">
+        <v>46</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>426</v>
+      </c>
+      <c r="D49" s="9"/>
+      <c r="E49" s="16"/>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B50" s="9">
+        <v>47</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>427</v>
+      </c>
+      <c r="D50" s="9"/>
+      <c r="E50" s="16"/>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B51" s="9">
+        <v>48</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="D51" s="9"/>
+      <c r="E51" s="16"/>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B52" s="9">
+        <v>49</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>429</v>
+      </c>
+      <c r="D52" s="9"/>
+      <c r="E52" s="16"/>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B53" s="9">
+        <v>50</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>430</v>
+      </c>
+      <c r="D53" s="9"/>
+      <c r="E53" s="16"/>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B54" s="9">
+        <v>51</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="D54" s="9"/>
+      <c r="E54" s="16"/>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B55" s="9">
+        <v>52</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>432</v>
+      </c>
+      <c r="D55" s="9"/>
+      <c r="E55" s="16"/>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B56" s="9">
+        <v>53</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>433</v>
+      </c>
+      <c r="D56" s="9"/>
+      <c r="E56" s="16"/>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B57" s="9">
+        <v>54</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>434</v>
+      </c>
+      <c r="D57" s="9"/>
+      <c r="E57" s="16"/>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B58" s="9">
+        <v>55</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>435</v>
+      </c>
+      <c r="D58" s="9"/>
+      <c r="E58" s="16"/>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B59" s="9">
+        <v>56</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>436</v>
+      </c>
+      <c r="D59" s="9"/>
+      <c r="E59" s="16"/>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B60" s="9">
+        <v>57</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>437</v>
+      </c>
+      <c r="D60" s="9"/>
+      <c r="E60" s="16"/>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B61" s="9">
+        <v>58</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>438</v>
+      </c>
+      <c r="D61" s="9"/>
+      <c r="E61" s="16"/>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B62" s="9">
+        <v>59</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>439</v>
+      </c>
+      <c r="D62" s="9"/>
+      <c r="E62" s="16"/>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B63" s="9">
+        <v>60</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="D63" s="9"/>
+      <c r="E63" s="16"/>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B64" s="9">
+        <v>61</v>
+      </c>
+      <c r="C64" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="D64" s="9"/>
+      <c r="E64" s="16"/>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B65" s="9">
+        <v>62</v>
+      </c>
+      <c r="C65" s="14" t="s">
+        <v>442</v>
+      </c>
+      <c r="D65" s="9"/>
+      <c r="E65" s="16"/>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B66" s="9">
+        <v>63</v>
+      </c>
+      <c r="C66" s="14" t="s">
+        <v>443</v>
+      </c>
+      <c r="D66" s="9"/>
+      <c r="E66" s="16"/>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B67" s="9">
+        <v>64</v>
+      </c>
+      <c r="C67" s="14" t="s">
+        <v>444</v>
+      </c>
+      <c r="D67" s="9"/>
+      <c r="E67" s="16"/>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B68" s="9">
+        <v>65</v>
+      </c>
+      <c r="C68" s="14" t="s">
+        <v>445</v>
+      </c>
+      <c r="D68" s="9"/>
+      <c r="E68" s="16"/>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B69" s="9">
+        <v>66</v>
+      </c>
+      <c r="C69" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="D69" s="9"/>
+      <c r="E69" s="16"/>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B70" s="9">
+        <v>67</v>
+      </c>
+      <c r="C70" s="14" t="s">
+        <v>447</v>
+      </c>
+      <c r="D70" s="9"/>
+      <c r="E70" s="16"/>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B71" s="9">
+        <v>68</v>
+      </c>
+      <c r="C71" s="14" t="s">
+        <v>448</v>
+      </c>
+      <c r="D71" s="9"/>
+      <c r="E71" s="16"/>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B72" s="9">
+        <v>69</v>
+      </c>
+      <c r="C72" s="14" t="s">
+        <v>449</v>
+      </c>
+      <c r="D72" s="9"/>
+      <c r="E72" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{781AD54B-1615-4304-B624-1036F5D700FD}">
+  <dimension ref="B2:H53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="3" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" style="1" customWidth="1"/>
+    <col min="5" max="7" width="8.7265625" style="1"/>
+    <col min="8" max="8" width="9.90625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>493</v>
+      </c>
+      <c r="D2" s="28"/>
+      <c r="E2" s="26" t="s">
+        <v>493</v>
+      </c>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26" t="s">
+        <v>494</v>
+      </c>
+      <c r="H2" s="26"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="20"/>
+      <c r="C3" s="25" t="s">
+        <v>491</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>492</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>491</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>492</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>495</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="21">
+        <v>1</v>
+      </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="21">
+        <v>2</v>
+      </c>
+      <c r="C5" s="23"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="21">
+        <v>3</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="21">
+        <v>4</v>
+      </c>
+      <c r="C7" s="23"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="21">
+        <v>5</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="21">
+        <v>6</v>
+      </c>
+      <c r="C9" s="24"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="21">
+        <v>7</v>
+      </c>
+      <c r="C10" s="24"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="21">
+        <v>8</v>
+      </c>
+      <c r="C11" s="24"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="21">
+        <v>9</v>
+      </c>
+      <c r="C12" s="24"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="21">
+        <v>10</v>
+      </c>
+      <c r="C13" s="24"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="21">
+        <v>11</v>
+      </c>
+      <c r="C14" s="24"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="21">
+        <v>12</v>
+      </c>
+      <c r="C15" s="24"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="21">
+        <v>13</v>
+      </c>
+      <c r="C16" s="24"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="21">
+        <v>14</v>
+      </c>
+      <c r="C17" s="24"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="21">
+        <v>15</v>
+      </c>
+      <c r="C18" s="24"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="21">
+        <v>16</v>
+      </c>
+      <c r="C19" s="22"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="21">
+        <v>17</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="21">
+        <v>18</v>
+      </c>
+      <c r="C21" s="24"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="21">
+        <v>19</v>
+      </c>
+      <c r="C22" s="24"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="21">
+        <v>20</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="21">
+        <v>21</v>
+      </c>
+      <c r="C24" s="22"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B25" s="21">
+        <v>22</v>
+      </c>
+      <c r="C25" s="22"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B26" s="21">
+        <v>23</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B27" s="21">
+        <v>24</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B28" s="21">
+        <v>25</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B29" s="21">
+        <v>26</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B30" s="21">
+        <v>27</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B31" s="21">
+        <v>28</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B32" s="21">
+        <v>29</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B33" s="21">
+        <v>30</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B34" s="21">
+        <v>31</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B35" s="21">
+        <v>32</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B36" s="21">
+        <v>33</v>
+      </c>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B37" s="21">
+        <v>34</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B38" s="21">
+        <v>35</v>
+      </c>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B39" s="21">
+        <v>36</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B40" s="21">
+        <v>37</v>
+      </c>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B41" s="21">
+        <v>38</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B42" s="21">
+        <v>39</v>
+      </c>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B43" s="21">
+        <v>40</v>
+      </c>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B44" s="21">
+        <v>41</v>
+      </c>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B45" s="21">
+        <v>42</v>
+      </c>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B46" s="21">
+        <v>43</v>
+      </c>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B47" s="21">
+        <v>44</v>
+      </c>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B48" s="21">
+        <v>45</v>
+      </c>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B49" s="21">
+        <v>46</v>
+      </c>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B50" s="21">
+        <v>47</v>
+      </c>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B51" s="21">
+        <v>48</v>
+      </c>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B52" s="21">
+        <v>49</v>
+      </c>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B53" s="21">
+        <v>50</v>
+      </c>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/GLIK Domain Mapping.xlsx
+++ b/GLIK Domain Mapping.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toshiba\Documents\GitHub\GLIK-DM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dimas\Downloads\LPS GLIK\GLIK-DM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF68D4EB-2183-4C61-8572-4D0A418A130E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B305FC-03B4-4C05-A0CF-43F16F1BB821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{BC9BC3D9-6FF2-4CB4-96B2-33CE5FEE1DBD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{BC9BC3D9-6FF2-4CB4-96B2-33CE5FEE1DBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Fitur Item" sheetId="1" r:id="rId1"/>
@@ -1839,17 +1839,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1860,7 +1854,13 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1869,11 +1869,11 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2191,22 +2191,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D12CE7C-BBBA-4F59-8D7F-3CFDA3C7ABC8}">
   <dimension ref="B2:E191"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A171" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="6"/>
-    <col min="2" max="2" width="9.453125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="111.1796875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="6"/>
+    <col min="2" max="2" width="9.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="111.140625" style="6" customWidth="1"/>
     <col min="4" max="4" width="14" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="6"/>
+    <col min="5" max="5" width="14.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.7109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="18" t="s">
+    <row r="2" spans="2:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="12" t="s">
@@ -2219,7 +2219,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
@@ -2229,7 +2229,7 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
@@ -2239,7 +2239,7 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -2249,7 +2249,7 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="7" t="s">
         <v>10</v>
       </c>
@@ -2259,7 +2259,7 @@
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
     </row>
-    <row r="7" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="7" t="s">
         <v>12</v>
       </c>
@@ -2269,7 +2269,7 @@
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
         <v>14</v>
       </c>
@@ -2279,7 +2279,7 @@
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
         <v>16</v>
       </c>
@@ -2289,7 +2289,7 @@
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
         <v>18</v>
       </c>
@@ -2299,7 +2299,7 @@
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
         <v>20</v>
       </c>
@@ -2309,7 +2309,7 @@
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
         <v>22</v>
       </c>
@@ -2319,7 +2319,7 @@
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
     </row>
-    <row r="13" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
         <v>24</v>
       </c>
@@ -2329,7 +2329,7 @@
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
     </row>
-    <row r="14" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="7" t="s">
         <v>26</v>
       </c>
@@ -2339,7 +2339,7 @@
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="7" t="s">
         <v>28</v>
       </c>
@@ -2349,7 +2349,7 @@
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
     </row>
-    <row r="16" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="7" t="s">
         <v>30</v>
       </c>
@@ -2359,7 +2359,7 @@
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
     </row>
-    <row r="17" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="7" t="s">
         <v>32</v>
       </c>
@@ -2369,7 +2369,7 @@
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
     </row>
-    <row r="18" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="7" t="s">
         <v>34</v>
       </c>
@@ -2379,7 +2379,7 @@
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
     </row>
-    <row r="19" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="7" t="s">
         <v>36</v>
       </c>
@@ -2389,7 +2389,7 @@
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
     </row>
-    <row r="20" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="7" t="s">
         <v>38</v>
       </c>
@@ -2399,7 +2399,7 @@
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
     </row>
-    <row r="21" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="7" t="s">
         <v>40</v>
       </c>
@@ -2409,7 +2409,7 @@
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
     </row>
-    <row r="22" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="7" t="s">
         <v>42</v>
       </c>
@@ -2419,7 +2419,7 @@
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
     </row>
-    <row r="23" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="7" t="s">
         <v>44</v>
       </c>
@@ -2429,7 +2429,7 @@
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
     </row>
-    <row r="24" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="7" t="s">
         <v>46</v>
       </c>
@@ -2439,7 +2439,7 @@
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
     </row>
-    <row r="25" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="7" t="s">
         <v>48</v>
       </c>
@@ -2449,7 +2449,7 @@
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
     </row>
-    <row r="26" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="7" t="s">
         <v>50</v>
       </c>
@@ -2459,7 +2459,7 @@
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
     </row>
-    <row r="27" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="7" t="s">
         <v>52</v>
       </c>
@@ -2469,7 +2469,7 @@
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
     </row>
-    <row r="28" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="7" t="s">
         <v>54</v>
       </c>
@@ -2479,7 +2479,7 @@
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
     </row>
-    <row r="29" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="7" t="s">
         <v>56</v>
       </c>
@@ -2489,7 +2489,7 @@
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
     </row>
-    <row r="30" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="7" t="s">
         <v>58</v>
       </c>
@@ -2499,7 +2499,7 @@
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
     </row>
-    <row r="31" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="7" t="s">
         <v>60</v>
       </c>
@@ -2509,7 +2509,7 @@
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
     </row>
-    <row r="32" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="7" t="s">
         <v>62</v>
       </c>
@@ -2519,7 +2519,7 @@
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
     </row>
-    <row r="33" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="7" t="s">
         <v>64</v>
       </c>
@@ -2529,7 +2529,7 @@
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
     </row>
-    <row r="34" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="7" t="s">
         <v>66</v>
       </c>
@@ -2539,7 +2539,7 @@
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
     </row>
-    <row r="35" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="7" t="s">
         <v>68</v>
       </c>
@@ -2549,7 +2549,7 @@
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
     </row>
-    <row r="36" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="7" t="s">
         <v>70</v>
       </c>
@@ -2559,7 +2559,7 @@
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
     </row>
-    <row r="37" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="7" t="s">
         <v>72</v>
       </c>
@@ -2569,7 +2569,7 @@
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
     </row>
-    <row r="38" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="7" t="s">
         <v>74</v>
       </c>
@@ -2579,7 +2579,7 @@
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
     </row>
-    <row r="39" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="7" t="s">
         <v>76</v>
       </c>
@@ -2589,7 +2589,7 @@
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
     </row>
-    <row r="40" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="7" t="s">
         <v>78</v>
       </c>
@@ -2599,7 +2599,7 @@
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
     </row>
-    <row r="41" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="7" t="s">
         <v>80</v>
       </c>
@@ -2609,7 +2609,7 @@
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
     </row>
-    <row r="42" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="7" t="s">
         <v>82</v>
       </c>
@@ -2619,7 +2619,7 @@
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
     </row>
-    <row r="43" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="7" t="s">
         <v>84</v>
       </c>
@@ -2629,7 +2629,7 @@
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
     </row>
-    <row r="44" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="7" t="s">
         <v>86</v>
       </c>
@@ -2639,7 +2639,7 @@
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
     </row>
-    <row r="45" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="7" t="s">
         <v>88</v>
       </c>
@@ -2649,7 +2649,7 @@
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
     </row>
-    <row r="46" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="7" t="s">
         <v>90</v>
       </c>
@@ -2659,7 +2659,7 @@
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
     </row>
-    <row r="47" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="7" t="s">
         <v>92</v>
       </c>
@@ -2669,7 +2669,7 @@
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
     </row>
-    <row r="48" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="7" t="s">
         <v>94</v>
       </c>
@@ -2679,7 +2679,7 @@
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
     </row>
-    <row r="49" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="7" t="s">
         <v>96</v>
       </c>
@@ -2689,7 +2689,7 @@
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
     </row>
-    <row r="50" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="7" t="s">
         <v>98</v>
       </c>
@@ -2699,7 +2699,7 @@
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
     </row>
-    <row r="51" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="7" t="s">
         <v>100</v>
       </c>
@@ -2709,7 +2709,7 @@
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
     </row>
-    <row r="52" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="7" t="s">
         <v>102</v>
       </c>
@@ -2719,7 +2719,7 @@
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
     </row>
-    <row r="53" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="7" t="s">
         <v>104</v>
       </c>
@@ -2729,7 +2729,7 @@
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
     </row>
-    <row r="54" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="7" t="s">
         <v>106</v>
       </c>
@@ -2739,7 +2739,7 @@
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
     </row>
-    <row r="55" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="7" t="s">
         <v>108</v>
       </c>
@@ -2749,7 +2749,7 @@
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
     </row>
-    <row r="56" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="7" t="s">
         <v>110</v>
       </c>
@@ -2759,7 +2759,7 @@
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
     </row>
-    <row r="57" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="7" t="s">
         <v>112</v>
       </c>
@@ -2769,7 +2769,7 @@
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
     </row>
-    <row r="58" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="7" t="s">
         <v>114</v>
       </c>
@@ -2779,7 +2779,7 @@
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
     </row>
-    <row r="59" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="7" t="s">
         <v>116</v>
       </c>
@@ -2789,7 +2789,7 @@
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
     </row>
-    <row r="60" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="7" t="s">
         <v>118</v>
       </c>
@@ -2799,7 +2799,7 @@
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
     </row>
-    <row r="61" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="7" t="s">
         <v>120</v>
       </c>
@@ -2809,7 +2809,7 @@
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
     </row>
-    <row r="62" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="7" t="s">
         <v>122</v>
       </c>
@@ -2819,7 +2819,7 @@
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
     </row>
-    <row r="63" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="7" t="s">
         <v>124</v>
       </c>
@@ -2829,7 +2829,7 @@
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
     </row>
-    <row r="64" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="7" t="s">
         <v>126</v>
       </c>
@@ -2839,7 +2839,7 @@
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
     </row>
-    <row r="65" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="7" t="s">
         <v>128</v>
       </c>
@@ -2849,7 +2849,7 @@
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
     </row>
-    <row r="66" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="7" t="s">
         <v>130</v>
       </c>
@@ -2859,7 +2859,7 @@
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
     </row>
-    <row r="67" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="7" t="s">
         <v>132</v>
       </c>
@@ -2869,7 +2869,7 @@
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
     </row>
-    <row r="68" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="7" t="s">
         <v>134</v>
       </c>
@@ -2879,7 +2879,7 @@
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
     </row>
-    <row r="69" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="7" t="s">
         <v>136</v>
       </c>
@@ -2889,7 +2889,7 @@
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
     </row>
-    <row r="70" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="7" t="s">
         <v>138</v>
       </c>
@@ -2899,7 +2899,7 @@
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
     </row>
-    <row r="71" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="7" t="s">
         <v>140</v>
       </c>
@@ -2909,7 +2909,7 @@
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
     </row>
-    <row r="72" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="7" t="s">
         <v>142</v>
       </c>
@@ -2919,7 +2919,7 @@
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
     </row>
-    <row r="73" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="7" t="s">
         <v>144</v>
       </c>
@@ -2929,7 +2929,7 @@
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
     </row>
-    <row r="74" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="7" t="s">
         <v>146</v>
       </c>
@@ -2939,7 +2939,7 @@
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
     </row>
-    <row r="75" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="7" t="s">
         <v>148</v>
       </c>
@@ -2949,7 +2949,7 @@
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
     </row>
-    <row r="76" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="7" t="s">
         <v>150</v>
       </c>
@@ -2959,7 +2959,7 @@
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
     </row>
-    <row r="77" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="7" t="s">
         <v>152</v>
       </c>
@@ -2969,7 +2969,7 @@
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
     </row>
-    <row r="78" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="7" t="s">
         <v>154</v>
       </c>
@@ -2979,7 +2979,7 @@
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
     </row>
-    <row r="79" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="7" t="s">
         <v>156</v>
       </c>
@@ -2989,7 +2989,7 @@
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
     </row>
-    <row r="80" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="7" t="s">
         <v>158</v>
       </c>
@@ -2999,7 +2999,7 @@
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
     </row>
-    <row r="81" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="7" t="s">
         <v>160</v>
       </c>
@@ -3009,7 +3009,7 @@
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
     </row>
-    <row r="82" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="7" t="s">
         <v>162</v>
       </c>
@@ -3019,8 +3019,8 @@
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
     </row>
-    <row r="83" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="17" t="s">
+    <row r="83" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B83" s="26" t="s">
         <v>164</v>
       </c>
       <c r="C83" s="3" t="s">
@@ -3029,31 +3029,31 @@
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
     </row>
-    <row r="84" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="17"/>
+    <row r="84" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B84" s="26"/>
       <c r="C84" s="4" t="s">
         <v>359</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
     </row>
-    <row r="85" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="17"/>
+    <row r="85" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B85" s="26"/>
       <c r="C85" s="4" t="s">
         <v>360</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
     </row>
-    <row r="86" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="17"/>
+    <row r="86" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B86" s="26"/>
       <c r="C86" s="4" t="s">
         <v>361</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
     </row>
-    <row r="87" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="7" t="s">
         <v>165</v>
       </c>
@@ -3063,7 +3063,7 @@
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
     </row>
-    <row r="88" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="7" t="s">
         <v>167</v>
       </c>
@@ -3073,7 +3073,7 @@
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
     </row>
-    <row r="89" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="7" t="s">
         <v>169</v>
       </c>
@@ -3083,7 +3083,7 @@
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
     </row>
-    <row r="90" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="7" t="s">
         <v>171</v>
       </c>
@@ -3093,7 +3093,7 @@
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
     </row>
-    <row r="91" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="7" t="s">
         <v>173</v>
       </c>
@@ -3103,7 +3103,7 @@
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
     </row>
-    <row r="92" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B92" s="7" t="s">
         <v>175</v>
       </c>
@@ -3113,7 +3113,7 @@
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
     </row>
-    <row r="93" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="7" t="s">
         <v>177</v>
       </c>
@@ -3123,7 +3123,7 @@
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
     </row>
-    <row r="94" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="7" t="s">
         <v>179</v>
       </c>
@@ -3133,7 +3133,7 @@
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
     </row>
-    <row r="95" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="7" t="s">
         <v>181</v>
       </c>
@@ -3143,7 +3143,7 @@
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
     </row>
-    <row r="96" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B96" s="7" t="s">
         <v>183</v>
       </c>
@@ -3153,7 +3153,7 @@
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
     </row>
-    <row r="97" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B97" s="7" t="s">
         <v>185</v>
       </c>
@@ -3163,7 +3163,7 @@
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
     </row>
-    <row r="98" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B98" s="7" t="s">
         <v>187</v>
       </c>
@@ -3173,7 +3173,7 @@
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
     </row>
-    <row r="99" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="7" t="s">
         <v>189</v>
       </c>
@@ -3183,7 +3183,7 @@
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
     </row>
-    <row r="100" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="7" t="s">
         <v>191</v>
       </c>
@@ -3193,7 +3193,7 @@
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
     </row>
-    <row r="101" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="7" t="s">
         <v>193</v>
       </c>
@@ -3203,7 +3203,7 @@
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
     </row>
-    <row r="102" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="7" t="s">
         <v>195</v>
       </c>
@@ -3213,7 +3213,7 @@
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
     </row>
-    <row r="103" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="7" t="s">
         <v>197</v>
       </c>
@@ -3223,7 +3223,7 @@
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
     </row>
-    <row r="104" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B104" s="7" t="s">
         <v>199</v>
       </c>
@@ -3233,7 +3233,7 @@
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
     </row>
-    <row r="105" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B105" s="7" t="s">
         <v>201</v>
       </c>
@@ -3243,7 +3243,7 @@
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
     </row>
-    <row r="106" spans="2:5" ht="26" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B106" s="7" t="s">
         <v>203</v>
       </c>
@@ -3253,7 +3253,7 @@
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
     </row>
-    <row r="107" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B107" s="7" t="s">
         <v>205</v>
       </c>
@@ -3263,7 +3263,7 @@
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
     </row>
-    <row r="108" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B108" s="7" t="s">
         <v>207</v>
       </c>
@@ -3273,7 +3273,7 @@
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
     </row>
-    <row r="109" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="7" t="s">
         <v>209</v>
       </c>
@@ -3283,7 +3283,7 @@
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
     </row>
-    <row r="110" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B110" s="7" t="s">
         <v>211</v>
       </c>
@@ -3293,7 +3293,7 @@
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
     </row>
-    <row r="111" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B111" s="7" t="s">
         <v>213</v>
       </c>
@@ -3303,7 +3303,7 @@
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
     </row>
-    <row r="112" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B112" s="7" t="s">
         <v>215</v>
       </c>
@@ -3313,7 +3313,7 @@
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
     </row>
-    <row r="113" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B113" s="7" t="s">
         <v>217</v>
       </c>
@@ -3323,7 +3323,7 @@
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
     </row>
-    <row r="114" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B114" s="7" t="s">
         <v>219</v>
       </c>
@@ -3333,7 +3333,7 @@
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
     </row>
-    <row r="115" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B115" s="7" t="s">
         <v>221</v>
       </c>
@@ -3343,7 +3343,7 @@
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
     </row>
-    <row r="116" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B116" s="7" t="s">
         <v>223</v>
       </c>
@@ -3353,7 +3353,7 @@
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
     </row>
-    <row r="117" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B117" s="7" t="s">
         <v>224</v>
       </c>
@@ -3363,7 +3363,7 @@
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
     </row>
-    <row r="118" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B118" s="7" t="s">
         <v>226</v>
       </c>
@@ -3373,7 +3373,7 @@
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
     </row>
-    <row r="119" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B119" s="7" t="s">
         <v>228</v>
       </c>
@@ -3383,7 +3383,7 @@
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
     </row>
-    <row r="120" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B120" s="7" t="s">
         <v>230</v>
       </c>
@@ -3393,7 +3393,7 @@
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
     </row>
-    <row r="121" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B121" s="7" t="s">
         <v>232</v>
       </c>
@@ -3403,7 +3403,7 @@
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
     </row>
-    <row r="122" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B122" s="7" t="s">
         <v>234</v>
       </c>
@@ -3413,7 +3413,7 @@
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
     </row>
-    <row r="123" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B123" s="7" t="s">
         <v>236</v>
       </c>
@@ -3423,7 +3423,7 @@
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
     </row>
-    <row r="124" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B124" s="7" t="s">
         <v>238</v>
       </c>
@@ -3433,7 +3433,7 @@
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
     </row>
-    <row r="125" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B125" s="7" t="s">
         <v>240</v>
       </c>
@@ -3443,7 +3443,7 @@
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
     </row>
-    <row r="126" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B126" s="7" t="s">
         <v>242</v>
       </c>
@@ -3453,7 +3453,7 @@
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
     </row>
-    <row r="127" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B127" s="7" t="s">
         <v>244</v>
       </c>
@@ -3463,7 +3463,7 @@
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
     </row>
-    <row r="128" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B128" s="7" t="s">
         <v>246</v>
       </c>
@@ -3473,7 +3473,7 @@
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
     </row>
-    <row r="129" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B129" s="7" t="s">
         <v>248</v>
       </c>
@@ -3483,7 +3483,7 @@
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
     </row>
-    <row r="130" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B130" s="7" t="s">
         <v>250</v>
       </c>
@@ -3493,7 +3493,7 @@
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
     </row>
-    <row r="131" spans="2:5" ht="26" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B131" s="7" t="s">
         <v>252</v>
       </c>
@@ -3503,7 +3503,7 @@
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
     </row>
-    <row r="132" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B132" s="7" t="s">
         <v>254</v>
       </c>
@@ -3513,7 +3513,7 @@
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
     </row>
-    <row r="133" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B133" s="7" t="s">
         <v>256</v>
       </c>
@@ -3523,7 +3523,7 @@
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
     </row>
-    <row r="134" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B134" s="7" t="s">
         <v>258</v>
       </c>
@@ -3533,7 +3533,7 @@
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
     </row>
-    <row r="135" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B135" s="7" t="s">
         <v>260</v>
       </c>
@@ -3543,7 +3543,7 @@
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
     </row>
-    <row r="136" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B136" s="7" t="s">
         <v>262</v>
       </c>
@@ -3553,7 +3553,7 @@
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
     </row>
-    <row r="137" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B137" s="7" t="s">
         <v>264</v>
       </c>
@@ -3563,7 +3563,7 @@
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
     </row>
-    <row r="138" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B138" s="7" t="s">
         <v>266</v>
       </c>
@@ -3573,7 +3573,7 @@
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
     </row>
-    <row r="139" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B139" s="7" t="s">
         <v>268</v>
       </c>
@@ -3583,7 +3583,7 @@
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
     </row>
-    <row r="140" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B140" s="7" t="s">
         <v>270</v>
       </c>
@@ -3593,7 +3593,7 @@
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
     </row>
-    <row r="141" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B141" s="7" t="s">
         <v>272</v>
       </c>
@@ -3603,7 +3603,7 @@
       <c r="D141" s="8"/>
       <c r="E141" s="8"/>
     </row>
-    <row r="142" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B142" s="7" t="s">
         <v>274</v>
       </c>
@@ -3613,7 +3613,7 @@
       <c r="D142" s="8"/>
       <c r="E142" s="8"/>
     </row>
-    <row r="143" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B143" s="7" t="s">
         <v>276</v>
       </c>
@@ -3623,7 +3623,7 @@
       <c r="D143" s="8"/>
       <c r="E143" s="8"/>
     </row>
-    <row r="144" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B144" s="7" t="s">
         <v>278</v>
       </c>
@@ -3633,7 +3633,7 @@
       <c r="D144" s="8"/>
       <c r="E144" s="8"/>
     </row>
-    <row r="145" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B145" s="7" t="s">
         <v>280</v>
       </c>
@@ -3643,7 +3643,7 @@
       <c r="D145" s="8"/>
       <c r="E145" s="8"/>
     </row>
-    <row r="146" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B146" s="7" t="s">
         <v>282</v>
       </c>
@@ -3653,7 +3653,7 @@
       <c r="D146" s="8"/>
       <c r="E146" s="8"/>
     </row>
-    <row r="147" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B147" s="7" t="s">
         <v>284</v>
       </c>
@@ -3663,7 +3663,7 @@
       <c r="D147" s="8"/>
       <c r="E147" s="8"/>
     </row>
-    <row r="148" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B148" s="7" t="s">
         <v>286</v>
       </c>
@@ -3673,7 +3673,7 @@
       <c r="D148" s="8"/>
       <c r="E148" s="8"/>
     </row>
-    <row r="149" spans="2:5" ht="26" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B149" s="7" t="s">
         <v>288</v>
       </c>
@@ -3683,7 +3683,7 @@
       <c r="D149" s="8"/>
       <c r="E149" s="8"/>
     </row>
-    <row r="150" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B150" s="7" t="s">
         <v>290</v>
       </c>
@@ -3693,7 +3693,7 @@
       <c r="D150" s="8"/>
       <c r="E150" s="8"/>
     </row>
-    <row r="151" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B151" s="7" t="s">
         <v>292</v>
       </c>
@@ -3703,7 +3703,7 @@
       <c r="D151" s="8"/>
       <c r="E151" s="8"/>
     </row>
-    <row r="152" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B152" s="7" t="s">
         <v>294</v>
       </c>
@@ -3713,7 +3713,7 @@
       <c r="D152" s="8"/>
       <c r="E152" s="8"/>
     </row>
-    <row r="153" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B153" s="7" t="s">
         <v>296</v>
       </c>
@@ -3723,7 +3723,7 @@
       <c r="D153" s="8"/>
       <c r="E153" s="8"/>
     </row>
-    <row r="154" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B154" s="7" t="s">
         <v>298</v>
       </c>
@@ -3733,7 +3733,7 @@
       <c r="D154" s="8"/>
       <c r="E154" s="8"/>
     </row>
-    <row r="155" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B155" s="7" t="s">
         <v>300</v>
       </c>
@@ -3743,7 +3743,7 @@
       <c r="D155" s="8"/>
       <c r="E155" s="8"/>
     </row>
-    <row r="156" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B156" s="7" t="s">
         <v>302</v>
       </c>
@@ -3753,7 +3753,7 @@
       <c r="D156" s="8"/>
       <c r="E156" s="8"/>
     </row>
-    <row r="157" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B157" s="7" t="s">
         <v>304</v>
       </c>
@@ -3763,7 +3763,7 @@
       <c r="D157" s="8"/>
       <c r="E157" s="8"/>
     </row>
-    <row r="158" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B158" s="7" t="s">
         <v>306</v>
       </c>
@@ -3773,7 +3773,7 @@
       <c r="D158" s="8"/>
       <c r="E158" s="8"/>
     </row>
-    <row r="159" spans="2:5" ht="26" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B159" s="7" t="s">
         <v>308</v>
       </c>
@@ -3783,7 +3783,7 @@
       <c r="D159" s="8"/>
       <c r="E159" s="8"/>
     </row>
-    <row r="160" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B160" s="7" t="s">
         <v>310</v>
       </c>
@@ -3793,7 +3793,7 @@
       <c r="D160" s="8"/>
       <c r="E160" s="8"/>
     </row>
-    <row r="161" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B161" s="7" t="s">
         <v>312</v>
       </c>
@@ -3803,7 +3803,7 @@
       <c r="D161" s="8"/>
       <c r="E161" s="8"/>
     </row>
-    <row r="162" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B162" s="7" t="s">
         <v>314</v>
       </c>
@@ -3813,7 +3813,7 @@
       <c r="D162" s="8"/>
       <c r="E162" s="8"/>
     </row>
-    <row r="163" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B163" s="7" t="s">
         <v>316</v>
       </c>
@@ -3823,7 +3823,7 @@
       <c r="D163" s="8"/>
       <c r="E163" s="8"/>
     </row>
-    <row r="164" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B164" s="7" t="s">
         <v>318</v>
       </c>
@@ -3833,7 +3833,7 @@
       <c r="D164" s="8"/>
       <c r="E164" s="8"/>
     </row>
-    <row r="165" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B165" s="7" t="s">
         <v>320</v>
       </c>
@@ -3843,7 +3843,7 @@
       <c r="D165" s="8"/>
       <c r="E165" s="8"/>
     </row>
-    <row r="166" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B166" s="7" t="s">
         <v>322</v>
       </c>
@@ -3853,7 +3853,7 @@
       <c r="D166" s="8"/>
       <c r="E166" s="8"/>
     </row>
-    <row r="167" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B167" s="7" t="s">
         <v>324</v>
       </c>
@@ -3863,7 +3863,7 @@
       <c r="D167" s="8"/>
       <c r="E167" s="8"/>
     </row>
-    <row r="168" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B168" s="7" t="s">
         <v>326</v>
       </c>
@@ -3873,7 +3873,7 @@
       <c r="D168" s="8"/>
       <c r="E168" s="8"/>
     </row>
-    <row r="169" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B169" s="7" t="s">
         <v>328</v>
       </c>
@@ -3883,7 +3883,7 @@
       <c r="D169" s="8"/>
       <c r="E169" s="8"/>
     </row>
-    <row r="170" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B170" s="7" t="s">
         <v>330</v>
       </c>
@@ -3893,7 +3893,7 @@
       <c r="D170" s="8"/>
       <c r="E170" s="8"/>
     </row>
-    <row r="171" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B171" s="7" t="s">
         <v>332</v>
       </c>
@@ -3903,7 +3903,7 @@
       <c r="D171" s="8"/>
       <c r="E171" s="8"/>
     </row>
-    <row r="172" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B172" s="7" t="s">
         <v>334</v>
       </c>
@@ -3913,7 +3913,7 @@
       <c r="D172" s="8"/>
       <c r="E172" s="8"/>
     </row>
-    <row r="173" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B173" s="7" t="s">
         <v>336</v>
       </c>
@@ -3923,7 +3923,7 @@
       <c r="D173" s="8"/>
       <c r="E173" s="8"/>
     </row>
-    <row r="174" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B174" s="7" t="s">
         <v>338</v>
       </c>
@@ -3933,7 +3933,7 @@
       <c r="D174" s="8"/>
       <c r="E174" s="8"/>
     </row>
-    <row r="175" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B175" s="7" t="s">
         <v>340</v>
       </c>
@@ -3943,7 +3943,7 @@
       <c r="D175" s="8"/>
       <c r="E175" s="8"/>
     </row>
-    <row r="176" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B176" s="7" t="s">
         <v>342</v>
       </c>
@@ -3953,7 +3953,7 @@
       <c r="D176" s="8"/>
       <c r="E176" s="8"/>
     </row>
-    <row r="177" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B177" s="7" t="s">
         <v>344</v>
       </c>
@@ -3963,7 +3963,7 @@
       <c r="D177" s="8"/>
       <c r="E177" s="8"/>
     </row>
-    <row r="178" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B178" s="7" t="s">
         <v>346</v>
       </c>
@@ -3973,7 +3973,7 @@
       <c r="D178" s="8"/>
       <c r="E178" s="8"/>
     </row>
-    <row r="179" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B179" s="7" t="s">
         <v>348</v>
       </c>
@@ -3983,7 +3983,7 @@
       <c r="D179" s="8"/>
       <c r="E179" s="8"/>
     </row>
-    <row r="180" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B180" s="7" t="s">
         <v>350</v>
       </c>
@@ -3993,7 +3993,7 @@
       <c r="D180" s="8"/>
       <c r="E180" s="8"/>
     </row>
-    <row r="181" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B181" s="7" t="s">
         <v>352</v>
       </c>
@@ -4003,7 +4003,7 @@
       <c r="D181" s="8"/>
       <c r="E181" s="8"/>
     </row>
-    <row r="182" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B182" s="7" t="s">
         <v>354</v>
       </c>
@@ -4013,7 +4013,7 @@
       <c r="D182" s="8"/>
       <c r="E182" s="8"/>
     </row>
-    <row r="183" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B183" s="7" t="s">
         <v>356</v>
       </c>
@@ -4023,7 +4023,7 @@
       <c r="D183" s="8"/>
       <c r="E183" s="8"/>
     </row>
-    <row r="184" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B184" s="7" t="s">
         <v>363</v>
       </c>
@@ -4033,7 +4033,7 @@
       <c r="D184" s="8"/>
       <c r="E184" s="8"/>
     </row>
-    <row r="185" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B185" s="7" t="s">
         <v>365</v>
       </c>
@@ -4043,7 +4043,7 @@
       <c r="D185" s="8"/>
       <c r="E185" s="8"/>
     </row>
-    <row r="186" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B186" s="7" t="s">
         <v>367</v>
       </c>
@@ -4053,7 +4053,7 @@
       <c r="D186" s="8"/>
       <c r="E186" s="8"/>
     </row>
-    <row r="187" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B187" s="7" t="s">
         <v>369</v>
       </c>
@@ -4063,7 +4063,7 @@
       <c r="D187" s="8"/>
       <c r="E187" s="8"/>
     </row>
-    <row r="188" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B188" s="7" t="s">
         <v>371</v>
       </c>
@@ -4073,7 +4073,7 @@
       <c r="D188" s="8"/>
       <c r="E188" s="8"/>
     </row>
-    <row r="189" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B189" s="7" t="s">
         <v>373</v>
       </c>
@@ -4083,7 +4083,7 @@
       <c r="D189" s="8"/>
       <c r="E189" s="8"/>
     </row>
-    <row r="190" spans="2:5" ht="26" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B190" s="7" t="s">
         <v>375</v>
       </c>
@@ -4093,7 +4093,7 @@
       <c r="D190" s="8"/>
       <c r="E190" s="8"/>
     </row>
-    <row r="191" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B191" s="7" t="s">
         <v>377</v>
       </c>
@@ -4116,21 +4116,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15F4E332-D133-4B0A-92C1-5633636035DF}">
   <dimension ref="B3:G72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
-    <col min="2" max="2" width="3.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.453125" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.90625" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="8.7109375" style="1"/>
+    <col min="2" max="2" width="3.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.42578125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" s="13" t="s">
         <v>379</v>
       </c>
@@ -4144,7 +4144,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4" s="9">
         <v>1</v>
       </c>
@@ -4156,7 +4156,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5" s="9">
         <v>2</v>
       </c>
@@ -4168,7 +4168,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6" s="9">
         <v>3</v>
       </c>
@@ -4180,7 +4180,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B7" s="9">
         <v>4</v>
       </c>
@@ -4192,7 +4192,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8" s="9">
         <v>5</v>
       </c>
@@ -4205,7 +4205,7 @@
       </c>
       <c r="G8" s="10"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B9" s="9">
         <v>6</v>
       </c>
@@ -4217,7 +4217,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10" s="9">
         <v>7</v>
       </c>
@@ -4229,7 +4229,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B11" s="9">
         <v>8</v>
       </c>
@@ -4241,7 +4241,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B12" s="9">
         <v>9</v>
       </c>
@@ -4253,7 +4253,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B13" s="9">
         <v>10</v>
       </c>
@@ -4265,7 +4265,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B14" s="9">
         <v>11</v>
       </c>
@@ -4277,7 +4277,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B15" s="9">
         <v>12</v>
       </c>
@@ -4289,7 +4289,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B16" s="9">
         <v>13</v>
       </c>
@@ -4301,7 +4301,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="9">
         <v>14</v>
       </c>
@@ -4313,7 +4313,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="9">
         <v>15</v>
       </c>
@@ -4325,7 +4325,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="9">
         <v>16</v>
       </c>
@@ -4337,7 +4337,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="9">
         <v>17</v>
       </c>
@@ -4349,7 +4349,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="9">
         <v>18</v>
       </c>
@@ -4361,7 +4361,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="9">
         <v>19</v>
       </c>
@@ -4373,7 +4373,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="9">
         <v>20</v>
       </c>
@@ -4385,7 +4385,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="9">
         <v>21</v>
       </c>
@@ -4397,7 +4397,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="9">
         <v>22</v>
       </c>
@@ -4409,7 +4409,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="9">
         <v>23</v>
       </c>
@@ -4421,7 +4421,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="9">
         <v>24</v>
       </c>
@@ -4429,7 +4429,7 @@
       <c r="D27" s="9"/>
       <c r="E27" s="14"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28" s="9">
         <v>25</v>
       </c>
@@ -4437,7 +4437,7 @@
       <c r="D28" s="9"/>
       <c r="E28" s="14"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" s="9">
         <v>26</v>
       </c>
@@ -4445,7 +4445,7 @@
       <c r="D29" s="9"/>
       <c r="E29" s="14"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30" s="9">
         <v>27</v>
       </c>
@@ -4453,7 +4453,7 @@
       <c r="D30" s="9"/>
       <c r="E30" s="14"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B31" s="9">
         <v>28</v>
       </c>
@@ -4461,7 +4461,7 @@
       <c r="D31" s="9"/>
       <c r="E31" s="14"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32" s="9">
         <v>29</v>
       </c>
@@ -4469,7 +4469,7 @@
       <c r="D32" s="9"/>
       <c r="E32" s="14"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33" s="9">
         <v>30</v>
       </c>
@@ -4477,7 +4477,7 @@
       <c r="D33" s="9"/>
       <c r="E33" s="14"/>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" s="9">
         <v>31</v>
       </c>
@@ -4485,7 +4485,7 @@
       <c r="D34" s="9"/>
       <c r="E34" s="14"/>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35" s="9">
         <v>32</v>
       </c>
@@ -4493,7 +4493,7 @@
       <c r="D35" s="9"/>
       <c r="E35" s="14"/>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36" s="9">
         <v>33</v>
       </c>
@@ -4501,7 +4501,7 @@
       <c r="D36" s="9"/>
       <c r="E36" s="14"/>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B37" s="9">
         <v>34</v>
       </c>
@@ -4509,7 +4509,7 @@
       <c r="D37" s="9"/>
       <c r="E37" s="14"/>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B38" s="9">
         <v>35</v>
       </c>
@@ -4517,7 +4517,7 @@
       <c r="D38" s="9"/>
       <c r="E38" s="14"/>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B39" s="9">
         <v>36</v>
       </c>
@@ -4525,7 +4525,7 @@
       <c r="D39" s="9"/>
       <c r="E39" s="14"/>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B40" s="9">
         <v>37</v>
       </c>
@@ -4533,7 +4533,7 @@
       <c r="D40" s="9"/>
       <c r="E40" s="14"/>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B41" s="9">
         <v>38</v>
       </c>
@@ -4541,7 +4541,7 @@
       <c r="D41" s="9"/>
       <c r="E41" s="14"/>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B42" s="9">
         <v>39</v>
       </c>
@@ -4549,7 +4549,7 @@
       <c r="D42" s="9"/>
       <c r="E42" s="14"/>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B43" s="9">
         <v>40</v>
       </c>
@@ -4557,7 +4557,7 @@
       <c r="D43" s="9"/>
       <c r="E43" s="14"/>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B44" s="9">
         <v>41</v>
       </c>
@@ -4565,7 +4565,7 @@
       <c r="D44" s="9"/>
       <c r="E44" s="14"/>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B45" s="9">
         <v>42</v>
       </c>
@@ -4573,7 +4573,7 @@
       <c r="D45" s="9"/>
       <c r="E45" s="14"/>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B46" s="9">
         <v>43</v>
       </c>
@@ -4581,7 +4581,7 @@
       <c r="D46" s="9"/>
       <c r="E46" s="14"/>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B47" s="9">
         <v>44</v>
       </c>
@@ -4589,7 +4589,7 @@
       <c r="D47" s="9"/>
       <c r="E47" s="14"/>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B48" s="9">
         <v>45</v>
       </c>
@@ -4597,7 +4597,7 @@
       <c r="D48" s="9"/>
       <c r="E48" s="14"/>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B49" s="9">
         <v>46</v>
       </c>
@@ -4605,7 +4605,7 @@
       <c r="D49" s="9"/>
       <c r="E49" s="14"/>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B50" s="9">
         <v>47</v>
       </c>
@@ -4613,7 +4613,7 @@
       <c r="D50" s="9"/>
       <c r="E50" s="14"/>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B51" s="9">
         <v>48</v>
       </c>
@@ -4621,7 +4621,7 @@
       <c r="D51" s="9"/>
       <c r="E51" s="14"/>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B52" s="9">
         <v>49</v>
       </c>
@@ -4629,7 +4629,7 @@
       <c r="D52" s="9"/>
       <c r="E52" s="14"/>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B53" s="9">
         <v>50</v>
       </c>
@@ -4637,7 +4637,7 @@
       <c r="D53" s="9"/>
       <c r="E53" s="14"/>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B54" s="9">
         <v>51</v>
       </c>
@@ -4645,7 +4645,7 @@
       <c r="D54" s="9"/>
       <c r="E54" s="14"/>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B55" s="9">
         <v>52</v>
       </c>
@@ -4653,7 +4653,7 @@
       <c r="D55" s="9"/>
       <c r="E55" s="14"/>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B56" s="9">
         <v>53</v>
       </c>
@@ -4661,7 +4661,7 @@
       <c r="D56" s="9"/>
       <c r="E56" s="14"/>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B57" s="9">
         <v>54</v>
       </c>
@@ -4669,7 +4669,7 @@
       <c r="D57" s="9"/>
       <c r="E57" s="14"/>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B58" s="9">
         <v>55</v>
       </c>
@@ -4677,7 +4677,7 @@
       <c r="D58" s="9"/>
       <c r="E58" s="14"/>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B59" s="9">
         <v>56</v>
       </c>
@@ -4685,7 +4685,7 @@
       <c r="D59" s="9"/>
       <c r="E59" s="14"/>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B60" s="9">
         <v>57</v>
       </c>
@@ -4693,7 +4693,7 @@
       <c r="D60" s="9"/>
       <c r="E60" s="14"/>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B61" s="9">
         <v>58</v>
       </c>
@@ -4701,7 +4701,7 @@
       <c r="D61" s="9"/>
       <c r="E61" s="14"/>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B62" s="9">
         <v>59</v>
       </c>
@@ -4709,7 +4709,7 @@
       <c r="D62" s="9"/>
       <c r="E62" s="14"/>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B63" s="9">
         <v>60</v>
       </c>
@@ -4717,7 +4717,7 @@
       <c r="D63" s="9"/>
       <c r="E63" s="14"/>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B64" s="9">
         <v>61</v>
       </c>
@@ -4725,7 +4725,7 @@
       <c r="D64" s="9"/>
       <c r="E64" s="14"/>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B65" s="9">
         <v>62</v>
       </c>
@@ -4733,7 +4733,7 @@
       <c r="D65" s="9"/>
       <c r="E65" s="14"/>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B66" s="9">
         <v>63</v>
       </c>
@@ -4741,7 +4741,7 @@
       <c r="D66" s="9"/>
       <c r="E66" s="14"/>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B67" s="9">
         <v>64</v>
       </c>
@@ -4749,7 +4749,7 @@
       <c r="D67" s="9"/>
       <c r="E67" s="14"/>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B68" s="9">
         <v>65</v>
       </c>
@@ -4757,7 +4757,7 @@
       <c r="D68" s="9"/>
       <c r="E68" s="14"/>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B69" s="9">
         <v>66</v>
       </c>
@@ -4765,7 +4765,7 @@
       <c r="D69" s="9"/>
       <c r="E69" s="14"/>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B70" s="9">
         <v>67</v>
       </c>
@@ -4773,7 +4773,7 @@
       <c r="D70" s="9"/>
       <c r="E70" s="14"/>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B71" s="9">
         <v>68</v>
       </c>
@@ -4781,7 +4781,7 @@
       <c r="D71" s="9"/>
       <c r="E71" s="14"/>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B72" s="9">
         <v>69</v>
       </c>
@@ -4799,21 +4799,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B759393E-1290-4E33-A086-7F2745429EA5}">
   <dimension ref="B3:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B9" workbookViewId="0">
       <selection activeCell="E19" sqref="E19:E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
-    <col min="2" max="2" width="3.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.453125" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="105.54296875" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="8.7109375" style="1"/>
+    <col min="2" max="2" width="3.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.42578125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="105.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" s="13" t="s">
         <v>379</v>
       </c>
@@ -4827,7 +4827,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4" s="9">
         <v>1</v>
       </c>
@@ -4839,7 +4839,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5" s="9">
         <v>2</v>
       </c>
@@ -4851,7 +4851,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6" s="9">
         <v>3</v>
       </c>
@@ -4863,7 +4863,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="26" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B7" s="9">
         <v>4</v>
       </c>
@@ -4875,7 +4875,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="26" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B8" s="9">
         <v>5</v>
       </c>
@@ -4888,7 +4888,7 @@
       </c>
       <c r="G8" s="10"/>
     </row>
-    <row r="9" spans="2:7" ht="26" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B9" s="9">
         <v>6</v>
       </c>
@@ -4900,7 +4900,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="26" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B10" s="9">
         <v>7</v>
       </c>
@@ -4912,7 +4912,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B11" s="9">
         <v>8</v>
       </c>
@@ -4924,7 +4924,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B12" s="9">
         <v>9</v>
       </c>
@@ -4936,7 +4936,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="26" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B13" s="9">
         <v>10</v>
       </c>
@@ -4948,7 +4948,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="26" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B14" s="9">
         <v>11</v>
       </c>
@@ -4960,7 +4960,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="26" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B15" s="9">
         <v>12</v>
       </c>
@@ -4972,7 +4972,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="16" spans="2:7" ht="26" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B16" s="9">
         <v>13</v>
       </c>
@@ -4984,7 +4984,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="26" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B17" s="9">
         <v>14</v>
       </c>
@@ -4996,7 +4996,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="26" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B18" s="9">
         <v>15</v>
       </c>
@@ -5008,7 +5008,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="26" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B19" s="9">
         <v>16</v>
       </c>
@@ -5020,7 +5020,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="26" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B20" s="9">
         <v>17</v>
       </c>
@@ -5032,7 +5032,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="26" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B21" s="9">
         <v>18</v>
       </c>
@@ -5044,7 +5044,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="26" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B22" s="9">
         <v>19</v>
       </c>
@@ -5056,7 +5056,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="9">
         <v>20</v>
       </c>
@@ -5066,7 +5066,7 @@
       <c r="D23" s="9"/>
       <c r="E23" s="16"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="9">
         <v>21</v>
       </c>
@@ -5076,7 +5076,7 @@
       <c r="D24" s="9"/>
       <c r="E24" s="16"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="9">
         <v>22</v>
       </c>
@@ -5086,7 +5086,7 @@
       <c r="D25" s="9"/>
       <c r="E25" s="16"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="9">
         <v>23</v>
       </c>
@@ -5096,7 +5096,7 @@
       <c r="D26" s="9"/>
       <c r="E26" s="16"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="9">
         <v>24</v>
       </c>
@@ -5104,7 +5104,7 @@
       <c r="D27" s="9"/>
       <c r="E27" s="16"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28" s="9">
         <v>25</v>
       </c>
@@ -5112,7 +5112,7 @@
       <c r="D28" s="9"/>
       <c r="E28" s="16"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" s="9">
         <v>26</v>
       </c>
@@ -5120,7 +5120,7 @@
       <c r="D29" s="9"/>
       <c r="E29" s="16"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30" s="9">
         <v>27</v>
       </c>
@@ -5128,7 +5128,7 @@
       <c r="D30" s="9"/>
       <c r="E30" s="16"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B31" s="9">
         <v>28</v>
       </c>
@@ -5136,7 +5136,7 @@
       <c r="D31" s="9"/>
       <c r="E31" s="16"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32" s="9">
         <v>29</v>
       </c>
@@ -5144,7 +5144,7 @@
       <c r="D32" s="9"/>
       <c r="E32" s="16"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33" s="9">
         <v>30</v>
       </c>
@@ -5152,7 +5152,7 @@
       <c r="D33" s="9"/>
       <c r="E33" s="16"/>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" s="9">
         <v>31</v>
       </c>
@@ -5160,7 +5160,7 @@
       <c r="D34" s="9"/>
       <c r="E34" s="16"/>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35" s="9">
         <v>32</v>
       </c>
@@ -5168,7 +5168,7 @@
       <c r="D35" s="9"/>
       <c r="E35" s="16"/>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36" s="9">
         <v>33</v>
       </c>
@@ -5176,7 +5176,7 @@
       <c r="D36" s="9"/>
       <c r="E36" s="16"/>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B37" s="9">
         <v>34</v>
       </c>
@@ -5184,7 +5184,7 @@
       <c r="D37" s="9"/>
       <c r="E37" s="16"/>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B38" s="9">
         <v>35</v>
       </c>
@@ -5192,7 +5192,7 @@
       <c r="D38" s="9"/>
       <c r="E38" s="16"/>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B39" s="9">
         <v>36</v>
       </c>
@@ -5200,7 +5200,7 @@
       <c r="D39" s="9"/>
       <c r="E39" s="16"/>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B40" s="9">
         <v>37</v>
       </c>
@@ -5208,7 +5208,7 @@
       <c r="D40" s="9"/>
       <c r="E40" s="16"/>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B41" s="9">
         <v>38</v>
       </c>
@@ -5216,7 +5216,7 @@
       <c r="D41" s="9"/>
       <c r="E41" s="16"/>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B42" s="9">
         <v>39</v>
       </c>
@@ -5224,7 +5224,7 @@
       <c r="D42" s="9"/>
       <c r="E42" s="16"/>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B43" s="9">
         <v>40</v>
       </c>
@@ -5232,7 +5232,7 @@
       <c r="D43" s="9"/>
       <c r="E43" s="16"/>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B44" s="9">
         <v>41</v>
       </c>
@@ -5240,7 +5240,7 @@
       <c r="D44" s="9"/>
       <c r="E44" s="16"/>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B45" s="9">
         <v>42</v>
       </c>
@@ -5248,7 +5248,7 @@
       <c r="D45" s="9"/>
       <c r="E45" s="16"/>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B46" s="9">
         <v>43</v>
       </c>
@@ -5256,7 +5256,7 @@
       <c r="D46" s="9"/>
       <c r="E46" s="16"/>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B47" s="9">
         <v>44</v>
       </c>
@@ -5264,7 +5264,7 @@
       <c r="D47" s="9"/>
       <c r="E47" s="16"/>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B48" s="9">
         <v>45</v>
       </c>
@@ -5272,7 +5272,7 @@
       <c r="D48" s="9"/>
       <c r="E48" s="16"/>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B49" s="9">
         <v>46</v>
       </c>
@@ -5280,7 +5280,7 @@
       <c r="D49" s="9"/>
       <c r="E49" s="16"/>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B50" s="9">
         <v>47</v>
       </c>
@@ -5288,7 +5288,7 @@
       <c r="D50" s="9"/>
       <c r="E50" s="16"/>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B51" s="9">
         <v>48</v>
       </c>
@@ -5296,7 +5296,7 @@
       <c r="D51" s="9"/>
       <c r="E51" s="16"/>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B52" s="9">
         <v>49</v>
       </c>
@@ -5304,7 +5304,7 @@
       <c r="D52" s="9"/>
       <c r="E52" s="16"/>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B53" s="9">
         <v>50</v>
       </c>
@@ -5312,7 +5312,7 @@
       <c r="D53" s="9"/>
       <c r="E53" s="16"/>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B54" s="9">
         <v>51</v>
       </c>
@@ -5320,7 +5320,7 @@
       <c r="D54" s="9"/>
       <c r="E54" s="16"/>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B55" s="9">
         <v>52</v>
       </c>
@@ -5328,7 +5328,7 @@
       <c r="D55" s="9"/>
       <c r="E55" s="16"/>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B56" s="9">
         <v>53</v>
       </c>
@@ -5336,7 +5336,7 @@
       <c r="D56" s="9"/>
       <c r="E56" s="16"/>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B57" s="9">
         <v>54</v>
       </c>
@@ -5344,7 +5344,7 @@
       <c r="D57" s="9"/>
       <c r="E57" s="16"/>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B58" s="9">
         <v>55</v>
       </c>
@@ -5352,7 +5352,7 @@
       <c r="D58" s="9"/>
       <c r="E58" s="16"/>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B59" s="9">
         <v>56</v>
       </c>
@@ -5360,7 +5360,7 @@
       <c r="D59" s="9"/>
       <c r="E59" s="16"/>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B60" s="9">
         <v>57</v>
       </c>
@@ -5368,7 +5368,7 @@
       <c r="D60" s="9"/>
       <c r="E60" s="16"/>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B61" s="9">
         <v>58</v>
       </c>
@@ -5376,7 +5376,7 @@
       <c r="D61" s="9"/>
       <c r="E61" s="16"/>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B62" s="9">
         <v>59</v>
       </c>
@@ -5384,7 +5384,7 @@
       <c r="D62" s="9"/>
       <c r="E62" s="16"/>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B63" s="9">
         <v>60</v>
       </c>
@@ -5392,7 +5392,7 @@
       <c r="D63" s="9"/>
       <c r="E63" s="16"/>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B64" s="9">
         <v>61</v>
       </c>
@@ -5400,7 +5400,7 @@
       <c r="D64" s="9"/>
       <c r="E64" s="16"/>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B65" s="9">
         <v>62</v>
       </c>
@@ -5408,7 +5408,7 @@
       <c r="D65" s="9"/>
       <c r="E65" s="16"/>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B66" s="9">
         <v>63</v>
       </c>
@@ -5416,7 +5416,7 @@
       <c r="D66" s="9"/>
       <c r="E66" s="16"/>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B67" s="9">
         <v>64</v>
       </c>
@@ -5424,7 +5424,7 @@
       <c r="D67" s="9"/>
       <c r="E67" s="16"/>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B68" s="9">
         <v>65</v>
       </c>
@@ -5432,7 +5432,7 @@
       <c r="D68" s="9"/>
       <c r="E68" s="16"/>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B69" s="9">
         <v>66</v>
       </c>
@@ -5440,7 +5440,7 @@
       <c r="D69" s="9"/>
       <c r="E69" s="16"/>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B70" s="9">
         <v>67</v>
       </c>
@@ -5448,7 +5448,7 @@
       <c r="D70" s="9"/>
       <c r="E70" s="16"/>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B71" s="9">
         <v>68</v>
       </c>
@@ -5456,7 +5456,7 @@
       <c r="D71" s="9"/>
       <c r="E71" s="16"/>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B72" s="9">
         <v>69</v>
       </c>
@@ -5474,21 +5474,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78815AC8-C3A4-42A1-9CFB-16EE2CA78EFD}">
   <dimension ref="B3:G72"/>
   <sheetViews>
-    <sheetView topLeftCell="B63" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
-    <col min="2" max="2" width="3.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="58.81640625" style="15" customWidth="1"/>
-    <col min="4" max="4" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="122.81640625" style="30" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="8.7109375" style="1"/>
+    <col min="2" max="2" width="3.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.85546875" style="15" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="122.85546875" style="25" customWidth="1"/>
+    <col min="6" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" s="13" t="s">
         <v>379</v>
       </c>
@@ -5498,11 +5498,11 @@
       <c r="D3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="24" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4" s="9">
         <v>1</v>
       </c>
@@ -5514,7 +5514,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5" s="9">
         <v>2</v>
       </c>
@@ -5526,7 +5526,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6" s="9">
         <v>3</v>
       </c>
@@ -5538,7 +5538,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B7" s="9">
         <v>4</v>
       </c>
@@ -5550,7 +5550,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8" s="9">
         <v>5</v>
       </c>
@@ -5563,7 +5563,7 @@
       </c>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B9" s="9">
         <v>6</v>
       </c>
@@ -5576,7 +5576,7 @@
       </c>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10" s="9">
         <v>7</v>
       </c>
@@ -5588,7 +5588,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B11" s="9">
         <v>8</v>
       </c>
@@ -5600,7 +5600,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B12" s="9">
         <v>9</v>
       </c>
@@ -5612,7 +5612,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B13" s="9">
         <v>10</v>
       </c>
@@ -5624,7 +5624,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B14" s="9">
         <v>11</v>
       </c>
@@ -5636,7 +5636,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B15" s="9">
         <v>12</v>
       </c>
@@ -5648,7 +5648,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B16" s="9">
         <v>13</v>
       </c>
@@ -5660,7 +5660,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="9">
         <v>14</v>
       </c>
@@ -5672,7 +5672,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="9">
         <v>15</v>
       </c>
@@ -5684,7 +5684,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="9">
         <v>16</v>
       </c>
@@ -5696,7 +5696,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B20" s="9">
         <v>17</v>
       </c>
@@ -5708,7 +5708,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="9">
         <v>18</v>
       </c>
@@ -5720,7 +5720,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="26" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B22" s="9">
         <v>19</v>
       </c>
@@ -5732,7 +5732,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="9">
         <v>20</v>
       </c>
@@ -5744,7 +5744,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="9">
         <v>21</v>
       </c>
@@ -5754,7 +5754,7 @@
       <c r="D24" s="9"/>
       <c r="E24" s="16"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="9">
         <v>22</v>
       </c>
@@ -5764,7 +5764,7 @@
       <c r="D25" s="9"/>
       <c r="E25" s="16"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="9">
         <v>23</v>
       </c>
@@ -5774,7 +5774,7 @@
       <c r="D26" s="9"/>
       <c r="E26" s="16"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="9">
         <v>24</v>
       </c>
@@ -5784,7 +5784,7 @@
       <c r="D27" s="9"/>
       <c r="E27" s="16"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28" s="9">
         <v>25</v>
       </c>
@@ -5794,7 +5794,7 @@
       <c r="D28" s="9"/>
       <c r="E28" s="16"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" s="9">
         <v>26</v>
       </c>
@@ -5804,7 +5804,7 @@
       <c r="D29" s="9"/>
       <c r="E29" s="16"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30" s="9">
         <v>27</v>
       </c>
@@ -5814,7 +5814,7 @@
       <c r="D30" s="9"/>
       <c r="E30" s="16"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B31" s="9">
         <v>28</v>
       </c>
@@ -5824,7 +5824,7 @@
       <c r="D31" s="9"/>
       <c r="E31" s="16"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32" s="9">
         <v>29</v>
       </c>
@@ -5834,7 +5834,7 @@
       <c r="D32" s="9"/>
       <c r="E32" s="16"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33" s="9">
         <v>30</v>
       </c>
@@ -5844,7 +5844,7 @@
       <c r="D33" s="9"/>
       <c r="E33" s="16"/>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" s="9">
         <v>31</v>
       </c>
@@ -5854,7 +5854,7 @@
       <c r="D34" s="9"/>
       <c r="E34" s="16"/>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35" s="9">
         <v>32</v>
       </c>
@@ -5864,7 +5864,7 @@
       <c r="D35" s="9"/>
       <c r="E35" s="16"/>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36" s="9">
         <v>33</v>
       </c>
@@ -5874,7 +5874,7 @@
       <c r="D36" s="9"/>
       <c r="E36" s="16"/>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B37" s="9">
         <v>34</v>
       </c>
@@ -5884,7 +5884,7 @@
       <c r="D37" s="9"/>
       <c r="E37" s="16"/>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B38" s="9">
         <v>35</v>
       </c>
@@ -5894,7 +5894,7 @@
       <c r="D38" s="9"/>
       <c r="E38" s="16"/>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B39" s="9">
         <v>36</v>
       </c>
@@ -5904,7 +5904,7 @@
       <c r="D39" s="9"/>
       <c r="E39" s="16"/>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B40" s="9">
         <v>37</v>
       </c>
@@ -5914,7 +5914,7 @@
       <c r="D40" s="9"/>
       <c r="E40" s="16"/>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B41" s="9">
         <v>38</v>
       </c>
@@ -5924,7 +5924,7 @@
       <c r="D41" s="9"/>
       <c r="E41" s="16"/>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B42" s="9">
         <v>39</v>
       </c>
@@ -5934,7 +5934,7 @@
       <c r="D42" s="9"/>
       <c r="E42" s="16"/>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B43" s="9">
         <v>40</v>
       </c>
@@ -5944,7 +5944,7 @@
       <c r="D43" s="9"/>
       <c r="E43" s="16"/>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B44" s="9">
         <v>41</v>
       </c>
@@ -5954,7 +5954,7 @@
       <c r="D44" s="9"/>
       <c r="E44" s="16"/>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B45" s="9">
         <v>42</v>
       </c>
@@ -5964,7 +5964,7 @@
       <c r="D45" s="9"/>
       <c r="E45" s="16"/>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B46" s="9">
         <v>43</v>
       </c>
@@ -5974,7 +5974,7 @@
       <c r="D46" s="9"/>
       <c r="E46" s="16"/>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B47" s="9">
         <v>44</v>
       </c>
@@ -5984,7 +5984,7 @@
       <c r="D47" s="9"/>
       <c r="E47" s="16"/>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B48" s="9">
         <v>45</v>
       </c>
@@ -5994,7 +5994,7 @@
       <c r="D48" s="9"/>
       <c r="E48" s="16"/>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B49" s="9">
         <v>46</v>
       </c>
@@ -6004,7 +6004,7 @@
       <c r="D49" s="9"/>
       <c r="E49" s="16"/>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B50" s="9">
         <v>47</v>
       </c>
@@ -6014,7 +6014,7 @@
       <c r="D50" s="9"/>
       <c r="E50" s="16"/>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B51" s="9">
         <v>48</v>
       </c>
@@ -6024,7 +6024,7 @@
       <c r="D51" s="9"/>
       <c r="E51" s="16"/>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B52" s="9">
         <v>49</v>
       </c>
@@ -6034,7 +6034,7 @@
       <c r="D52" s="9"/>
       <c r="E52" s="16"/>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B53" s="9">
         <v>50</v>
       </c>
@@ -6044,7 +6044,7 @@
       <c r="D53" s="9"/>
       <c r="E53" s="16"/>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B54" s="9">
         <v>51</v>
       </c>
@@ -6054,7 +6054,7 @@
       <c r="D54" s="9"/>
       <c r="E54" s="16"/>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B55" s="9">
         <v>52</v>
       </c>
@@ -6064,7 +6064,7 @@
       <c r="D55" s="9"/>
       <c r="E55" s="16"/>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B56" s="9">
         <v>53</v>
       </c>
@@ -6074,7 +6074,7 @@
       <c r="D56" s="9"/>
       <c r="E56" s="16"/>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B57" s="9">
         <v>54</v>
       </c>
@@ -6084,7 +6084,7 @@
       <c r="D57" s="9"/>
       <c r="E57" s="16"/>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B58" s="9">
         <v>55</v>
       </c>
@@ -6094,7 +6094,7 @@
       <c r="D58" s="9"/>
       <c r="E58" s="16"/>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B59" s="9">
         <v>56</v>
       </c>
@@ -6104,7 +6104,7 @@
       <c r="D59" s="9"/>
       <c r="E59" s="16"/>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B60" s="9">
         <v>57</v>
       </c>
@@ -6114,7 +6114,7 @@
       <c r="D60" s="9"/>
       <c r="E60" s="16"/>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B61" s="9">
         <v>58</v>
       </c>
@@ -6124,7 +6124,7 @@
       <c r="D61" s="9"/>
       <c r="E61" s="16"/>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B62" s="9">
         <v>59</v>
       </c>
@@ -6134,7 +6134,7 @@
       <c r="D62" s="9"/>
       <c r="E62" s="16"/>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B63" s="9">
         <v>60</v>
       </c>
@@ -6144,7 +6144,7 @@
       <c r="D63" s="9"/>
       <c r="E63" s="16"/>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B64" s="9">
         <v>61</v>
       </c>
@@ -6154,7 +6154,7 @@
       <c r="D64" s="9"/>
       <c r="E64" s="16"/>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B65" s="9">
         <v>62</v>
       </c>
@@ -6164,7 +6164,7 @@
       <c r="D65" s="9"/>
       <c r="E65" s="16"/>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B66" s="9">
         <v>63</v>
       </c>
@@ -6174,7 +6174,7 @@
       <c r="D66" s="9"/>
       <c r="E66" s="16"/>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B67" s="9">
         <v>64</v>
       </c>
@@ -6184,7 +6184,7 @@
       <c r="D67" s="9"/>
       <c r="E67" s="16"/>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B68" s="9">
         <v>65</v>
       </c>
@@ -6194,7 +6194,7 @@
       <c r="D68" s="9"/>
       <c r="E68" s="16"/>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B69" s="9">
         <v>66</v>
       </c>
@@ -6204,7 +6204,7 @@
       <c r="D69" s="9"/>
       <c r="E69" s="16"/>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B70" s="9">
         <v>67</v>
       </c>
@@ -6214,7 +6214,7 @@
       <c r="D70" s="9"/>
       <c r="E70" s="16"/>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B71" s="9">
         <v>68</v>
       </c>
@@ -6224,7 +6224,7 @@
       <c r="D71" s="9"/>
       <c r="E71" s="16"/>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B72" s="9">
         <v>69</v>
       </c>
@@ -6248,79 +6248,79 @@
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
-    <col min="2" max="2" width="3" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.453125" style="1" customWidth="1"/>
-    <col min="5" max="7" width="8.7265625" style="1"/>
-    <col min="8" max="8" width="9.90625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="8.7109375" style="1"/>
+    <col min="2" max="2" width="3" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="1" customWidth="1"/>
+    <col min="5" max="7" width="8.7109375" style="1"/>
+    <col min="8" max="8" width="9.85546875" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="20" t="s">
+    <row r="2" spans="2:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="29" t="s">
         <v>379</v>
       </c>
       <c r="C2" s="27" t="s">
         <v>493</v>
       </c>
       <c r="D2" s="28"/>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="30" t="s">
         <v>493</v>
       </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26" t="s">
+      <c r="F2" s="30"/>
+      <c r="G2" s="30" t="s">
         <v>494</v>
       </c>
-      <c r="H2" s="26"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="20"/>
-      <c r="C3" s="25" t="s">
+      <c r="H2" s="30"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B3" s="29"/>
+      <c r="C3" s="23" t="s">
         <v>491</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="23" t="s">
         <v>492</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="23" t="s">
         <v>491</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="23" t="s">
         <v>492</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="23" t="s">
         <v>495</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="23" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="21">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B4" s="19">
         <v>1</v>
       </c>
-      <c r="C4" s="23"/>
+      <c r="C4" s="21"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="21">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B5" s="19">
         <v>2</v>
       </c>
-      <c r="C5" s="23"/>
+      <c r="C5" s="21"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="21">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="19">
         <v>3</v>
       </c>
       <c r="C6" s="8"/>
@@ -6330,19 +6330,19 @@
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="21">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="19">
         <v>4</v>
       </c>
-      <c r="C7" s="23"/>
+      <c r="C7" s="21"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="21">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="19">
         <v>5</v>
       </c>
       <c r="C8" s="8"/>
@@ -6352,129 +6352,129 @@
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="21">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="19">
         <v>6</v>
       </c>
-      <c r="C9" s="24"/>
+      <c r="C9" s="22"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="21">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="19">
         <v>7</v>
       </c>
-      <c r="C10" s="24"/>
+      <c r="C10" s="22"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="21">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="19">
         <v>8</v>
       </c>
-      <c r="C11" s="24"/>
+      <c r="C11" s="22"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="21">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="19">
         <v>9</v>
       </c>
-      <c r="C12" s="24"/>
+      <c r="C12" s="22"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="21">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="19">
         <v>10</v>
       </c>
-      <c r="C13" s="24"/>
+      <c r="C13" s="22"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="21">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="19">
         <v>11</v>
       </c>
-      <c r="C14" s="24"/>
+      <c r="C14" s="22"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="21">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="19">
         <v>12</v>
       </c>
-      <c r="C15" s="24"/>
+      <c r="C15" s="22"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="21">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B16" s="19">
         <v>13</v>
       </c>
-      <c r="C16" s="24"/>
+      <c r="C16" s="22"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="21">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B17" s="19">
         <v>14</v>
       </c>
-      <c r="C17" s="24"/>
+      <c r="C17" s="22"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="21">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="19">
         <v>15</v>
       </c>
-      <c r="C18" s="24"/>
+      <c r="C18" s="22"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="21">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B19" s="19">
         <v>16</v>
       </c>
-      <c r="C19" s="22"/>
+      <c r="C19" s="20"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="21">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B20" s="19">
         <v>17</v>
       </c>
       <c r="C20" s="8"/>
@@ -6484,30 +6484,30 @@
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="21">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B21" s="19">
         <v>18</v>
       </c>
-      <c r="C21" s="24"/>
+      <c r="C21" s="22"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="21">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B22" s="19">
         <v>19</v>
       </c>
-      <c r="C22" s="24"/>
+      <c r="C22" s="22"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="21">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B23" s="19">
         <v>20</v>
       </c>
       <c r="C23" s="8"/>
@@ -6517,30 +6517,30 @@
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="21">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B24" s="19">
         <v>21</v>
       </c>
-      <c r="C24" s="22"/>
+      <c r="C24" s="20"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="21">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B25" s="19">
         <v>22</v>
       </c>
-      <c r="C25" s="22"/>
+      <c r="C25" s="20"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="21">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B26" s="19">
         <v>23</v>
       </c>
       <c r="C26" s="8"/>
@@ -6550,8 +6550,8 @@
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B27" s="21">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B27" s="19">
         <v>24</v>
       </c>
       <c r="C27" s="8"/>
@@ -6561,8 +6561,8 @@
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B28" s="21">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B28" s="19">
         <v>25</v>
       </c>
       <c r="C28" s="8"/>
@@ -6572,8 +6572,8 @@
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B29" s="21">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B29" s="19">
         <v>26</v>
       </c>
       <c r="C29" s="8"/>
@@ -6583,8 +6583,8 @@
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B30" s="21">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B30" s="19">
         <v>27</v>
       </c>
       <c r="C30" s="8"/>
@@ -6594,8 +6594,8 @@
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B31" s="21">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B31" s="19">
         <v>28</v>
       </c>
       <c r="C31" s="8"/>
@@ -6605,8 +6605,8 @@
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B32" s="21">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B32" s="19">
         <v>29</v>
       </c>
       <c r="C32" s="8"/>
@@ -6616,8 +6616,8 @@
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B33" s="21">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B33" s="19">
         <v>30</v>
       </c>
       <c r="C33" s="8"/>
@@ -6627,8 +6627,8 @@
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B34" s="21">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B34" s="19">
         <v>31</v>
       </c>
       <c r="C34" s="8"/>
@@ -6638,8 +6638,8 @@
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B35" s="21">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B35" s="19">
         <v>32</v>
       </c>
       <c r="C35" s="8"/>
@@ -6649,8 +6649,8 @@
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B36" s="21">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B36" s="19">
         <v>33</v>
       </c>
       <c r="C36" s="8"/>
@@ -6660,8 +6660,8 @@
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B37" s="21">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B37" s="19">
         <v>34</v>
       </c>
       <c r="C37" s="8"/>
@@ -6671,8 +6671,8 @@
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B38" s="21">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B38" s="19">
         <v>35</v>
       </c>
       <c r="C38" s="8"/>
@@ -6682,8 +6682,8 @@
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B39" s="21">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B39" s="19">
         <v>36</v>
       </c>
       <c r="C39" s="8"/>
@@ -6693,8 +6693,8 @@
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B40" s="21">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B40" s="19">
         <v>37</v>
       </c>
       <c r="C40" s="8"/>
@@ -6704,8 +6704,8 @@
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B41" s="21">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B41" s="19">
         <v>38</v>
       </c>
       <c r="C41" s="8"/>
@@ -6715,8 +6715,8 @@
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B42" s="21">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B42" s="19">
         <v>39</v>
       </c>
       <c r="C42" s="8"/>
@@ -6726,8 +6726,8 @@
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B43" s="21">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B43" s="19">
         <v>40</v>
       </c>
       <c r="C43" s="8"/>
@@ -6737,8 +6737,8 @@
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B44" s="21">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B44" s="19">
         <v>41</v>
       </c>
       <c r="C44" s="8"/>
@@ -6748,8 +6748,8 @@
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B45" s="21">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B45" s="19">
         <v>42</v>
       </c>
       <c r="C45" s="8"/>
@@ -6759,8 +6759,8 @@
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B46" s="21">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B46" s="19">
         <v>43</v>
       </c>
       <c r="C46" s="8"/>
@@ -6770,8 +6770,8 @@
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B47" s="21">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B47" s="19">
         <v>44</v>
       </c>
       <c r="C47" s="8"/>
@@ -6781,8 +6781,8 @@
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B48" s="21">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B48" s="19">
         <v>45</v>
       </c>
       <c r="C48" s="8"/>
@@ -6792,8 +6792,8 @@
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B49" s="21">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B49" s="19">
         <v>46</v>
       </c>
       <c r="C49" s="8"/>
@@ -6803,8 +6803,8 @@
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B50" s="21">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B50" s="19">
         <v>47</v>
       </c>
       <c r="C50" s="8"/>
@@ -6814,8 +6814,8 @@
       <c r="G50" s="8"/>
       <c r="H50" s="8"/>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B51" s="21">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B51" s="19">
         <v>48</v>
       </c>
       <c r="C51" s="8"/>
@@ -6825,8 +6825,8 @@
       <c r="G51" s="8"/>
       <c r="H51" s="8"/>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B52" s="21">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B52" s="19">
         <v>49</v>
       </c>
       <c r="C52" s="8"/>
@@ -6836,8 +6836,8 @@
       <c r="G52" s="8"/>
       <c r="H52" s="8"/>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B53" s="21">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B53" s="19">
         <v>50</v>
       </c>
       <c r="C53" s="8"/>

--- a/GLIK Domain Mapping.xlsx
+++ b/GLIK Domain Mapping.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dimas\Downloads\LPS GLIK\GLIK-DM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B305FC-03B4-4C05-A0CF-43F16F1BB821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05190C21-7947-44A7-9907-043C2C892D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{BC9BC3D9-6FF2-4CB4-96B2-33CE5FEE1DBD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="4" xr2:uid="{BC9BC3D9-6FF2-4CB4-96B2-33CE5FEE1DBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Fitur Item" sheetId="1" r:id="rId1"/>
     <sheet name="Versi Mas Zaki" sheetId="6" r:id="rId2"/>
     <sheet name="1. Persiapan Likuidasi" sheetId="4" r:id="rId3"/>
     <sheet name="2. Pengawasan Likuidasi" sheetId="2" r:id="rId4"/>
-    <sheet name="Compare Table" sheetId="5" r:id="rId5"/>
+    <sheet name="3. Pengakhiran Likuidasi " sheetId="8" r:id="rId5"/>
+    <sheet name="Compare Table" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="535">
   <si>
     <t>Kode Fitur</t>
   </si>
@@ -1641,6 +1642,66 @@
   </si>
   <si>
     <t>FiturUmum.Notifikasi, GPRM.Bank, GPRM.Jaringan, BDL, RencanaPersiapanLikuidasi, AssignPIC, MasterKegitan, TimeScheduleKegiatan, MasterStatus</t>
+  </si>
+  <si>
+    <t>1.1 Distribusi Hasil Likuidasi - Aset</t>
+  </si>
+  <si>
+    <t>1.2 Distribusi Hasil Likuidasi - Dokumen</t>
+  </si>
+  <si>
+    <t>2.1 Penyerahan Aset Non Tunai - Checklist</t>
+  </si>
+  <si>
+    <t>2.2 Penyerahan Aset Non Tunai - Persetujuan</t>
+  </si>
+  <si>
+    <t>3.1 Analisa Hasil Evaluasi Potensi Pencairan Aset - Perpanjangan</t>
+  </si>
+  <si>
+    <t>3.2 Analisa Hasil Evaluasi Potensi Pencairan Aset - History Perpanjangan</t>
+  </si>
+  <si>
+    <t>3.3 Analisa Hasil Evaluasi Potensi Pencairan Aset - Persetujuan Perpanjangan</t>
+  </si>
+  <si>
+    <t>4.1 Penerimaan Lanir dan Pertanggungjawaban - Pengajuan Lanir</t>
+  </si>
+  <si>
+    <t>4.2 Penerimaan Lanir dan Pertanggungjawaban - Upload LPJ TL</t>
+  </si>
+  <si>
+    <t>4.3 Penerimaan Lanir dan Pertanggungjawaban - Dokumen</t>
+  </si>
+  <si>
+    <t>4.4 Penerimaan Lanir dan Pertanggungjawaban - Persetujuan</t>
+  </si>
+  <si>
+    <t>5.1 Pelaksaaan RUPS Pertanggungjawaban TL - Upload</t>
+  </si>
+  <si>
+    <t>6.1 Loss Success Rate - Generate</t>
+  </si>
+  <si>
+    <t>7.1 Penilaian Kinerja Bank Terlikuidasi, BDL, TL - Bank Terlikuidasi</t>
+  </si>
+  <si>
+    <t>7.2 Penilaian Kinerja Bank Terlikuidasi, BDL, TL - BDL</t>
+  </si>
+  <si>
+    <t>7.3 Penilaian Kinerja Bank Terlikuidasi, BDL, TL - TL</t>
+  </si>
+  <si>
+    <t>7.4 Penilaian Kinerja Bank Terlikuidasi, BDL, TL - Summary</t>
+  </si>
+  <si>
+    <t>7.5 Penilaian Kinerja Bank Terlikuidasi, BDL, TL - Approval</t>
+  </si>
+  <si>
+    <t>8.1 Tindak Lanjut Pengakhiran Likuidasi dan Hasil RUPS  - Pencairan Aset Non Tunai</t>
+  </si>
+  <si>
+    <t>8.2 Tindak Lanjut Pengakhiran Likuidasi dan Hasil RUPS  - Penanganan Perkara</t>
   </si>
 </sst>
 </file>
@@ -4799,7 +4860,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B759393E-1290-4E33-A086-7F2745429EA5}">
   <dimension ref="B3:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B9" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19:E22"/>
     </sheetView>
   </sheetViews>
@@ -5474,8 +5535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78815AC8-C3A4-42A1-9CFB-16EE2CA78EFD}">
   <dimension ref="B3:G72"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6241,6 +6302,658 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{527C0038-825B-49FE-8A49-D86AE1E3139F}">
+  <dimension ref="B3:G72"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.7109375" style="1"/>
+    <col min="2" max="2" width="3.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="66.5703125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="122.85546875" style="25" customWidth="1"/>
+    <col min="6" max="16384" width="8.7109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B3" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B4" s="9">
+        <v>1</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>515</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="16"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B5" s="9">
+        <v>2</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>516</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="16"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B6" s="9">
+        <v>3</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>517</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="16"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="9">
+        <v>4</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>518</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="16"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B8" s="9">
+        <v>5</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>519</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="16"/>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B9" s="9">
+        <v>6</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>520</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="16"/>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B10" s="9">
+        <v>7</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>521</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="16"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B11" s="9">
+        <v>8</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>522</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="16"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B12" s="9">
+        <v>9</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>523</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="16"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B13" s="9">
+        <v>10</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>524</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="16"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B14" s="9">
+        <v>11</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>525</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="16"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B15" s="9">
+        <v>12</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>526</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="16"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B16" s="9">
+        <v>13</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>527</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="16"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="9">
+        <v>14</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>528</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="16"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="9">
+        <v>15</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>529</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="16"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="9">
+        <v>16</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>530</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="16"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="9">
+        <v>17</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>531</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="16"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="9">
+        <v>18</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>532</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="16"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B22" s="9">
+        <v>19</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>533</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="16"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="9">
+        <v>20</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>534</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="16"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B24" s="9">
+        <v>21</v>
+      </c>
+      <c r="C24" s="14"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="16"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25" s="9">
+        <v>22</v>
+      </c>
+      <c r="C25" s="14"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="16"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B26" s="9">
+        <v>23</v>
+      </c>
+      <c r="C26" s="14"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="16"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B27" s="9">
+        <v>24</v>
+      </c>
+      <c r="C27" s="14"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="16"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B28" s="9">
+        <v>25</v>
+      </c>
+      <c r="C28" s="14"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="16"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B29" s="9">
+        <v>26</v>
+      </c>
+      <c r="C29" s="14"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="16"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B30" s="9">
+        <v>27</v>
+      </c>
+      <c r="C30" s="14"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="16"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B31" s="9">
+        <v>28</v>
+      </c>
+      <c r="C31" s="14"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="16"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B32" s="9">
+        <v>29</v>
+      </c>
+      <c r="C32" s="14"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="16"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B33" s="9">
+        <v>30</v>
+      </c>
+      <c r="C33" s="14"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="16"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B34" s="9">
+        <v>31</v>
+      </c>
+      <c r="C34" s="14"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="16"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B35" s="9">
+        <v>32</v>
+      </c>
+      <c r="C35" s="14"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="16"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B36" s="9">
+        <v>33</v>
+      </c>
+      <c r="C36" s="14"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="16"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B37" s="9">
+        <v>34</v>
+      </c>
+      <c r="C37" s="14"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="16"/>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B38" s="9">
+        <v>35</v>
+      </c>
+      <c r="C38" s="14"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="16"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B39" s="9">
+        <v>36</v>
+      </c>
+      <c r="C39" s="14"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="16"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B40" s="9">
+        <v>37</v>
+      </c>
+      <c r="C40" s="14"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="16"/>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B41" s="9">
+        <v>38</v>
+      </c>
+      <c r="C41" s="14"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="16"/>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B42" s="9">
+        <v>39</v>
+      </c>
+      <c r="C42" s="14"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="16"/>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B43" s="9">
+        <v>40</v>
+      </c>
+      <c r="C43" s="14"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="16"/>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B44" s="9">
+        <v>41</v>
+      </c>
+      <c r="C44" s="14"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="16"/>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B45" s="9">
+        <v>42</v>
+      </c>
+      <c r="C45" s="14"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="16"/>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B46" s="9">
+        <v>43</v>
+      </c>
+      <c r="C46" s="14"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="16"/>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B47" s="9">
+        <v>44</v>
+      </c>
+      <c r="C47" s="14"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="16"/>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B48" s="9">
+        <v>45</v>
+      </c>
+      <c r="C48" s="14"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="16"/>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B49" s="9">
+        <v>46</v>
+      </c>
+      <c r="C49" s="14"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="16"/>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B50" s="9">
+        <v>47</v>
+      </c>
+      <c r="C50" s="14"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="16"/>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B51" s="9">
+        <v>48</v>
+      </c>
+      <c r="C51" s="14"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="16"/>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B52" s="9">
+        <v>49</v>
+      </c>
+      <c r="C52" s="14"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="16"/>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B53" s="9">
+        <v>50</v>
+      </c>
+      <c r="C53" s="14"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="16"/>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B54" s="9">
+        <v>51</v>
+      </c>
+      <c r="C54" s="14"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="16"/>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B55" s="9">
+        <v>52</v>
+      </c>
+      <c r="C55" s="14"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="16"/>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B56" s="9">
+        <v>53</v>
+      </c>
+      <c r="C56" s="14"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="16"/>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B57" s="9">
+        <v>54</v>
+      </c>
+      <c r="C57" s="14"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="16"/>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B58" s="9">
+        <v>55</v>
+      </c>
+      <c r="C58" s="14"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="16"/>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B59" s="9">
+        <v>56</v>
+      </c>
+      <c r="C59" s="14"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="16"/>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B60" s="9">
+        <v>57</v>
+      </c>
+      <c r="C60" s="14"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="16"/>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B61" s="9">
+        <v>58</v>
+      </c>
+      <c r="C61" s="14"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="16"/>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B62" s="9">
+        <v>59</v>
+      </c>
+      <c r="C62" s="14"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="16"/>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B63" s="9">
+        <v>60</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="D63" s="9"/>
+      <c r="E63" s="16"/>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B64" s="9">
+        <v>61</v>
+      </c>
+      <c r="C64" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="D64" s="9"/>
+      <c r="E64" s="16"/>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B65" s="9">
+        <v>62</v>
+      </c>
+      <c r="C65" s="14" t="s">
+        <v>442</v>
+      </c>
+      <c r="D65" s="9"/>
+      <c r="E65" s="16"/>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B66" s="9">
+        <v>63</v>
+      </c>
+      <c r="C66" s="14" t="s">
+        <v>443</v>
+      </c>
+      <c r="D66" s="9"/>
+      <c r="E66" s="16"/>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B67" s="9">
+        <v>64</v>
+      </c>
+      <c r="C67" s="14" t="s">
+        <v>444</v>
+      </c>
+      <c r="D67" s="9"/>
+      <c r="E67" s="16"/>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B68" s="9">
+        <v>65</v>
+      </c>
+      <c r="C68" s="14" t="s">
+        <v>445</v>
+      </c>
+      <c r="D68" s="9"/>
+      <c r="E68" s="16"/>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B69" s="9">
+        <v>66</v>
+      </c>
+      <c r="C69" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="D69" s="9"/>
+      <c r="E69" s="16"/>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B70" s="9">
+        <v>67</v>
+      </c>
+      <c r="C70" s="14" t="s">
+        <v>447</v>
+      </c>
+      <c r="D70" s="9"/>
+      <c r="E70" s="16"/>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B71" s="9">
+        <v>68</v>
+      </c>
+      <c r="C71" s="14" t="s">
+        <v>448</v>
+      </c>
+      <c r="D71" s="9"/>
+      <c r="E71" s="16"/>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B72" s="9">
+        <v>69</v>
+      </c>
+      <c r="C72" s="14" t="s">
+        <v>449</v>
+      </c>
+      <c r="D72" s="9"/>
+      <c r="E72" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{781AD54B-1615-4304-B624-1036F5D700FD}">
   <dimension ref="B2:H53"/>
   <sheetViews>

--- a/GLIK Domain Mapping.xlsx
+++ b/GLIK Domain Mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dimas\Downloads\LPS GLIK\GLIK-DM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05190C21-7947-44A7-9907-043C2C892D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B057E48A-C47B-45C6-9DD9-50DF69B8A7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="4" xr2:uid="{BC9BC3D9-6FF2-4CB4-96B2-33CE5FEE1DBD}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="539">
   <si>
     <t>Kode Fitur</t>
   </si>
@@ -1702,6 +1702,18 @@
   </si>
   <si>
     <t>8.2 Tindak Lanjut Pengakhiran Likuidasi dan Hasil RUPS  - Penanganan Perkara</t>
+  </si>
+  <si>
+    <t>8.3 Tindak Lanjut Pengakhiran Likuidasi dan Hasil RUPS  - Checklist Tindak Lanjut RUPS</t>
+  </si>
+  <si>
+    <t>8.4 Tindak Lanjut Pengakhiran Likuidasi dan Hasil RUPS  - Pengawasan Dana Cadangan</t>
+  </si>
+  <si>
+    <t>8.5 Tindak Lanjut Pengakhiran Likuidasi dan Hasil RUPS  - Persetujuan Tindak Lanjut Atas Likuidasi</t>
+  </si>
+  <si>
+    <t>9.1 Prognosa Potensi Pencairan - Approval</t>
   </si>
 </sst>
 </file>
@@ -6305,15 +6317,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{527C0038-825B-49FE-8A49-D86AE1E3139F}">
   <dimension ref="B3:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.7109375" style="1"/>
     <col min="2" max="2" width="3.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="66.5703125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="79.140625" style="15" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="122.85546875" style="25" customWidth="1"/>
     <col min="6" max="16384" width="8.7109375" style="1"/>
@@ -6539,7 +6551,9 @@
       <c r="B24" s="9">
         <v>21</v>
       </c>
-      <c r="C24" s="14"/>
+      <c r="C24" s="14" t="s">
+        <v>535</v>
+      </c>
       <c r="D24" s="9"/>
       <c r="E24" s="16"/>
     </row>
@@ -6547,7 +6561,9 @@
       <c r="B25" s="9">
         <v>22</v>
       </c>
-      <c r="C25" s="14"/>
+      <c r="C25" s="14" t="s">
+        <v>536</v>
+      </c>
       <c r="D25" s="9"/>
       <c r="E25" s="16"/>
     </row>
@@ -6555,7 +6571,9 @@
       <c r="B26" s="9">
         <v>23</v>
       </c>
-      <c r="C26" s="14"/>
+      <c r="C26" s="14" t="s">
+        <v>537</v>
+      </c>
       <c r="D26" s="9"/>
       <c r="E26" s="16"/>
     </row>
@@ -6563,7 +6581,9 @@
       <c r="B27" s="9">
         <v>24</v>
       </c>
-      <c r="C27" s="14"/>
+      <c r="C27" s="14" t="s">
+        <v>538</v>
+      </c>
       <c r="D27" s="9"/>
       <c r="E27" s="16"/>
     </row>

--- a/GLIK Domain Mapping.xlsx
+++ b/GLIK Domain Mapping.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dimas\Downloads\LPS GLIK\GLIK-DM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toshiba\Documents\GitHub\GLIK-DM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B057E48A-C47B-45C6-9DD9-50DF69B8A7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E7F3B6-27FE-4E8C-920F-99F31FEFC9B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="4" xr2:uid="{BC9BC3D9-6FF2-4CB4-96B2-33CE5FEE1DBD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="2" xr2:uid="{BC9BC3D9-6FF2-4CB4-96B2-33CE5FEE1DBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Fitur Item" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="540">
   <si>
     <t>Kode Fitur</t>
   </si>
@@ -1714,6 +1714,9 @@
   </si>
   <si>
     <t>9.1 Prognosa Potensi Pencairan - Approval</t>
+  </si>
+  <si>
+    <t>FiturUmum.Notifikasi, FiturUmum.Repository, GPRM.Bank, GRPM.Jaringan, BDL,  Aset, PengamananAset, ChecklistDocRUPS, DocRUPS, DocGLIK, MasterStatus</t>
   </si>
 </sst>
 </file>
@@ -2268,17 +2271,17 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="6"/>
-    <col min="2" max="2" width="9.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="111.140625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="6"/>
+    <col min="2" max="2" width="9.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="111.1796875" style="6" customWidth="1"/>
     <col min="4" max="4" width="14" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7109375" style="6"/>
+    <col min="5" max="5" width="14.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
@@ -2292,7 +2295,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
@@ -2302,7 +2305,7 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
@@ -2312,7 +2315,7 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -2322,7 +2325,7 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
         <v>10</v>
       </c>
@@ -2332,7 +2335,7 @@
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
     </row>
-    <row r="7" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
         <v>12</v>
       </c>
@@ -2342,7 +2345,7 @@
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>14</v>
       </c>
@@ -2352,7 +2355,7 @@
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="7" t="s">
         <v>16</v>
       </c>
@@ -2362,7 +2365,7 @@
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="7" t="s">
         <v>18</v>
       </c>
@@ -2372,7 +2375,7 @@
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="7" t="s">
         <v>20</v>
       </c>
@@ -2382,7 +2385,7 @@
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="7" t="s">
         <v>22</v>
       </c>
@@ -2392,7 +2395,7 @@
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
     </row>
-    <row r="13" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="7" t="s">
         <v>24</v>
       </c>
@@ -2402,7 +2405,7 @@
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
     </row>
-    <row r="14" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="7" t="s">
         <v>26</v>
       </c>
@@ -2412,7 +2415,7 @@
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="7" t="s">
         <v>28</v>
       </c>
@@ -2422,7 +2425,7 @@
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
     </row>
-    <row r="16" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="7" t="s">
         <v>30</v>
       </c>
@@ -2432,7 +2435,7 @@
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
     </row>
-    <row r="17" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="7" t="s">
         <v>32</v>
       </c>
@@ -2442,7 +2445,7 @@
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
     </row>
-    <row r="18" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="7" t="s">
         <v>34</v>
       </c>
@@ -2452,7 +2455,7 @@
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
     </row>
-    <row r="19" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="7" t="s">
         <v>36</v>
       </c>
@@ -2462,7 +2465,7 @@
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
     </row>
-    <row r="20" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="7" t="s">
         <v>38</v>
       </c>
@@ -2472,7 +2475,7 @@
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
     </row>
-    <row r="21" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="7" t="s">
         <v>40</v>
       </c>
@@ -2482,7 +2485,7 @@
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
     </row>
-    <row r="22" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="7" t="s">
         <v>42</v>
       </c>
@@ -2492,7 +2495,7 @@
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
     </row>
-    <row r="23" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="7" t="s">
         <v>44</v>
       </c>
@@ -2502,7 +2505,7 @@
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
     </row>
-    <row r="24" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="7" t="s">
         <v>46</v>
       </c>
@@ -2512,7 +2515,7 @@
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
     </row>
-    <row r="25" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="7" t="s">
         <v>48</v>
       </c>
@@ -2522,7 +2525,7 @@
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
     </row>
-    <row r="26" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="7" t="s">
         <v>50</v>
       </c>
@@ -2532,7 +2535,7 @@
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
     </row>
-    <row r="27" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>52</v>
       </c>
@@ -2542,7 +2545,7 @@
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
     </row>
-    <row r="28" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="7" t="s">
         <v>54</v>
       </c>
@@ -2552,7 +2555,7 @@
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
     </row>
-    <row r="29" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="7" t="s">
         <v>56</v>
       </c>
@@ -2562,7 +2565,7 @@
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
     </row>
-    <row r="30" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="7" t="s">
         <v>58</v>
       </c>
@@ -2572,7 +2575,7 @@
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
     </row>
-    <row r="31" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="7" t="s">
         <v>60</v>
       </c>
@@ -2582,7 +2585,7 @@
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
     </row>
-    <row r="32" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="7" t="s">
         <v>62</v>
       </c>
@@ -2592,7 +2595,7 @@
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
     </row>
-    <row r="33" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="7" t="s">
         <v>64</v>
       </c>
@@ -2602,7 +2605,7 @@
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
     </row>
-    <row r="34" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="7" t="s">
         <v>66</v>
       </c>
@@ -2612,7 +2615,7 @@
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
     </row>
-    <row r="35" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="7" t="s">
         <v>68</v>
       </c>
@@ -2622,7 +2625,7 @@
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
     </row>
-    <row r="36" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="7" t="s">
         <v>70</v>
       </c>
@@ -2632,7 +2635,7 @@
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
     </row>
-    <row r="37" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="7" t="s">
         <v>72</v>
       </c>
@@ -2642,7 +2645,7 @@
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
     </row>
-    <row r="38" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="7" t="s">
         <v>74</v>
       </c>
@@ -2652,7 +2655,7 @@
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
     </row>
-    <row r="39" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="7" t="s">
         <v>76</v>
       </c>
@@ -2662,7 +2665,7 @@
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
     </row>
-    <row r="40" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="7" t="s">
         <v>78</v>
       </c>
@@ -2672,7 +2675,7 @@
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
     </row>
-    <row r="41" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="7" t="s">
         <v>80</v>
       </c>
@@ -2682,7 +2685,7 @@
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
     </row>
-    <row r="42" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="7" t="s">
         <v>82</v>
       </c>
@@ -2692,7 +2695,7 @@
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
     </row>
-    <row r="43" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="7" t="s">
         <v>84</v>
       </c>
@@ -2702,7 +2705,7 @@
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
     </row>
-    <row r="44" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="7" t="s">
         <v>86</v>
       </c>
@@ -2712,7 +2715,7 @@
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
     </row>
-    <row r="45" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="7" t="s">
         <v>88</v>
       </c>
@@ -2722,7 +2725,7 @@
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
     </row>
-    <row r="46" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="7" t="s">
         <v>90</v>
       </c>
@@ -2732,7 +2735,7 @@
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
     </row>
-    <row r="47" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="7" t="s">
         <v>92</v>
       </c>
@@ -2742,7 +2745,7 @@
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
     </row>
-    <row r="48" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="7" t="s">
         <v>94</v>
       </c>
@@ -2752,7 +2755,7 @@
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
     </row>
-    <row r="49" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="7" t="s">
         <v>96</v>
       </c>
@@ -2762,7 +2765,7 @@
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
     </row>
-    <row r="50" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="7" t="s">
         <v>98</v>
       </c>
@@ -2772,7 +2775,7 @@
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
     </row>
-    <row r="51" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="7" t="s">
         <v>100</v>
       </c>
@@ -2782,7 +2785,7 @@
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
     </row>
-    <row r="52" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="7" t="s">
         <v>102</v>
       </c>
@@ -2792,7 +2795,7 @@
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
     </row>
-    <row r="53" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="7" t="s">
         <v>104</v>
       </c>
@@ -2802,7 +2805,7 @@
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
     </row>
-    <row r="54" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="7" t="s">
         <v>106</v>
       </c>
@@ -2812,7 +2815,7 @@
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
     </row>
-    <row r="55" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="7" t="s">
         <v>108</v>
       </c>
@@ -2822,7 +2825,7 @@
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
     </row>
-    <row r="56" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="7" t="s">
         <v>110</v>
       </c>
@@ -2832,7 +2835,7 @@
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
     </row>
-    <row r="57" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="7" t="s">
         <v>112</v>
       </c>
@@ -2842,7 +2845,7 @@
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
     </row>
-    <row r="58" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="7" t="s">
         <v>114</v>
       </c>
@@ -2852,7 +2855,7 @@
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
     </row>
-    <row r="59" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="7" t="s">
         <v>116</v>
       </c>
@@ -2862,7 +2865,7 @@
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
     </row>
-    <row r="60" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B60" s="7" t="s">
         <v>118</v>
       </c>
@@ -2872,7 +2875,7 @@
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
     </row>
-    <row r="61" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61" s="7" t="s">
         <v>120</v>
       </c>
@@ -2882,7 +2885,7 @@
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
     </row>
-    <row r="62" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B62" s="7" t="s">
         <v>122</v>
       </c>
@@ -2892,7 +2895,7 @@
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
     </row>
-    <row r="63" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B63" s="7" t="s">
         <v>124</v>
       </c>
@@ -2902,7 +2905,7 @@
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
     </row>
-    <row r="64" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="7" t="s">
         <v>126</v>
       </c>
@@ -2912,7 +2915,7 @@
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
     </row>
-    <row r="65" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B65" s="7" t="s">
         <v>128</v>
       </c>
@@ -2922,7 +2925,7 @@
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
     </row>
-    <row r="66" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B66" s="7" t="s">
         <v>130</v>
       </c>
@@ -2932,7 +2935,7 @@
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
     </row>
-    <row r="67" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B67" s="7" t="s">
         <v>132</v>
       </c>
@@ -2942,7 +2945,7 @@
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
     </row>
-    <row r="68" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B68" s="7" t="s">
         <v>134</v>
       </c>
@@ -2952,7 +2955,7 @@
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
     </row>
-    <row r="69" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B69" s="7" t="s">
         <v>136</v>
       </c>
@@ -2962,7 +2965,7 @@
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
     </row>
-    <row r="70" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="7" t="s">
         <v>138</v>
       </c>
@@ -2972,7 +2975,7 @@
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
     </row>
-    <row r="71" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B71" s="7" t="s">
         <v>140</v>
       </c>
@@ -2982,7 +2985,7 @@
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
     </row>
-    <row r="72" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B72" s="7" t="s">
         <v>142</v>
       </c>
@@ -2992,7 +2995,7 @@
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
     </row>
-    <row r="73" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B73" s="7" t="s">
         <v>144</v>
       </c>
@@ -3002,7 +3005,7 @@
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
     </row>
-    <row r="74" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B74" s="7" t="s">
         <v>146</v>
       </c>
@@ -3012,7 +3015,7 @@
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
     </row>
-    <row r="75" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B75" s="7" t="s">
         <v>148</v>
       </c>
@@ -3022,7 +3025,7 @@
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
     </row>
-    <row r="76" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B76" s="7" t="s">
         <v>150</v>
       </c>
@@ -3032,7 +3035,7 @@
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
     </row>
-    <row r="77" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B77" s="7" t="s">
         <v>152</v>
       </c>
@@ -3042,7 +3045,7 @@
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
     </row>
-    <row r="78" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B78" s="7" t="s">
         <v>154</v>
       </c>
@@ -3052,7 +3055,7 @@
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
     </row>
-    <row r="79" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B79" s="7" t="s">
         <v>156</v>
       </c>
@@ -3062,7 +3065,7 @@
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
     </row>
-    <row r="80" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B80" s="7" t="s">
         <v>158</v>
       </c>
@@ -3072,7 +3075,7 @@
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
     </row>
-    <row r="81" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B81" s="7" t="s">
         <v>160</v>
       </c>
@@ -3082,7 +3085,7 @@
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
     </row>
-    <row r="82" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B82" s="7" t="s">
         <v>162</v>
       </c>
@@ -3092,7 +3095,7 @@
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
     </row>
-    <row r="83" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B83" s="26" t="s">
         <v>164</v>
       </c>
@@ -3102,7 +3105,7 @@
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
     </row>
-    <row r="84" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B84" s="26"/>
       <c r="C84" s="4" t="s">
         <v>359</v>
@@ -3110,7 +3113,7 @@
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
     </row>
-    <row r="85" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B85" s="26"/>
       <c r="C85" s="4" t="s">
         <v>360</v>
@@ -3118,7 +3121,7 @@
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
     </row>
-    <row r="86" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B86" s="26"/>
       <c r="C86" s="4" t="s">
         <v>361</v>
@@ -3126,7 +3129,7 @@
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
     </row>
-    <row r="87" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B87" s="7" t="s">
         <v>165</v>
       </c>
@@ -3136,7 +3139,7 @@
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
     </row>
-    <row r="88" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B88" s="7" t="s">
         <v>167</v>
       </c>
@@ -3146,7 +3149,7 @@
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
     </row>
-    <row r="89" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B89" s="7" t="s">
         <v>169</v>
       </c>
@@ -3156,7 +3159,7 @@
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
     </row>
-    <row r="90" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B90" s="7" t="s">
         <v>171</v>
       </c>
@@ -3166,7 +3169,7 @@
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
     </row>
-    <row r="91" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B91" s="7" t="s">
         <v>173</v>
       </c>
@@ -3176,7 +3179,7 @@
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
     </row>
-    <row r="92" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B92" s="7" t="s">
         <v>175</v>
       </c>
@@ -3186,7 +3189,7 @@
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
     </row>
-    <row r="93" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B93" s="7" t="s">
         <v>177</v>
       </c>
@@ -3196,7 +3199,7 @@
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
     </row>
-    <row r="94" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B94" s="7" t="s">
         <v>179</v>
       </c>
@@ -3206,7 +3209,7 @@
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
     </row>
-    <row r="95" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B95" s="7" t="s">
         <v>181</v>
       </c>
@@ -3216,7 +3219,7 @@
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
     </row>
-    <row r="96" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B96" s="7" t="s">
         <v>183</v>
       </c>
@@ -3226,7 +3229,7 @@
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
     </row>
-    <row r="97" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B97" s="7" t="s">
         <v>185</v>
       </c>
@@ -3236,7 +3239,7 @@
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
     </row>
-    <row r="98" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B98" s="7" t="s">
         <v>187</v>
       </c>
@@ -3246,7 +3249,7 @@
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
     </row>
-    <row r="99" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B99" s="7" t="s">
         <v>189</v>
       </c>
@@ -3256,7 +3259,7 @@
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
     </row>
-    <row r="100" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B100" s="7" t="s">
         <v>191</v>
       </c>
@@ -3266,7 +3269,7 @@
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
     </row>
-    <row r="101" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B101" s="7" t="s">
         <v>193</v>
       </c>
@@ -3276,7 +3279,7 @@
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
     </row>
-    <row r="102" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B102" s="7" t="s">
         <v>195</v>
       </c>
@@ -3286,7 +3289,7 @@
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
     </row>
-    <row r="103" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B103" s="7" t="s">
         <v>197</v>
       </c>
@@ -3296,7 +3299,7 @@
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
     </row>
-    <row r="104" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B104" s="7" t="s">
         <v>199</v>
       </c>
@@ -3306,7 +3309,7 @@
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
     </row>
-    <row r="105" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B105" s="7" t="s">
         <v>201</v>
       </c>
@@ -3316,7 +3319,7 @@
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
     </row>
-    <row r="106" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:5" ht="26" x14ac:dyDescent="0.3">
       <c r="B106" s="7" t="s">
         <v>203</v>
       </c>
@@ -3326,7 +3329,7 @@
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
     </row>
-    <row r="107" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B107" s="7" t="s">
         <v>205</v>
       </c>
@@ -3336,7 +3339,7 @@
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
     </row>
-    <row r="108" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B108" s="7" t="s">
         <v>207</v>
       </c>
@@ -3346,7 +3349,7 @@
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
     </row>
-    <row r="109" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B109" s="7" t="s">
         <v>209</v>
       </c>
@@ -3356,7 +3359,7 @@
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
     </row>
-    <row r="110" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B110" s="7" t="s">
         <v>211</v>
       </c>
@@ -3366,7 +3369,7 @@
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
     </row>
-    <row r="111" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B111" s="7" t="s">
         <v>213</v>
       </c>
@@ -3376,7 +3379,7 @@
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
     </row>
-    <row r="112" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B112" s="7" t="s">
         <v>215</v>
       </c>
@@ -3386,7 +3389,7 @@
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
     </row>
-    <row r="113" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B113" s="7" t="s">
         <v>217</v>
       </c>
@@ -3396,7 +3399,7 @@
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
     </row>
-    <row r="114" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B114" s="7" t="s">
         <v>219</v>
       </c>
@@ -3406,7 +3409,7 @@
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
     </row>
-    <row r="115" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B115" s="7" t="s">
         <v>221</v>
       </c>
@@ -3416,7 +3419,7 @@
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
     </row>
-    <row r="116" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B116" s="7" t="s">
         <v>223</v>
       </c>
@@ -3426,7 +3429,7 @@
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
     </row>
-    <row r="117" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B117" s="7" t="s">
         <v>224</v>
       </c>
@@ -3436,7 +3439,7 @@
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
     </row>
-    <row r="118" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B118" s="7" t="s">
         <v>226</v>
       </c>
@@ -3446,7 +3449,7 @@
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
     </row>
-    <row r="119" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B119" s="7" t="s">
         <v>228</v>
       </c>
@@ -3456,7 +3459,7 @@
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
     </row>
-    <row r="120" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B120" s="7" t="s">
         <v>230</v>
       </c>
@@ -3466,7 +3469,7 @@
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
     </row>
-    <row r="121" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B121" s="7" t="s">
         <v>232</v>
       </c>
@@ -3476,7 +3479,7 @@
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
     </row>
-    <row r="122" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B122" s="7" t="s">
         <v>234</v>
       </c>
@@ -3486,7 +3489,7 @@
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
     </row>
-    <row r="123" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B123" s="7" t="s">
         <v>236</v>
       </c>
@@ -3496,7 +3499,7 @@
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
     </row>
-    <row r="124" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B124" s="7" t="s">
         <v>238</v>
       </c>
@@ -3506,7 +3509,7 @@
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
     </row>
-    <row r="125" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B125" s="7" t="s">
         <v>240</v>
       </c>
@@ -3516,7 +3519,7 @@
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
     </row>
-    <row r="126" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B126" s="7" t="s">
         <v>242</v>
       </c>
@@ -3526,7 +3529,7 @@
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
     </row>
-    <row r="127" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B127" s="7" t="s">
         <v>244</v>
       </c>
@@ -3536,7 +3539,7 @@
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
     </row>
-    <row r="128" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B128" s="7" t="s">
         <v>246</v>
       </c>
@@ -3546,7 +3549,7 @@
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
     </row>
-    <row r="129" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B129" s="7" t="s">
         <v>248</v>
       </c>
@@ -3556,7 +3559,7 @@
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
     </row>
-    <row r="130" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B130" s="7" t="s">
         <v>250</v>
       </c>
@@ -3566,7 +3569,7 @@
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
     </row>
-    <row r="131" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:5" ht="26" x14ac:dyDescent="0.3">
       <c r="B131" s="7" t="s">
         <v>252</v>
       </c>
@@ -3576,7 +3579,7 @@
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
     </row>
-    <row r="132" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B132" s="7" t="s">
         <v>254</v>
       </c>
@@ -3586,7 +3589,7 @@
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
     </row>
-    <row r="133" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B133" s="7" t="s">
         <v>256</v>
       </c>
@@ -3596,7 +3599,7 @@
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
     </row>
-    <row r="134" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B134" s="7" t="s">
         <v>258</v>
       </c>
@@ -3606,7 +3609,7 @@
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
     </row>
-    <row r="135" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B135" s="7" t="s">
         <v>260</v>
       </c>
@@ -3616,7 +3619,7 @@
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
     </row>
-    <row r="136" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B136" s="7" t="s">
         <v>262</v>
       </c>
@@ -3626,7 +3629,7 @@
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
     </row>
-    <row r="137" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B137" s="7" t="s">
         <v>264</v>
       </c>
@@ -3636,7 +3639,7 @@
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
     </row>
-    <row r="138" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B138" s="7" t="s">
         <v>266</v>
       </c>
@@ -3646,7 +3649,7 @@
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
     </row>
-    <row r="139" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B139" s="7" t="s">
         <v>268</v>
       </c>
@@ -3656,7 +3659,7 @@
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
     </row>
-    <row r="140" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B140" s="7" t="s">
         <v>270</v>
       </c>
@@ -3666,7 +3669,7 @@
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
     </row>
-    <row r="141" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B141" s="7" t="s">
         <v>272</v>
       </c>
@@ -3676,7 +3679,7 @@
       <c r="D141" s="8"/>
       <c r="E141" s="8"/>
     </row>
-    <row r="142" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B142" s="7" t="s">
         <v>274</v>
       </c>
@@ -3686,7 +3689,7 @@
       <c r="D142" s="8"/>
       <c r="E142" s="8"/>
     </row>
-    <row r="143" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B143" s="7" t="s">
         <v>276</v>
       </c>
@@ -3696,7 +3699,7 @@
       <c r="D143" s="8"/>
       <c r="E143" s="8"/>
     </row>
-    <row r="144" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B144" s="7" t="s">
         <v>278</v>
       </c>
@@ -3706,7 +3709,7 @@
       <c r="D144" s="8"/>
       <c r="E144" s="8"/>
     </row>
-    <row r="145" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B145" s="7" t="s">
         <v>280</v>
       </c>
@@ -3716,7 +3719,7 @@
       <c r="D145" s="8"/>
       <c r="E145" s="8"/>
     </row>
-    <row r="146" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B146" s="7" t="s">
         <v>282</v>
       </c>
@@ -3726,7 +3729,7 @@
       <c r="D146" s="8"/>
       <c r="E146" s="8"/>
     </row>
-    <row r="147" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B147" s="7" t="s">
         <v>284</v>
       </c>
@@ -3736,7 +3739,7 @@
       <c r="D147" s="8"/>
       <c r="E147" s="8"/>
     </row>
-    <row r="148" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B148" s="7" t="s">
         <v>286</v>
       </c>
@@ -3746,7 +3749,7 @@
       <c r="D148" s="8"/>
       <c r="E148" s="8"/>
     </row>
-    <row r="149" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:5" ht="26" x14ac:dyDescent="0.3">
       <c r="B149" s="7" t="s">
         <v>288</v>
       </c>
@@ -3756,7 +3759,7 @@
       <c r="D149" s="8"/>
       <c r="E149" s="8"/>
     </row>
-    <row r="150" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B150" s="7" t="s">
         <v>290</v>
       </c>
@@ -3766,7 +3769,7 @@
       <c r="D150" s="8"/>
       <c r="E150" s="8"/>
     </row>
-    <row r="151" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B151" s="7" t="s">
         <v>292</v>
       </c>
@@ -3776,7 +3779,7 @@
       <c r="D151" s="8"/>
       <c r="E151" s="8"/>
     </row>
-    <row r="152" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B152" s="7" t="s">
         <v>294</v>
       </c>
@@ -3786,7 +3789,7 @@
       <c r="D152" s="8"/>
       <c r="E152" s="8"/>
     </row>
-    <row r="153" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B153" s="7" t="s">
         <v>296</v>
       </c>
@@ -3796,7 +3799,7 @@
       <c r="D153" s="8"/>
       <c r="E153" s="8"/>
     </row>
-    <row r="154" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B154" s="7" t="s">
         <v>298</v>
       </c>
@@ -3806,7 +3809,7 @@
       <c r="D154" s="8"/>
       <c r="E154" s="8"/>
     </row>
-    <row r="155" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B155" s="7" t="s">
         <v>300</v>
       </c>
@@ -3816,7 +3819,7 @@
       <c r="D155" s="8"/>
       <c r="E155" s="8"/>
     </row>
-    <row r="156" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B156" s="7" t="s">
         <v>302</v>
       </c>
@@ -3826,7 +3829,7 @@
       <c r="D156" s="8"/>
       <c r="E156" s="8"/>
     </row>
-    <row r="157" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B157" s="7" t="s">
         <v>304</v>
       </c>
@@ -3836,7 +3839,7 @@
       <c r="D157" s="8"/>
       <c r="E157" s="8"/>
     </row>
-    <row r="158" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B158" s="7" t="s">
         <v>306</v>
       </c>
@@ -3846,7 +3849,7 @@
       <c r="D158" s="8"/>
       <c r="E158" s="8"/>
     </row>
-    <row r="159" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:5" ht="26" x14ac:dyDescent="0.3">
       <c r="B159" s="7" t="s">
         <v>308</v>
       </c>
@@ -3856,7 +3859,7 @@
       <c r="D159" s="8"/>
       <c r="E159" s="8"/>
     </row>
-    <row r="160" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B160" s="7" t="s">
         <v>310</v>
       </c>
@@ -3866,7 +3869,7 @@
       <c r="D160" s="8"/>
       <c r="E160" s="8"/>
     </row>
-    <row r="161" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B161" s="7" t="s">
         <v>312</v>
       </c>
@@ -3876,7 +3879,7 @@
       <c r="D161" s="8"/>
       <c r="E161" s="8"/>
     </row>
-    <row r="162" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B162" s="7" t="s">
         <v>314</v>
       </c>
@@ -3886,7 +3889,7 @@
       <c r="D162" s="8"/>
       <c r="E162" s="8"/>
     </row>
-    <row r="163" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B163" s="7" t="s">
         <v>316</v>
       </c>
@@ -3896,7 +3899,7 @@
       <c r="D163" s="8"/>
       <c r="E163" s="8"/>
     </row>
-    <row r="164" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B164" s="7" t="s">
         <v>318</v>
       </c>
@@ -3906,7 +3909,7 @@
       <c r="D164" s="8"/>
       <c r="E164" s="8"/>
     </row>
-    <row r="165" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B165" s="7" t="s">
         <v>320</v>
       </c>
@@ -3916,7 +3919,7 @@
       <c r="D165" s="8"/>
       <c r="E165" s="8"/>
     </row>
-    <row r="166" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B166" s="7" t="s">
         <v>322</v>
       </c>
@@ -3926,7 +3929,7 @@
       <c r="D166" s="8"/>
       <c r="E166" s="8"/>
     </row>
-    <row r="167" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B167" s="7" t="s">
         <v>324</v>
       </c>
@@ -3936,7 +3939,7 @@
       <c r="D167" s="8"/>
       <c r="E167" s="8"/>
     </row>
-    <row r="168" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B168" s="7" t="s">
         <v>326</v>
       </c>
@@ -3946,7 +3949,7 @@
       <c r="D168" s="8"/>
       <c r="E168" s="8"/>
     </row>
-    <row r="169" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B169" s="7" t="s">
         <v>328</v>
       </c>
@@ -3956,7 +3959,7 @@
       <c r="D169" s="8"/>
       <c r="E169" s="8"/>
     </row>
-    <row r="170" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B170" s="7" t="s">
         <v>330</v>
       </c>
@@ -3966,7 +3969,7 @@
       <c r="D170" s="8"/>
       <c r="E170" s="8"/>
     </row>
-    <row r="171" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B171" s="7" t="s">
         <v>332</v>
       </c>
@@ -3976,7 +3979,7 @@
       <c r="D171" s="8"/>
       <c r="E171" s="8"/>
     </row>
-    <row r="172" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B172" s="7" t="s">
         <v>334</v>
       </c>
@@ -3986,7 +3989,7 @@
       <c r="D172" s="8"/>
       <c r="E172" s="8"/>
     </row>
-    <row r="173" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B173" s="7" t="s">
         <v>336</v>
       </c>
@@ -3996,7 +3999,7 @@
       <c r="D173" s="8"/>
       <c r="E173" s="8"/>
     </row>
-    <row r="174" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B174" s="7" t="s">
         <v>338</v>
       </c>
@@ -4006,7 +4009,7 @@
       <c r="D174" s="8"/>
       <c r="E174" s="8"/>
     </row>
-    <row r="175" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B175" s="7" t="s">
         <v>340</v>
       </c>
@@ -4016,7 +4019,7 @@
       <c r="D175" s="8"/>
       <c r="E175" s="8"/>
     </row>
-    <row r="176" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B176" s="7" t="s">
         <v>342</v>
       </c>
@@ -4026,7 +4029,7 @@
       <c r="D176" s="8"/>
       <c r="E176" s="8"/>
     </row>
-    <row r="177" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B177" s="7" t="s">
         <v>344</v>
       </c>
@@ -4036,7 +4039,7 @@
       <c r="D177" s="8"/>
       <c r="E177" s="8"/>
     </row>
-    <row r="178" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B178" s="7" t="s">
         <v>346</v>
       </c>
@@ -4046,7 +4049,7 @@
       <c r="D178" s="8"/>
       <c r="E178" s="8"/>
     </row>
-    <row r="179" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B179" s="7" t="s">
         <v>348</v>
       </c>
@@ -4056,7 +4059,7 @@
       <c r="D179" s="8"/>
       <c r="E179" s="8"/>
     </row>
-    <row r="180" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B180" s="7" t="s">
         <v>350</v>
       </c>
@@ -4066,7 +4069,7 @@
       <c r="D180" s="8"/>
       <c r="E180" s="8"/>
     </row>
-    <row r="181" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B181" s="7" t="s">
         <v>352</v>
       </c>
@@ -4076,7 +4079,7 @@
       <c r="D181" s="8"/>
       <c r="E181" s="8"/>
     </row>
-    <row r="182" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B182" s="7" t="s">
         <v>354</v>
       </c>
@@ -4086,7 +4089,7 @@
       <c r="D182" s="8"/>
       <c r="E182" s="8"/>
     </row>
-    <row r="183" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B183" s="7" t="s">
         <v>356</v>
       </c>
@@ -4096,7 +4099,7 @@
       <c r="D183" s="8"/>
       <c r="E183" s="8"/>
     </row>
-    <row r="184" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B184" s="7" t="s">
         <v>363</v>
       </c>
@@ -4106,7 +4109,7 @@
       <c r="D184" s="8"/>
       <c r="E184" s="8"/>
     </row>
-    <row r="185" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B185" s="7" t="s">
         <v>365</v>
       </c>
@@ -4116,7 +4119,7 @@
       <c r="D185" s="8"/>
       <c r="E185" s="8"/>
     </row>
-    <row r="186" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B186" s="7" t="s">
         <v>367</v>
       </c>
@@ -4126,7 +4129,7 @@
       <c r="D186" s="8"/>
       <c r="E186" s="8"/>
     </row>
-    <row r="187" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B187" s="7" t="s">
         <v>369</v>
       </c>
@@ -4136,7 +4139,7 @@
       <c r="D187" s="8"/>
       <c r="E187" s="8"/>
     </row>
-    <row r="188" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B188" s="7" t="s">
         <v>371</v>
       </c>
@@ -4146,7 +4149,7 @@
       <c r="D188" s="8"/>
       <c r="E188" s="8"/>
     </row>
-    <row r="189" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B189" s="7" t="s">
         <v>373</v>
       </c>
@@ -4156,7 +4159,7 @@
       <c r="D189" s="8"/>
       <c r="E189" s="8"/>
     </row>
-    <row r="190" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:5" ht="26" x14ac:dyDescent="0.3">
       <c r="B190" s="7" t="s">
         <v>375</v>
       </c>
@@ -4166,7 +4169,7 @@
       <c r="D190" s="8"/>
       <c r="E190" s="8"/>
     </row>
-    <row r="191" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B191" s="7" t="s">
         <v>377</v>
       </c>
@@ -4193,17 +4196,17 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="1"/>
-    <col min="2" max="2" width="3.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.42578125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="3.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.453125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.81640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="13" t="s">
         <v>379</v>
       </c>
@@ -4217,7 +4220,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="9">
         <v>1</v>
       </c>
@@ -4229,7 +4232,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="9">
         <v>2</v>
       </c>
@@ -4241,7 +4244,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="9">
         <v>3</v>
       </c>
@@ -4253,7 +4256,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="9">
         <v>4</v>
       </c>
@@ -4265,7 +4268,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="9">
         <v>5</v>
       </c>
@@ -4278,7 +4281,7 @@
       </c>
       <c r="G8" s="10"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="9">
         <v>6</v>
       </c>
@@ -4290,7 +4293,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="9">
         <v>7</v>
       </c>
@@ -4302,7 +4305,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="9">
         <v>8</v>
       </c>
@@ -4314,7 +4317,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="9">
         <v>9</v>
       </c>
@@ -4326,7 +4329,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="9">
         <v>10</v>
       </c>
@@ -4338,7 +4341,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="9">
         <v>11</v>
       </c>
@@ -4350,7 +4353,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="9">
         <v>12</v>
       </c>
@@ -4362,7 +4365,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" s="9">
         <v>13</v>
       </c>
@@ -4374,7 +4377,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="9">
         <v>14</v>
       </c>
@@ -4386,7 +4389,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="9">
         <v>15</v>
       </c>
@@ -4398,7 +4401,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="9">
         <v>16</v>
       </c>
@@ -4410,7 +4413,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="9">
         <v>17</v>
       </c>
@@ -4422,7 +4425,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="9">
         <v>18</v>
       </c>
@@ -4434,7 +4437,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="9">
         <v>19</v>
       </c>
@@ -4446,7 +4449,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="9">
         <v>20</v>
       </c>
@@ -4458,7 +4461,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="9">
         <v>21</v>
       </c>
@@ -4470,7 +4473,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="9">
         <v>22</v>
       </c>
@@ -4482,7 +4485,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="9">
         <v>23</v>
       </c>
@@ -4494,7 +4497,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="9">
         <v>24</v>
       </c>
@@ -4502,7 +4505,7 @@
       <c r="D27" s="9"/>
       <c r="E27" s="14"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="9">
         <v>25</v>
       </c>
@@ -4510,7 +4513,7 @@
       <c r="D28" s="9"/>
       <c r="E28" s="14"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" s="9">
         <v>26</v>
       </c>
@@ -4518,7 +4521,7 @@
       <c r="D29" s="9"/>
       <c r="E29" s="14"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" s="9">
         <v>27</v>
       </c>
@@ -4526,7 +4529,7 @@
       <c r="D30" s="9"/>
       <c r="E30" s="14"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B31" s="9">
         <v>28</v>
       </c>
@@ -4534,7 +4537,7 @@
       <c r="D31" s="9"/>
       <c r="E31" s="14"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B32" s="9">
         <v>29</v>
       </c>
@@ -4542,7 +4545,7 @@
       <c r="D32" s="9"/>
       <c r="E32" s="14"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" s="9">
         <v>30</v>
       </c>
@@ -4550,7 +4553,7 @@
       <c r="D33" s="9"/>
       <c r="E33" s="14"/>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34" s="9">
         <v>31</v>
       </c>
@@ -4558,7 +4561,7 @@
       <c r="D34" s="9"/>
       <c r="E34" s="14"/>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" s="9">
         <v>32</v>
       </c>
@@ -4566,7 +4569,7 @@
       <c r="D35" s="9"/>
       <c r="E35" s="14"/>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36" s="9">
         <v>33</v>
       </c>
@@ -4574,7 +4577,7 @@
       <c r="D36" s="9"/>
       <c r="E36" s="14"/>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37" s="9">
         <v>34</v>
       </c>
@@ -4582,7 +4585,7 @@
       <c r="D37" s="9"/>
       <c r="E37" s="14"/>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38" s="9">
         <v>35</v>
       </c>
@@ -4590,7 +4593,7 @@
       <c r="D38" s="9"/>
       <c r="E38" s="14"/>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B39" s="9">
         <v>36</v>
       </c>
@@ -4598,7 +4601,7 @@
       <c r="D39" s="9"/>
       <c r="E39" s="14"/>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B40" s="9">
         <v>37</v>
       </c>
@@ -4606,7 +4609,7 @@
       <c r="D40" s="9"/>
       <c r="E40" s="14"/>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B41" s="9">
         <v>38</v>
       </c>
@@ -4614,7 +4617,7 @@
       <c r="D41" s="9"/>
       <c r="E41" s="14"/>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B42" s="9">
         <v>39</v>
       </c>
@@ -4622,7 +4625,7 @@
       <c r="D42" s="9"/>
       <c r="E42" s="14"/>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B43" s="9">
         <v>40</v>
       </c>
@@ -4630,7 +4633,7 @@
       <c r="D43" s="9"/>
       <c r="E43" s="14"/>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B44" s="9">
         <v>41</v>
       </c>
@@ -4638,7 +4641,7 @@
       <c r="D44" s="9"/>
       <c r="E44" s="14"/>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B45" s="9">
         <v>42</v>
       </c>
@@ -4646,7 +4649,7 @@
       <c r="D45" s="9"/>
       <c r="E45" s="14"/>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B46" s="9">
         <v>43</v>
       </c>
@@ -4654,7 +4657,7 @@
       <c r="D46" s="9"/>
       <c r="E46" s="14"/>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B47" s="9">
         <v>44</v>
       </c>
@@ -4662,7 +4665,7 @@
       <c r="D47" s="9"/>
       <c r="E47" s="14"/>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B48" s="9">
         <v>45</v>
       </c>
@@ -4670,7 +4673,7 @@
       <c r="D48" s="9"/>
       <c r="E48" s="14"/>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B49" s="9">
         <v>46</v>
       </c>
@@ -4678,7 +4681,7 @@
       <c r="D49" s="9"/>
       <c r="E49" s="14"/>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B50" s="9">
         <v>47</v>
       </c>
@@ -4686,7 +4689,7 @@
       <c r="D50" s="9"/>
       <c r="E50" s="14"/>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B51" s="9">
         <v>48</v>
       </c>
@@ -4694,7 +4697,7 @@
       <c r="D51" s="9"/>
       <c r="E51" s="14"/>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B52" s="9">
         <v>49</v>
       </c>
@@ -4702,7 +4705,7 @@
       <c r="D52" s="9"/>
       <c r="E52" s="14"/>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B53" s="9">
         <v>50</v>
       </c>
@@ -4710,7 +4713,7 @@
       <c r="D53" s="9"/>
       <c r="E53" s="14"/>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B54" s="9">
         <v>51</v>
       </c>
@@ -4718,7 +4721,7 @@
       <c r="D54" s="9"/>
       <c r="E54" s="14"/>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B55" s="9">
         <v>52</v>
       </c>
@@ -4726,7 +4729,7 @@
       <c r="D55" s="9"/>
       <c r="E55" s="14"/>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B56" s="9">
         <v>53</v>
       </c>
@@ -4734,7 +4737,7 @@
       <c r="D56" s="9"/>
       <c r="E56" s="14"/>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B57" s="9">
         <v>54</v>
       </c>
@@ -4742,7 +4745,7 @@
       <c r="D57" s="9"/>
       <c r="E57" s="14"/>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B58" s="9">
         <v>55</v>
       </c>
@@ -4750,7 +4753,7 @@
       <c r="D58" s="9"/>
       <c r="E58" s="14"/>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B59" s="9">
         <v>56</v>
       </c>
@@ -4758,7 +4761,7 @@
       <c r="D59" s="9"/>
       <c r="E59" s="14"/>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B60" s="9">
         <v>57</v>
       </c>
@@ -4766,7 +4769,7 @@
       <c r="D60" s="9"/>
       <c r="E60" s="14"/>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B61" s="9">
         <v>58</v>
       </c>
@@ -4774,7 +4777,7 @@
       <c r="D61" s="9"/>
       <c r="E61" s="14"/>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B62" s="9">
         <v>59</v>
       </c>
@@ -4782,7 +4785,7 @@
       <c r="D62" s="9"/>
       <c r="E62" s="14"/>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B63" s="9">
         <v>60</v>
       </c>
@@ -4790,7 +4793,7 @@
       <c r="D63" s="9"/>
       <c r="E63" s="14"/>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B64" s="9">
         <v>61</v>
       </c>
@@ -4798,7 +4801,7 @@
       <c r="D64" s="9"/>
       <c r="E64" s="14"/>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B65" s="9">
         <v>62</v>
       </c>
@@ -4806,7 +4809,7 @@
       <c r="D65" s="9"/>
       <c r="E65" s="14"/>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B66" s="9">
         <v>63</v>
       </c>
@@ -4814,7 +4817,7 @@
       <c r="D66" s="9"/>
       <c r="E66" s="14"/>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B67" s="9">
         <v>64</v>
       </c>
@@ -4822,7 +4825,7 @@
       <c r="D67" s="9"/>
       <c r="E67" s="14"/>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B68" s="9">
         <v>65</v>
       </c>
@@ -4830,7 +4833,7 @@
       <c r="D68" s="9"/>
       <c r="E68" s="14"/>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B69" s="9">
         <v>66</v>
       </c>
@@ -4838,7 +4841,7 @@
       <c r="D69" s="9"/>
       <c r="E69" s="14"/>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B70" s="9">
         <v>67</v>
       </c>
@@ -4846,7 +4849,7 @@
       <c r="D70" s="9"/>
       <c r="E70" s="14"/>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B71" s="9">
         <v>68</v>
       </c>
@@ -4854,7 +4857,7 @@
       <c r="D71" s="9"/>
       <c r="E71" s="14"/>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B72" s="9">
         <v>69</v>
       </c>
@@ -4872,21 +4875,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B759393E-1290-4E33-A086-7F2745429EA5}">
   <dimension ref="B3:G72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19:E22"/>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23:E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="1"/>
-    <col min="2" max="2" width="3.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.42578125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="105.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="3.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.453125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="105.54296875" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="13" t="s">
         <v>379</v>
       </c>
@@ -4900,7 +4903,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="9">
         <v>1</v>
       </c>
@@ -4912,7 +4915,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="9">
         <v>2</v>
       </c>
@@ -4924,7 +4927,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="9">
         <v>3</v>
       </c>
@@ -4936,7 +4939,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:7" ht="26" x14ac:dyDescent="0.3">
       <c r="B7" s="9">
         <v>4</v>
       </c>
@@ -4948,7 +4951,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:7" ht="26" x14ac:dyDescent="0.3">
       <c r="B8" s="9">
         <v>5</v>
       </c>
@@ -4961,7 +4964,7 @@
       </c>
       <c r="G8" s="10"/>
     </row>
-    <row r="9" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:7" ht="26" x14ac:dyDescent="0.3">
       <c r="B9" s="9">
         <v>6</v>
       </c>
@@ -4973,7 +4976,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:7" ht="26" x14ac:dyDescent="0.3">
       <c r="B10" s="9">
         <v>7</v>
       </c>
@@ -4985,7 +4988,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="9">
         <v>8</v>
       </c>
@@ -4997,7 +5000,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="9">
         <v>9</v>
       </c>
@@ -5009,7 +5012,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:7" ht="26" x14ac:dyDescent="0.3">
       <c r="B13" s="9">
         <v>10</v>
       </c>
@@ -5021,7 +5024,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:7" ht="26" x14ac:dyDescent="0.3">
       <c r="B14" s="9">
         <v>11</v>
       </c>
@@ -5033,7 +5036,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:7" ht="26" x14ac:dyDescent="0.3">
       <c r="B15" s="9">
         <v>12</v>
       </c>
@@ -5045,7 +5048,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="16" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:7" ht="26" x14ac:dyDescent="0.3">
       <c r="B16" s="9">
         <v>13</v>
       </c>
@@ -5057,7 +5060,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5" ht="26" x14ac:dyDescent="0.3">
       <c r="B17" s="9">
         <v>14</v>
       </c>
@@ -5069,7 +5072,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5" ht="26" x14ac:dyDescent="0.3">
       <c r="B18" s="9">
         <v>15</v>
       </c>
@@ -5081,7 +5084,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5" ht="26" x14ac:dyDescent="0.3">
       <c r="B19" s="9">
         <v>16</v>
       </c>
@@ -5093,7 +5096,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:5" ht="26" x14ac:dyDescent="0.3">
       <c r="B20" s="9">
         <v>17</v>
       </c>
@@ -5105,7 +5108,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:5" ht="26" x14ac:dyDescent="0.3">
       <c r="B21" s="9">
         <v>18</v>
       </c>
@@ -5117,7 +5120,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:5" ht="26" x14ac:dyDescent="0.3">
       <c r="B22" s="9">
         <v>19</v>
       </c>
@@ -5129,7 +5132,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:5" ht="26" x14ac:dyDescent="0.3">
       <c r="B23" s="9">
         <v>20</v>
       </c>
@@ -5137,9 +5140,11 @@
         <v>473</v>
       </c>
       <c r="D23" s="9"/>
-      <c r="E23" s="16"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E23" s="16" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="26" x14ac:dyDescent="0.3">
       <c r="B24" s="9">
         <v>21</v>
       </c>
@@ -5147,9 +5152,11 @@
         <v>474</v>
       </c>
       <c r="D24" s="9"/>
-      <c r="E24" s="16"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E24" s="16" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="26" x14ac:dyDescent="0.3">
       <c r="B25" s="9">
         <v>22</v>
       </c>
@@ -5157,9 +5164,11 @@
         <v>475</v>
       </c>
       <c r="D25" s="9"/>
-      <c r="E25" s="16"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E25" s="16" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="26" x14ac:dyDescent="0.3">
       <c r="B26" s="9">
         <v>23</v>
       </c>
@@ -5167,9 +5176,11 @@
         <v>476</v>
       </c>
       <c r="D26" s="9"/>
-      <c r="E26" s="16"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E26" s="16" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="9">
         <v>24</v>
       </c>
@@ -5177,7 +5188,7 @@
       <c r="D27" s="9"/>
       <c r="E27" s="16"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="9">
         <v>25</v>
       </c>
@@ -5185,7 +5196,7 @@
       <c r="D28" s="9"/>
       <c r="E28" s="16"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" s="9">
         <v>26</v>
       </c>
@@ -5193,7 +5204,7 @@
       <c r="D29" s="9"/>
       <c r="E29" s="16"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" s="9">
         <v>27</v>
       </c>
@@ -5201,7 +5212,7 @@
       <c r="D30" s="9"/>
       <c r="E30" s="16"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B31" s="9">
         <v>28</v>
       </c>
@@ -5209,7 +5220,7 @@
       <c r="D31" s="9"/>
       <c r="E31" s="16"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B32" s="9">
         <v>29</v>
       </c>
@@ -5217,7 +5228,7 @@
       <c r="D32" s="9"/>
       <c r="E32" s="16"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" s="9">
         <v>30</v>
       </c>
@@ -5225,7 +5236,7 @@
       <c r="D33" s="9"/>
       <c r="E33" s="16"/>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34" s="9">
         <v>31</v>
       </c>
@@ -5233,7 +5244,7 @@
       <c r="D34" s="9"/>
       <c r="E34" s="16"/>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" s="9">
         <v>32</v>
       </c>
@@ -5241,7 +5252,7 @@
       <c r="D35" s="9"/>
       <c r="E35" s="16"/>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36" s="9">
         <v>33</v>
       </c>
@@ -5249,7 +5260,7 @@
       <c r="D36" s="9"/>
       <c r="E36" s="16"/>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37" s="9">
         <v>34</v>
       </c>
@@ -5257,7 +5268,7 @@
       <c r="D37" s="9"/>
       <c r="E37" s="16"/>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38" s="9">
         <v>35</v>
       </c>
@@ -5265,7 +5276,7 @@
       <c r="D38" s="9"/>
       <c r="E38" s="16"/>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B39" s="9">
         <v>36</v>
       </c>
@@ -5273,7 +5284,7 @@
       <c r="D39" s="9"/>
       <c r="E39" s="16"/>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B40" s="9">
         <v>37</v>
       </c>
@@ -5281,7 +5292,7 @@
       <c r="D40" s="9"/>
       <c r="E40" s="16"/>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B41" s="9">
         <v>38</v>
       </c>
@@ -5289,7 +5300,7 @@
       <c r="D41" s="9"/>
       <c r="E41" s="16"/>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B42" s="9">
         <v>39</v>
       </c>
@@ -5297,7 +5308,7 @@
       <c r="D42" s="9"/>
       <c r="E42" s="16"/>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B43" s="9">
         <v>40</v>
       </c>
@@ -5305,7 +5316,7 @@
       <c r="D43" s="9"/>
       <c r="E43" s="16"/>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B44" s="9">
         <v>41</v>
       </c>
@@ -5313,7 +5324,7 @@
       <c r="D44" s="9"/>
       <c r="E44" s="16"/>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B45" s="9">
         <v>42</v>
       </c>
@@ -5321,7 +5332,7 @@
       <c r="D45" s="9"/>
       <c r="E45" s="16"/>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B46" s="9">
         <v>43</v>
       </c>
@@ -5329,7 +5340,7 @@
       <c r="D46" s="9"/>
       <c r="E46" s="16"/>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B47" s="9">
         <v>44</v>
       </c>
@@ -5337,7 +5348,7 @@
       <c r="D47" s="9"/>
       <c r="E47" s="16"/>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B48" s="9">
         <v>45</v>
       </c>
@@ -5345,7 +5356,7 @@
       <c r="D48" s="9"/>
       <c r="E48" s="16"/>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B49" s="9">
         <v>46</v>
       </c>
@@ -5353,7 +5364,7 @@
       <c r="D49" s="9"/>
       <c r="E49" s="16"/>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B50" s="9">
         <v>47</v>
       </c>
@@ -5361,7 +5372,7 @@
       <c r="D50" s="9"/>
       <c r="E50" s="16"/>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B51" s="9">
         <v>48</v>
       </c>
@@ -5369,7 +5380,7 @@
       <c r="D51" s="9"/>
       <c r="E51" s="16"/>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B52" s="9">
         <v>49</v>
       </c>
@@ -5377,7 +5388,7 @@
       <c r="D52" s="9"/>
       <c r="E52" s="16"/>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B53" s="9">
         <v>50</v>
       </c>
@@ -5385,7 +5396,7 @@
       <c r="D53" s="9"/>
       <c r="E53" s="16"/>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B54" s="9">
         <v>51</v>
       </c>
@@ -5393,7 +5404,7 @@
       <c r="D54" s="9"/>
       <c r="E54" s="16"/>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B55" s="9">
         <v>52</v>
       </c>
@@ -5401,7 +5412,7 @@
       <c r="D55" s="9"/>
       <c r="E55" s="16"/>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B56" s="9">
         <v>53</v>
       </c>
@@ -5409,7 +5420,7 @@
       <c r="D56" s="9"/>
       <c r="E56" s="16"/>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B57" s="9">
         <v>54</v>
       </c>
@@ -5417,7 +5428,7 @@
       <c r="D57" s="9"/>
       <c r="E57" s="16"/>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B58" s="9">
         <v>55</v>
       </c>
@@ -5425,7 +5436,7 @@
       <c r="D58" s="9"/>
       <c r="E58" s="16"/>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B59" s="9">
         <v>56</v>
       </c>
@@ -5433,7 +5444,7 @@
       <c r="D59" s="9"/>
       <c r="E59" s="16"/>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B60" s="9">
         <v>57</v>
       </c>
@@ -5441,7 +5452,7 @@
       <c r="D60" s="9"/>
       <c r="E60" s="16"/>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B61" s="9">
         <v>58</v>
       </c>
@@ -5449,7 +5460,7 @@
       <c r="D61" s="9"/>
       <c r="E61" s="16"/>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B62" s="9">
         <v>59</v>
       </c>
@@ -5457,7 +5468,7 @@
       <c r="D62" s="9"/>
       <c r="E62" s="16"/>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B63" s="9">
         <v>60</v>
       </c>
@@ -5465,7 +5476,7 @@
       <c r="D63" s="9"/>
       <c r="E63" s="16"/>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B64" s="9">
         <v>61</v>
       </c>
@@ -5473,7 +5484,7 @@
       <c r="D64" s="9"/>
       <c r="E64" s="16"/>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B65" s="9">
         <v>62</v>
       </c>
@@ -5481,7 +5492,7 @@
       <c r="D65" s="9"/>
       <c r="E65" s="16"/>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B66" s="9">
         <v>63</v>
       </c>
@@ -5489,7 +5500,7 @@
       <c r="D66" s="9"/>
       <c r="E66" s="16"/>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B67" s="9">
         <v>64</v>
       </c>
@@ -5497,7 +5508,7 @@
       <c r="D67" s="9"/>
       <c r="E67" s="16"/>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B68" s="9">
         <v>65</v>
       </c>
@@ -5505,7 +5516,7 @@
       <c r="D68" s="9"/>
       <c r="E68" s="16"/>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B69" s="9">
         <v>66</v>
       </c>
@@ -5513,7 +5524,7 @@
       <c r="D69" s="9"/>
       <c r="E69" s="16"/>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B70" s="9">
         <v>67</v>
       </c>
@@ -5521,7 +5532,7 @@
       <c r="D70" s="9"/>
       <c r="E70" s="16"/>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B71" s="9">
         <v>68</v>
       </c>
@@ -5529,7 +5540,7 @@
       <c r="D71" s="9"/>
       <c r="E71" s="16"/>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B72" s="9">
         <v>69</v>
       </c>
@@ -5551,17 +5562,17 @@
       <selection activeCell="B3" sqref="B3:E72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="1"/>
-    <col min="2" max="2" width="3.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="58.85546875" style="15" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="122.85546875" style="25" customWidth="1"/>
-    <col min="6" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="3.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.81640625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="122.81640625" style="25" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="13" t="s">
         <v>379</v>
       </c>
@@ -5575,7 +5586,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="9">
         <v>1</v>
       </c>
@@ -5587,7 +5598,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="9">
         <v>2</v>
       </c>
@@ -5599,7 +5610,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="9">
         <v>3</v>
       </c>
@@ -5611,7 +5622,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="9">
         <v>4</v>
       </c>
@@ -5623,7 +5634,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="9">
         <v>5</v>
       </c>
@@ -5636,7 +5647,7 @@
       </c>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="9">
         <v>6</v>
       </c>
@@ -5649,7 +5660,7 @@
       </c>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="9">
         <v>7</v>
       </c>
@@ -5661,7 +5672,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="9">
         <v>8</v>
       </c>
@@ -5673,7 +5684,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="9">
         <v>9</v>
       </c>
@@ -5685,7 +5696,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="9">
         <v>10</v>
       </c>
@@ -5697,7 +5708,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="9">
         <v>11</v>
       </c>
@@ -5709,7 +5720,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="9">
         <v>12</v>
       </c>
@@ -5721,7 +5732,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" s="9">
         <v>13</v>
       </c>
@@ -5733,7 +5744,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="9">
         <v>14</v>
       </c>
@@ -5745,7 +5756,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="9">
         <v>15</v>
       </c>
@@ -5757,7 +5768,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="9">
         <v>16</v>
       </c>
@@ -5769,7 +5780,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="9">
         <v>17</v>
       </c>
@@ -5781,7 +5792,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="9">
         <v>18</v>
       </c>
@@ -5793,7 +5804,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:5" ht="26" x14ac:dyDescent="0.3">
       <c r="B22" s="9">
         <v>19</v>
       </c>
@@ -5805,7 +5816,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="9">
         <v>20</v>
       </c>
@@ -5817,7 +5828,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="9">
         <v>21</v>
       </c>
@@ -5827,7 +5838,7 @@
       <c r="D24" s="9"/>
       <c r="E24" s="16"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="9">
         <v>22</v>
       </c>
@@ -5837,7 +5848,7 @@
       <c r="D25" s="9"/>
       <c r="E25" s="16"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="9">
         <v>23</v>
       </c>
@@ -5847,7 +5858,7 @@
       <c r="D26" s="9"/>
       <c r="E26" s="16"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="9">
         <v>24</v>
       </c>
@@ -5857,7 +5868,7 @@
       <c r="D27" s="9"/>
       <c r="E27" s="16"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="9">
         <v>25</v>
       </c>
@@ -5867,7 +5878,7 @@
       <c r="D28" s="9"/>
       <c r="E28" s="16"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" s="9">
         <v>26</v>
       </c>
@@ -5877,7 +5888,7 @@
       <c r="D29" s="9"/>
       <c r="E29" s="16"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" s="9">
         <v>27</v>
       </c>
@@ -5887,7 +5898,7 @@
       <c r="D30" s="9"/>
       <c r="E30" s="16"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B31" s="9">
         <v>28</v>
       </c>
@@ -5897,7 +5908,7 @@
       <c r="D31" s="9"/>
       <c r="E31" s="16"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B32" s="9">
         <v>29</v>
       </c>
@@ -5907,7 +5918,7 @@
       <c r="D32" s="9"/>
       <c r="E32" s="16"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" s="9">
         <v>30</v>
       </c>
@@ -5917,7 +5928,7 @@
       <c r="D33" s="9"/>
       <c r="E33" s="16"/>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34" s="9">
         <v>31</v>
       </c>
@@ -5927,7 +5938,7 @@
       <c r="D34" s="9"/>
       <c r="E34" s="16"/>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" s="9">
         <v>32</v>
       </c>
@@ -5937,7 +5948,7 @@
       <c r="D35" s="9"/>
       <c r="E35" s="16"/>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36" s="9">
         <v>33</v>
       </c>
@@ -5947,7 +5958,7 @@
       <c r="D36" s="9"/>
       <c r="E36" s="16"/>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37" s="9">
         <v>34</v>
       </c>
@@ -5957,7 +5968,7 @@
       <c r="D37" s="9"/>
       <c r="E37" s="16"/>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38" s="9">
         <v>35</v>
       </c>
@@ -5967,7 +5978,7 @@
       <c r="D38" s="9"/>
       <c r="E38" s="16"/>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B39" s="9">
         <v>36</v>
       </c>
@@ -5977,7 +5988,7 @@
       <c r="D39" s="9"/>
       <c r="E39" s="16"/>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B40" s="9">
         <v>37</v>
       </c>
@@ -5987,7 +5998,7 @@
       <c r="D40" s="9"/>
       <c r="E40" s="16"/>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B41" s="9">
         <v>38</v>
       </c>
@@ -5997,7 +6008,7 @@
       <c r="D41" s="9"/>
       <c r="E41" s="16"/>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B42" s="9">
         <v>39</v>
       </c>
@@ -6007,7 +6018,7 @@
       <c r="D42" s="9"/>
       <c r="E42" s="16"/>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B43" s="9">
         <v>40</v>
       </c>
@@ -6017,7 +6028,7 @@
       <c r="D43" s="9"/>
       <c r="E43" s="16"/>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B44" s="9">
         <v>41</v>
       </c>
@@ -6027,7 +6038,7 @@
       <c r="D44" s="9"/>
       <c r="E44" s="16"/>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B45" s="9">
         <v>42</v>
       </c>
@@ -6037,7 +6048,7 @@
       <c r="D45" s="9"/>
       <c r="E45" s="16"/>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B46" s="9">
         <v>43</v>
       </c>
@@ -6047,7 +6058,7 @@
       <c r="D46" s="9"/>
       <c r="E46" s="16"/>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B47" s="9">
         <v>44</v>
       </c>
@@ -6057,7 +6068,7 @@
       <c r="D47" s="9"/>
       <c r="E47" s="16"/>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B48" s="9">
         <v>45</v>
       </c>
@@ -6067,7 +6078,7 @@
       <c r="D48" s="9"/>
       <c r="E48" s="16"/>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B49" s="9">
         <v>46</v>
       </c>
@@ -6077,7 +6088,7 @@
       <c r="D49" s="9"/>
       <c r="E49" s="16"/>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B50" s="9">
         <v>47</v>
       </c>
@@ -6087,7 +6098,7 @@
       <c r="D50" s="9"/>
       <c r="E50" s="16"/>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B51" s="9">
         <v>48</v>
       </c>
@@ -6097,7 +6108,7 @@
       <c r="D51" s="9"/>
       <c r="E51" s="16"/>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B52" s="9">
         <v>49</v>
       </c>
@@ -6107,7 +6118,7 @@
       <c r="D52" s="9"/>
       <c r="E52" s="16"/>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B53" s="9">
         <v>50</v>
       </c>
@@ -6117,7 +6128,7 @@
       <c r="D53" s="9"/>
       <c r="E53" s="16"/>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B54" s="9">
         <v>51</v>
       </c>
@@ -6127,7 +6138,7 @@
       <c r="D54" s="9"/>
       <c r="E54" s="16"/>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B55" s="9">
         <v>52</v>
       </c>
@@ -6137,7 +6148,7 @@
       <c r="D55" s="9"/>
       <c r="E55" s="16"/>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B56" s="9">
         <v>53</v>
       </c>
@@ -6147,7 +6158,7 @@
       <c r="D56" s="9"/>
       <c r="E56" s="16"/>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B57" s="9">
         <v>54</v>
       </c>
@@ -6157,7 +6168,7 @@
       <c r="D57" s="9"/>
       <c r="E57" s="16"/>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B58" s="9">
         <v>55</v>
       </c>
@@ -6167,7 +6178,7 @@
       <c r="D58" s="9"/>
       <c r="E58" s="16"/>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B59" s="9">
         <v>56</v>
       </c>
@@ -6177,7 +6188,7 @@
       <c r="D59" s="9"/>
       <c r="E59" s="16"/>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B60" s="9">
         <v>57</v>
       </c>
@@ -6187,7 +6198,7 @@
       <c r="D60" s="9"/>
       <c r="E60" s="16"/>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B61" s="9">
         <v>58</v>
       </c>
@@ -6197,7 +6208,7 @@
       <c r="D61" s="9"/>
       <c r="E61" s="16"/>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B62" s="9">
         <v>59</v>
       </c>
@@ -6207,7 +6218,7 @@
       <c r="D62" s="9"/>
       <c r="E62" s="16"/>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B63" s="9">
         <v>60</v>
       </c>
@@ -6217,7 +6228,7 @@
       <c r="D63" s="9"/>
       <c r="E63" s="16"/>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B64" s="9">
         <v>61</v>
       </c>
@@ -6227,7 +6238,7 @@
       <c r="D64" s="9"/>
       <c r="E64" s="16"/>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B65" s="9">
         <v>62</v>
       </c>
@@ -6237,7 +6248,7 @@
       <c r="D65" s="9"/>
       <c r="E65" s="16"/>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B66" s="9">
         <v>63</v>
       </c>
@@ -6247,7 +6258,7 @@
       <c r="D66" s="9"/>
       <c r="E66" s="16"/>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B67" s="9">
         <v>64</v>
       </c>
@@ -6257,7 +6268,7 @@
       <c r="D67" s="9"/>
       <c r="E67" s="16"/>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B68" s="9">
         <v>65</v>
       </c>
@@ -6267,7 +6278,7 @@
       <c r="D68" s="9"/>
       <c r="E68" s="16"/>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B69" s="9">
         <v>66</v>
       </c>
@@ -6277,7 +6288,7 @@
       <c r="D69" s="9"/>
       <c r="E69" s="16"/>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B70" s="9">
         <v>67</v>
       </c>
@@ -6287,7 +6298,7 @@
       <c r="D70" s="9"/>
       <c r="E70" s="16"/>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B71" s="9">
         <v>68</v>
       </c>
@@ -6297,7 +6308,7 @@
       <c r="D71" s="9"/>
       <c r="E71" s="16"/>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B72" s="9">
         <v>69</v>
       </c>
@@ -6317,21 +6328,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{527C0038-825B-49FE-8A49-D86AE1E3139F}">
   <dimension ref="B3:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="1"/>
-    <col min="2" max="2" width="3.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="79.140625" style="15" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="122.85546875" style="25" customWidth="1"/>
-    <col min="6" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="3.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="79.1796875" style="15" customWidth="1"/>
+    <col min="4" max="4" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="122.81640625" style="25" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="13" t="s">
         <v>379</v>
       </c>
@@ -6345,7 +6356,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="9">
         <v>1</v>
       </c>
@@ -6355,7 +6366,7 @@
       <c r="D4" s="9"/>
       <c r="E4" s="16"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="9">
         <v>2</v>
       </c>
@@ -6365,7 +6376,7 @@
       <c r="D5" s="9"/>
       <c r="E5" s="16"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="9">
         <v>3</v>
       </c>
@@ -6375,7 +6386,7 @@
       <c r="D6" s="9"/>
       <c r="E6" s="16"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="9">
         <v>4</v>
       </c>
@@ -6385,7 +6396,7 @@
       <c r="D7" s="9"/>
       <c r="E7" s="16"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="9">
         <v>5</v>
       </c>
@@ -6396,7 +6407,7 @@
       <c r="E8" s="16"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="9">
         <v>6</v>
       </c>
@@ -6407,7 +6418,7 @@
       <c r="E9" s="16"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="9">
         <v>7</v>
       </c>
@@ -6417,7 +6428,7 @@
       <c r="D10" s="9"/>
       <c r="E10" s="16"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="9">
         <v>8</v>
       </c>
@@ -6427,7 +6438,7 @@
       <c r="D11" s="9"/>
       <c r="E11" s="16"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="9">
         <v>9</v>
       </c>
@@ -6437,7 +6448,7 @@
       <c r="D12" s="9"/>
       <c r="E12" s="16"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="9">
         <v>10</v>
       </c>
@@ -6447,7 +6458,7 @@
       <c r="D13" s="9"/>
       <c r="E13" s="16"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="9">
         <v>11</v>
       </c>
@@ -6457,7 +6468,7 @@
       <c r="D14" s="9"/>
       <c r="E14" s="16"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="9">
         <v>12</v>
       </c>
@@ -6467,7 +6478,7 @@
       <c r="D15" s="9"/>
       <c r="E15" s="16"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" s="9">
         <v>13</v>
       </c>
@@ -6477,7 +6488,7 @@
       <c r="D16" s="9"/>
       <c r="E16" s="16"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="9">
         <v>14</v>
       </c>
@@ -6487,7 +6498,7 @@
       <c r="D17" s="9"/>
       <c r="E17" s="16"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="9">
         <v>15</v>
       </c>
@@ -6497,7 +6508,7 @@
       <c r="D18" s="9"/>
       <c r="E18" s="16"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="9">
         <v>16</v>
       </c>
@@ -6507,7 +6518,7 @@
       <c r="D19" s="9"/>
       <c r="E19" s="16"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="9">
         <v>17</v>
       </c>
@@ -6517,7 +6528,7 @@
       <c r="D20" s="9"/>
       <c r="E20" s="16"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="9">
         <v>18</v>
       </c>
@@ -6527,7 +6538,7 @@
       <c r="D21" s="9"/>
       <c r="E21" s="16"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="9">
         <v>19</v>
       </c>
@@ -6537,7 +6548,7 @@
       <c r="D22" s="9"/>
       <c r="E22" s="16"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="9">
         <v>20</v>
       </c>
@@ -6547,7 +6558,7 @@
       <c r="D23" s="9"/>
       <c r="E23" s="16"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="9">
         <v>21</v>
       </c>
@@ -6557,7 +6568,7 @@
       <c r="D24" s="9"/>
       <c r="E24" s="16"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="9">
         <v>22</v>
       </c>
@@ -6567,7 +6578,7 @@
       <c r="D25" s="9"/>
       <c r="E25" s="16"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="9">
         <v>23</v>
       </c>
@@ -6577,7 +6588,7 @@
       <c r="D26" s="9"/>
       <c r="E26" s="16"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="9">
         <v>24</v>
       </c>
@@ -6587,7 +6598,7 @@
       <c r="D27" s="9"/>
       <c r="E27" s="16"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="9">
         <v>25</v>
       </c>
@@ -6595,7 +6606,7 @@
       <c r="D28" s="9"/>
       <c r="E28" s="16"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" s="9">
         <v>26</v>
       </c>
@@ -6603,7 +6614,7 @@
       <c r="D29" s="9"/>
       <c r="E29" s="16"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" s="9">
         <v>27</v>
       </c>
@@ -6611,7 +6622,7 @@
       <c r="D30" s="9"/>
       <c r="E30" s="16"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B31" s="9">
         <v>28</v>
       </c>
@@ -6619,7 +6630,7 @@
       <c r="D31" s="9"/>
       <c r="E31" s="16"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B32" s="9">
         <v>29</v>
       </c>
@@ -6627,7 +6638,7 @@
       <c r="D32" s="9"/>
       <c r="E32" s="16"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" s="9">
         <v>30</v>
       </c>
@@ -6635,7 +6646,7 @@
       <c r="D33" s="9"/>
       <c r="E33" s="16"/>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34" s="9">
         <v>31</v>
       </c>
@@ -6643,7 +6654,7 @@
       <c r="D34" s="9"/>
       <c r="E34" s="16"/>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" s="9">
         <v>32</v>
       </c>
@@ -6651,7 +6662,7 @@
       <c r="D35" s="9"/>
       <c r="E35" s="16"/>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36" s="9">
         <v>33</v>
       </c>
@@ -6659,7 +6670,7 @@
       <c r="D36" s="9"/>
       <c r="E36" s="16"/>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37" s="9">
         <v>34</v>
       </c>
@@ -6667,7 +6678,7 @@
       <c r="D37" s="9"/>
       <c r="E37" s="16"/>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38" s="9">
         <v>35</v>
       </c>
@@ -6675,7 +6686,7 @@
       <c r="D38" s="9"/>
       <c r="E38" s="16"/>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B39" s="9">
         <v>36</v>
       </c>
@@ -6683,7 +6694,7 @@
       <c r="D39" s="9"/>
       <c r="E39" s="16"/>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B40" s="9">
         <v>37</v>
       </c>
@@ -6691,7 +6702,7 @@
       <c r="D40" s="9"/>
       <c r="E40" s="16"/>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B41" s="9">
         <v>38</v>
       </c>
@@ -6699,7 +6710,7 @@
       <c r="D41" s="9"/>
       <c r="E41" s="16"/>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B42" s="9">
         <v>39</v>
       </c>
@@ -6707,7 +6718,7 @@
       <c r="D42" s="9"/>
       <c r="E42" s="16"/>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B43" s="9">
         <v>40</v>
       </c>
@@ -6715,7 +6726,7 @@
       <c r="D43" s="9"/>
       <c r="E43" s="16"/>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B44" s="9">
         <v>41</v>
       </c>
@@ -6723,7 +6734,7 @@
       <c r="D44" s="9"/>
       <c r="E44" s="16"/>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B45" s="9">
         <v>42</v>
       </c>
@@ -6731,7 +6742,7 @@
       <c r="D45" s="9"/>
       <c r="E45" s="16"/>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B46" s="9">
         <v>43</v>
       </c>
@@ -6739,7 +6750,7 @@
       <c r="D46" s="9"/>
       <c r="E46" s="16"/>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B47" s="9">
         <v>44</v>
       </c>
@@ -6747,7 +6758,7 @@
       <c r="D47" s="9"/>
       <c r="E47" s="16"/>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B48" s="9">
         <v>45</v>
       </c>
@@ -6755,7 +6766,7 @@
       <c r="D48" s="9"/>
       <c r="E48" s="16"/>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B49" s="9">
         <v>46</v>
       </c>
@@ -6763,7 +6774,7 @@
       <c r="D49" s="9"/>
       <c r="E49" s="16"/>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B50" s="9">
         <v>47</v>
       </c>
@@ -6771,7 +6782,7 @@
       <c r="D50" s="9"/>
       <c r="E50" s="16"/>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B51" s="9">
         <v>48</v>
       </c>
@@ -6779,7 +6790,7 @@
       <c r="D51" s="9"/>
       <c r="E51" s="16"/>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B52" s="9">
         <v>49</v>
       </c>
@@ -6787,7 +6798,7 @@
       <c r="D52" s="9"/>
       <c r="E52" s="16"/>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B53" s="9">
         <v>50</v>
       </c>
@@ -6795,7 +6806,7 @@
       <c r="D53" s="9"/>
       <c r="E53" s="16"/>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B54" s="9">
         <v>51</v>
       </c>
@@ -6803,7 +6814,7 @@
       <c r="D54" s="9"/>
       <c r="E54" s="16"/>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B55" s="9">
         <v>52</v>
       </c>
@@ -6811,7 +6822,7 @@
       <c r="D55" s="9"/>
       <c r="E55" s="16"/>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B56" s="9">
         <v>53</v>
       </c>
@@ -6819,7 +6830,7 @@
       <c r="D56" s="9"/>
       <c r="E56" s="16"/>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B57" s="9">
         <v>54</v>
       </c>
@@ -6827,7 +6838,7 @@
       <c r="D57" s="9"/>
       <c r="E57" s="16"/>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B58" s="9">
         <v>55</v>
       </c>
@@ -6835,7 +6846,7 @@
       <c r="D58" s="9"/>
       <c r="E58" s="16"/>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B59" s="9">
         <v>56</v>
       </c>
@@ -6843,7 +6854,7 @@
       <c r="D59" s="9"/>
       <c r="E59" s="16"/>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B60" s="9">
         <v>57</v>
       </c>
@@ -6851,7 +6862,7 @@
       <c r="D60" s="9"/>
       <c r="E60" s="16"/>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B61" s="9">
         <v>58</v>
       </c>
@@ -6859,7 +6870,7 @@
       <c r="D61" s="9"/>
       <c r="E61" s="16"/>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B62" s="9">
         <v>59</v>
       </c>
@@ -6867,7 +6878,7 @@
       <c r="D62" s="9"/>
       <c r="E62" s="16"/>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B63" s="9">
         <v>60</v>
       </c>
@@ -6877,7 +6888,7 @@
       <c r="D63" s="9"/>
       <c r="E63" s="16"/>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B64" s="9">
         <v>61</v>
       </c>
@@ -6887,7 +6898,7 @@
       <c r="D64" s="9"/>
       <c r="E64" s="16"/>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B65" s="9">
         <v>62</v>
       </c>
@@ -6897,7 +6908,7 @@
       <c r="D65" s="9"/>
       <c r="E65" s="16"/>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B66" s="9">
         <v>63</v>
       </c>
@@ -6907,7 +6918,7 @@
       <c r="D66" s="9"/>
       <c r="E66" s="16"/>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B67" s="9">
         <v>64</v>
       </c>
@@ -6917,7 +6928,7 @@
       <c r="D67" s="9"/>
       <c r="E67" s="16"/>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B68" s="9">
         <v>65</v>
       </c>
@@ -6927,7 +6938,7 @@
       <c r="D68" s="9"/>
       <c r="E68" s="16"/>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B69" s="9">
         <v>66</v>
       </c>
@@ -6937,7 +6948,7 @@
       <c r="D69" s="9"/>
       <c r="E69" s="16"/>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B70" s="9">
         <v>67</v>
       </c>
@@ -6947,7 +6958,7 @@
       <c r="D70" s="9"/>
       <c r="E70" s="16"/>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B71" s="9">
         <v>68</v>
       </c>
@@ -6957,7 +6968,7 @@
       <c r="D71" s="9"/>
       <c r="E71" s="16"/>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B72" s="9">
         <v>69</v>
       </c>
@@ -6981,18 +6992,18 @@
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="8.7265625" style="1"/>
     <col min="2" max="2" width="3" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="1" customWidth="1"/>
-    <col min="5" max="7" width="8.7109375" style="1"/>
-    <col min="8" max="8" width="9.85546875" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.7109375" style="1"/>
+    <col min="3" max="3" width="5.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" style="1" customWidth="1"/>
+    <col min="5" max="7" width="8.7265625" style="1"/>
+    <col min="8" max="8" width="9.81640625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="29" t="s">
         <v>379</v>
       </c>
@@ -7009,7 +7020,7 @@
       </c>
       <c r="H2" s="30"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="29"/>
       <c r="C3" s="23" t="s">
         <v>491</v>
@@ -7030,7 +7041,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="19">
         <v>1</v>
       </c>
@@ -7041,7 +7052,7 @@
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="19">
         <v>2</v>
       </c>
@@ -7052,7 +7063,7 @@
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="19">
         <v>3</v>
       </c>
@@ -7063,7 +7074,7 @@
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="19">
         <v>4</v>
       </c>
@@ -7074,7 +7085,7 @@
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="19">
         <v>5</v>
       </c>
@@ -7085,7 +7096,7 @@
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="19">
         <v>6</v>
       </c>
@@ -7096,7 +7107,7 @@
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="19">
         <v>7</v>
       </c>
@@ -7107,7 +7118,7 @@
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="19">
         <v>8</v>
       </c>
@@ -7118,7 +7129,7 @@
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="19">
         <v>9</v>
       </c>
@@ -7129,7 +7140,7 @@
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="19">
         <v>10</v>
       </c>
@@ -7140,7 +7151,7 @@
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="19">
         <v>11</v>
       </c>
@@ -7151,7 +7162,7 @@
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="19">
         <v>12</v>
       </c>
@@ -7162,7 +7173,7 @@
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="19">
         <v>13</v>
       </c>
@@ -7173,7 +7184,7 @@
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="19">
         <v>14</v>
       </c>
@@ -7184,7 +7195,7 @@
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="19">
         <v>15</v>
       </c>
@@ -7195,7 +7206,7 @@
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="19">
         <v>16</v>
       </c>
@@ -7206,7 +7217,7 @@
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="19">
         <v>17</v>
       </c>
@@ -7217,7 +7228,7 @@
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="19">
         <v>18</v>
       </c>
@@ -7228,7 +7239,7 @@
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="19">
         <v>19</v>
       </c>
@@ -7239,7 +7250,7 @@
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="19">
         <v>20</v>
       </c>
@@ -7250,7 +7261,7 @@
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="19">
         <v>21</v>
       </c>
@@ -7261,7 +7272,7 @@
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="19">
         <v>22</v>
       </c>
@@ -7272,7 +7283,7 @@
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="19">
         <v>23</v>
       </c>
@@ -7283,7 +7294,7 @@
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="19">
         <v>24</v>
       </c>
@@ -7294,7 +7305,7 @@
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="19">
         <v>25</v>
       </c>
@@ -7305,7 +7316,7 @@
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="19">
         <v>26</v>
       </c>
@@ -7316,7 +7327,7 @@
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="19">
         <v>27</v>
       </c>
@@ -7327,7 +7338,7 @@
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="19">
         <v>28</v>
       </c>
@@ -7338,7 +7349,7 @@
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="19">
         <v>29</v>
       </c>
@@ -7349,7 +7360,7 @@
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="19">
         <v>30</v>
       </c>
@@ -7360,7 +7371,7 @@
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="19">
         <v>31</v>
       </c>
@@ -7371,7 +7382,7 @@
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="19">
         <v>32</v>
       </c>
@@ -7382,7 +7393,7 @@
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="19">
         <v>33</v>
       </c>
@@ -7393,7 +7404,7 @@
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" s="19">
         <v>34</v>
       </c>
@@ -7404,7 +7415,7 @@
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="19">
         <v>35</v>
       </c>
@@ -7415,7 +7426,7 @@
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" s="19">
         <v>36</v>
       </c>
@@ -7426,7 +7437,7 @@
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" s="19">
         <v>37</v>
       </c>
@@ -7437,7 +7448,7 @@
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41" s="19">
         <v>38</v>
       </c>
@@ -7448,7 +7459,7 @@
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" s="19">
         <v>39</v>
       </c>
@@ -7459,7 +7470,7 @@
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B43" s="19">
         <v>40</v>
       </c>
@@ -7470,7 +7481,7 @@
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B44" s="19">
         <v>41</v>
       </c>
@@ -7481,7 +7492,7 @@
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B45" s="19">
         <v>42</v>
       </c>
@@ -7492,7 +7503,7 @@
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B46" s="19">
         <v>43</v>
       </c>
@@ -7503,7 +7514,7 @@
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B47" s="19">
         <v>44</v>
       </c>
@@ -7514,7 +7525,7 @@
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B48" s="19">
         <v>45</v>
       </c>
@@ -7525,7 +7536,7 @@
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B49" s="19">
         <v>46</v>
       </c>
@@ -7536,7 +7547,7 @@
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B50" s="19">
         <v>47</v>
       </c>
@@ -7547,7 +7558,7 @@
       <c r="G50" s="8"/>
       <c r="H50" s="8"/>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" s="19">
         <v>48</v>
       </c>
@@ -7558,7 +7569,7 @@
       <c r="G51" s="8"/>
       <c r="H51" s="8"/>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B52" s="19">
         <v>49</v>
       </c>
@@ -7569,7 +7580,7 @@
       <c r="G52" s="8"/>
       <c r="H52" s="8"/>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B53" s="19">
         <v>50</v>
       </c>

--- a/GLIK Domain Mapping.xlsx
+++ b/GLIK Domain Mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toshiba\Documents\GitHub\GLIK-DM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E7F3B6-27FE-4E8C-920F-99F31FEFC9B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CCDE248-E543-4A4F-B525-C4986BB0E0B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="2" xr2:uid="{BC9BC3D9-6FF2-4CB4-96B2-33CE5FEE1DBD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="5" xr2:uid="{BC9BC3D9-6FF2-4CB4-96B2-33CE5FEE1DBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Fitur Item" sheetId="1" r:id="rId1"/>
@@ -1773,7 +1773,7 @@
       <name val="Helvetica"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1807,6 +1807,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1873,7 +1879,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1949,6 +1955,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4875,8 +4884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B759393E-1290-4E33-A086-7F2745429EA5}">
   <dimension ref="B3:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23:E26"/>
+    <sheetView topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -6328,8 +6337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{527C0038-825B-49FE-8A49-D86AE1E3139F}">
   <dimension ref="B3:G72"/>
   <sheetViews>
-    <sheetView topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C19"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -6357,7 +6366,7 @@
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="9">
+      <c r="B4" s="31">
         <v>1</v>
       </c>
       <c r="C4" s="14" t="s">
@@ -6367,7 +6376,7 @@
       <c r="E4" s="16"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="9">
+      <c r="B5" s="31">
         <v>2</v>
       </c>
       <c r="C5" s="14" t="s">
@@ -6377,7 +6386,7 @@
       <c r="E5" s="16"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="9">
+      <c r="B6" s="31">
         <v>3</v>
       </c>
       <c r="C6" s="14" t="s">
@@ -6387,7 +6396,7 @@
       <c r="E6" s="16"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="9">
+      <c r="B7" s="31">
         <v>4</v>
       </c>
       <c r="C7" s="14" t="s">
@@ -6988,7 +6997,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{781AD54B-1615-4304-B624-1036F5D700FD}">
   <dimension ref="B2:H53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>

--- a/GLIK Domain Mapping.xlsx
+++ b/GLIK Domain Mapping.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toshiba\Documents\GitHub\GLIK-DM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dimas\Downloads\LPS GLIK\GLIK-DM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CCDE248-E543-4A4F-B525-C4986BB0E0B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D4641B-B2BE-459E-B10F-B4E7112BE89A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="5" xr2:uid="{BC9BC3D9-6FF2-4CB4-96B2-33CE5FEE1DBD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="4" xr2:uid="{BC9BC3D9-6FF2-4CB4-96B2-33CE5FEE1DBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Fitur Item" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="541">
   <si>
     <t>Kode Fitur</t>
   </si>
@@ -1718,12 +1718,15 @@
   <si>
     <t>FiturUmum.Notifikasi, FiturUmum.Repository, GPRM.Bank, GRPM.Jaringan, BDL,  Aset, PengamananAset, ChecklistDocRUPS, DocRUPS, DocGLIK, MasterStatus</t>
   </si>
+  <si>
+    <t>SisaAsetHasilLikuidasi, DocHasilLikuidasi, ChecklistDocSisaAset, JenisDocHistory</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1772,6 +1775,11 @@
       <color rgb="FF000000"/>
       <name val="Helvetica"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1817,7 +1825,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1875,11 +1883,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1942,6 +1987,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1957,9 +2005,9 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2280,17 +2328,17 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="6"/>
-    <col min="2" max="2" width="9.453125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="111.1796875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="6"/>
+    <col min="2" max="2" width="9.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="111.140625" style="6" customWidth="1"/>
     <col min="4" max="4" width="14" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="6"/>
+    <col min="5" max="5" width="14.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.7109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
@@ -2304,7 +2352,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
@@ -2314,7 +2362,7 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
@@ -2324,7 +2372,7 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -2334,7 +2382,7 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="7" t="s">
         <v>10</v>
       </c>
@@ -2344,7 +2392,7 @@
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
     </row>
-    <row r="7" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="7" t="s">
         <v>12</v>
       </c>
@@ -2354,7 +2402,7 @@
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
         <v>14</v>
       </c>
@@ -2364,7 +2412,7 @@
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
         <v>16</v>
       </c>
@@ -2374,7 +2422,7 @@
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
         <v>18</v>
       </c>
@@ -2384,7 +2432,7 @@
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
         <v>20</v>
       </c>
@@ -2394,7 +2442,7 @@
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
         <v>22</v>
       </c>
@@ -2404,7 +2452,7 @@
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
     </row>
-    <row r="13" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
         <v>24</v>
       </c>
@@ -2414,7 +2462,7 @@
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
     </row>
-    <row r="14" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="7" t="s">
         <v>26</v>
       </c>
@@ -2424,7 +2472,7 @@
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="7" t="s">
         <v>28</v>
       </c>
@@ -2434,7 +2482,7 @@
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
     </row>
-    <row r="16" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="7" t="s">
         <v>30</v>
       </c>
@@ -2444,7 +2492,7 @@
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
     </row>
-    <row r="17" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="7" t="s">
         <v>32</v>
       </c>
@@ -2454,7 +2502,7 @@
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
     </row>
-    <row r="18" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="7" t="s">
         <v>34</v>
       </c>
@@ -2464,7 +2512,7 @@
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
     </row>
-    <row r="19" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="7" t="s">
         <v>36</v>
       </c>
@@ -2474,7 +2522,7 @@
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
     </row>
-    <row r="20" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="7" t="s">
         <v>38</v>
       </c>
@@ -2484,7 +2532,7 @@
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
     </row>
-    <row r="21" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="7" t="s">
         <v>40</v>
       </c>
@@ -2494,7 +2542,7 @@
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
     </row>
-    <row r="22" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="7" t="s">
         <v>42</v>
       </c>
@@ -2504,7 +2552,7 @@
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
     </row>
-    <row r="23" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="7" t="s">
         <v>44</v>
       </c>
@@ -2514,7 +2562,7 @@
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
     </row>
-    <row r="24" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="7" t="s">
         <v>46</v>
       </c>
@@ -2524,7 +2572,7 @@
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
     </row>
-    <row r="25" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="7" t="s">
         <v>48</v>
       </c>
@@ -2534,7 +2582,7 @@
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
     </row>
-    <row r="26" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="7" t="s">
         <v>50</v>
       </c>
@@ -2544,7 +2592,7 @@
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
     </row>
-    <row r="27" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="7" t="s">
         <v>52</v>
       </c>
@@ -2554,7 +2602,7 @@
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
     </row>
-    <row r="28" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="7" t="s">
         <v>54</v>
       </c>
@@ -2564,7 +2612,7 @@
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
     </row>
-    <row r="29" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="7" t="s">
         <v>56</v>
       </c>
@@ -2574,7 +2622,7 @@
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
     </row>
-    <row r="30" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="7" t="s">
         <v>58</v>
       </c>
@@ -2584,7 +2632,7 @@
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
     </row>
-    <row r="31" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="7" t="s">
         <v>60</v>
       </c>
@@ -2594,7 +2642,7 @@
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
     </row>
-    <row r="32" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="7" t="s">
         <v>62</v>
       </c>
@@ -2604,7 +2652,7 @@
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
     </row>
-    <row r="33" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="7" t="s">
         <v>64</v>
       </c>
@@ -2614,7 +2662,7 @@
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
     </row>
-    <row r="34" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="7" t="s">
         <v>66</v>
       </c>
@@ -2624,7 +2672,7 @@
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
     </row>
-    <row r="35" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="7" t="s">
         <v>68</v>
       </c>
@@ -2634,7 +2682,7 @@
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
     </row>
-    <row r="36" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="7" t="s">
         <v>70</v>
       </c>
@@ -2644,7 +2692,7 @@
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
     </row>
-    <row r="37" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="7" t="s">
         <v>72</v>
       </c>
@@ -2654,7 +2702,7 @@
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
     </row>
-    <row r="38" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="7" t="s">
         <v>74</v>
       </c>
@@ -2664,7 +2712,7 @@
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
     </row>
-    <row r="39" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="7" t="s">
         <v>76</v>
       </c>
@@ -2674,7 +2722,7 @@
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
     </row>
-    <row r="40" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="7" t="s">
         <v>78</v>
       </c>
@@ -2684,7 +2732,7 @@
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
     </row>
-    <row r="41" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="7" t="s">
         <v>80</v>
       </c>
@@ -2694,7 +2742,7 @@
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
     </row>
-    <row r="42" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="7" t="s">
         <v>82</v>
       </c>
@@ -2704,7 +2752,7 @@
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
     </row>
-    <row r="43" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="7" t="s">
         <v>84</v>
       </c>
@@ -2714,7 +2762,7 @@
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
     </row>
-    <row r="44" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="7" t="s">
         <v>86</v>
       </c>
@@ -2724,7 +2772,7 @@
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
     </row>
-    <row r="45" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="7" t="s">
         <v>88</v>
       </c>
@@ -2734,7 +2782,7 @@
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
     </row>
-    <row r="46" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="7" t="s">
         <v>90</v>
       </c>
@@ -2744,7 +2792,7 @@
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
     </row>
-    <row r="47" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="7" t="s">
         <v>92</v>
       </c>
@@ -2754,7 +2802,7 @@
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
     </row>
-    <row r="48" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="7" t="s">
         <v>94</v>
       </c>
@@ -2764,7 +2812,7 @@
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
     </row>
-    <row r="49" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="7" t="s">
         <v>96</v>
       </c>
@@ -2774,7 +2822,7 @@
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
     </row>
-    <row r="50" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="7" t="s">
         <v>98</v>
       </c>
@@ -2784,7 +2832,7 @@
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
     </row>
-    <row r="51" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="7" t="s">
         <v>100</v>
       </c>
@@ -2794,7 +2842,7 @@
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
     </row>
-    <row r="52" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="7" t="s">
         <v>102</v>
       </c>
@@ -2804,7 +2852,7 @@
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
     </row>
-    <row r="53" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="7" t="s">
         <v>104</v>
       </c>
@@ -2814,7 +2862,7 @@
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
     </row>
-    <row r="54" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="7" t="s">
         <v>106</v>
       </c>
@@ -2824,7 +2872,7 @@
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
     </row>
-    <row r="55" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="7" t="s">
         <v>108</v>
       </c>
@@ -2834,7 +2882,7 @@
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
     </row>
-    <row r="56" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="7" t="s">
         <v>110</v>
       </c>
@@ -2844,7 +2892,7 @@
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
     </row>
-    <row r="57" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="7" t="s">
         <v>112</v>
       </c>
@@ -2854,7 +2902,7 @@
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
     </row>
-    <row r="58" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="7" t="s">
         <v>114</v>
       </c>
@@ -2864,7 +2912,7 @@
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
     </row>
-    <row r="59" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="7" t="s">
         <v>116</v>
       </c>
@@ -2874,7 +2922,7 @@
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
     </row>
-    <row r="60" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="7" t="s">
         <v>118</v>
       </c>
@@ -2884,7 +2932,7 @@
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
     </row>
-    <row r="61" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="7" t="s">
         <v>120</v>
       </c>
@@ -2894,7 +2942,7 @@
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
     </row>
-    <row r="62" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="7" t="s">
         <v>122</v>
       </c>
@@ -2904,7 +2952,7 @@
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
     </row>
-    <row r="63" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="7" t="s">
         <v>124</v>
       </c>
@@ -2914,7 +2962,7 @@
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
     </row>
-    <row r="64" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="7" t="s">
         <v>126</v>
       </c>
@@ -2924,7 +2972,7 @@
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
     </row>
-    <row r="65" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="7" t="s">
         <v>128</v>
       </c>
@@ -2934,7 +2982,7 @@
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
     </row>
-    <row r="66" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="7" t="s">
         <v>130</v>
       </c>
@@ -2944,7 +2992,7 @@
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
     </row>
-    <row r="67" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="7" t="s">
         <v>132</v>
       </c>
@@ -2954,7 +3002,7 @@
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
     </row>
-    <row r="68" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="7" t="s">
         <v>134</v>
       </c>
@@ -2964,7 +3012,7 @@
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
     </row>
-    <row r="69" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="7" t="s">
         <v>136</v>
       </c>
@@ -2974,7 +3022,7 @@
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
     </row>
-    <row r="70" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="7" t="s">
         <v>138</v>
       </c>
@@ -2984,7 +3032,7 @@
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
     </row>
-    <row r="71" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="7" t="s">
         <v>140</v>
       </c>
@@ -2994,7 +3042,7 @@
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
     </row>
-    <row r="72" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="7" t="s">
         <v>142</v>
       </c>
@@ -3004,7 +3052,7 @@
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
     </row>
-    <row r="73" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="7" t="s">
         <v>144</v>
       </c>
@@ -3014,7 +3062,7 @@
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
     </row>
-    <row r="74" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="7" t="s">
         <v>146</v>
       </c>
@@ -3024,7 +3072,7 @@
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
     </row>
-    <row r="75" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="7" t="s">
         <v>148</v>
       </c>
@@ -3034,7 +3082,7 @@
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
     </row>
-    <row r="76" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="7" t="s">
         <v>150</v>
       </c>
@@ -3044,7 +3092,7 @@
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
     </row>
-    <row r="77" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="7" t="s">
         <v>152</v>
       </c>
@@ -3054,7 +3102,7 @@
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
     </row>
-    <row r="78" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="7" t="s">
         <v>154</v>
       </c>
@@ -3064,7 +3112,7 @@
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
     </row>
-    <row r="79" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="7" t="s">
         <v>156</v>
       </c>
@@ -3074,7 +3122,7 @@
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
     </row>
-    <row r="80" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="7" t="s">
         <v>158</v>
       </c>
@@ -3084,7 +3132,7 @@
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
     </row>
-    <row r="81" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="7" t="s">
         <v>160</v>
       </c>
@@ -3094,7 +3142,7 @@
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
     </row>
-    <row r="82" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="7" t="s">
         <v>162</v>
       </c>
@@ -3104,8 +3152,8 @@
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
     </row>
-    <row r="83" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="26" t="s">
+    <row r="83" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B83" s="27" t="s">
         <v>164</v>
       </c>
       <c r="C83" s="3" t="s">
@@ -3114,31 +3162,31 @@
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
     </row>
-    <row r="84" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="26"/>
+    <row r="84" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B84" s="27"/>
       <c r="C84" s="4" t="s">
         <v>359</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
     </row>
-    <row r="85" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="26"/>
+    <row r="85" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B85" s="27"/>
       <c r="C85" s="4" t="s">
         <v>360</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
     </row>
-    <row r="86" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="26"/>
+    <row r="86" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B86" s="27"/>
       <c r="C86" s="4" t="s">
         <v>361</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
     </row>
-    <row r="87" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="7" t="s">
         <v>165</v>
       </c>
@@ -3148,7 +3196,7 @@
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
     </row>
-    <row r="88" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="7" t="s">
         <v>167</v>
       </c>
@@ -3158,7 +3206,7 @@
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
     </row>
-    <row r="89" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="7" t="s">
         <v>169</v>
       </c>
@@ -3168,7 +3216,7 @@
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
     </row>
-    <row r="90" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="7" t="s">
         <v>171</v>
       </c>
@@ -3178,7 +3226,7 @@
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
     </row>
-    <row r="91" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="7" t="s">
         <v>173</v>
       </c>
@@ -3188,7 +3236,7 @@
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
     </row>
-    <row r="92" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B92" s="7" t="s">
         <v>175</v>
       </c>
@@ -3198,7 +3246,7 @@
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
     </row>
-    <row r="93" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="7" t="s">
         <v>177</v>
       </c>
@@ -3208,7 +3256,7 @@
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
     </row>
-    <row r="94" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="7" t="s">
         <v>179</v>
       </c>
@@ -3218,7 +3266,7 @@
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
     </row>
-    <row r="95" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="7" t="s">
         <v>181</v>
       </c>
@@ -3228,7 +3276,7 @@
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
     </row>
-    <row r="96" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B96" s="7" t="s">
         <v>183</v>
       </c>
@@ -3238,7 +3286,7 @@
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
     </row>
-    <row r="97" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B97" s="7" t="s">
         <v>185</v>
       </c>
@@ -3248,7 +3296,7 @@
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
     </row>
-    <row r="98" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B98" s="7" t="s">
         <v>187</v>
       </c>
@@ -3258,7 +3306,7 @@
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
     </row>
-    <row r="99" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="7" t="s">
         <v>189</v>
       </c>
@@ -3268,7 +3316,7 @@
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
     </row>
-    <row r="100" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="7" t="s">
         <v>191</v>
       </c>
@@ -3278,7 +3326,7 @@
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
     </row>
-    <row r="101" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="7" t="s">
         <v>193</v>
       </c>
@@ -3288,7 +3336,7 @@
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
     </row>
-    <row r="102" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="7" t="s">
         <v>195</v>
       </c>
@@ -3298,7 +3346,7 @@
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
     </row>
-    <row r="103" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="7" t="s">
         <v>197</v>
       </c>
@@ -3308,7 +3356,7 @@
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
     </row>
-    <row r="104" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B104" s="7" t="s">
         <v>199</v>
       </c>
@@ -3318,7 +3366,7 @@
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
     </row>
-    <row r="105" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B105" s="7" t="s">
         <v>201</v>
       </c>
@@ -3328,7 +3376,7 @@
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
     </row>
-    <row r="106" spans="2:5" ht="26" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B106" s="7" t="s">
         <v>203</v>
       </c>
@@ -3338,7 +3386,7 @@
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
     </row>
-    <row r="107" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B107" s="7" t="s">
         <v>205</v>
       </c>
@@ -3348,7 +3396,7 @@
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
     </row>
-    <row r="108" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B108" s="7" t="s">
         <v>207</v>
       </c>
@@ -3358,7 +3406,7 @@
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
     </row>
-    <row r="109" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="7" t="s">
         <v>209</v>
       </c>
@@ -3368,7 +3416,7 @@
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
     </row>
-    <row r="110" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B110" s="7" t="s">
         <v>211</v>
       </c>
@@ -3378,7 +3426,7 @@
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
     </row>
-    <row r="111" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B111" s="7" t="s">
         <v>213</v>
       </c>
@@ -3388,7 +3436,7 @@
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
     </row>
-    <row r="112" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B112" s="7" t="s">
         <v>215</v>
       </c>
@@ -3398,7 +3446,7 @@
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
     </row>
-    <row r="113" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B113" s="7" t="s">
         <v>217</v>
       </c>
@@ -3408,7 +3456,7 @@
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
     </row>
-    <row r="114" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B114" s="7" t="s">
         <v>219</v>
       </c>
@@ -3418,7 +3466,7 @@
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
     </row>
-    <row r="115" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B115" s="7" t="s">
         <v>221</v>
       </c>
@@ -3428,7 +3476,7 @@
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
     </row>
-    <row r="116" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B116" s="7" t="s">
         <v>223</v>
       </c>
@@ -3438,7 +3486,7 @@
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
     </row>
-    <row r="117" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B117" s="7" t="s">
         <v>224</v>
       </c>
@@ -3448,7 +3496,7 @@
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
     </row>
-    <row r="118" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B118" s="7" t="s">
         <v>226</v>
       </c>
@@ -3458,7 +3506,7 @@
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
     </row>
-    <row r="119" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B119" s="7" t="s">
         <v>228</v>
       </c>
@@ -3468,7 +3516,7 @@
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
     </row>
-    <row r="120" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B120" s="7" t="s">
         <v>230</v>
       </c>
@@ -3478,7 +3526,7 @@
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
     </row>
-    <row r="121" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B121" s="7" t="s">
         <v>232</v>
       </c>
@@ -3488,7 +3536,7 @@
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
     </row>
-    <row r="122" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B122" s="7" t="s">
         <v>234</v>
       </c>
@@ -3498,7 +3546,7 @@
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
     </row>
-    <row r="123" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B123" s="7" t="s">
         <v>236</v>
       </c>
@@ -3508,7 +3556,7 @@
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
     </row>
-    <row r="124" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B124" s="7" t="s">
         <v>238</v>
       </c>
@@ -3518,7 +3566,7 @@
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
     </row>
-    <row r="125" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B125" s="7" t="s">
         <v>240</v>
       </c>
@@ -3528,7 +3576,7 @@
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
     </row>
-    <row r="126" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B126" s="7" t="s">
         <v>242</v>
       </c>
@@ -3538,7 +3586,7 @@
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
     </row>
-    <row r="127" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B127" s="7" t="s">
         <v>244</v>
       </c>
@@ -3548,7 +3596,7 @@
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
     </row>
-    <row r="128" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B128" s="7" t="s">
         <v>246</v>
       </c>
@@ -3558,7 +3606,7 @@
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
     </row>
-    <row r="129" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B129" s="7" t="s">
         <v>248</v>
       </c>
@@ -3568,7 +3616,7 @@
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
     </row>
-    <row r="130" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B130" s="7" t="s">
         <v>250</v>
       </c>
@@ -3578,7 +3626,7 @@
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
     </row>
-    <row r="131" spans="2:5" ht="26" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B131" s="7" t="s">
         <v>252</v>
       </c>
@@ -3588,7 +3636,7 @@
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
     </row>
-    <row r="132" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B132" s="7" t="s">
         <v>254</v>
       </c>
@@ -3598,7 +3646,7 @@
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
     </row>
-    <row r="133" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B133" s="7" t="s">
         <v>256</v>
       </c>
@@ -3608,7 +3656,7 @@
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
     </row>
-    <row r="134" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B134" s="7" t="s">
         <v>258</v>
       </c>
@@ -3618,7 +3666,7 @@
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
     </row>
-    <row r="135" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B135" s="7" t="s">
         <v>260</v>
       </c>
@@ -3628,7 +3676,7 @@
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
     </row>
-    <row r="136" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B136" s="7" t="s">
         <v>262</v>
       </c>
@@ -3638,7 +3686,7 @@
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
     </row>
-    <row r="137" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B137" s="7" t="s">
         <v>264</v>
       </c>
@@ -3648,7 +3696,7 @@
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
     </row>
-    <row r="138" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B138" s="7" t="s">
         <v>266</v>
       </c>
@@ -3658,7 +3706,7 @@
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
     </row>
-    <row r="139" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B139" s="7" t="s">
         <v>268</v>
       </c>
@@ -3668,7 +3716,7 @@
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
     </row>
-    <row r="140" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B140" s="7" t="s">
         <v>270</v>
       </c>
@@ -3678,7 +3726,7 @@
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
     </row>
-    <row r="141" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B141" s="7" t="s">
         <v>272</v>
       </c>
@@ -3688,7 +3736,7 @@
       <c r="D141" s="8"/>
       <c r="E141" s="8"/>
     </row>
-    <row r="142" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B142" s="7" t="s">
         <v>274</v>
       </c>
@@ -3698,7 +3746,7 @@
       <c r="D142" s="8"/>
       <c r="E142" s="8"/>
     </row>
-    <row r="143" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B143" s="7" t="s">
         <v>276</v>
       </c>
@@ -3708,7 +3756,7 @@
       <c r="D143" s="8"/>
       <c r="E143" s="8"/>
     </row>
-    <row r="144" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B144" s="7" t="s">
         <v>278</v>
       </c>
@@ -3718,7 +3766,7 @@
       <c r="D144" s="8"/>
       <c r="E144" s="8"/>
     </row>
-    <row r="145" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B145" s="7" t="s">
         <v>280</v>
       </c>
@@ -3728,7 +3776,7 @@
       <c r="D145" s="8"/>
       <c r="E145" s="8"/>
     </row>
-    <row r="146" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B146" s="7" t="s">
         <v>282</v>
       </c>
@@ -3738,7 +3786,7 @@
       <c r="D146" s="8"/>
       <c r="E146" s="8"/>
     </row>
-    <row r="147" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B147" s="7" t="s">
         <v>284</v>
       </c>
@@ -3748,7 +3796,7 @@
       <c r="D147" s="8"/>
       <c r="E147" s="8"/>
     </row>
-    <row r="148" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B148" s="7" t="s">
         <v>286</v>
       </c>
@@ -3758,7 +3806,7 @@
       <c r="D148" s="8"/>
       <c r="E148" s="8"/>
     </row>
-    <row r="149" spans="2:5" ht="26" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B149" s="7" t="s">
         <v>288</v>
       </c>
@@ -3768,7 +3816,7 @@
       <c r="D149" s="8"/>
       <c r="E149" s="8"/>
     </row>
-    <row r="150" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B150" s="7" t="s">
         <v>290</v>
       </c>
@@ -3778,7 +3826,7 @@
       <c r="D150" s="8"/>
       <c r="E150" s="8"/>
     </row>
-    <row r="151" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B151" s="7" t="s">
         <v>292</v>
       </c>
@@ -3788,7 +3836,7 @@
       <c r="D151" s="8"/>
       <c r="E151" s="8"/>
     </row>
-    <row r="152" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B152" s="7" t="s">
         <v>294</v>
       </c>
@@ -3798,7 +3846,7 @@
       <c r="D152" s="8"/>
       <c r="E152" s="8"/>
     </row>
-    <row r="153" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B153" s="7" t="s">
         <v>296</v>
       </c>
@@ -3808,7 +3856,7 @@
       <c r="D153" s="8"/>
       <c r="E153" s="8"/>
     </row>
-    <row r="154" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B154" s="7" t="s">
         <v>298</v>
       </c>
@@ -3818,7 +3866,7 @@
       <c r="D154" s="8"/>
       <c r="E154" s="8"/>
     </row>
-    <row r="155" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B155" s="7" t="s">
         <v>300</v>
       </c>
@@ -3828,7 +3876,7 @@
       <c r="D155" s="8"/>
       <c r="E155" s="8"/>
     </row>
-    <row r="156" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B156" s="7" t="s">
         <v>302</v>
       </c>
@@ -3838,7 +3886,7 @@
       <c r="D156" s="8"/>
       <c r="E156" s="8"/>
     </row>
-    <row r="157" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B157" s="7" t="s">
         <v>304</v>
       </c>
@@ -3848,7 +3896,7 @@
       <c r="D157" s="8"/>
       <c r="E157" s="8"/>
     </row>
-    <row r="158" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B158" s="7" t="s">
         <v>306</v>
       </c>
@@ -3858,7 +3906,7 @@
       <c r="D158" s="8"/>
       <c r="E158" s="8"/>
     </row>
-    <row r="159" spans="2:5" ht="26" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B159" s="7" t="s">
         <v>308</v>
       </c>
@@ -3868,7 +3916,7 @@
       <c r="D159" s="8"/>
       <c r="E159" s="8"/>
     </row>
-    <row r="160" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B160" s="7" t="s">
         <v>310</v>
       </c>
@@ -3878,7 +3926,7 @@
       <c r="D160" s="8"/>
       <c r="E160" s="8"/>
     </row>
-    <row r="161" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B161" s="7" t="s">
         <v>312</v>
       </c>
@@ -3888,7 +3936,7 @@
       <c r="D161" s="8"/>
       <c r="E161" s="8"/>
     </row>
-    <row r="162" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B162" s="7" t="s">
         <v>314</v>
       </c>
@@ -3898,7 +3946,7 @@
       <c r="D162" s="8"/>
       <c r="E162" s="8"/>
     </row>
-    <row r="163" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B163" s="7" t="s">
         <v>316</v>
       </c>
@@ -3908,7 +3956,7 @@
       <c r="D163" s="8"/>
       <c r="E163" s="8"/>
     </row>
-    <row r="164" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B164" s="7" t="s">
         <v>318</v>
       </c>
@@ -3918,7 +3966,7 @@
       <c r="D164" s="8"/>
       <c r="E164" s="8"/>
     </row>
-    <row r="165" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B165" s="7" t="s">
         <v>320</v>
       </c>
@@ -3928,7 +3976,7 @@
       <c r="D165" s="8"/>
       <c r="E165" s="8"/>
     </row>
-    <row r="166" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B166" s="7" t="s">
         <v>322</v>
       </c>
@@ -3938,7 +3986,7 @@
       <c r="D166" s="8"/>
       <c r="E166" s="8"/>
     </row>
-    <row r="167" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B167" s="7" t="s">
         <v>324</v>
       </c>
@@ -3948,7 +3996,7 @@
       <c r="D167" s="8"/>
       <c r="E167" s="8"/>
     </row>
-    <row r="168" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B168" s="7" t="s">
         <v>326</v>
       </c>
@@ -3958,7 +4006,7 @@
       <c r="D168" s="8"/>
       <c r="E168" s="8"/>
     </row>
-    <row r="169" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B169" s="7" t="s">
         <v>328</v>
       </c>
@@ -3968,7 +4016,7 @@
       <c r="D169" s="8"/>
       <c r="E169" s="8"/>
     </row>
-    <row r="170" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B170" s="7" t="s">
         <v>330</v>
       </c>
@@ -3978,7 +4026,7 @@
       <c r="D170" s="8"/>
       <c r="E170" s="8"/>
     </row>
-    <row r="171" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B171" s="7" t="s">
         <v>332</v>
       </c>
@@ -3988,7 +4036,7 @@
       <c r="D171" s="8"/>
       <c r="E171" s="8"/>
     </row>
-    <row r="172" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B172" s="7" t="s">
         <v>334</v>
       </c>
@@ -3998,7 +4046,7 @@
       <c r="D172" s="8"/>
       <c r="E172" s="8"/>
     </row>
-    <row r="173" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B173" s="7" t="s">
         <v>336</v>
       </c>
@@ -4008,7 +4056,7 @@
       <c r="D173" s="8"/>
       <c r="E173" s="8"/>
     </row>
-    <row r="174" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B174" s="7" t="s">
         <v>338</v>
       </c>
@@ -4018,7 +4066,7 @@
       <c r="D174" s="8"/>
       <c r="E174" s="8"/>
     </row>
-    <row r="175" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B175" s="7" t="s">
         <v>340</v>
       </c>
@@ -4028,7 +4076,7 @@
       <c r="D175" s="8"/>
       <c r="E175" s="8"/>
     </row>
-    <row r="176" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B176" s="7" t="s">
         <v>342</v>
       </c>
@@ -4038,7 +4086,7 @@
       <c r="D176" s="8"/>
       <c r="E176" s="8"/>
     </row>
-    <row r="177" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B177" s="7" t="s">
         <v>344</v>
       </c>
@@ -4048,7 +4096,7 @@
       <c r="D177" s="8"/>
       <c r="E177" s="8"/>
     </row>
-    <row r="178" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B178" s="7" t="s">
         <v>346</v>
       </c>
@@ -4058,7 +4106,7 @@
       <c r="D178" s="8"/>
       <c r="E178" s="8"/>
     </row>
-    <row r="179" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B179" s="7" t="s">
         <v>348</v>
       </c>
@@ -4068,7 +4116,7 @@
       <c r="D179" s="8"/>
       <c r="E179" s="8"/>
     </row>
-    <row r="180" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B180" s="7" t="s">
         <v>350</v>
       </c>
@@ -4078,7 +4126,7 @@
       <c r="D180" s="8"/>
       <c r="E180" s="8"/>
     </row>
-    <row r="181" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B181" s="7" t="s">
         <v>352</v>
       </c>
@@ -4088,7 +4136,7 @@
       <c r="D181" s="8"/>
       <c r="E181" s="8"/>
     </row>
-    <row r="182" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B182" s="7" t="s">
         <v>354</v>
       </c>
@@ -4098,7 +4146,7 @@
       <c r="D182" s="8"/>
       <c r="E182" s="8"/>
     </row>
-    <row r="183" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B183" s="7" t="s">
         <v>356</v>
       </c>
@@ -4108,7 +4156,7 @@
       <c r="D183" s="8"/>
       <c r="E183" s="8"/>
     </row>
-    <row r="184" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B184" s="7" t="s">
         <v>363</v>
       </c>
@@ -4118,7 +4166,7 @@
       <c r="D184" s="8"/>
       <c r="E184" s="8"/>
     </row>
-    <row r="185" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B185" s="7" t="s">
         <v>365</v>
       </c>
@@ -4128,7 +4176,7 @@
       <c r="D185" s="8"/>
       <c r="E185" s="8"/>
     </row>
-    <row r="186" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B186" s="7" t="s">
         <v>367</v>
       </c>
@@ -4138,7 +4186,7 @@
       <c r="D186" s="8"/>
       <c r="E186" s="8"/>
     </row>
-    <row r="187" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B187" s="7" t="s">
         <v>369</v>
       </c>
@@ -4148,7 +4196,7 @@
       <c r="D187" s="8"/>
       <c r="E187" s="8"/>
     </row>
-    <row r="188" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B188" s="7" t="s">
         <v>371</v>
       </c>
@@ -4158,7 +4206,7 @@
       <c r="D188" s="8"/>
       <c r="E188" s="8"/>
     </row>
-    <row r="189" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B189" s="7" t="s">
         <v>373</v>
       </c>
@@ -4168,7 +4216,7 @@
       <c r="D189" s="8"/>
       <c r="E189" s="8"/>
     </row>
-    <row r="190" spans="2:5" ht="26" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B190" s="7" t="s">
         <v>375</v>
       </c>
@@ -4178,7 +4226,7 @@
       <c r="D190" s="8"/>
       <c r="E190" s="8"/>
     </row>
-    <row r="191" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B191" s="7" t="s">
         <v>377</v>
       </c>
@@ -4205,17 +4253,17 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
-    <col min="2" max="2" width="3.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.453125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.81640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="8.7109375" style="1"/>
+    <col min="2" max="2" width="3.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.42578125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" s="13" t="s">
         <v>379</v>
       </c>
@@ -4229,7 +4277,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4" s="9">
         <v>1</v>
       </c>
@@ -4241,7 +4289,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5" s="9">
         <v>2</v>
       </c>
@@ -4253,7 +4301,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6" s="9">
         <v>3</v>
       </c>
@@ -4265,7 +4313,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B7" s="9">
         <v>4</v>
       </c>
@@ -4277,7 +4325,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8" s="9">
         <v>5</v>
       </c>
@@ -4290,7 +4338,7 @@
       </c>
       <c r="G8" s="10"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B9" s="9">
         <v>6</v>
       </c>
@@ -4302,7 +4350,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10" s="9">
         <v>7</v>
       </c>
@@ -4314,7 +4362,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B11" s="9">
         <v>8</v>
       </c>
@@ -4326,7 +4374,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B12" s="9">
         <v>9</v>
       </c>
@@ -4338,7 +4386,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B13" s="9">
         <v>10</v>
       </c>
@@ -4350,7 +4398,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B14" s="9">
         <v>11</v>
       </c>
@@ -4362,7 +4410,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B15" s="9">
         <v>12</v>
       </c>
@@ -4374,7 +4422,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B16" s="9">
         <v>13</v>
       </c>
@@ -4386,7 +4434,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="9">
         <v>14</v>
       </c>
@@ -4398,7 +4446,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="9">
         <v>15</v>
       </c>
@@ -4410,7 +4458,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="9">
         <v>16</v>
       </c>
@@ -4422,7 +4470,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="9">
         <v>17</v>
       </c>
@@ -4434,7 +4482,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="9">
         <v>18</v>
       </c>
@@ -4446,7 +4494,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="9">
         <v>19</v>
       </c>
@@ -4458,7 +4506,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="9">
         <v>20</v>
       </c>
@@ -4470,7 +4518,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="9">
         <v>21</v>
       </c>
@@ -4482,7 +4530,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="9">
         <v>22</v>
       </c>
@@ -4494,7 +4542,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="9">
         <v>23</v>
       </c>
@@ -4506,7 +4554,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="9">
         <v>24</v>
       </c>
@@ -4514,7 +4562,7 @@
       <c r="D27" s="9"/>
       <c r="E27" s="14"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28" s="9">
         <v>25</v>
       </c>
@@ -4522,7 +4570,7 @@
       <c r="D28" s="9"/>
       <c r="E28" s="14"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" s="9">
         <v>26</v>
       </c>
@@ -4530,7 +4578,7 @@
       <c r="D29" s="9"/>
       <c r="E29" s="14"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30" s="9">
         <v>27</v>
       </c>
@@ -4538,7 +4586,7 @@
       <c r="D30" s="9"/>
       <c r="E30" s="14"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B31" s="9">
         <v>28</v>
       </c>
@@ -4546,7 +4594,7 @@
       <c r="D31" s="9"/>
       <c r="E31" s="14"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32" s="9">
         <v>29</v>
       </c>
@@ -4554,7 +4602,7 @@
       <c r="D32" s="9"/>
       <c r="E32" s="14"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33" s="9">
         <v>30</v>
       </c>
@@ -4562,7 +4610,7 @@
       <c r="D33" s="9"/>
       <c r="E33" s="14"/>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" s="9">
         <v>31</v>
       </c>
@@ -4570,7 +4618,7 @@
       <c r="D34" s="9"/>
       <c r="E34" s="14"/>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35" s="9">
         <v>32</v>
       </c>
@@ -4578,7 +4626,7 @@
       <c r="D35" s="9"/>
       <c r="E35" s="14"/>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36" s="9">
         <v>33</v>
       </c>
@@ -4586,7 +4634,7 @@
       <c r="D36" s="9"/>
       <c r="E36" s="14"/>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B37" s="9">
         <v>34</v>
       </c>
@@ -4594,7 +4642,7 @@
       <c r="D37" s="9"/>
       <c r="E37" s="14"/>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B38" s="9">
         <v>35</v>
       </c>
@@ -4602,7 +4650,7 @@
       <c r="D38" s="9"/>
       <c r="E38" s="14"/>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B39" s="9">
         <v>36</v>
       </c>
@@ -4610,7 +4658,7 @@
       <c r="D39" s="9"/>
       <c r="E39" s="14"/>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B40" s="9">
         <v>37</v>
       </c>
@@ -4618,7 +4666,7 @@
       <c r="D40" s="9"/>
       <c r="E40" s="14"/>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B41" s="9">
         <v>38</v>
       </c>
@@ -4626,7 +4674,7 @@
       <c r="D41" s="9"/>
       <c r="E41" s="14"/>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B42" s="9">
         <v>39</v>
       </c>
@@ -4634,7 +4682,7 @@
       <c r="D42" s="9"/>
       <c r="E42" s="14"/>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B43" s="9">
         <v>40</v>
       </c>
@@ -4642,7 +4690,7 @@
       <c r="D43" s="9"/>
       <c r="E43" s="14"/>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B44" s="9">
         <v>41</v>
       </c>
@@ -4650,7 +4698,7 @@
       <c r="D44" s="9"/>
       <c r="E44" s="14"/>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B45" s="9">
         <v>42</v>
       </c>
@@ -4658,7 +4706,7 @@
       <c r="D45" s="9"/>
       <c r="E45" s="14"/>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B46" s="9">
         <v>43</v>
       </c>
@@ -4666,7 +4714,7 @@
       <c r="D46" s="9"/>
       <c r="E46" s="14"/>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B47" s="9">
         <v>44</v>
       </c>
@@ -4674,7 +4722,7 @@
       <c r="D47" s="9"/>
       <c r="E47" s="14"/>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B48" s="9">
         <v>45</v>
       </c>
@@ -4682,7 +4730,7 @@
       <c r="D48" s="9"/>
       <c r="E48" s="14"/>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B49" s="9">
         <v>46</v>
       </c>
@@ -4690,7 +4738,7 @@
       <c r="D49" s="9"/>
       <c r="E49" s="14"/>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B50" s="9">
         <v>47</v>
       </c>
@@ -4698,7 +4746,7 @@
       <c r="D50" s="9"/>
       <c r="E50" s="14"/>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B51" s="9">
         <v>48</v>
       </c>
@@ -4706,7 +4754,7 @@
       <c r="D51" s="9"/>
       <c r="E51" s="14"/>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B52" s="9">
         <v>49</v>
       </c>
@@ -4714,7 +4762,7 @@
       <c r="D52" s="9"/>
       <c r="E52" s="14"/>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B53" s="9">
         <v>50</v>
       </c>
@@ -4722,7 +4770,7 @@
       <c r="D53" s="9"/>
       <c r="E53" s="14"/>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B54" s="9">
         <v>51</v>
       </c>
@@ -4730,7 +4778,7 @@
       <c r="D54" s="9"/>
       <c r="E54" s="14"/>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B55" s="9">
         <v>52</v>
       </c>
@@ -4738,7 +4786,7 @@
       <c r="D55" s="9"/>
       <c r="E55" s="14"/>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B56" s="9">
         <v>53</v>
       </c>
@@ -4746,7 +4794,7 @@
       <c r="D56" s="9"/>
       <c r="E56" s="14"/>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B57" s="9">
         <v>54</v>
       </c>
@@ -4754,7 +4802,7 @@
       <c r="D57" s="9"/>
       <c r="E57" s="14"/>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B58" s="9">
         <v>55</v>
       </c>
@@ -4762,7 +4810,7 @@
       <c r="D58" s="9"/>
       <c r="E58" s="14"/>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B59" s="9">
         <v>56</v>
       </c>
@@ -4770,7 +4818,7 @@
       <c r="D59" s="9"/>
       <c r="E59" s="14"/>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B60" s="9">
         <v>57</v>
       </c>
@@ -4778,7 +4826,7 @@
       <c r="D60" s="9"/>
       <c r="E60" s="14"/>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B61" s="9">
         <v>58</v>
       </c>
@@ -4786,7 +4834,7 @@
       <c r="D61" s="9"/>
       <c r="E61" s="14"/>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B62" s="9">
         <v>59</v>
       </c>
@@ -4794,7 +4842,7 @@
       <c r="D62" s="9"/>
       <c r="E62" s="14"/>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B63" s="9">
         <v>60</v>
       </c>
@@ -4802,7 +4850,7 @@
       <c r="D63" s="9"/>
       <c r="E63" s="14"/>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B64" s="9">
         <v>61</v>
       </c>
@@ -4810,7 +4858,7 @@
       <c r="D64" s="9"/>
       <c r="E64" s="14"/>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B65" s="9">
         <v>62</v>
       </c>
@@ -4818,7 +4866,7 @@
       <c r="D65" s="9"/>
       <c r="E65" s="14"/>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B66" s="9">
         <v>63</v>
       </c>
@@ -4826,7 +4874,7 @@
       <c r="D66" s="9"/>
       <c r="E66" s="14"/>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B67" s="9">
         <v>64</v>
       </c>
@@ -4834,7 +4882,7 @@
       <c r="D67" s="9"/>
       <c r="E67" s="14"/>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B68" s="9">
         <v>65</v>
       </c>
@@ -4842,7 +4890,7 @@
       <c r="D68" s="9"/>
       <c r="E68" s="14"/>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B69" s="9">
         <v>66</v>
       </c>
@@ -4850,7 +4898,7 @@
       <c r="D69" s="9"/>
       <c r="E69" s="14"/>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B70" s="9">
         <v>67</v>
       </c>
@@ -4858,7 +4906,7 @@
       <c r="D70" s="9"/>
       <c r="E70" s="14"/>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B71" s="9">
         <v>68</v>
       </c>
@@ -4866,7 +4914,7 @@
       <c r="D71" s="9"/>
       <c r="E71" s="14"/>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B72" s="9">
         <v>69</v>
       </c>
@@ -4888,17 +4936,17 @@
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
-    <col min="2" max="2" width="3.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.453125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="105.54296875" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="8.7109375" style="1"/>
+    <col min="2" max="2" width="3.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.42578125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="105.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" s="13" t="s">
         <v>379</v>
       </c>
@@ -4912,7 +4960,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4" s="9">
         <v>1</v>
       </c>
@@ -4924,7 +4972,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5" s="9">
         <v>2</v>
       </c>
@@ -4936,7 +4984,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6" s="9">
         <v>3</v>
       </c>
@@ -4948,7 +4996,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="26" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B7" s="9">
         <v>4</v>
       </c>
@@ -4960,7 +5008,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="26" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B8" s="9">
         <v>5</v>
       </c>
@@ -4973,7 +5021,7 @@
       </c>
       <c r="G8" s="10"/>
     </row>
-    <row r="9" spans="2:7" ht="26" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B9" s="9">
         <v>6</v>
       </c>
@@ -4985,7 +5033,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="26" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B10" s="9">
         <v>7</v>
       </c>
@@ -4997,7 +5045,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B11" s="9">
         <v>8</v>
       </c>
@@ -5009,7 +5057,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B12" s="9">
         <v>9</v>
       </c>
@@ -5021,7 +5069,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="26" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B13" s="9">
         <v>10</v>
       </c>
@@ -5033,7 +5081,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="26" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B14" s="9">
         <v>11</v>
       </c>
@@ -5045,7 +5093,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="26" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B15" s="9">
         <v>12</v>
       </c>
@@ -5057,7 +5105,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="16" spans="2:7" ht="26" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B16" s="9">
         <v>13</v>
       </c>
@@ -5069,7 +5117,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="26" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B17" s="9">
         <v>14</v>
       </c>
@@ -5081,7 +5129,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="26" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B18" s="9">
         <v>15</v>
       </c>
@@ -5093,7 +5141,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="26" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B19" s="9">
         <v>16</v>
       </c>
@@ -5105,7 +5153,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="26" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B20" s="9">
         <v>17</v>
       </c>
@@ -5117,7 +5165,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="26" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B21" s="9">
         <v>18</v>
       </c>
@@ -5129,7 +5177,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="26" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B22" s="9">
         <v>19</v>
       </c>
@@ -5141,7 +5189,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="26" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B23" s="9">
         <v>20</v>
       </c>
@@ -5153,7 +5201,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="26" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B24" s="9">
         <v>21</v>
       </c>
@@ -5165,7 +5213,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="25" spans="2:5" ht="26" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B25" s="9">
         <v>22</v>
       </c>
@@ -5177,7 +5225,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="26" spans="2:5" ht="26" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B26" s="9">
         <v>23</v>
       </c>
@@ -5189,7 +5237,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="9">
         <v>24</v>
       </c>
@@ -5197,7 +5245,7 @@
       <c r="D27" s="9"/>
       <c r="E27" s="16"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28" s="9">
         <v>25</v>
       </c>
@@ -5205,7 +5253,7 @@
       <c r="D28" s="9"/>
       <c r="E28" s="16"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" s="9">
         <v>26</v>
       </c>
@@ -5213,7 +5261,7 @@
       <c r="D29" s="9"/>
       <c r="E29" s="16"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30" s="9">
         <v>27</v>
       </c>
@@ -5221,7 +5269,7 @@
       <c r="D30" s="9"/>
       <c r="E30" s="16"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B31" s="9">
         <v>28</v>
       </c>
@@ -5229,7 +5277,7 @@
       <c r="D31" s="9"/>
       <c r="E31" s="16"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32" s="9">
         <v>29</v>
       </c>
@@ -5237,7 +5285,7 @@
       <c r="D32" s="9"/>
       <c r="E32" s="16"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33" s="9">
         <v>30</v>
       </c>
@@ -5245,7 +5293,7 @@
       <c r="D33" s="9"/>
       <c r="E33" s="16"/>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" s="9">
         <v>31</v>
       </c>
@@ -5253,7 +5301,7 @@
       <c r="D34" s="9"/>
       <c r="E34" s="16"/>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35" s="9">
         <v>32</v>
       </c>
@@ -5261,7 +5309,7 @@
       <c r="D35" s="9"/>
       <c r="E35" s="16"/>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36" s="9">
         <v>33</v>
       </c>
@@ -5269,7 +5317,7 @@
       <c r="D36" s="9"/>
       <c r="E36" s="16"/>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B37" s="9">
         <v>34</v>
       </c>
@@ -5277,7 +5325,7 @@
       <c r="D37" s="9"/>
       <c r="E37" s="16"/>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B38" s="9">
         <v>35</v>
       </c>
@@ -5285,7 +5333,7 @@
       <c r="D38" s="9"/>
       <c r="E38" s="16"/>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B39" s="9">
         <v>36</v>
       </c>
@@ -5293,7 +5341,7 @@
       <c r="D39" s="9"/>
       <c r="E39" s="16"/>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B40" s="9">
         <v>37</v>
       </c>
@@ -5301,7 +5349,7 @@
       <c r="D40" s="9"/>
       <c r="E40" s="16"/>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B41" s="9">
         <v>38</v>
       </c>
@@ -5309,7 +5357,7 @@
       <c r="D41" s="9"/>
       <c r="E41" s="16"/>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B42" s="9">
         <v>39</v>
       </c>
@@ -5317,7 +5365,7 @@
       <c r="D42" s="9"/>
       <c r="E42" s="16"/>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B43" s="9">
         <v>40</v>
       </c>
@@ -5325,7 +5373,7 @@
       <c r="D43" s="9"/>
       <c r="E43" s="16"/>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B44" s="9">
         <v>41</v>
       </c>
@@ -5333,7 +5381,7 @@
       <c r="D44" s="9"/>
       <c r="E44" s="16"/>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B45" s="9">
         <v>42</v>
       </c>
@@ -5341,7 +5389,7 @@
       <c r="D45" s="9"/>
       <c r="E45" s="16"/>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B46" s="9">
         <v>43</v>
       </c>
@@ -5349,7 +5397,7 @@
       <c r="D46" s="9"/>
       <c r="E46" s="16"/>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B47" s="9">
         <v>44</v>
       </c>
@@ -5357,7 +5405,7 @@
       <c r="D47" s="9"/>
       <c r="E47" s="16"/>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B48" s="9">
         <v>45</v>
       </c>
@@ -5365,7 +5413,7 @@
       <c r="D48" s="9"/>
       <c r="E48" s="16"/>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B49" s="9">
         <v>46</v>
       </c>
@@ -5373,7 +5421,7 @@
       <c r="D49" s="9"/>
       <c r="E49" s="16"/>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B50" s="9">
         <v>47</v>
       </c>
@@ -5381,7 +5429,7 @@
       <c r="D50" s="9"/>
       <c r="E50" s="16"/>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B51" s="9">
         <v>48</v>
       </c>
@@ -5389,7 +5437,7 @@
       <c r="D51" s="9"/>
       <c r="E51" s="16"/>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B52" s="9">
         <v>49</v>
       </c>
@@ -5397,7 +5445,7 @@
       <c r="D52" s="9"/>
       <c r="E52" s="16"/>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B53" s="9">
         <v>50</v>
       </c>
@@ -5405,7 +5453,7 @@
       <c r="D53" s="9"/>
       <c r="E53" s="16"/>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B54" s="9">
         <v>51</v>
       </c>
@@ -5413,7 +5461,7 @@
       <c r="D54" s="9"/>
       <c r="E54" s="16"/>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B55" s="9">
         <v>52</v>
       </c>
@@ -5421,7 +5469,7 @@
       <c r="D55" s="9"/>
       <c r="E55" s="16"/>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B56" s="9">
         <v>53</v>
       </c>
@@ -5429,7 +5477,7 @@
       <c r="D56" s="9"/>
       <c r="E56" s="16"/>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B57" s="9">
         <v>54</v>
       </c>
@@ -5437,7 +5485,7 @@
       <c r="D57" s="9"/>
       <c r="E57" s="16"/>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B58" s="9">
         <v>55</v>
       </c>
@@ -5445,7 +5493,7 @@
       <c r="D58" s="9"/>
       <c r="E58" s="16"/>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B59" s="9">
         <v>56</v>
       </c>
@@ -5453,7 +5501,7 @@
       <c r="D59" s="9"/>
       <c r="E59" s="16"/>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B60" s="9">
         <v>57</v>
       </c>
@@ -5461,7 +5509,7 @@
       <c r="D60" s="9"/>
       <c r="E60" s="16"/>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B61" s="9">
         <v>58</v>
       </c>
@@ -5469,7 +5517,7 @@
       <c r="D61" s="9"/>
       <c r="E61" s="16"/>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B62" s="9">
         <v>59</v>
       </c>
@@ -5477,7 +5525,7 @@
       <c r="D62" s="9"/>
       <c r="E62" s="16"/>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B63" s="9">
         <v>60</v>
       </c>
@@ -5485,7 +5533,7 @@
       <c r="D63" s="9"/>
       <c r="E63" s="16"/>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B64" s="9">
         <v>61</v>
       </c>
@@ -5493,7 +5541,7 @@
       <c r="D64" s="9"/>
       <c r="E64" s="16"/>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B65" s="9">
         <v>62</v>
       </c>
@@ -5501,7 +5549,7 @@
       <c r="D65" s="9"/>
       <c r="E65" s="16"/>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B66" s="9">
         <v>63</v>
       </c>
@@ -5509,7 +5557,7 @@
       <c r="D66" s="9"/>
       <c r="E66" s="16"/>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B67" s="9">
         <v>64</v>
       </c>
@@ -5517,7 +5565,7 @@
       <c r="D67" s="9"/>
       <c r="E67" s="16"/>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B68" s="9">
         <v>65</v>
       </c>
@@ -5525,7 +5573,7 @@
       <c r="D68" s="9"/>
       <c r="E68" s="16"/>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B69" s="9">
         <v>66</v>
       </c>
@@ -5533,7 +5581,7 @@
       <c r="D69" s="9"/>
       <c r="E69" s="16"/>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B70" s="9">
         <v>67</v>
       </c>
@@ -5541,7 +5589,7 @@
       <c r="D70" s="9"/>
       <c r="E70" s="16"/>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B71" s="9">
         <v>68</v>
       </c>
@@ -5549,7 +5597,7 @@
       <c r="D71" s="9"/>
       <c r="E71" s="16"/>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B72" s="9">
         <v>69</v>
       </c>
@@ -5571,17 +5619,17 @@
       <selection activeCell="B3" sqref="B3:E72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
-    <col min="2" max="2" width="3.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="58.81640625" style="15" customWidth="1"/>
-    <col min="4" max="4" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="122.81640625" style="25" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="8.7109375" style="1"/>
+    <col min="2" max="2" width="3.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.85546875" style="15" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="122.85546875" style="25" customWidth="1"/>
+    <col min="6" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" s="13" t="s">
         <v>379</v>
       </c>
@@ -5595,7 +5643,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4" s="9">
         <v>1</v>
       </c>
@@ -5607,7 +5655,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5" s="9">
         <v>2</v>
       </c>
@@ -5619,7 +5667,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6" s="9">
         <v>3</v>
       </c>
@@ -5631,7 +5679,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B7" s="9">
         <v>4</v>
       </c>
@@ -5643,7 +5691,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8" s="9">
         <v>5</v>
       </c>
@@ -5656,7 +5704,7 @@
       </c>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B9" s="9">
         <v>6</v>
       </c>
@@ -5669,7 +5717,7 @@
       </c>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10" s="9">
         <v>7</v>
       </c>
@@ -5681,7 +5729,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B11" s="9">
         <v>8</v>
       </c>
@@ -5693,7 +5741,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B12" s="9">
         <v>9</v>
       </c>
@@ -5705,7 +5753,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B13" s="9">
         <v>10</v>
       </c>
@@ -5717,7 +5765,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B14" s="9">
         <v>11</v>
       </c>
@@ -5729,7 +5777,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B15" s="9">
         <v>12</v>
       </c>
@@ -5741,7 +5789,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B16" s="9">
         <v>13</v>
       </c>
@@ -5753,7 +5801,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="9">
         <v>14</v>
       </c>
@@ -5765,7 +5813,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="9">
         <v>15</v>
       </c>
@@ -5777,7 +5825,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="9">
         <v>16</v>
       </c>
@@ -5789,7 +5837,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B20" s="9">
         <v>17</v>
       </c>
@@ -5801,7 +5849,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="9">
         <v>18</v>
       </c>
@@ -5813,7 +5861,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="26" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B22" s="9">
         <v>19</v>
       </c>
@@ -5825,7 +5873,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="9">
         <v>20</v>
       </c>
@@ -5837,7 +5885,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="9">
         <v>21</v>
       </c>
@@ -5847,7 +5895,7 @@
       <c r="D24" s="9"/>
       <c r="E24" s="16"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="9">
         <v>22</v>
       </c>
@@ -5857,7 +5905,7 @@
       <c r="D25" s="9"/>
       <c r="E25" s="16"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="9">
         <v>23</v>
       </c>
@@ -5867,7 +5915,7 @@
       <c r="D26" s="9"/>
       <c r="E26" s="16"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="9">
         <v>24</v>
       </c>
@@ -5877,7 +5925,7 @@
       <c r="D27" s="9"/>
       <c r="E27" s="16"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28" s="9">
         <v>25</v>
       </c>
@@ -5887,7 +5935,7 @@
       <c r="D28" s="9"/>
       <c r="E28" s="16"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" s="9">
         <v>26</v>
       </c>
@@ -5897,7 +5945,7 @@
       <c r="D29" s="9"/>
       <c r="E29" s="16"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30" s="9">
         <v>27</v>
       </c>
@@ -5907,7 +5955,7 @@
       <c r="D30" s="9"/>
       <c r="E30" s="16"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B31" s="9">
         <v>28</v>
       </c>
@@ -5917,7 +5965,7 @@
       <c r="D31" s="9"/>
       <c r="E31" s="16"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32" s="9">
         <v>29</v>
       </c>
@@ -5927,7 +5975,7 @@
       <c r="D32" s="9"/>
       <c r="E32" s="16"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33" s="9">
         <v>30</v>
       </c>
@@ -5937,7 +5985,7 @@
       <c r="D33" s="9"/>
       <c r="E33" s="16"/>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" s="9">
         <v>31</v>
       </c>
@@ -5947,7 +5995,7 @@
       <c r="D34" s="9"/>
       <c r="E34" s="16"/>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35" s="9">
         <v>32</v>
       </c>
@@ -5957,7 +6005,7 @@
       <c r="D35" s="9"/>
       <c r="E35" s="16"/>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36" s="9">
         <v>33</v>
       </c>
@@ -5967,7 +6015,7 @@
       <c r="D36" s="9"/>
       <c r="E36" s="16"/>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B37" s="9">
         <v>34</v>
       </c>
@@ -5977,7 +6025,7 @@
       <c r="D37" s="9"/>
       <c r="E37" s="16"/>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B38" s="9">
         <v>35</v>
       </c>
@@ -5987,7 +6035,7 @@
       <c r="D38" s="9"/>
       <c r="E38" s="16"/>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B39" s="9">
         <v>36</v>
       </c>
@@ -5997,7 +6045,7 @@
       <c r="D39" s="9"/>
       <c r="E39" s="16"/>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B40" s="9">
         <v>37</v>
       </c>
@@ -6007,7 +6055,7 @@
       <c r="D40" s="9"/>
       <c r="E40" s="16"/>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B41" s="9">
         <v>38</v>
       </c>
@@ -6017,7 +6065,7 @@
       <c r="D41" s="9"/>
       <c r="E41" s="16"/>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B42" s="9">
         <v>39</v>
       </c>
@@ -6027,7 +6075,7 @@
       <c r="D42" s="9"/>
       <c r="E42" s="16"/>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B43" s="9">
         <v>40</v>
       </c>
@@ -6037,7 +6085,7 @@
       <c r="D43" s="9"/>
       <c r="E43" s="16"/>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B44" s="9">
         <v>41</v>
       </c>
@@ -6047,7 +6095,7 @@
       <c r="D44" s="9"/>
       <c r="E44" s="16"/>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B45" s="9">
         <v>42</v>
       </c>
@@ -6057,7 +6105,7 @@
       <c r="D45" s="9"/>
       <c r="E45" s="16"/>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B46" s="9">
         <v>43</v>
       </c>
@@ -6067,7 +6115,7 @@
       <c r="D46" s="9"/>
       <c r="E46" s="16"/>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B47" s="9">
         <v>44</v>
       </c>
@@ -6077,7 +6125,7 @@
       <c r="D47" s="9"/>
       <c r="E47" s="16"/>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B48" s="9">
         <v>45</v>
       </c>
@@ -6087,7 +6135,7 @@
       <c r="D48" s="9"/>
       <c r="E48" s="16"/>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B49" s="9">
         <v>46</v>
       </c>
@@ -6097,7 +6145,7 @@
       <c r="D49" s="9"/>
       <c r="E49" s="16"/>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B50" s="9">
         <v>47</v>
       </c>
@@ -6107,7 +6155,7 @@
       <c r="D50" s="9"/>
       <c r="E50" s="16"/>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B51" s="9">
         <v>48</v>
       </c>
@@ -6117,7 +6165,7 @@
       <c r="D51" s="9"/>
       <c r="E51" s="16"/>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B52" s="9">
         <v>49</v>
       </c>
@@ -6127,7 +6175,7 @@
       <c r="D52" s="9"/>
       <c r="E52" s="16"/>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B53" s="9">
         <v>50</v>
       </c>
@@ -6137,7 +6185,7 @@
       <c r="D53" s="9"/>
       <c r="E53" s="16"/>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B54" s="9">
         <v>51</v>
       </c>
@@ -6147,7 +6195,7 @@
       <c r="D54" s="9"/>
       <c r="E54" s="16"/>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B55" s="9">
         <v>52</v>
       </c>
@@ -6157,7 +6205,7 @@
       <c r="D55" s="9"/>
       <c r="E55" s="16"/>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B56" s="9">
         <v>53</v>
       </c>
@@ -6167,7 +6215,7 @@
       <c r="D56" s="9"/>
       <c r="E56" s="16"/>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B57" s="9">
         <v>54</v>
       </c>
@@ -6177,7 +6225,7 @@
       <c r="D57" s="9"/>
       <c r="E57" s="16"/>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B58" s="9">
         <v>55</v>
       </c>
@@ -6187,7 +6235,7 @@
       <c r="D58" s="9"/>
       <c r="E58" s="16"/>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B59" s="9">
         <v>56</v>
       </c>
@@ -6197,7 +6245,7 @@
       <c r="D59" s="9"/>
       <c r="E59" s="16"/>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B60" s="9">
         <v>57</v>
       </c>
@@ -6207,7 +6255,7 @@
       <c r="D60" s="9"/>
       <c r="E60" s="16"/>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B61" s="9">
         <v>58</v>
       </c>
@@ -6217,7 +6265,7 @@
       <c r="D61" s="9"/>
       <c r="E61" s="16"/>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B62" s="9">
         <v>59</v>
       </c>
@@ -6227,7 +6275,7 @@
       <c r="D62" s="9"/>
       <c r="E62" s="16"/>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B63" s="9">
         <v>60</v>
       </c>
@@ -6237,7 +6285,7 @@
       <c r="D63" s="9"/>
       <c r="E63" s="16"/>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B64" s="9">
         <v>61</v>
       </c>
@@ -6247,7 +6295,7 @@
       <c r="D64" s="9"/>
       <c r="E64" s="16"/>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B65" s="9">
         <v>62</v>
       </c>
@@ -6257,7 +6305,7 @@
       <c r="D65" s="9"/>
       <c r="E65" s="16"/>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B66" s="9">
         <v>63</v>
       </c>
@@ -6267,7 +6315,7 @@
       <c r="D66" s="9"/>
       <c r="E66" s="16"/>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B67" s="9">
         <v>64</v>
       </c>
@@ -6277,7 +6325,7 @@
       <c r="D67" s="9"/>
       <c r="E67" s="16"/>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B68" s="9">
         <v>65</v>
       </c>
@@ -6287,7 +6335,7 @@
       <c r="D68" s="9"/>
       <c r="E68" s="16"/>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B69" s="9">
         <v>66</v>
       </c>
@@ -6297,7 +6345,7 @@
       <c r="D69" s="9"/>
       <c r="E69" s="16"/>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B70" s="9">
         <v>67</v>
       </c>
@@ -6307,7 +6355,7 @@
       <c r="D70" s="9"/>
       <c r="E70" s="16"/>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B71" s="9">
         <v>68</v>
       </c>
@@ -6317,7 +6365,7 @@
       <c r="D71" s="9"/>
       <c r="E71" s="16"/>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B72" s="9">
         <v>69</v>
       </c>
@@ -6337,21 +6385,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{527C0038-825B-49FE-8A49-D86AE1E3139F}">
   <dimension ref="B3:G72"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
-    <col min="2" max="2" width="3.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="79.1796875" style="15" customWidth="1"/>
-    <col min="4" max="4" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="122.81640625" style="25" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="8.7109375" style="1"/>
+    <col min="2" max="2" width="3.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="79.140625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="122.85546875" style="25" customWidth="1"/>
+    <col min="6" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" s="13" t="s">
         <v>379</v>
       </c>
@@ -6365,47 +6413,55 @@
         <v>380</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="31">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B4" s="26">
         <v>1</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>515</v>
       </c>
       <c r="D4" s="9"/>
-      <c r="E4" s="16"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="31">
+      <c r="E4" s="32" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B5" s="26">
         <v>2</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>516</v>
       </c>
       <c r="D5" s="9"/>
-      <c r="E5" s="16"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="31">
+      <c r="E5" s="33" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B6" s="26">
         <v>3</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>517</v>
       </c>
       <c r="D6" s="9"/>
-      <c r="E6" s="16"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="31">
+      <c r="E6" s="33" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="26">
         <v>4</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>518</v>
       </c>
       <c r="D7" s="9"/>
-      <c r="E7" s="16"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E7" s="34" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8" s="9">
         <v>5</v>
       </c>
@@ -6416,7 +6472,7 @@
       <c r="E8" s="16"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B9" s="9">
         <v>6</v>
       </c>
@@ -6427,7 +6483,7 @@
       <c r="E9" s="16"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10" s="9">
         <v>7</v>
       </c>
@@ -6437,7 +6493,7 @@
       <c r="D10" s="9"/>
       <c r="E10" s="16"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B11" s="9">
         <v>8</v>
       </c>
@@ -6447,7 +6503,7 @@
       <c r="D11" s="9"/>
       <c r="E11" s="16"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B12" s="9">
         <v>9</v>
       </c>
@@ -6457,7 +6513,7 @@
       <c r="D12" s="9"/>
       <c r="E12" s="16"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B13" s="9">
         <v>10</v>
       </c>
@@ -6467,7 +6523,7 @@
       <c r="D13" s="9"/>
       <c r="E13" s="16"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B14" s="9">
         <v>11</v>
       </c>
@@ -6477,7 +6533,7 @@
       <c r="D14" s="9"/>
       <c r="E14" s="16"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B15" s="9">
         <v>12</v>
       </c>
@@ -6487,7 +6543,7 @@
       <c r="D15" s="9"/>
       <c r="E15" s="16"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B16" s="9">
         <v>13</v>
       </c>
@@ -6497,7 +6553,7 @@
       <c r="D16" s="9"/>
       <c r="E16" s="16"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="9">
         <v>14</v>
       </c>
@@ -6507,7 +6563,7 @@
       <c r="D17" s="9"/>
       <c r="E17" s="16"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="9">
         <v>15</v>
       </c>
@@ -6517,7 +6573,7 @@
       <c r="D18" s="9"/>
       <c r="E18" s="16"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="9">
         <v>16</v>
       </c>
@@ -6527,7 +6583,7 @@
       <c r="D19" s="9"/>
       <c r="E19" s="16"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="9">
         <v>17</v>
       </c>
@@ -6537,7 +6593,7 @@
       <c r="D20" s="9"/>
       <c r="E20" s="16"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="9">
         <v>18</v>
       </c>
@@ -6547,7 +6603,7 @@
       <c r="D21" s="9"/>
       <c r="E21" s="16"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="9">
         <v>19</v>
       </c>
@@ -6557,7 +6613,7 @@
       <c r="D22" s="9"/>
       <c r="E22" s="16"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="9">
         <v>20</v>
       </c>
@@ -6567,7 +6623,7 @@
       <c r="D23" s="9"/>
       <c r="E23" s="16"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="9">
         <v>21</v>
       </c>
@@ -6577,7 +6633,7 @@
       <c r="D24" s="9"/>
       <c r="E24" s="16"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="9">
         <v>22</v>
       </c>
@@ -6587,7 +6643,7 @@
       <c r="D25" s="9"/>
       <c r="E25" s="16"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="9">
         <v>23</v>
       </c>
@@ -6597,7 +6653,7 @@
       <c r="D26" s="9"/>
       <c r="E26" s="16"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="9">
         <v>24</v>
       </c>
@@ -6607,7 +6663,7 @@
       <c r="D27" s="9"/>
       <c r="E27" s="16"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28" s="9">
         <v>25</v>
       </c>
@@ -6615,7 +6671,7 @@
       <c r="D28" s="9"/>
       <c r="E28" s="16"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" s="9">
         <v>26</v>
       </c>
@@ -6623,7 +6679,7 @@
       <c r="D29" s="9"/>
       <c r="E29" s="16"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30" s="9">
         <v>27</v>
       </c>
@@ -6631,7 +6687,7 @@
       <c r="D30" s="9"/>
       <c r="E30" s="16"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B31" s="9">
         <v>28</v>
       </c>
@@ -6639,7 +6695,7 @@
       <c r="D31" s="9"/>
       <c r="E31" s="16"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32" s="9">
         <v>29</v>
       </c>
@@ -6647,7 +6703,7 @@
       <c r="D32" s="9"/>
       <c r="E32" s="16"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33" s="9">
         <v>30</v>
       </c>
@@ -6655,7 +6711,7 @@
       <c r="D33" s="9"/>
       <c r="E33" s="16"/>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" s="9">
         <v>31</v>
       </c>
@@ -6663,7 +6719,7 @@
       <c r="D34" s="9"/>
       <c r="E34" s="16"/>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35" s="9">
         <v>32</v>
       </c>
@@ -6671,7 +6727,7 @@
       <c r="D35" s="9"/>
       <c r="E35" s="16"/>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36" s="9">
         <v>33</v>
       </c>
@@ -6679,7 +6735,7 @@
       <c r="D36" s="9"/>
       <c r="E36" s="16"/>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B37" s="9">
         <v>34</v>
       </c>
@@ -6687,7 +6743,7 @@
       <c r="D37" s="9"/>
       <c r="E37" s="16"/>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B38" s="9">
         <v>35</v>
       </c>
@@ -6695,7 +6751,7 @@
       <c r="D38" s="9"/>
       <c r="E38" s="16"/>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B39" s="9">
         <v>36</v>
       </c>
@@ -6703,7 +6759,7 @@
       <c r="D39" s="9"/>
       <c r="E39" s="16"/>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B40" s="9">
         <v>37</v>
       </c>
@@ -6711,7 +6767,7 @@
       <c r="D40" s="9"/>
       <c r="E40" s="16"/>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B41" s="9">
         <v>38</v>
       </c>
@@ -6719,7 +6775,7 @@
       <c r="D41" s="9"/>
       <c r="E41" s="16"/>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B42" s="9">
         <v>39</v>
       </c>
@@ -6727,7 +6783,7 @@
       <c r="D42" s="9"/>
       <c r="E42" s="16"/>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B43" s="9">
         <v>40</v>
       </c>
@@ -6735,7 +6791,7 @@
       <c r="D43" s="9"/>
       <c r="E43" s="16"/>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B44" s="9">
         <v>41</v>
       </c>
@@ -6743,7 +6799,7 @@
       <c r="D44" s="9"/>
       <c r="E44" s="16"/>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B45" s="9">
         <v>42</v>
       </c>
@@ -6751,7 +6807,7 @@
       <c r="D45" s="9"/>
       <c r="E45" s="16"/>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B46" s="9">
         <v>43</v>
       </c>
@@ -6759,7 +6815,7 @@
       <c r="D46" s="9"/>
       <c r="E46" s="16"/>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B47" s="9">
         <v>44</v>
       </c>
@@ -6767,7 +6823,7 @@
       <c r="D47" s="9"/>
       <c r="E47" s="16"/>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B48" s="9">
         <v>45</v>
       </c>
@@ -6775,7 +6831,7 @@
       <c r="D48" s="9"/>
       <c r="E48" s="16"/>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B49" s="9">
         <v>46</v>
       </c>
@@ -6783,7 +6839,7 @@
       <c r="D49" s="9"/>
       <c r="E49" s="16"/>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B50" s="9">
         <v>47</v>
       </c>
@@ -6791,7 +6847,7 @@
       <c r="D50" s="9"/>
       <c r="E50" s="16"/>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B51" s="9">
         <v>48</v>
       </c>
@@ -6799,7 +6855,7 @@
       <c r="D51" s="9"/>
       <c r="E51" s="16"/>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B52" s="9">
         <v>49</v>
       </c>
@@ -6807,7 +6863,7 @@
       <c r="D52" s="9"/>
       <c r="E52" s="16"/>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B53" s="9">
         <v>50</v>
       </c>
@@ -6815,7 +6871,7 @@
       <c r="D53" s="9"/>
       <c r="E53" s="16"/>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B54" s="9">
         <v>51</v>
       </c>
@@ -6823,7 +6879,7 @@
       <c r="D54" s="9"/>
       <c r="E54" s="16"/>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B55" s="9">
         <v>52</v>
       </c>
@@ -6831,7 +6887,7 @@
       <c r="D55" s="9"/>
       <c r="E55" s="16"/>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B56" s="9">
         <v>53</v>
       </c>
@@ -6839,7 +6895,7 @@
       <c r="D56" s="9"/>
       <c r="E56" s="16"/>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B57" s="9">
         <v>54</v>
       </c>
@@ -6847,7 +6903,7 @@
       <c r="D57" s="9"/>
       <c r="E57" s="16"/>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B58" s="9">
         <v>55</v>
       </c>
@@ -6855,7 +6911,7 @@
       <c r="D58" s="9"/>
       <c r="E58" s="16"/>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B59" s="9">
         <v>56</v>
       </c>
@@ -6863,7 +6919,7 @@
       <c r="D59" s="9"/>
       <c r="E59" s="16"/>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B60" s="9">
         <v>57</v>
       </c>
@@ -6871,7 +6927,7 @@
       <c r="D60" s="9"/>
       <c r="E60" s="16"/>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B61" s="9">
         <v>58</v>
       </c>
@@ -6879,7 +6935,7 @@
       <c r="D61" s="9"/>
       <c r="E61" s="16"/>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B62" s="9">
         <v>59</v>
       </c>
@@ -6887,7 +6943,7 @@
       <c r="D62" s="9"/>
       <c r="E62" s="16"/>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B63" s="9">
         <v>60</v>
       </c>
@@ -6897,7 +6953,7 @@
       <c r="D63" s="9"/>
       <c r="E63" s="16"/>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B64" s="9">
         <v>61</v>
       </c>
@@ -6907,7 +6963,7 @@
       <c r="D64" s="9"/>
       <c r="E64" s="16"/>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B65" s="9">
         <v>62</v>
       </c>
@@ -6917,7 +6973,7 @@
       <c r="D65" s="9"/>
       <c r="E65" s="16"/>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B66" s="9">
         <v>63</v>
       </c>
@@ -6927,7 +6983,7 @@
       <c r="D66" s="9"/>
       <c r="E66" s="16"/>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B67" s="9">
         <v>64</v>
       </c>
@@ -6937,7 +6993,7 @@
       <c r="D67" s="9"/>
       <c r="E67" s="16"/>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B68" s="9">
         <v>65</v>
       </c>
@@ -6947,7 +7003,7 @@
       <c r="D68" s="9"/>
       <c r="E68" s="16"/>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B69" s="9">
         <v>66</v>
       </c>
@@ -6957,7 +7013,7 @@
       <c r="D69" s="9"/>
       <c r="E69" s="16"/>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B70" s="9">
         <v>67</v>
       </c>
@@ -6967,7 +7023,7 @@
       <c r="D70" s="9"/>
       <c r="E70" s="16"/>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B71" s="9">
         <v>68</v>
       </c>
@@ -6977,7 +7033,7 @@
       <c r="D71" s="9"/>
       <c r="E71" s="16"/>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B72" s="9">
         <v>69</v>
       </c>
@@ -6997,40 +7053,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{781AD54B-1615-4304-B624-1036F5D700FD}">
   <dimension ref="B2:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="8.7109375" style="1"/>
     <col min="2" max="2" width="3" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.453125" style="1" customWidth="1"/>
-    <col min="5" max="7" width="8.7265625" style="1"/>
-    <col min="8" max="8" width="9.81640625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.7265625" style="1"/>
+    <col min="3" max="3" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="1" customWidth="1"/>
+    <col min="5" max="7" width="8.7109375" style="1"/>
+    <col min="8" max="8" width="9.85546875" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="29" t="s">
+    <row r="2" spans="2:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="30" t="s">
         <v>379</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="28" t="s">
         <v>493</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="30" t="s">
+      <c r="D2" s="29"/>
+      <c r="E2" s="31" t="s">
         <v>493</v>
       </c>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30" t="s">
+      <c r="F2" s="31"/>
+      <c r="G2" s="31" t="s">
         <v>494</v>
       </c>
-      <c r="H2" s="30"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="29"/>
+      <c r="H2" s="31"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B3" s="30"/>
       <c r="C3" s="23" t="s">
         <v>491</v>
       </c>
@@ -7050,7 +7106,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B4" s="19">
         <v>1</v>
       </c>
@@ -7061,7 +7117,7 @@
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B5" s="19">
         <v>2</v>
       </c>
@@ -7072,7 +7128,7 @@
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" s="19">
         <v>3</v>
       </c>
@@ -7083,7 +7139,7 @@
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" s="19">
         <v>4</v>
       </c>
@@ -7094,7 +7150,7 @@
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8" s="19">
         <v>5</v>
       </c>
@@ -7105,7 +7161,7 @@
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B9" s="19">
         <v>6</v>
       </c>
@@ -7116,7 +7172,7 @@
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B10" s="19">
         <v>7</v>
       </c>
@@ -7127,7 +7183,7 @@
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B11" s="19">
         <v>8</v>
       </c>
@@ -7138,7 +7194,7 @@
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B12" s="19">
         <v>9</v>
       </c>
@@ -7149,7 +7205,7 @@
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B13" s="19">
         <v>10</v>
       </c>
@@ -7160,7 +7216,7 @@
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B14" s="19">
         <v>11</v>
       </c>
@@ -7171,7 +7227,7 @@
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B15" s="19">
         <v>12</v>
       </c>
@@ -7182,7 +7238,7 @@
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B16" s="19">
         <v>13</v>
       </c>
@@ -7193,7 +7249,7 @@
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" s="19">
         <v>14</v>
       </c>
@@ -7204,7 +7260,7 @@
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B18" s="19">
         <v>15</v>
       </c>
@@ -7215,7 +7271,7 @@
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B19" s="19">
         <v>16</v>
       </c>
@@ -7226,7 +7282,7 @@
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" s="19">
         <v>17</v>
       </c>
@@ -7237,7 +7293,7 @@
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21" s="19">
         <v>18</v>
       </c>
@@ -7248,7 +7304,7 @@
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B22" s="19">
         <v>19</v>
       </c>
@@ -7259,7 +7315,7 @@
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B23" s="19">
         <v>20</v>
       </c>
@@ -7270,7 +7326,7 @@
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B24" s="19">
         <v>21</v>
       </c>
@@ -7281,7 +7337,7 @@
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B25" s="19">
         <v>22</v>
       </c>
@@ -7292,7 +7348,7 @@
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B26" s="19">
         <v>23</v>
       </c>
@@ -7303,7 +7359,7 @@
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B27" s="19">
         <v>24</v>
       </c>
@@ -7314,7 +7370,7 @@
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B28" s="19">
         <v>25</v>
       </c>
@@ -7325,7 +7381,7 @@
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B29" s="19">
         <v>26</v>
       </c>
@@ -7336,7 +7392,7 @@
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B30" s="19">
         <v>27</v>
       </c>
@@ -7347,7 +7403,7 @@
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B31" s="19">
         <v>28</v>
       </c>
@@ -7358,7 +7414,7 @@
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B32" s="19">
         <v>29</v>
       </c>
@@ -7369,7 +7425,7 @@
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B33" s="19">
         <v>30</v>
       </c>
@@ -7380,7 +7436,7 @@
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B34" s="19">
         <v>31</v>
       </c>
@@ -7391,7 +7447,7 @@
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B35" s="19">
         <v>32</v>
       </c>
@@ -7402,7 +7458,7 @@
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B36" s="19">
         <v>33</v>
       </c>
@@ -7413,7 +7469,7 @@
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B37" s="19">
         <v>34</v>
       </c>
@@ -7424,7 +7480,7 @@
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B38" s="19">
         <v>35</v>
       </c>
@@ -7435,7 +7491,7 @@
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B39" s="19">
         <v>36</v>
       </c>
@@ -7446,7 +7502,7 @@
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B40" s="19">
         <v>37</v>
       </c>
@@ -7457,7 +7513,7 @@
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B41" s="19">
         <v>38</v>
       </c>
@@ -7468,7 +7524,7 @@
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B42" s="19">
         <v>39</v>
       </c>
@@ -7479,7 +7535,7 @@
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B43" s="19">
         <v>40</v>
       </c>
@@ -7490,7 +7546,7 @@
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B44" s="19">
         <v>41</v>
       </c>
@@ -7501,7 +7557,7 @@
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B45" s="19">
         <v>42</v>
       </c>
@@ -7512,7 +7568,7 @@
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B46" s="19">
         <v>43</v>
       </c>
@@ -7523,7 +7579,7 @@
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B47" s="19">
         <v>44</v>
       </c>
@@ -7534,7 +7590,7 @@
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B48" s="19">
         <v>45</v>
       </c>
@@ -7545,7 +7601,7 @@
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B49" s="19">
         <v>46</v>
       </c>
@@ -7556,7 +7612,7 @@
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B50" s="19">
         <v>47</v>
       </c>
@@ -7567,7 +7623,7 @@
       <c r="G50" s="8"/>
       <c r="H50" s="8"/>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B51" s="19">
         <v>48</v>
       </c>
@@ -7578,7 +7634,7 @@
       <c r="G51" s="8"/>
       <c r="H51" s="8"/>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B52" s="19">
         <v>49</v>
       </c>
@@ -7589,7 +7645,7 @@
       <c r="G52" s="8"/>
       <c r="H52" s="8"/>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B53" s="19">
         <v>50</v>
       </c>

--- a/GLIK Domain Mapping.xlsx
+++ b/GLIK Domain Mapping.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dimas\Downloads\LPS GLIK\GLIK-DM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toshiba\Documents\GitHub\GLIK-DM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D4641B-B2BE-459E-B10F-B4E7112BE89A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144A67D3-BFD8-455F-B556-936A19715AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="4" xr2:uid="{BC9BC3D9-6FF2-4CB4-96B2-33CE5FEE1DBD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="3" xr2:uid="{BC9BC3D9-6FF2-4CB4-96B2-33CE5FEE1DBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Fitur Item" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="541">
   <si>
     <t>Kode Fitur</t>
   </si>
@@ -1990,6 +1990,9 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2005,9 +2008,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2328,17 +2328,17 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="6"/>
-    <col min="2" max="2" width="9.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="111.140625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="6"/>
+    <col min="2" max="2" width="9.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="111.1796875" style="6" customWidth="1"/>
     <col min="4" max="4" width="14" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7109375" style="6"/>
+    <col min="5" max="5" width="14.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
@@ -2352,7 +2352,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
@@ -2362,7 +2362,7 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
@@ -2372,7 +2372,7 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -2382,7 +2382,7 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
         <v>10</v>
       </c>
@@ -2392,7 +2392,7 @@
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
     </row>
-    <row r="7" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
         <v>12</v>
       </c>
@@ -2402,7 +2402,7 @@
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>14</v>
       </c>
@@ -2412,7 +2412,7 @@
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="7" t="s">
         <v>16</v>
       </c>
@@ -2422,7 +2422,7 @@
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="7" t="s">
         <v>18</v>
       </c>
@@ -2432,7 +2432,7 @@
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="7" t="s">
         <v>20</v>
       </c>
@@ -2442,7 +2442,7 @@
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="7" t="s">
         <v>22</v>
       </c>
@@ -2452,7 +2452,7 @@
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
     </row>
-    <row r="13" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="7" t="s">
         <v>24</v>
       </c>
@@ -2462,7 +2462,7 @@
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
     </row>
-    <row r="14" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="7" t="s">
         <v>26</v>
       </c>
@@ -2472,7 +2472,7 @@
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="7" t="s">
         <v>28</v>
       </c>
@@ -2482,7 +2482,7 @@
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
     </row>
-    <row r="16" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="7" t="s">
         <v>30</v>
       </c>
@@ -2492,7 +2492,7 @@
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
     </row>
-    <row r="17" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="7" t="s">
         <v>32</v>
       </c>
@@ -2502,7 +2502,7 @@
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
     </row>
-    <row r="18" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="7" t="s">
         <v>34</v>
       </c>
@@ -2512,7 +2512,7 @@
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
     </row>
-    <row r="19" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="7" t="s">
         <v>36</v>
       </c>
@@ -2522,7 +2522,7 @@
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
     </row>
-    <row r="20" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="7" t="s">
         <v>38</v>
       </c>
@@ -2532,7 +2532,7 @@
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
     </row>
-    <row r="21" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="7" t="s">
         <v>40</v>
       </c>
@@ -2542,7 +2542,7 @@
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
     </row>
-    <row r="22" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="7" t="s">
         <v>42</v>
       </c>
@@ -2552,7 +2552,7 @@
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
     </row>
-    <row r="23" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="7" t="s">
         <v>44</v>
       </c>
@@ -2562,7 +2562,7 @@
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
     </row>
-    <row r="24" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="7" t="s">
         <v>46</v>
       </c>
@@ -2572,7 +2572,7 @@
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
     </row>
-    <row r="25" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="7" t="s">
         <v>48</v>
       </c>
@@ -2582,7 +2582,7 @@
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
     </row>
-    <row r="26" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="7" t="s">
         <v>50</v>
       </c>
@@ -2592,7 +2592,7 @@
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
     </row>
-    <row r="27" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>52</v>
       </c>
@@ -2602,7 +2602,7 @@
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
     </row>
-    <row r="28" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="7" t="s">
         <v>54</v>
       </c>
@@ -2612,7 +2612,7 @@
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
     </row>
-    <row r="29" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="7" t="s">
         <v>56</v>
       </c>
@@ -2622,7 +2622,7 @@
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
     </row>
-    <row r="30" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="7" t="s">
         <v>58</v>
       </c>
@@ -2632,7 +2632,7 @@
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
     </row>
-    <row r="31" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="7" t="s">
         <v>60</v>
       </c>
@@ -2642,7 +2642,7 @@
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
     </row>
-    <row r="32" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="7" t="s">
         <v>62</v>
       </c>
@@ -2652,7 +2652,7 @@
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
     </row>
-    <row r="33" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="7" t="s">
         <v>64</v>
       </c>
@@ -2662,7 +2662,7 @@
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
     </row>
-    <row r="34" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="7" t="s">
         <v>66</v>
       </c>
@@ -2672,7 +2672,7 @@
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
     </row>
-    <row r="35" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="7" t="s">
         <v>68</v>
       </c>
@@ -2682,7 +2682,7 @@
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
     </row>
-    <row r="36" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="7" t="s">
         <v>70</v>
       </c>
@@ -2692,7 +2692,7 @@
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
     </row>
-    <row r="37" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="7" t="s">
         <v>72</v>
       </c>
@@ -2702,7 +2702,7 @@
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
     </row>
-    <row r="38" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="7" t="s">
         <v>74</v>
       </c>
@@ -2712,7 +2712,7 @@
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
     </row>
-    <row r="39" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="7" t="s">
         <v>76</v>
       </c>
@@ -2722,7 +2722,7 @@
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
     </row>
-    <row r="40" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="7" t="s">
         <v>78</v>
       </c>
@@ -2732,7 +2732,7 @@
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
     </row>
-    <row r="41" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="7" t="s">
         <v>80</v>
       </c>
@@ -2742,7 +2742,7 @@
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
     </row>
-    <row r="42" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="7" t="s">
         <v>82</v>
       </c>
@@ -2752,7 +2752,7 @@
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
     </row>
-    <row r="43" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="7" t="s">
         <v>84</v>
       </c>
@@ -2762,7 +2762,7 @@
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
     </row>
-    <row r="44" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="7" t="s">
         <v>86</v>
       </c>
@@ -2772,7 +2772,7 @@
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
     </row>
-    <row r="45" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="7" t="s">
         <v>88</v>
       </c>
@@ -2782,7 +2782,7 @@
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
     </row>
-    <row r="46" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="7" t="s">
         <v>90</v>
       </c>
@@ -2792,7 +2792,7 @@
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
     </row>
-    <row r="47" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="7" t="s">
         <v>92</v>
       </c>
@@ -2802,7 +2802,7 @@
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
     </row>
-    <row r="48" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="7" t="s">
         <v>94</v>
       </c>
@@ -2812,7 +2812,7 @@
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
     </row>
-    <row r="49" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="7" t="s">
         <v>96</v>
       </c>
@@ -2822,7 +2822,7 @@
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
     </row>
-    <row r="50" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="7" t="s">
         <v>98</v>
       </c>
@@ -2832,7 +2832,7 @@
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
     </row>
-    <row r="51" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="7" t="s">
         <v>100</v>
       </c>
@@ -2842,7 +2842,7 @@
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
     </row>
-    <row r="52" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="7" t="s">
         <v>102</v>
       </c>
@@ -2852,7 +2852,7 @@
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
     </row>
-    <row r="53" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="7" t="s">
         <v>104</v>
       </c>
@@ -2862,7 +2862,7 @@
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
     </row>
-    <row r="54" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="7" t="s">
         <v>106</v>
       </c>
@@ -2872,7 +2872,7 @@
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
     </row>
-    <row r="55" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="7" t="s">
         <v>108</v>
       </c>
@@ -2882,7 +2882,7 @@
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
     </row>
-    <row r="56" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="7" t="s">
         <v>110</v>
       </c>
@@ -2892,7 +2892,7 @@
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
     </row>
-    <row r="57" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="7" t="s">
         <v>112</v>
       </c>
@@ -2902,7 +2902,7 @@
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
     </row>
-    <row r="58" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="7" t="s">
         <v>114</v>
       </c>
@@ -2912,7 +2912,7 @@
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
     </row>
-    <row r="59" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="7" t="s">
         <v>116</v>
       </c>
@@ -2922,7 +2922,7 @@
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
     </row>
-    <row r="60" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B60" s="7" t="s">
         <v>118</v>
       </c>
@@ -2932,7 +2932,7 @@
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
     </row>
-    <row r="61" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61" s="7" t="s">
         <v>120</v>
       </c>
@@ -2942,7 +2942,7 @@
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
     </row>
-    <row r="62" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B62" s="7" t="s">
         <v>122</v>
       </c>
@@ -2952,7 +2952,7 @@
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
     </row>
-    <row r="63" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B63" s="7" t="s">
         <v>124</v>
       </c>
@@ -2962,7 +2962,7 @@
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
     </row>
-    <row r="64" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="7" t="s">
         <v>126</v>
       </c>
@@ -2972,7 +2972,7 @@
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
     </row>
-    <row r="65" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B65" s="7" t="s">
         <v>128</v>
       </c>
@@ -2982,7 +2982,7 @@
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
     </row>
-    <row r="66" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B66" s="7" t="s">
         <v>130</v>
       </c>
@@ -2992,7 +2992,7 @@
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
     </row>
-    <row r="67" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B67" s="7" t="s">
         <v>132</v>
       </c>
@@ -3002,7 +3002,7 @@
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
     </row>
-    <row r="68" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B68" s="7" t="s">
         <v>134</v>
       </c>
@@ -3012,7 +3012,7 @@
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
     </row>
-    <row r="69" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B69" s="7" t="s">
         <v>136</v>
       </c>
@@ -3022,7 +3022,7 @@
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
     </row>
-    <row r="70" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="7" t="s">
         <v>138</v>
       </c>
@@ -3032,7 +3032,7 @@
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
     </row>
-    <row r="71" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B71" s="7" t="s">
         <v>140</v>
       </c>
@@ -3042,7 +3042,7 @@
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
     </row>
-    <row r="72" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B72" s="7" t="s">
         <v>142</v>
       </c>
@@ -3052,7 +3052,7 @@
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
     </row>
-    <row r="73" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B73" s="7" t="s">
         <v>144</v>
       </c>
@@ -3062,7 +3062,7 @@
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
     </row>
-    <row r="74" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B74" s="7" t="s">
         <v>146</v>
       </c>
@@ -3072,7 +3072,7 @@
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
     </row>
-    <row r="75" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B75" s="7" t="s">
         <v>148</v>
       </c>
@@ -3082,7 +3082,7 @@
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
     </row>
-    <row r="76" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B76" s="7" t="s">
         <v>150</v>
       </c>
@@ -3092,7 +3092,7 @@
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
     </row>
-    <row r="77" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B77" s="7" t="s">
         <v>152</v>
       </c>
@@ -3102,7 +3102,7 @@
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
     </row>
-    <row r="78" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B78" s="7" t="s">
         <v>154</v>
       </c>
@@ -3112,7 +3112,7 @@
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
     </row>
-    <row r="79" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B79" s="7" t="s">
         <v>156</v>
       </c>
@@ -3122,7 +3122,7 @@
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
     </row>
-    <row r="80" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B80" s="7" t="s">
         <v>158</v>
       </c>
@@ -3132,7 +3132,7 @@
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
     </row>
-    <row r="81" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B81" s="7" t="s">
         <v>160</v>
       </c>
@@ -3142,7 +3142,7 @@
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
     </row>
-    <row r="82" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B82" s="7" t="s">
         <v>162</v>
       </c>
@@ -3152,8 +3152,8 @@
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
     </row>
-    <row r="83" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="27" t="s">
+    <row r="83" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="30" t="s">
         <v>164</v>
       </c>
       <c r="C83" s="3" t="s">
@@ -3162,31 +3162,31 @@
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
     </row>
-    <row r="84" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B84" s="27"/>
+    <row r="84" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="30"/>
       <c r="C84" s="4" t="s">
         <v>359</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
     </row>
-    <row r="85" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B85" s="27"/>
+    <row r="85" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="30"/>
       <c r="C85" s="4" t="s">
         <v>360</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
     </row>
-    <row r="86" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B86" s="27"/>
+    <row r="86" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="30"/>
       <c r="C86" s="4" t="s">
         <v>361</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
     </row>
-    <row r="87" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B87" s="7" t="s">
         <v>165</v>
       </c>
@@ -3196,7 +3196,7 @@
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
     </row>
-    <row r="88" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B88" s="7" t="s">
         <v>167</v>
       </c>
@@ -3206,7 +3206,7 @@
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
     </row>
-    <row r="89" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B89" s="7" t="s">
         <v>169</v>
       </c>
@@ -3216,7 +3216,7 @@
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
     </row>
-    <row r="90" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B90" s="7" t="s">
         <v>171</v>
       </c>
@@ -3226,7 +3226,7 @@
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
     </row>
-    <row r="91" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B91" s="7" t="s">
         <v>173</v>
       </c>
@@ -3236,7 +3236,7 @@
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
     </row>
-    <row r="92" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B92" s="7" t="s">
         <v>175</v>
       </c>
@@ -3246,7 +3246,7 @@
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
     </row>
-    <row r="93" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B93" s="7" t="s">
         <v>177</v>
       </c>
@@ -3256,7 +3256,7 @@
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
     </row>
-    <row r="94" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B94" s="7" t="s">
         <v>179</v>
       </c>
@@ -3266,7 +3266,7 @@
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
     </row>
-    <row r="95" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B95" s="7" t="s">
         <v>181</v>
       </c>
@@ -3276,7 +3276,7 @@
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
     </row>
-    <row r="96" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B96" s="7" t="s">
         <v>183</v>
       </c>
@@ -3286,7 +3286,7 @@
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
     </row>
-    <row r="97" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B97" s="7" t="s">
         <v>185</v>
       </c>
@@ -3296,7 +3296,7 @@
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
     </row>
-    <row r="98" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B98" s="7" t="s">
         <v>187</v>
       </c>
@@ -3306,7 +3306,7 @@
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
     </row>
-    <row r="99" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B99" s="7" t="s">
         <v>189</v>
       </c>
@@ -3316,7 +3316,7 @@
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
     </row>
-    <row r="100" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B100" s="7" t="s">
         <v>191</v>
       </c>
@@ -3326,7 +3326,7 @@
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
     </row>
-    <row r="101" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B101" s="7" t="s">
         <v>193</v>
       </c>
@@ -3336,7 +3336,7 @@
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
     </row>
-    <row r="102" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B102" s="7" t="s">
         <v>195</v>
       </c>
@@ -3346,7 +3346,7 @@
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
     </row>
-    <row r="103" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B103" s="7" t="s">
         <v>197</v>
       </c>
@@ -3356,7 +3356,7 @@
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
     </row>
-    <row r="104" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B104" s="7" t="s">
         <v>199</v>
       </c>
@@ -3366,7 +3366,7 @@
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
     </row>
-    <row r="105" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B105" s="7" t="s">
         <v>201</v>
       </c>
@@ -3376,7 +3376,7 @@
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
     </row>
-    <row r="106" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:5" ht="26" x14ac:dyDescent="0.3">
       <c r="B106" s="7" t="s">
         <v>203</v>
       </c>
@@ -3386,7 +3386,7 @@
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
     </row>
-    <row r="107" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B107" s="7" t="s">
         <v>205</v>
       </c>
@@ -3396,7 +3396,7 @@
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
     </row>
-    <row r="108" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B108" s="7" t="s">
         <v>207</v>
       </c>
@@ -3406,7 +3406,7 @@
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
     </row>
-    <row r="109" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B109" s="7" t="s">
         <v>209</v>
       </c>
@@ -3416,7 +3416,7 @@
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
     </row>
-    <row r="110" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B110" s="7" t="s">
         <v>211</v>
       </c>
@@ -3426,7 +3426,7 @@
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
     </row>
-    <row r="111" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B111" s="7" t="s">
         <v>213</v>
       </c>
@@ -3436,7 +3436,7 @@
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
     </row>
-    <row r="112" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B112" s="7" t="s">
         <v>215</v>
       </c>
@@ -3446,7 +3446,7 @@
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
     </row>
-    <row r="113" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B113" s="7" t="s">
         <v>217</v>
       </c>
@@ -3456,7 +3456,7 @@
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
     </row>
-    <row r="114" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B114" s="7" t="s">
         <v>219</v>
       </c>
@@ -3466,7 +3466,7 @@
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
     </row>
-    <row r="115" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B115" s="7" t="s">
         <v>221</v>
       </c>
@@ -3476,7 +3476,7 @@
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
     </row>
-    <row r="116" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B116" s="7" t="s">
         <v>223</v>
       </c>
@@ -3486,7 +3486,7 @@
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
     </row>
-    <row r="117" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B117" s="7" t="s">
         <v>224</v>
       </c>
@@ -3496,7 +3496,7 @@
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
     </row>
-    <row r="118" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B118" s="7" t="s">
         <v>226</v>
       </c>
@@ -3506,7 +3506,7 @@
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
     </row>
-    <row r="119" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B119" s="7" t="s">
         <v>228</v>
       </c>
@@ -3516,7 +3516,7 @@
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
     </row>
-    <row r="120" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B120" s="7" t="s">
         <v>230</v>
       </c>
@@ -3526,7 +3526,7 @@
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
     </row>
-    <row r="121" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B121" s="7" t="s">
         <v>232</v>
       </c>
@@ -3536,7 +3536,7 @@
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
     </row>
-    <row r="122" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B122" s="7" t="s">
         <v>234</v>
       </c>
@@ -3546,7 +3546,7 @@
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
     </row>
-    <row r="123" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B123" s="7" t="s">
         <v>236</v>
       </c>
@@ -3556,7 +3556,7 @@
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
     </row>
-    <row r="124" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B124" s="7" t="s">
         <v>238</v>
       </c>
@@ -3566,7 +3566,7 @@
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
     </row>
-    <row r="125" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B125" s="7" t="s">
         <v>240</v>
       </c>
@@ -3576,7 +3576,7 @@
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
     </row>
-    <row r="126" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B126" s="7" t="s">
         <v>242</v>
       </c>
@@ -3586,7 +3586,7 @@
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
     </row>
-    <row r="127" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B127" s="7" t="s">
         <v>244</v>
       </c>
@@ -3596,7 +3596,7 @@
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
     </row>
-    <row r="128" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B128" s="7" t="s">
         <v>246</v>
       </c>
@@ -3606,7 +3606,7 @@
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
     </row>
-    <row r="129" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B129" s="7" t="s">
         <v>248</v>
       </c>
@@ -3616,7 +3616,7 @@
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
     </row>
-    <row r="130" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B130" s="7" t="s">
         <v>250</v>
       </c>
@@ -3626,7 +3626,7 @@
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
     </row>
-    <row r="131" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:5" ht="26" x14ac:dyDescent="0.3">
       <c r="B131" s="7" t="s">
         <v>252</v>
       </c>
@@ -3636,7 +3636,7 @@
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
     </row>
-    <row r="132" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B132" s="7" t="s">
         <v>254</v>
       </c>
@@ -3646,7 +3646,7 @@
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
     </row>
-    <row r="133" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B133" s="7" t="s">
         <v>256</v>
       </c>
@@ -3656,7 +3656,7 @@
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
     </row>
-    <row r="134" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B134" s="7" t="s">
         <v>258</v>
       </c>
@@ -3666,7 +3666,7 @@
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
     </row>
-    <row r="135" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B135" s="7" t="s">
         <v>260</v>
       </c>
@@ -3676,7 +3676,7 @@
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
     </row>
-    <row r="136" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B136" s="7" t="s">
         <v>262</v>
       </c>
@@ -3686,7 +3686,7 @@
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
     </row>
-    <row r="137" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B137" s="7" t="s">
         <v>264</v>
       </c>
@@ -3696,7 +3696,7 @@
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
     </row>
-    <row r="138" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B138" s="7" t="s">
         <v>266</v>
       </c>
@@ -3706,7 +3706,7 @@
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
     </row>
-    <row r="139" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B139" s="7" t="s">
         <v>268</v>
       </c>
@@ -3716,7 +3716,7 @@
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
     </row>
-    <row r="140" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B140" s="7" t="s">
         <v>270</v>
       </c>
@@ -3726,7 +3726,7 @@
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
     </row>
-    <row r="141" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B141" s="7" t="s">
         <v>272</v>
       </c>
@@ -3736,7 +3736,7 @@
       <c r="D141" s="8"/>
       <c r="E141" s="8"/>
     </row>
-    <row r="142" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B142" s="7" t="s">
         <v>274</v>
       </c>
@@ -3746,7 +3746,7 @@
       <c r="D142" s="8"/>
       <c r="E142" s="8"/>
     </row>
-    <row r="143" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B143" s="7" t="s">
         <v>276</v>
       </c>
@@ -3756,7 +3756,7 @@
       <c r="D143" s="8"/>
       <c r="E143" s="8"/>
     </row>
-    <row r="144" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B144" s="7" t="s">
         <v>278</v>
       </c>
@@ -3766,7 +3766,7 @@
       <c r="D144" s="8"/>
       <c r="E144" s="8"/>
     </row>
-    <row r="145" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B145" s="7" t="s">
         <v>280</v>
       </c>
@@ -3776,7 +3776,7 @@
       <c r="D145" s="8"/>
       <c r="E145" s="8"/>
     </row>
-    <row r="146" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B146" s="7" t="s">
         <v>282</v>
       </c>
@@ -3786,7 +3786,7 @@
       <c r="D146" s="8"/>
       <c r="E146" s="8"/>
     </row>
-    <row r="147" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B147" s="7" t="s">
         <v>284</v>
       </c>
@@ -3796,7 +3796,7 @@
       <c r="D147" s="8"/>
       <c r="E147" s="8"/>
     </row>
-    <row r="148" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B148" s="7" t="s">
         <v>286</v>
       </c>
@@ -3806,7 +3806,7 @@
       <c r="D148" s="8"/>
       <c r="E148" s="8"/>
     </row>
-    <row r="149" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:5" ht="26" x14ac:dyDescent="0.3">
       <c r="B149" s="7" t="s">
         <v>288</v>
       </c>
@@ -3816,7 +3816,7 @@
       <c r="D149" s="8"/>
       <c r="E149" s="8"/>
     </row>
-    <row r="150" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B150" s="7" t="s">
         <v>290</v>
       </c>
@@ -3826,7 +3826,7 @@
       <c r="D150" s="8"/>
       <c r="E150" s="8"/>
     </row>
-    <row r="151" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B151" s="7" t="s">
         <v>292</v>
       </c>
@@ -3836,7 +3836,7 @@
       <c r="D151" s="8"/>
       <c r="E151" s="8"/>
     </row>
-    <row r="152" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B152" s="7" t="s">
         <v>294</v>
       </c>
@@ -3846,7 +3846,7 @@
       <c r="D152" s="8"/>
       <c r="E152" s="8"/>
     </row>
-    <row r="153" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B153" s="7" t="s">
         <v>296</v>
       </c>
@@ -3856,7 +3856,7 @@
       <c r="D153" s="8"/>
       <c r="E153" s="8"/>
     </row>
-    <row r="154" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B154" s="7" t="s">
         <v>298</v>
       </c>
@@ -3866,7 +3866,7 @@
       <c r="D154" s="8"/>
       <c r="E154" s="8"/>
     </row>
-    <row r="155" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B155" s="7" t="s">
         <v>300</v>
       </c>
@@ -3876,7 +3876,7 @@
       <c r="D155" s="8"/>
       <c r="E155" s="8"/>
     </row>
-    <row r="156" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B156" s="7" t="s">
         <v>302</v>
       </c>
@@ -3886,7 +3886,7 @@
       <c r="D156" s="8"/>
       <c r="E156" s="8"/>
     </row>
-    <row r="157" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B157" s="7" t="s">
         <v>304</v>
       </c>
@@ -3896,7 +3896,7 @@
       <c r="D157" s="8"/>
       <c r="E157" s="8"/>
     </row>
-    <row r="158" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B158" s="7" t="s">
         <v>306</v>
       </c>
@@ -3906,7 +3906,7 @@
       <c r="D158" s="8"/>
       <c r="E158" s="8"/>
     </row>
-    <row r="159" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:5" ht="26" x14ac:dyDescent="0.3">
       <c r="B159" s="7" t="s">
         <v>308</v>
       </c>
@@ -3916,7 +3916,7 @@
       <c r="D159" s="8"/>
       <c r="E159" s="8"/>
     </row>
-    <row r="160" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B160" s="7" t="s">
         <v>310</v>
       </c>
@@ -3926,7 +3926,7 @@
       <c r="D160" s="8"/>
       <c r="E160" s="8"/>
     </row>
-    <row r="161" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B161" s="7" t="s">
         <v>312</v>
       </c>
@@ -3936,7 +3936,7 @@
       <c r="D161" s="8"/>
       <c r="E161" s="8"/>
     </row>
-    <row r="162" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B162" s="7" t="s">
         <v>314</v>
       </c>
@@ -3946,7 +3946,7 @@
       <c r="D162" s="8"/>
       <c r="E162" s="8"/>
     </row>
-    <row r="163" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B163" s="7" t="s">
         <v>316</v>
       </c>
@@ -3956,7 +3956,7 @@
       <c r="D163" s="8"/>
       <c r="E163" s="8"/>
     </row>
-    <row r="164" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B164" s="7" t="s">
         <v>318</v>
       </c>
@@ -3966,7 +3966,7 @@
       <c r="D164" s="8"/>
       <c r="E164" s="8"/>
     </row>
-    <row r="165" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B165" s="7" t="s">
         <v>320</v>
       </c>
@@ -3976,7 +3976,7 @@
       <c r="D165" s="8"/>
       <c r="E165" s="8"/>
     </row>
-    <row r="166" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B166" s="7" t="s">
         <v>322</v>
       </c>
@@ -3986,7 +3986,7 @@
       <c r="D166" s="8"/>
       <c r="E166" s="8"/>
     </row>
-    <row r="167" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B167" s="7" t="s">
         <v>324</v>
       </c>
@@ -3996,7 +3996,7 @@
       <c r="D167" s="8"/>
       <c r="E167" s="8"/>
     </row>
-    <row r="168" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B168" s="7" t="s">
         <v>326</v>
       </c>
@@ -4006,7 +4006,7 @@
       <c r="D168" s="8"/>
       <c r="E168" s="8"/>
     </row>
-    <row r="169" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B169" s="7" t="s">
         <v>328</v>
       </c>
@@ -4016,7 +4016,7 @@
       <c r="D169" s="8"/>
       <c r="E169" s="8"/>
     </row>
-    <row r="170" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B170" s="7" t="s">
         <v>330</v>
       </c>
@@ -4026,7 +4026,7 @@
       <c r="D170" s="8"/>
       <c r="E170" s="8"/>
     </row>
-    <row r="171" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B171" s="7" t="s">
         <v>332</v>
       </c>
@@ -4036,7 +4036,7 @@
       <c r="D171" s="8"/>
       <c r="E171" s="8"/>
     </row>
-    <row r="172" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B172" s="7" t="s">
         <v>334</v>
       </c>
@@ -4046,7 +4046,7 @@
       <c r="D172" s="8"/>
       <c r="E172" s="8"/>
     </row>
-    <row r="173" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B173" s="7" t="s">
         <v>336</v>
       </c>
@@ -4056,7 +4056,7 @@
       <c r="D173" s="8"/>
       <c r="E173" s="8"/>
     </row>
-    <row r="174" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B174" s="7" t="s">
         <v>338</v>
       </c>
@@ -4066,7 +4066,7 @@
       <c r="D174" s="8"/>
       <c r="E174" s="8"/>
     </row>
-    <row r="175" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B175" s="7" t="s">
         <v>340</v>
       </c>
@@ -4076,7 +4076,7 @@
       <c r="D175" s="8"/>
       <c r="E175" s="8"/>
     </row>
-    <row r="176" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B176" s="7" t="s">
         <v>342</v>
       </c>
@@ -4086,7 +4086,7 @@
       <c r="D176" s="8"/>
       <c r="E176" s="8"/>
     </row>
-    <row r="177" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B177" s="7" t="s">
         <v>344</v>
       </c>
@@ -4096,7 +4096,7 @@
       <c r="D177" s="8"/>
       <c r="E177" s="8"/>
     </row>
-    <row r="178" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B178" s="7" t="s">
         <v>346</v>
       </c>
@@ -4106,7 +4106,7 @@
       <c r="D178" s="8"/>
       <c r="E178" s="8"/>
     </row>
-    <row r="179" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B179" s="7" t="s">
         <v>348</v>
       </c>
@@ -4116,7 +4116,7 @@
       <c r="D179" s="8"/>
       <c r="E179" s="8"/>
     </row>
-    <row r="180" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B180" s="7" t="s">
         <v>350</v>
       </c>
@@ -4126,7 +4126,7 @@
       <c r="D180" s="8"/>
       <c r="E180" s="8"/>
     </row>
-    <row r="181" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B181" s="7" t="s">
         <v>352</v>
       </c>
@@ -4136,7 +4136,7 @@
       <c r="D181" s="8"/>
       <c r="E181" s="8"/>
     </row>
-    <row r="182" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B182" s="7" t="s">
         <v>354</v>
       </c>
@@ -4146,7 +4146,7 @@
       <c r="D182" s="8"/>
       <c r="E182" s="8"/>
     </row>
-    <row r="183" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B183" s="7" t="s">
         <v>356</v>
       </c>
@@ -4156,7 +4156,7 @@
       <c r="D183" s="8"/>
       <c r="E183" s="8"/>
     </row>
-    <row r="184" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B184" s="7" t="s">
         <v>363</v>
       </c>
@@ -4166,7 +4166,7 @@
       <c r="D184" s="8"/>
       <c r="E184" s="8"/>
     </row>
-    <row r="185" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B185" s="7" t="s">
         <v>365</v>
       </c>
@@ -4176,7 +4176,7 @@
       <c r="D185" s="8"/>
       <c r="E185" s="8"/>
     </row>
-    <row r="186" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B186" s="7" t="s">
         <v>367</v>
       </c>
@@ -4186,7 +4186,7 @@
       <c r="D186" s="8"/>
       <c r="E186" s="8"/>
     </row>
-    <row r="187" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B187" s="7" t="s">
         <v>369</v>
       </c>
@@ -4196,7 +4196,7 @@
       <c r="D187" s="8"/>
       <c r="E187" s="8"/>
     </row>
-    <row r="188" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B188" s="7" t="s">
         <v>371</v>
       </c>
@@ -4206,7 +4206,7 @@
       <c r="D188" s="8"/>
       <c r="E188" s="8"/>
     </row>
-    <row r="189" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B189" s="7" t="s">
         <v>373</v>
       </c>
@@ -4216,7 +4216,7 @@
       <c r="D189" s="8"/>
       <c r="E189" s="8"/>
     </row>
-    <row r="190" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:5" ht="26" x14ac:dyDescent="0.3">
       <c r="B190" s="7" t="s">
         <v>375</v>
       </c>
@@ -4226,7 +4226,7 @@
       <c r="D190" s="8"/>
       <c r="E190" s="8"/>
     </row>
-    <row r="191" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B191" s="7" t="s">
         <v>377</v>
       </c>
@@ -4253,17 +4253,17 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="1"/>
-    <col min="2" max="2" width="3.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.42578125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="3.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.453125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.81640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="13" t="s">
         <v>379</v>
       </c>
@@ -4277,7 +4277,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="9">
         <v>1</v>
       </c>
@@ -4289,7 +4289,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="9">
         <v>2</v>
       </c>
@@ -4301,7 +4301,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="9">
         <v>3</v>
       </c>
@@ -4313,7 +4313,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="9">
         <v>4</v>
       </c>
@@ -4325,7 +4325,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="9">
         <v>5</v>
       </c>
@@ -4338,7 +4338,7 @@
       </c>
       <c r="G8" s="10"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="9">
         <v>6</v>
       </c>
@@ -4350,7 +4350,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="9">
         <v>7</v>
       </c>
@@ -4362,7 +4362,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="9">
         <v>8</v>
       </c>
@@ -4374,7 +4374,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="9">
         <v>9</v>
       </c>
@@ -4386,7 +4386,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="9">
         <v>10</v>
       </c>
@@ -4398,7 +4398,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="9">
         <v>11</v>
       </c>
@@ -4410,7 +4410,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="9">
         <v>12</v>
       </c>
@@ -4422,7 +4422,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" s="9">
         <v>13</v>
       </c>
@@ -4434,7 +4434,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="9">
         <v>14</v>
       </c>
@@ -4446,7 +4446,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="9">
         <v>15</v>
       </c>
@@ -4458,7 +4458,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="9">
         <v>16</v>
       </c>
@@ -4470,7 +4470,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="9">
         <v>17</v>
       </c>
@@ -4482,7 +4482,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="9">
         <v>18</v>
       </c>
@@ -4494,7 +4494,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="9">
         <v>19</v>
       </c>
@@ -4506,7 +4506,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="9">
         <v>20</v>
       </c>
@@ -4518,7 +4518,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="9">
         <v>21</v>
       </c>
@@ -4530,7 +4530,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="9">
         <v>22</v>
       </c>
@@ -4542,7 +4542,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="9">
         <v>23</v>
       </c>
@@ -4554,7 +4554,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="9">
         <v>24</v>
       </c>
@@ -4562,7 +4562,7 @@
       <c r="D27" s="9"/>
       <c r="E27" s="14"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="9">
         <v>25</v>
       </c>
@@ -4570,7 +4570,7 @@
       <c r="D28" s="9"/>
       <c r="E28" s="14"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" s="9">
         <v>26</v>
       </c>
@@ -4578,7 +4578,7 @@
       <c r="D29" s="9"/>
       <c r="E29" s="14"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" s="9">
         <v>27</v>
       </c>
@@ -4586,7 +4586,7 @@
       <c r="D30" s="9"/>
       <c r="E30" s="14"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B31" s="9">
         <v>28</v>
       </c>
@@ -4594,7 +4594,7 @@
       <c r="D31" s="9"/>
       <c r="E31" s="14"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B32" s="9">
         <v>29</v>
       </c>
@@ -4602,7 +4602,7 @@
       <c r="D32" s="9"/>
       <c r="E32" s="14"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" s="9">
         <v>30</v>
       </c>
@@ -4610,7 +4610,7 @@
       <c r="D33" s="9"/>
       <c r="E33" s="14"/>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34" s="9">
         <v>31</v>
       </c>
@@ -4618,7 +4618,7 @@
       <c r="D34" s="9"/>
       <c r="E34" s="14"/>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" s="9">
         <v>32</v>
       </c>
@@ -4626,7 +4626,7 @@
       <c r="D35" s="9"/>
       <c r="E35" s="14"/>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36" s="9">
         <v>33</v>
       </c>
@@ -4634,7 +4634,7 @@
       <c r="D36" s="9"/>
       <c r="E36" s="14"/>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37" s="9">
         <v>34</v>
       </c>
@@ -4642,7 +4642,7 @@
       <c r="D37" s="9"/>
       <c r="E37" s="14"/>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38" s="9">
         <v>35</v>
       </c>
@@ -4650,7 +4650,7 @@
       <c r="D38" s="9"/>
       <c r="E38" s="14"/>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B39" s="9">
         <v>36</v>
       </c>
@@ -4658,7 +4658,7 @@
       <c r="D39" s="9"/>
       <c r="E39" s="14"/>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B40" s="9">
         <v>37</v>
       </c>
@@ -4666,7 +4666,7 @@
       <c r="D40" s="9"/>
       <c r="E40" s="14"/>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B41" s="9">
         <v>38</v>
       </c>
@@ -4674,7 +4674,7 @@
       <c r="D41" s="9"/>
       <c r="E41" s="14"/>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B42" s="9">
         <v>39</v>
       </c>
@@ -4682,7 +4682,7 @@
       <c r="D42" s="9"/>
       <c r="E42" s="14"/>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B43" s="9">
         <v>40</v>
       </c>
@@ -4690,7 +4690,7 @@
       <c r="D43" s="9"/>
       <c r="E43" s="14"/>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B44" s="9">
         <v>41</v>
       </c>
@@ -4698,7 +4698,7 @@
       <c r="D44" s="9"/>
       <c r="E44" s="14"/>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B45" s="9">
         <v>42</v>
       </c>
@@ -4706,7 +4706,7 @@
       <c r="D45" s="9"/>
       <c r="E45" s="14"/>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B46" s="9">
         <v>43</v>
       </c>
@@ -4714,7 +4714,7 @@
       <c r="D46" s="9"/>
       <c r="E46" s="14"/>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B47" s="9">
         <v>44</v>
       </c>
@@ -4722,7 +4722,7 @@
       <c r="D47" s="9"/>
       <c r="E47" s="14"/>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B48" s="9">
         <v>45</v>
       </c>
@@ -4730,7 +4730,7 @@
       <c r="D48" s="9"/>
       <c r="E48" s="14"/>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B49" s="9">
         <v>46</v>
       </c>
@@ -4738,7 +4738,7 @@
       <c r="D49" s="9"/>
       <c r="E49" s="14"/>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B50" s="9">
         <v>47</v>
       </c>
@@ -4746,7 +4746,7 @@
       <c r="D50" s="9"/>
       <c r="E50" s="14"/>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B51" s="9">
         <v>48</v>
       </c>
@@ -4754,7 +4754,7 @@
       <c r="D51" s="9"/>
       <c r="E51" s="14"/>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B52" s="9">
         <v>49</v>
       </c>
@@ -4762,7 +4762,7 @@
       <c r="D52" s="9"/>
       <c r="E52" s="14"/>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B53" s="9">
         <v>50</v>
       </c>
@@ -4770,7 +4770,7 @@
       <c r="D53" s="9"/>
       <c r="E53" s="14"/>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B54" s="9">
         <v>51</v>
       </c>
@@ -4778,7 +4778,7 @@
       <c r="D54" s="9"/>
       <c r="E54" s="14"/>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B55" s="9">
         <v>52</v>
       </c>
@@ -4786,7 +4786,7 @@
       <c r="D55" s="9"/>
       <c r="E55" s="14"/>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B56" s="9">
         <v>53</v>
       </c>
@@ -4794,7 +4794,7 @@
       <c r="D56" s="9"/>
       <c r="E56" s="14"/>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B57" s="9">
         <v>54</v>
       </c>
@@ -4802,7 +4802,7 @@
       <c r="D57" s="9"/>
       <c r="E57" s="14"/>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B58" s="9">
         <v>55</v>
       </c>
@@ -4810,7 +4810,7 @@
       <c r="D58" s="9"/>
       <c r="E58" s="14"/>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B59" s="9">
         <v>56</v>
       </c>
@@ -4818,7 +4818,7 @@
       <c r="D59" s="9"/>
       <c r="E59" s="14"/>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B60" s="9">
         <v>57</v>
       </c>
@@ -4826,7 +4826,7 @@
       <c r="D60" s="9"/>
       <c r="E60" s="14"/>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B61" s="9">
         <v>58</v>
       </c>
@@ -4834,7 +4834,7 @@
       <c r="D61" s="9"/>
       <c r="E61" s="14"/>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B62" s="9">
         <v>59</v>
       </c>
@@ -4842,7 +4842,7 @@
       <c r="D62" s="9"/>
       <c r="E62" s="14"/>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B63" s="9">
         <v>60</v>
       </c>
@@ -4850,7 +4850,7 @@
       <c r="D63" s="9"/>
       <c r="E63" s="14"/>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B64" s="9">
         <v>61</v>
       </c>
@@ -4858,7 +4858,7 @@
       <c r="D64" s="9"/>
       <c r="E64" s="14"/>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B65" s="9">
         <v>62</v>
       </c>
@@ -4866,7 +4866,7 @@
       <c r="D65" s="9"/>
       <c r="E65" s="14"/>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B66" s="9">
         <v>63</v>
       </c>
@@ -4874,7 +4874,7 @@
       <c r="D66" s="9"/>
       <c r="E66" s="14"/>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B67" s="9">
         <v>64</v>
       </c>
@@ -4882,7 +4882,7 @@
       <c r="D67" s="9"/>
       <c r="E67" s="14"/>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B68" s="9">
         <v>65</v>
       </c>
@@ -4890,7 +4890,7 @@
       <c r="D68" s="9"/>
       <c r="E68" s="14"/>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B69" s="9">
         <v>66</v>
       </c>
@@ -4898,7 +4898,7 @@
       <c r="D69" s="9"/>
       <c r="E69" s="14"/>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B70" s="9">
         <v>67</v>
       </c>
@@ -4906,7 +4906,7 @@
       <c r="D70" s="9"/>
       <c r="E70" s="14"/>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B71" s="9">
         <v>68</v>
       </c>
@@ -4914,7 +4914,7 @@
       <c r="D71" s="9"/>
       <c r="E71" s="14"/>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B72" s="9">
         <v>69</v>
       </c>
@@ -4936,17 +4936,17 @@
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="1"/>
-    <col min="2" max="2" width="3.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.42578125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="105.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="3.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.453125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="105.54296875" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="13" t="s">
         <v>379</v>
       </c>
@@ -4960,7 +4960,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="9">
         <v>1</v>
       </c>
@@ -4972,7 +4972,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="9">
         <v>2</v>
       </c>
@@ -4984,7 +4984,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="9">
         <v>3</v>
       </c>
@@ -4996,7 +4996,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:7" ht="26" x14ac:dyDescent="0.3">
       <c r="B7" s="9">
         <v>4</v>
       </c>
@@ -5008,7 +5008,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:7" ht="26" x14ac:dyDescent="0.3">
       <c r="B8" s="9">
         <v>5</v>
       </c>
@@ -5021,7 +5021,7 @@
       </c>
       <c r="G8" s="10"/>
     </row>
-    <row r="9" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:7" ht="26" x14ac:dyDescent="0.3">
       <c r="B9" s="9">
         <v>6</v>
       </c>
@@ -5033,7 +5033,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:7" ht="26" x14ac:dyDescent="0.3">
       <c r="B10" s="9">
         <v>7</v>
       </c>
@@ -5045,7 +5045,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="9">
         <v>8</v>
       </c>
@@ -5057,7 +5057,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="9">
         <v>9</v>
       </c>
@@ -5069,7 +5069,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:7" ht="26" x14ac:dyDescent="0.3">
       <c r="B13" s="9">
         <v>10</v>
       </c>
@@ -5081,7 +5081,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:7" ht="26" x14ac:dyDescent="0.3">
       <c r="B14" s="9">
         <v>11</v>
       </c>
@@ -5093,7 +5093,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:7" ht="26" x14ac:dyDescent="0.3">
       <c r="B15" s="9">
         <v>12</v>
       </c>
@@ -5105,7 +5105,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="16" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:7" ht="26" x14ac:dyDescent="0.3">
       <c r="B16" s="9">
         <v>13</v>
       </c>
@@ -5117,7 +5117,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5" ht="26" x14ac:dyDescent="0.3">
       <c r="B17" s="9">
         <v>14</v>
       </c>
@@ -5129,7 +5129,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5" ht="26" x14ac:dyDescent="0.3">
       <c r="B18" s="9">
         <v>15</v>
       </c>
@@ -5141,7 +5141,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5" ht="26" x14ac:dyDescent="0.3">
       <c r="B19" s="9">
         <v>16</v>
       </c>
@@ -5153,7 +5153,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:5" ht="26" x14ac:dyDescent="0.3">
       <c r="B20" s="9">
         <v>17</v>
       </c>
@@ -5165,7 +5165,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:5" ht="26" x14ac:dyDescent="0.3">
       <c r="B21" s="9">
         <v>18</v>
       </c>
@@ -5177,7 +5177,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:5" ht="26" x14ac:dyDescent="0.3">
       <c r="B22" s="9">
         <v>19</v>
       </c>
@@ -5189,7 +5189,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:5" ht="26" x14ac:dyDescent="0.3">
       <c r="B23" s="9">
         <v>20</v>
       </c>
@@ -5201,7 +5201,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:5" ht="26" x14ac:dyDescent="0.3">
       <c r="B24" s="9">
         <v>21</v>
       </c>
@@ -5213,7 +5213,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="25" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:5" ht="26" x14ac:dyDescent="0.3">
       <c r="B25" s="9">
         <v>22</v>
       </c>
@@ -5225,7 +5225,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="26" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:5" ht="26" x14ac:dyDescent="0.3">
       <c r="B26" s="9">
         <v>23</v>
       </c>
@@ -5237,7 +5237,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="9">
         <v>24</v>
       </c>
@@ -5245,7 +5245,7 @@
       <c r="D27" s="9"/>
       <c r="E27" s="16"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="9">
         <v>25</v>
       </c>
@@ -5253,7 +5253,7 @@
       <c r="D28" s="9"/>
       <c r="E28" s="16"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" s="9">
         <v>26</v>
       </c>
@@ -5261,7 +5261,7 @@
       <c r="D29" s="9"/>
       <c r="E29" s="16"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" s="9">
         <v>27</v>
       </c>
@@ -5269,7 +5269,7 @@
       <c r="D30" s="9"/>
       <c r="E30" s="16"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B31" s="9">
         <v>28</v>
       </c>
@@ -5277,7 +5277,7 @@
       <c r="D31" s="9"/>
       <c r="E31" s="16"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B32" s="9">
         <v>29</v>
       </c>
@@ -5285,7 +5285,7 @@
       <c r="D32" s="9"/>
       <c r="E32" s="16"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" s="9">
         <v>30</v>
       </c>
@@ -5293,7 +5293,7 @@
       <c r="D33" s="9"/>
       <c r="E33" s="16"/>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34" s="9">
         <v>31</v>
       </c>
@@ -5301,7 +5301,7 @@
       <c r="D34" s="9"/>
       <c r="E34" s="16"/>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" s="9">
         <v>32</v>
       </c>
@@ -5309,7 +5309,7 @@
       <c r="D35" s="9"/>
       <c r="E35" s="16"/>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36" s="9">
         <v>33</v>
       </c>
@@ -5317,7 +5317,7 @@
       <c r="D36" s="9"/>
       <c r="E36" s="16"/>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37" s="9">
         <v>34</v>
       </c>
@@ -5325,7 +5325,7 @@
       <c r="D37" s="9"/>
       <c r="E37" s="16"/>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38" s="9">
         <v>35</v>
       </c>
@@ -5333,7 +5333,7 @@
       <c r="D38" s="9"/>
       <c r="E38" s="16"/>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B39" s="9">
         <v>36</v>
       </c>
@@ -5341,7 +5341,7 @@
       <c r="D39" s="9"/>
       <c r="E39" s="16"/>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B40" s="9">
         <v>37</v>
       </c>
@@ -5349,7 +5349,7 @@
       <c r="D40" s="9"/>
       <c r="E40" s="16"/>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B41" s="9">
         <v>38</v>
       </c>
@@ -5357,7 +5357,7 @@
       <c r="D41" s="9"/>
       <c r="E41" s="16"/>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B42" s="9">
         <v>39</v>
       </c>
@@ -5365,7 +5365,7 @@
       <c r="D42" s="9"/>
       <c r="E42" s="16"/>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B43" s="9">
         <v>40</v>
       </c>
@@ -5373,7 +5373,7 @@
       <c r="D43" s="9"/>
       <c r="E43" s="16"/>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B44" s="9">
         <v>41</v>
       </c>
@@ -5381,7 +5381,7 @@
       <c r="D44" s="9"/>
       <c r="E44" s="16"/>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B45" s="9">
         <v>42</v>
       </c>
@@ -5389,7 +5389,7 @@
       <c r="D45" s="9"/>
       <c r="E45" s="16"/>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B46" s="9">
         <v>43</v>
       </c>
@@ -5397,7 +5397,7 @@
       <c r="D46" s="9"/>
       <c r="E46" s="16"/>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B47" s="9">
         <v>44</v>
       </c>
@@ -5405,7 +5405,7 @@
       <c r="D47" s="9"/>
       <c r="E47" s="16"/>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B48" s="9">
         <v>45</v>
       </c>
@@ -5413,7 +5413,7 @@
       <c r="D48" s="9"/>
       <c r="E48" s="16"/>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B49" s="9">
         <v>46</v>
       </c>
@@ -5421,7 +5421,7 @@
       <c r="D49" s="9"/>
       <c r="E49" s="16"/>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B50" s="9">
         <v>47</v>
       </c>
@@ -5429,7 +5429,7 @@
       <c r="D50" s="9"/>
       <c r="E50" s="16"/>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B51" s="9">
         <v>48</v>
       </c>
@@ -5437,7 +5437,7 @@
       <c r="D51" s="9"/>
       <c r="E51" s="16"/>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B52" s="9">
         <v>49</v>
       </c>
@@ -5445,7 +5445,7 @@
       <c r="D52" s="9"/>
       <c r="E52" s="16"/>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B53" s="9">
         <v>50</v>
       </c>
@@ -5453,7 +5453,7 @@
       <c r="D53" s="9"/>
       <c r="E53" s="16"/>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B54" s="9">
         <v>51</v>
       </c>
@@ -5461,7 +5461,7 @@
       <c r="D54" s="9"/>
       <c r="E54" s="16"/>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B55" s="9">
         <v>52</v>
       </c>
@@ -5469,7 +5469,7 @@
       <c r="D55" s="9"/>
       <c r="E55" s="16"/>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B56" s="9">
         <v>53</v>
       </c>
@@ -5477,7 +5477,7 @@
       <c r="D56" s="9"/>
       <c r="E56" s="16"/>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B57" s="9">
         <v>54</v>
       </c>
@@ -5485,7 +5485,7 @@
       <c r="D57" s="9"/>
       <c r="E57" s="16"/>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B58" s="9">
         <v>55</v>
       </c>
@@ -5493,7 +5493,7 @@
       <c r="D58" s="9"/>
       <c r="E58" s="16"/>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B59" s="9">
         <v>56</v>
       </c>
@@ -5501,7 +5501,7 @@
       <c r="D59" s="9"/>
       <c r="E59" s="16"/>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B60" s="9">
         <v>57</v>
       </c>
@@ -5509,7 +5509,7 @@
       <c r="D60" s="9"/>
       <c r="E60" s="16"/>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B61" s="9">
         <v>58</v>
       </c>
@@ -5517,7 +5517,7 @@
       <c r="D61" s="9"/>
       <c r="E61" s="16"/>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B62" s="9">
         <v>59</v>
       </c>
@@ -5525,7 +5525,7 @@
       <c r="D62" s="9"/>
       <c r="E62" s="16"/>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B63" s="9">
         <v>60</v>
       </c>
@@ -5533,7 +5533,7 @@
       <c r="D63" s="9"/>
       <c r="E63" s="16"/>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B64" s="9">
         <v>61</v>
       </c>
@@ -5541,7 +5541,7 @@
       <c r="D64" s="9"/>
       <c r="E64" s="16"/>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B65" s="9">
         <v>62</v>
       </c>
@@ -5549,7 +5549,7 @@
       <c r="D65" s="9"/>
       <c r="E65" s="16"/>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B66" s="9">
         <v>63</v>
       </c>
@@ -5557,7 +5557,7 @@
       <c r="D66" s="9"/>
       <c r="E66" s="16"/>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B67" s="9">
         <v>64</v>
       </c>
@@ -5565,7 +5565,7 @@
       <c r="D67" s="9"/>
       <c r="E67" s="16"/>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B68" s="9">
         <v>65</v>
       </c>
@@ -5573,7 +5573,7 @@
       <c r="D68" s="9"/>
       <c r="E68" s="16"/>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B69" s="9">
         <v>66</v>
       </c>
@@ -5581,7 +5581,7 @@
       <c r="D69" s="9"/>
       <c r="E69" s="16"/>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B70" s="9">
         <v>67</v>
       </c>
@@ -5589,7 +5589,7 @@
       <c r="D70" s="9"/>
       <c r="E70" s="16"/>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B71" s="9">
         <v>68</v>
       </c>
@@ -5597,7 +5597,7 @@
       <c r="D71" s="9"/>
       <c r="E71" s="16"/>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B72" s="9">
         <v>69</v>
       </c>
@@ -5615,21 +5615,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78815AC8-C3A4-42A1-9CFB-16EE2CA78EFD}">
   <dimension ref="B3:G72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:E72"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="1"/>
-    <col min="2" max="2" width="3.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="58.85546875" style="15" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="122.85546875" style="25" customWidth="1"/>
-    <col min="6" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="3.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.81640625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="122.81640625" style="25" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="13" t="s">
         <v>379</v>
       </c>
@@ -5643,7 +5643,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="9">
         <v>1</v>
       </c>
@@ -5655,7 +5655,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="9">
         <v>2</v>
       </c>
@@ -5667,7 +5667,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="9">
         <v>3</v>
       </c>
@@ -5679,7 +5679,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="9">
         <v>4</v>
       </c>
@@ -5691,7 +5691,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="9">
         <v>5</v>
       </c>
@@ -5704,7 +5704,7 @@
       </c>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="9">
         <v>6</v>
       </c>
@@ -5717,7 +5717,7 @@
       </c>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="9">
         <v>7</v>
       </c>
@@ -5729,7 +5729,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="9">
         <v>8</v>
       </c>
@@ -5741,7 +5741,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="9">
         <v>9</v>
       </c>
@@ -5753,7 +5753,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="9">
         <v>10</v>
       </c>
@@ -5765,7 +5765,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="9">
         <v>11</v>
       </c>
@@ -5777,7 +5777,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="9">
         <v>12</v>
       </c>
@@ -5789,7 +5789,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" s="9">
         <v>13</v>
       </c>
@@ -5801,7 +5801,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="9">
         <v>14</v>
       </c>
@@ -5813,7 +5813,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="9">
         <v>15</v>
       </c>
@@ -5825,7 +5825,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="9">
         <v>16</v>
       </c>
@@ -5837,7 +5837,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="9">
         <v>17</v>
       </c>
@@ -5849,7 +5849,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="9">
         <v>18</v>
       </c>
@@ -5861,7 +5861,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:5" ht="26" x14ac:dyDescent="0.3">
       <c r="B22" s="9">
         <v>19</v>
       </c>
@@ -5873,7 +5873,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="9">
         <v>20</v>
       </c>
@@ -5885,7 +5885,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="9">
         <v>21</v>
       </c>
@@ -5893,9 +5893,11 @@
         <v>401</v>
       </c>
       <c r="D24" s="9"/>
-      <c r="E24" s="16"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E24" s="16" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="9">
         <v>22</v>
       </c>
@@ -5903,9 +5905,11 @@
         <v>402</v>
       </c>
       <c r="D25" s="9"/>
-      <c r="E25" s="16"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E25" s="16" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="9">
         <v>23</v>
       </c>
@@ -5915,7 +5919,7 @@
       <c r="D26" s="9"/>
       <c r="E26" s="16"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="9">
         <v>24</v>
       </c>
@@ -5925,7 +5929,7 @@
       <c r="D27" s="9"/>
       <c r="E27" s="16"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="9">
         <v>25</v>
       </c>
@@ -5935,7 +5939,7 @@
       <c r="D28" s="9"/>
       <c r="E28" s="16"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" s="9">
         <v>26</v>
       </c>
@@ -5945,7 +5949,7 @@
       <c r="D29" s="9"/>
       <c r="E29" s="16"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" s="9">
         <v>27</v>
       </c>
@@ -5955,7 +5959,7 @@
       <c r="D30" s="9"/>
       <c r="E30" s="16"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B31" s="9">
         <v>28</v>
       </c>
@@ -5965,7 +5969,7 @@
       <c r="D31" s="9"/>
       <c r="E31" s="16"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B32" s="9">
         <v>29</v>
       </c>
@@ -5975,7 +5979,7 @@
       <c r="D32" s="9"/>
       <c r="E32" s="16"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" s="9">
         <v>30</v>
       </c>
@@ -5985,7 +5989,7 @@
       <c r="D33" s="9"/>
       <c r="E33" s="16"/>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34" s="9">
         <v>31</v>
       </c>
@@ -5995,7 +5999,7 @@
       <c r="D34" s="9"/>
       <c r="E34" s="16"/>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" s="9">
         <v>32</v>
       </c>
@@ -6005,7 +6009,7 @@
       <c r="D35" s="9"/>
       <c r="E35" s="16"/>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36" s="9">
         <v>33</v>
       </c>
@@ -6015,7 +6019,7 @@
       <c r="D36" s="9"/>
       <c r="E36" s="16"/>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37" s="9">
         <v>34</v>
       </c>
@@ -6025,7 +6029,7 @@
       <c r="D37" s="9"/>
       <c r="E37" s="16"/>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38" s="9">
         <v>35</v>
       </c>
@@ -6035,7 +6039,7 @@
       <c r="D38" s="9"/>
       <c r="E38" s="16"/>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B39" s="9">
         <v>36</v>
       </c>
@@ -6045,7 +6049,7 @@
       <c r="D39" s="9"/>
       <c r="E39" s="16"/>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B40" s="9">
         <v>37</v>
       </c>
@@ -6055,7 +6059,7 @@
       <c r="D40" s="9"/>
       <c r="E40" s="16"/>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B41" s="9">
         <v>38</v>
       </c>
@@ -6065,7 +6069,7 @@
       <c r="D41" s="9"/>
       <c r="E41" s="16"/>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B42" s="9">
         <v>39</v>
       </c>
@@ -6075,7 +6079,7 @@
       <c r="D42" s="9"/>
       <c r="E42" s="16"/>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B43" s="9">
         <v>40</v>
       </c>
@@ -6085,7 +6089,7 @@
       <c r="D43" s="9"/>
       <c r="E43" s="16"/>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B44" s="9">
         <v>41</v>
       </c>
@@ -6095,7 +6099,7 @@
       <c r="D44" s="9"/>
       <c r="E44" s="16"/>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B45" s="9">
         <v>42</v>
       </c>
@@ -6105,7 +6109,7 @@
       <c r="D45" s="9"/>
       <c r="E45" s="16"/>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B46" s="9">
         <v>43</v>
       </c>
@@ -6115,7 +6119,7 @@
       <c r="D46" s="9"/>
       <c r="E46" s="16"/>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B47" s="9">
         <v>44</v>
       </c>
@@ -6125,7 +6129,7 @@
       <c r="D47" s="9"/>
       <c r="E47" s="16"/>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B48" s="9">
         <v>45</v>
       </c>
@@ -6135,7 +6139,7 @@
       <c r="D48" s="9"/>
       <c r="E48" s="16"/>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B49" s="9">
         <v>46</v>
       </c>
@@ -6145,7 +6149,7 @@
       <c r="D49" s="9"/>
       <c r="E49" s="16"/>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B50" s="9">
         <v>47</v>
       </c>
@@ -6155,7 +6159,7 @@
       <c r="D50" s="9"/>
       <c r="E50" s="16"/>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B51" s="9">
         <v>48</v>
       </c>
@@ -6165,7 +6169,7 @@
       <c r="D51" s="9"/>
       <c r="E51" s="16"/>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B52" s="9">
         <v>49</v>
       </c>
@@ -6175,7 +6179,7 @@
       <c r="D52" s="9"/>
       <c r="E52" s="16"/>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B53" s="9">
         <v>50</v>
       </c>
@@ -6185,7 +6189,7 @@
       <c r="D53" s="9"/>
       <c r="E53" s="16"/>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B54" s="9">
         <v>51</v>
       </c>
@@ -6195,7 +6199,7 @@
       <c r="D54" s="9"/>
       <c r="E54" s="16"/>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B55" s="9">
         <v>52</v>
       </c>
@@ -6205,7 +6209,7 @@
       <c r="D55" s="9"/>
       <c r="E55" s="16"/>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B56" s="9">
         <v>53</v>
       </c>
@@ -6215,7 +6219,7 @@
       <c r="D56" s="9"/>
       <c r="E56" s="16"/>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B57" s="9">
         <v>54</v>
       </c>
@@ -6225,7 +6229,7 @@
       <c r="D57" s="9"/>
       <c r="E57" s="16"/>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B58" s="9">
         <v>55</v>
       </c>
@@ -6235,7 +6239,7 @@
       <c r="D58" s="9"/>
       <c r="E58" s="16"/>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B59" s="9">
         <v>56</v>
       </c>
@@ -6245,7 +6249,7 @@
       <c r="D59" s="9"/>
       <c r="E59" s="16"/>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B60" s="9">
         <v>57</v>
       </c>
@@ -6255,7 +6259,7 @@
       <c r="D60" s="9"/>
       <c r="E60" s="16"/>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B61" s="9">
         <v>58</v>
       </c>
@@ -6265,7 +6269,7 @@
       <c r="D61" s="9"/>
       <c r="E61" s="16"/>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B62" s="9">
         <v>59</v>
       </c>
@@ -6275,7 +6279,7 @@
       <c r="D62" s="9"/>
       <c r="E62" s="16"/>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B63" s="9">
         <v>60</v>
       </c>
@@ -6285,7 +6289,7 @@
       <c r="D63" s="9"/>
       <c r="E63" s="16"/>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B64" s="9">
         <v>61</v>
       </c>
@@ -6295,7 +6299,7 @@
       <c r="D64" s="9"/>
       <c r="E64" s="16"/>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B65" s="9">
         <v>62</v>
       </c>
@@ -6305,7 +6309,7 @@
       <c r="D65" s="9"/>
       <c r="E65" s="16"/>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B66" s="9">
         <v>63</v>
       </c>
@@ -6315,7 +6319,7 @@
       <c r="D66" s="9"/>
       <c r="E66" s="16"/>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B67" s="9">
         <v>64</v>
       </c>
@@ -6325,7 +6329,7 @@
       <c r="D67" s="9"/>
       <c r="E67" s="16"/>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B68" s="9">
         <v>65</v>
       </c>
@@ -6335,7 +6339,7 @@
       <c r="D68" s="9"/>
       <c r="E68" s="16"/>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B69" s="9">
         <v>66</v>
       </c>
@@ -6345,7 +6349,7 @@
       <c r="D69" s="9"/>
       <c r="E69" s="16"/>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B70" s="9">
         <v>67</v>
       </c>
@@ -6355,7 +6359,7 @@
       <c r="D70" s="9"/>
       <c r="E70" s="16"/>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B71" s="9">
         <v>68</v>
       </c>
@@ -6365,7 +6369,7 @@
       <c r="D71" s="9"/>
       <c r="E71" s="16"/>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B72" s="9">
         <v>69</v>
       </c>
@@ -6385,21 +6389,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{527C0038-825B-49FE-8A49-D86AE1E3139F}">
   <dimension ref="B3:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="1"/>
-    <col min="2" max="2" width="3.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="79.140625" style="15" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="122.85546875" style="25" customWidth="1"/>
-    <col min="6" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="3.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="79.1796875" style="15" customWidth="1"/>
+    <col min="4" max="4" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="122.81640625" style="25" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="13" t="s">
         <v>379</v>
       </c>
@@ -6413,7 +6417,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="26">
         <v>1</v>
       </c>
@@ -6421,11 +6425,11 @@
         <v>515</v>
       </c>
       <c r="D4" s="9"/>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="27" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="26">
         <v>2</v>
       </c>
@@ -6433,11 +6437,11 @@
         <v>516</v>
       </c>
       <c r="D5" s="9"/>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="28" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="26">
         <v>3</v>
       </c>
@@ -6445,11 +6449,11 @@
         <v>517</v>
       </c>
       <c r="D6" s="9"/>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="28" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="26">
         <v>4</v>
       </c>
@@ -6457,11 +6461,11 @@
         <v>518</v>
       </c>
       <c r="D7" s="9"/>
-      <c r="E7" s="34" t="s">
+      <c r="E7" s="29" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="9">
         <v>5</v>
       </c>
@@ -6472,7 +6476,7 @@
       <c r="E8" s="16"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="9">
         <v>6</v>
       </c>
@@ -6483,7 +6487,7 @@
       <c r="E9" s="16"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="9">
         <v>7</v>
       </c>
@@ -6493,7 +6497,7 @@
       <c r="D10" s="9"/>
       <c r="E10" s="16"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="9">
         <v>8</v>
       </c>
@@ -6503,7 +6507,7 @@
       <c r="D11" s="9"/>
       <c r="E11" s="16"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="9">
         <v>9</v>
       </c>
@@ -6513,7 +6517,7 @@
       <c r="D12" s="9"/>
       <c r="E12" s="16"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="9">
         <v>10</v>
       </c>
@@ -6523,7 +6527,7 @@
       <c r="D13" s="9"/>
       <c r="E13" s="16"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="9">
         <v>11</v>
       </c>
@@ -6533,7 +6537,7 @@
       <c r="D14" s="9"/>
       <c r="E14" s="16"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="9">
         <v>12</v>
       </c>
@@ -6543,7 +6547,7 @@
       <c r="D15" s="9"/>
       <c r="E15" s="16"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" s="9">
         <v>13</v>
       </c>
@@ -6553,7 +6557,7 @@
       <c r="D16" s="9"/>
       <c r="E16" s="16"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="9">
         <v>14</v>
       </c>
@@ -6563,7 +6567,7 @@
       <c r="D17" s="9"/>
       <c r="E17" s="16"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="9">
         <v>15</v>
       </c>
@@ -6573,7 +6577,7 @@
       <c r="D18" s="9"/>
       <c r="E18" s="16"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="9">
         <v>16</v>
       </c>
@@ -6583,7 +6587,7 @@
       <c r="D19" s="9"/>
       <c r="E19" s="16"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="9">
         <v>17</v>
       </c>
@@ -6593,7 +6597,7 @@
       <c r="D20" s="9"/>
       <c r="E20" s="16"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="9">
         <v>18</v>
       </c>
@@ -6603,7 +6607,7 @@
       <c r="D21" s="9"/>
       <c r="E21" s="16"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="9">
         <v>19</v>
       </c>
@@ -6613,7 +6617,7 @@
       <c r="D22" s="9"/>
       <c r="E22" s="16"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="9">
         <v>20</v>
       </c>
@@ -6623,7 +6627,7 @@
       <c r="D23" s="9"/>
       <c r="E23" s="16"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="9">
         <v>21</v>
       </c>
@@ -6633,7 +6637,7 @@
       <c r="D24" s="9"/>
       <c r="E24" s="16"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="9">
         <v>22</v>
       </c>
@@ -6643,7 +6647,7 @@
       <c r="D25" s="9"/>
       <c r="E25" s="16"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="9">
         <v>23</v>
       </c>
@@ -6653,7 +6657,7 @@
       <c r="D26" s="9"/>
       <c r="E26" s="16"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="9">
         <v>24</v>
       </c>
@@ -6663,7 +6667,7 @@
       <c r="D27" s="9"/>
       <c r="E27" s="16"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="9">
         <v>25</v>
       </c>
@@ -6671,7 +6675,7 @@
       <c r="D28" s="9"/>
       <c r="E28" s="16"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" s="9">
         <v>26</v>
       </c>
@@ -6679,7 +6683,7 @@
       <c r="D29" s="9"/>
       <c r="E29" s="16"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" s="9">
         <v>27</v>
       </c>
@@ -6687,7 +6691,7 @@
       <c r="D30" s="9"/>
       <c r="E30" s="16"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B31" s="9">
         <v>28</v>
       </c>
@@ -6695,7 +6699,7 @@
       <c r="D31" s="9"/>
       <c r="E31" s="16"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B32" s="9">
         <v>29</v>
       </c>
@@ -6703,7 +6707,7 @@
       <c r="D32" s="9"/>
       <c r="E32" s="16"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" s="9">
         <v>30</v>
       </c>
@@ -6711,7 +6715,7 @@
       <c r="D33" s="9"/>
       <c r="E33" s="16"/>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34" s="9">
         <v>31</v>
       </c>
@@ -6719,7 +6723,7 @@
       <c r="D34" s="9"/>
       <c r="E34" s="16"/>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" s="9">
         <v>32</v>
       </c>
@@ -6727,7 +6731,7 @@
       <c r="D35" s="9"/>
       <c r="E35" s="16"/>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36" s="9">
         <v>33</v>
       </c>
@@ -6735,7 +6739,7 @@
       <c r="D36" s="9"/>
       <c r="E36" s="16"/>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37" s="9">
         <v>34</v>
       </c>
@@ -6743,7 +6747,7 @@
       <c r="D37" s="9"/>
       <c r="E37" s="16"/>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38" s="9">
         <v>35</v>
       </c>
@@ -6751,7 +6755,7 @@
       <c r="D38" s="9"/>
       <c r="E38" s="16"/>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B39" s="9">
         <v>36</v>
       </c>
@@ -6759,7 +6763,7 @@
       <c r="D39" s="9"/>
       <c r="E39" s="16"/>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B40" s="9">
         <v>37</v>
       </c>
@@ -6767,7 +6771,7 @@
       <c r="D40" s="9"/>
       <c r="E40" s="16"/>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B41" s="9">
         <v>38</v>
       </c>
@@ -6775,7 +6779,7 @@
       <c r="D41" s="9"/>
       <c r="E41" s="16"/>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B42" s="9">
         <v>39</v>
       </c>
@@ -6783,7 +6787,7 @@
       <c r="D42" s="9"/>
       <c r="E42" s="16"/>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B43" s="9">
         <v>40</v>
       </c>
@@ -6791,7 +6795,7 @@
       <c r="D43" s="9"/>
       <c r="E43" s="16"/>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B44" s="9">
         <v>41</v>
       </c>
@@ -6799,7 +6803,7 @@
       <c r="D44" s="9"/>
       <c r="E44" s="16"/>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B45" s="9">
         <v>42</v>
       </c>
@@ -6807,7 +6811,7 @@
       <c r="D45" s="9"/>
       <c r="E45" s="16"/>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B46" s="9">
         <v>43</v>
       </c>
@@ -6815,7 +6819,7 @@
       <c r="D46" s="9"/>
       <c r="E46" s="16"/>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B47" s="9">
         <v>44</v>
       </c>
@@ -6823,7 +6827,7 @@
       <c r="D47" s="9"/>
       <c r="E47" s="16"/>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B48" s="9">
         <v>45</v>
       </c>
@@ -6831,7 +6835,7 @@
       <c r="D48" s="9"/>
       <c r="E48" s="16"/>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B49" s="9">
         <v>46</v>
       </c>
@@ -6839,7 +6843,7 @@
       <c r="D49" s="9"/>
       <c r="E49" s="16"/>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B50" s="9">
         <v>47</v>
       </c>
@@ -6847,7 +6851,7 @@
       <c r="D50" s="9"/>
       <c r="E50" s="16"/>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B51" s="9">
         <v>48</v>
       </c>
@@ -6855,7 +6859,7 @@
       <c r="D51" s="9"/>
       <c r="E51" s="16"/>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B52" s="9">
         <v>49</v>
       </c>
@@ -6863,7 +6867,7 @@
       <c r="D52" s="9"/>
       <c r="E52" s="16"/>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B53" s="9">
         <v>50</v>
       </c>
@@ -6871,7 +6875,7 @@
       <c r="D53" s="9"/>
       <c r="E53" s="16"/>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B54" s="9">
         <v>51</v>
       </c>
@@ -6879,7 +6883,7 @@
       <c r="D54" s="9"/>
       <c r="E54" s="16"/>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B55" s="9">
         <v>52</v>
       </c>
@@ -6887,7 +6891,7 @@
       <c r="D55" s="9"/>
       <c r="E55" s="16"/>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B56" s="9">
         <v>53</v>
       </c>
@@ -6895,7 +6899,7 @@
       <c r="D56" s="9"/>
       <c r="E56" s="16"/>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B57" s="9">
         <v>54</v>
       </c>
@@ -6903,7 +6907,7 @@
       <c r="D57" s="9"/>
       <c r="E57" s="16"/>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B58" s="9">
         <v>55</v>
       </c>
@@ -6911,7 +6915,7 @@
       <c r="D58" s="9"/>
       <c r="E58" s="16"/>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B59" s="9">
         <v>56</v>
       </c>
@@ -6919,7 +6923,7 @@
       <c r="D59" s="9"/>
       <c r="E59" s="16"/>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B60" s="9">
         <v>57</v>
       </c>
@@ -6927,7 +6931,7 @@
       <c r="D60" s="9"/>
       <c r="E60" s="16"/>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B61" s="9">
         <v>58</v>
       </c>
@@ -6935,7 +6939,7 @@
       <c r="D61" s="9"/>
       <c r="E61" s="16"/>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B62" s="9">
         <v>59</v>
       </c>
@@ -6943,7 +6947,7 @@
       <c r="D62" s="9"/>
       <c r="E62" s="16"/>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B63" s="9">
         <v>60</v>
       </c>
@@ -6953,7 +6957,7 @@
       <c r="D63" s="9"/>
       <c r="E63" s="16"/>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B64" s="9">
         <v>61</v>
       </c>
@@ -6963,7 +6967,7 @@
       <c r="D64" s="9"/>
       <c r="E64" s="16"/>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B65" s="9">
         <v>62</v>
       </c>
@@ -6973,7 +6977,7 @@
       <c r="D65" s="9"/>
       <c r="E65" s="16"/>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B66" s="9">
         <v>63</v>
       </c>
@@ -6983,7 +6987,7 @@
       <c r="D66" s="9"/>
       <c r="E66" s="16"/>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B67" s="9">
         <v>64</v>
       </c>
@@ -6993,7 +6997,7 @@
       <c r="D67" s="9"/>
       <c r="E67" s="16"/>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B68" s="9">
         <v>65</v>
       </c>
@@ -7003,7 +7007,7 @@
       <c r="D68" s="9"/>
       <c r="E68" s="16"/>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B69" s="9">
         <v>66</v>
       </c>
@@ -7013,7 +7017,7 @@
       <c r="D69" s="9"/>
       <c r="E69" s="16"/>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B70" s="9">
         <v>67</v>
       </c>
@@ -7023,7 +7027,7 @@
       <c r="D70" s="9"/>
       <c r="E70" s="16"/>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B71" s="9">
         <v>68</v>
       </c>
@@ -7033,7 +7037,7 @@
       <c r="D71" s="9"/>
       <c r="E71" s="16"/>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B72" s="9">
         <v>69</v>
       </c>
@@ -7057,36 +7061,36 @@
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="8.7265625" style="1"/>
     <col min="2" max="2" width="3" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="1" customWidth="1"/>
-    <col min="5" max="7" width="8.7109375" style="1"/>
-    <col min="8" max="8" width="9.85546875" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.7109375" style="1"/>
+    <col min="3" max="3" width="5.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" style="1" customWidth="1"/>
+    <col min="5" max="7" width="8.7265625" style="1"/>
+    <col min="8" max="8" width="9.81640625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="30" t="s">
+    <row r="2" spans="2:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="33" t="s">
         <v>379</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="31" t="s">
         <v>493</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="31" t="s">
+      <c r="D2" s="32"/>
+      <c r="E2" s="34" t="s">
         <v>493</v>
       </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31" t="s">
+      <c r="F2" s="34"/>
+      <c r="G2" s="34" t="s">
         <v>494</v>
       </c>
-      <c r="H2" s="31"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B3" s="30"/>
+      <c r="H2" s="34"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="33"/>
       <c r="C3" s="23" t="s">
         <v>491</v>
       </c>
@@ -7106,7 +7110,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="19">
         <v>1</v>
       </c>
@@ -7117,7 +7121,7 @@
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="19">
         <v>2</v>
       </c>
@@ -7128,7 +7132,7 @@
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="19">
         <v>3</v>
       </c>
@@ -7139,7 +7143,7 @@
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="19">
         <v>4</v>
       </c>
@@ -7150,7 +7154,7 @@
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="19">
         <v>5</v>
       </c>
@@ -7161,7 +7165,7 @@
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="19">
         <v>6</v>
       </c>
@@ -7172,7 +7176,7 @@
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="19">
         <v>7</v>
       </c>
@@ -7183,7 +7187,7 @@
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="19">
         <v>8</v>
       </c>
@@ -7194,7 +7198,7 @@
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="19">
         <v>9</v>
       </c>
@@ -7205,7 +7209,7 @@
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="19">
         <v>10</v>
       </c>
@@ -7216,7 +7220,7 @@
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="19">
         <v>11</v>
       </c>
@@ -7227,7 +7231,7 @@
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="19">
         <v>12</v>
       </c>
@@ -7238,7 +7242,7 @@
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="19">
         <v>13</v>
       </c>
@@ -7249,7 +7253,7 @@
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="19">
         <v>14</v>
       </c>
@@ -7260,7 +7264,7 @@
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="19">
         <v>15</v>
       </c>
@@ -7271,7 +7275,7 @@
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="19">
         <v>16</v>
       </c>
@@ -7282,7 +7286,7 @@
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="19">
         <v>17</v>
       </c>
@@ -7293,7 +7297,7 @@
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="19">
         <v>18</v>
       </c>
@@ -7304,7 +7308,7 @@
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="19">
         <v>19</v>
       </c>
@@ -7315,7 +7319,7 @@
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="19">
         <v>20</v>
       </c>
@@ -7326,7 +7330,7 @@
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="19">
         <v>21</v>
       </c>
@@ -7337,7 +7341,7 @@
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="19">
         <v>22</v>
       </c>
@@ -7348,7 +7352,7 @@
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="19">
         <v>23</v>
       </c>
@@ -7359,7 +7363,7 @@
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="19">
         <v>24</v>
       </c>
@@ -7370,7 +7374,7 @@
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="19">
         <v>25</v>
       </c>
@@ -7381,7 +7385,7 @@
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="19">
         <v>26</v>
       </c>
@@ -7392,7 +7396,7 @@
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="19">
         <v>27</v>
       </c>
@@ -7403,7 +7407,7 @@
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="19">
         <v>28</v>
       </c>
@@ -7414,7 +7418,7 @@
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="19">
         <v>29</v>
       </c>
@@ -7425,7 +7429,7 @@
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="19">
         <v>30</v>
       </c>
@@ -7436,7 +7440,7 @@
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="19">
         <v>31</v>
       </c>
@@ -7447,7 +7451,7 @@
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="19">
         <v>32</v>
       </c>
@@ -7458,7 +7462,7 @@
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="19">
         <v>33</v>
       </c>
@@ -7469,7 +7473,7 @@
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" s="19">
         <v>34</v>
       </c>
@@ -7480,7 +7484,7 @@
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="19">
         <v>35</v>
       </c>
@@ -7491,7 +7495,7 @@
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" s="19">
         <v>36</v>
       </c>
@@ -7502,7 +7506,7 @@
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" s="19">
         <v>37</v>
       </c>
@@ -7513,7 +7517,7 @@
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41" s="19">
         <v>38</v>
       </c>
@@ -7524,7 +7528,7 @@
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" s="19">
         <v>39</v>
       </c>
@@ -7535,7 +7539,7 @@
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B43" s="19">
         <v>40</v>
       </c>
@@ -7546,7 +7550,7 @@
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B44" s="19">
         <v>41</v>
       </c>
@@ -7557,7 +7561,7 @@
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B45" s="19">
         <v>42</v>
       </c>
@@ -7568,7 +7572,7 @@
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B46" s="19">
         <v>43</v>
       </c>
@@ -7579,7 +7583,7 @@
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B47" s="19">
         <v>44</v>
       </c>
@@ -7590,7 +7594,7 @@
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B48" s="19">
         <v>45</v>
       </c>
@@ -7601,7 +7605,7 @@
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B49" s="19">
         <v>46</v>
       </c>
@@ -7612,7 +7616,7 @@
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B50" s="19">
         <v>47</v>
       </c>
@@ -7623,7 +7627,7 @@
       <c r="G50" s="8"/>
       <c r="H50" s="8"/>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" s="19">
         <v>48</v>
       </c>
@@ -7634,7 +7638,7 @@
       <c r="G51" s="8"/>
       <c r="H51" s="8"/>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B52" s="19">
         <v>49</v>
       </c>
@@ -7645,7 +7649,7 @@
       <c r="G52" s="8"/>
       <c r="H52" s="8"/>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B53" s="19">
         <v>50</v>
       </c>

--- a/GLIK Domain Mapping.xlsx
+++ b/GLIK Domain Mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toshiba\Documents\GitHub\GLIK-DM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144A67D3-BFD8-455F-B556-936A19715AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B339AFF-38D6-4CEF-9A10-67329C17976D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="3" xr2:uid="{BC9BC3D9-6FF2-4CB4-96B2-33CE5FEE1DBD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="3" xr2:uid="{BC9BC3D9-6FF2-4CB4-96B2-33CE5FEE1DBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Fitur Item" sheetId="1" r:id="rId1"/>
@@ -1455,9 +1455,6 @@
     <t>GPRM.Bank, GPRM.Pengurus, GPRM.Jaringan, BDL, KodeCabangBDL</t>
   </si>
   <si>
-    <t>GPRM.Bank, GPRM.Pengurus, BDL, RKABProfilBDL, RKABPengurusBDL, ID_RKABPeriode</t>
-  </si>
-  <si>
     <t>Deskripsi</t>
   </si>
   <si>
@@ -1590,21 +1587,6 @@
     <t>GPRM.Bank, GPRM.Pengurus, GPRM.Jaringan, BDL</t>
   </si>
   <si>
-    <t>FiturUmum.Repository, FiturUmum.Notifikasi, GPRM.Bank, GPRM.Pengurus, BDL, RKABProfilBDL, PembubaranBadanHukum, DocBadanHukum, MasterStatus</t>
-  </si>
-  <si>
-    <t>FiturUmum.Repository, GPRM.Bank, GPRM.Pengurus, BDL, RKABProfilBDL, DocURLRepository, DocGLIK, DocSuratDanaTalangan, DocTransaksiDanaTalangan</t>
-  </si>
-  <si>
-    <t>FiturUmum.Repository, FiturUmum.Notifikasi, GPRM.Bank, GPRM.Pengurus, BDL, RKABProfilBDL, ChecklistDanaTalangan, DocURLRepository, DocGLIK</t>
-  </si>
-  <si>
-    <t>FiturUmum.Repository, FiturUmum.Notifikasi, GPRM.Bank, GPRM.Pengurus, BDL, RKABProfilBDL, KodeCabangBDL, TransaksiDataTalangan, JenisTransaksi, DocURLRepository, DocGLIK, DocTransaksiDanaTalangan, MasterStatus</t>
-  </si>
-  <si>
-    <t>FiturUmum.Notifikasi, GPRM.Bank, GPRM.Pengurus, BDL, RKABProfilBDL, TenagaPendukung, TugasTenagaPendukung, MasterStatus</t>
-  </si>
-  <si>
     <t>4d. Konfirmasi Persetujuan Pengamanan Aset</t>
   </si>
   <si>
@@ -1617,21 +1599,6 @@
     <t>FiturUmum.Notifikasi, FiturUmum.Repository, GPRM.Bank, GRPM.Jaringan, BDL, NilaiTimLikuidasi, PICPenilai, DataTimLikuidasi, DocKelengkapanDataTL, DocGLIK, MasterStatus</t>
   </si>
   <si>
-    <t>GPRM.Bank, GPRM.Pengurus, RKABProfilBDL, BDL, RKABPengurusBDL, KewajibanPegawai</t>
-  </si>
-  <si>
-    <t>GPRM.Bank, GPRM.Pengurus, FiturUmum.Notifikasi, RKABProfilBDL, BDL, RKABPengurusBDL, KewajibanPegawai, PerhitunganPesangon</t>
-  </si>
-  <si>
-    <t>FiturUmum.Notifikasi, GPRM.Bank, GPRM.Pengurus, RKABProfilBDL, BDL, RKABPengurusBDL, KewajibanPegawai, PerhitunganPesangon</t>
-  </si>
-  <si>
-    <t>GPRM.Bank, GPRM.Pengurus, RKABProfilBDL, BDL, RKABPengurusBDL, ID_RKABPeriode, HistoryGPDanTunjangan</t>
-  </si>
-  <si>
-    <t>GPRM.Bank, GPRM.Pengurus, BDL, RKABProfilBDL, RKABDebitur</t>
-  </si>
-  <si>
     <t>FiturUmum.Repository, FiturUmum.TemplateDoc, GPRM.Bank, GPRM.Jaringan, BDL, KeputusanCIU, DocGLIK, DocSKCIU, DocKKE, DocTemplateKKE, DocDraftKKE, DocFinalKKE</t>
   </si>
   <si>
@@ -1720,6 +1687,39 @@
   </si>
   <si>
     <t>SisaAsetHasilLikuidasi, DocHasilLikuidasi, ChecklistDocSisaAset, JenisDocHistory</t>
+  </si>
+  <si>
+    <t>FiturUmum.Repository, FiturUmum.Notifikasi, GPRM.Bank, GPRM.Pengurus, BDL, ProfilBDL, PembubaranBadanHukum, DocBadanHukum, MasterStatus</t>
+  </si>
+  <si>
+    <t>FiturUmum.Repository, GPRM.Bank, GPRM.Pengurus, BDL, ProfilBDL, DocURLRepository, DocGLIK, DocSuratDanaTalangan, DocTransaksiDanaTalangan</t>
+  </si>
+  <si>
+    <t>FiturUmum.Repository, FiturUmum.Notifikasi, GPRM.Bank, GPRM.Pengurus, BDL, ProfilBDL, ChecklistDanaTalangan, DocURLRepository, DocGLIK</t>
+  </si>
+  <si>
+    <t>FiturUmum.Repository, FiturUmum.Notifikasi, GPRM.Bank, GPRM.Pengurus, BDL, ProfilBDL, KodeCabangBDL, TransaksiDataTalangan, JenisTransaksi, DocURLRepository, DocGLIK, DocTransaksiDanaTalangan, MasterStatus</t>
+  </si>
+  <si>
+    <t>FiturUmum.Notifikasi, GPRM.Bank, GPRM.Pengurus, BDL, ProfilBDL, TenagaPendukung, TugasTenagaPendukung, MasterStatus</t>
+  </si>
+  <si>
+    <t>GPRM.Bank, GPRM.Pengurus, ProfilBDL, BDL, PengurusBDL, KewajibanPegawai</t>
+  </si>
+  <si>
+    <t>GPRM.Bank, GPRM.Pengurus, FiturUmum.Notifikasi, ProfilBDL, BDL, PengurusBDL, KewajibanPegawai, PerhitunganPesangon</t>
+  </si>
+  <si>
+    <t>FiturUmum.Notifikasi, GPRM.Bank, GPRM.Pengurus, ProfilBDL, BDL, PengurusBDL, KewajibanPegawai, PerhitunganPesangon</t>
+  </si>
+  <si>
+    <t>GPRM.Bank, GPRM.Pengurus, BDL, ProfilBDL, Debitur</t>
+  </si>
+  <si>
+    <t>GPRM.Bank, GPRM.Pengurus, BDL, ProfilBDL, PengurusBDL, PeriodeBDL</t>
+  </si>
+  <si>
+    <t>GPRM.Bank, GPRM.Pengurus, ProfilBDL, BDL, PengurusBDL, HistoryGPDanTunjangan</t>
   </si>
 </sst>
 </file>
@@ -4268,7 +4268,7 @@
         <v>379</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>2</v>
@@ -4282,11 +4282,11 @@
         <v>1</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="8" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
@@ -4294,11 +4294,11 @@
         <v>2</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="8" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
@@ -4306,11 +4306,11 @@
         <v>3</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="8" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
@@ -4318,11 +4318,11 @@
         <v>4</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="8" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
@@ -4330,11 +4330,11 @@
         <v>5</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="8" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G8" s="10"/>
     </row>
@@ -4343,11 +4343,11 @@
         <v>6</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="8" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
@@ -4355,11 +4355,11 @@
         <v>7</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="14" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
@@ -4367,11 +4367,11 @@
         <v>8</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="14" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
@@ -4379,11 +4379,11 @@
         <v>9</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="14" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
@@ -4391,11 +4391,11 @@
         <v>10</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="14" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
@@ -4403,11 +4403,11 @@
         <v>11</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="14" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
@@ -4415,11 +4415,11 @@
         <v>12</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="14" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
@@ -4427,11 +4427,11 @@
         <v>13</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="14" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
@@ -4439,11 +4439,11 @@
         <v>14</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="14" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
@@ -4451,11 +4451,11 @@
         <v>15</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="14" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
@@ -4463,11 +4463,11 @@
         <v>16</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="14" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
@@ -4475,11 +4475,11 @@
         <v>17</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="14" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
@@ -4487,11 +4487,11 @@
         <v>18</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="14" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
@@ -4499,11 +4499,11 @@
         <v>19</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="14" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
@@ -4511,7 +4511,7 @@
         <v>20</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="14" t="s">
@@ -4523,11 +4523,11 @@
         <v>21</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="14" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
@@ -4535,11 +4535,11 @@
         <v>22</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="14" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
@@ -4547,11 +4547,11 @@
         <v>23</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="14" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
@@ -4951,7 +4951,7 @@
         <v>379</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>2</v>
@@ -4965,11 +4965,11 @@
         <v>1</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="16" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
@@ -4977,11 +4977,11 @@
         <v>2</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="16" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
@@ -4989,11 +4989,11 @@
         <v>3</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="16" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="26" x14ac:dyDescent="0.3">
@@ -5001,11 +5001,11 @@
         <v>4</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="16" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="26" x14ac:dyDescent="0.3">
@@ -5013,11 +5013,11 @@
         <v>5</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="16" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="G8" s="10"/>
     </row>
@@ -5026,11 +5026,11 @@
         <v>6</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="16" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="26" x14ac:dyDescent="0.3">
@@ -5038,11 +5038,11 @@
         <v>7</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="16" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
@@ -5050,11 +5050,11 @@
         <v>8</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="16" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
@@ -5062,11 +5062,11 @@
         <v>9</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="16" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="26" x14ac:dyDescent="0.3">
@@ -5074,11 +5074,11 @@
         <v>10</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="16" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="26" x14ac:dyDescent="0.3">
@@ -5086,11 +5086,11 @@
         <v>11</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="16" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="26" x14ac:dyDescent="0.3">
@@ -5098,11 +5098,11 @@
         <v>12</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="16" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="26" x14ac:dyDescent="0.3">
@@ -5110,11 +5110,11 @@
         <v>13</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="16" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="26" x14ac:dyDescent="0.3">
@@ -5122,11 +5122,11 @@
         <v>14</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="16" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="26" x14ac:dyDescent="0.3">
@@ -5134,11 +5134,11 @@
         <v>15</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="16" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="26" x14ac:dyDescent="0.3">
@@ -5146,11 +5146,11 @@
         <v>16</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="16" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="26" x14ac:dyDescent="0.3">
@@ -5158,11 +5158,11 @@
         <v>17</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="16" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="26" x14ac:dyDescent="0.3">
@@ -5170,11 +5170,11 @@
         <v>18</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="16" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="26" x14ac:dyDescent="0.3">
@@ -5182,11 +5182,11 @@
         <v>19</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="16" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="26" x14ac:dyDescent="0.3">
@@ -5194,11 +5194,11 @@
         <v>20</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="16" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="26" x14ac:dyDescent="0.3">
@@ -5206,11 +5206,11 @@
         <v>21</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="16" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="26" x14ac:dyDescent="0.3">
@@ -5218,11 +5218,11 @@
         <v>22</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="16" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="26" x14ac:dyDescent="0.3">
@@ -5230,11 +5230,11 @@
         <v>23</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="16" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
@@ -5615,8 +5615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78815AC8-C3A4-42A1-9CFB-16EE2CA78EFD}">
   <dimension ref="B3:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -5634,7 +5634,7 @@
         <v>379</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>2</v>
@@ -5676,7 +5676,7 @@
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="16" t="s">
-        <v>452</v>
+        <v>539</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
@@ -5688,7 +5688,7 @@
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="16" t="s">
-        <v>510</v>
+        <v>538</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
@@ -5700,7 +5700,7 @@
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="16" t="s">
-        <v>510</v>
+        <v>538</v>
       </c>
       <c r="G8" s="6"/>
     </row>
@@ -5713,7 +5713,7 @@
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="16" t="s">
-        <v>510</v>
+        <v>538</v>
       </c>
       <c r="G9" s="6"/>
     </row>
@@ -5738,7 +5738,7 @@
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="16" t="s">
-        <v>497</v>
+        <v>530</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
@@ -5750,7 +5750,7 @@
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="16" t="s">
-        <v>497</v>
+        <v>530</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
@@ -5762,7 +5762,7 @@
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="16" t="s">
-        <v>497</v>
+        <v>530</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
@@ -5774,7 +5774,7 @@
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="16" t="s">
-        <v>497</v>
+        <v>530</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
@@ -5786,7 +5786,7 @@
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="16" t="s">
-        <v>509</v>
+        <v>540</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
@@ -5798,7 +5798,7 @@
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="16" t="s">
-        <v>509</v>
+        <v>540</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
@@ -5810,7 +5810,7 @@
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="16" t="s">
-        <v>506</v>
+        <v>535</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
@@ -5822,7 +5822,7 @@
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="16" t="s">
-        <v>507</v>
+        <v>536</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
@@ -5834,7 +5834,7 @@
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="16" t="s">
-        <v>508</v>
+        <v>537</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
@@ -5846,7 +5846,7 @@
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="16" t="s">
-        <v>498</v>
+        <v>531</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
@@ -5858,7 +5858,7 @@
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="16" t="s">
-        <v>499</v>
+        <v>532</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="26" x14ac:dyDescent="0.3">
@@ -5870,7 +5870,7 @@
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="16" t="s">
-        <v>500</v>
+        <v>533</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
@@ -5882,7 +5882,7 @@
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="16" t="s">
-        <v>501</v>
+        <v>534</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
@@ -5894,7 +5894,7 @@
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="16" t="s">
-        <v>501</v>
+        <v>534</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
@@ -5906,7 +5906,7 @@
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="16" t="s">
-        <v>501</v>
+        <v>534</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
@@ -6408,7 +6408,7 @@
         <v>379</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>2</v>
@@ -6422,11 +6422,11 @@
         <v>1</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="27" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
@@ -6434,11 +6434,11 @@
         <v>2</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="28" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
@@ -6446,11 +6446,11 @@
         <v>3</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="28" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
@@ -6458,11 +6458,11 @@
         <v>4</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="29" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
@@ -6470,7 +6470,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="16"/>
@@ -6481,7 +6481,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="16"/>
@@ -6492,7 +6492,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="16"/>
@@ -6502,7 +6502,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="16"/>
@@ -6512,7 +6512,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="16"/>
@@ -6522,7 +6522,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="16"/>
@@ -6532,7 +6532,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="16"/>
@@ -6542,7 +6542,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="16"/>
@@ -6552,7 +6552,7 @@
         <v>13</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="16"/>
@@ -6562,7 +6562,7 @@
         <v>14</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="16"/>
@@ -6572,7 +6572,7 @@
         <v>15</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="16"/>
@@ -6582,7 +6582,7 @@
         <v>16</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="16"/>
@@ -6592,7 +6592,7 @@
         <v>17</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="16"/>
@@ -6602,7 +6602,7 @@
         <v>18</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="16"/>
@@ -6612,7 +6612,7 @@
         <v>19</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="16"/>
@@ -6622,7 +6622,7 @@
         <v>20</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="16"/>
@@ -6632,7 +6632,7 @@
         <v>21</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="16"/>
@@ -6642,7 +6642,7 @@
         <v>22</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="16"/>
@@ -6652,7 +6652,7 @@
         <v>23</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="16"/>
@@ -6662,7 +6662,7 @@
         <v>24</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="16"/>
@@ -7077,37 +7077,37 @@
         <v>379</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D2" s="32"/>
       <c r="E2" s="34" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F2" s="34"/>
       <c r="G2" s="34" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H2" s="34"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="33"/>
       <c r="C3" s="23" t="s">
+        <v>490</v>
+      </c>
+      <c r="D3" s="23" t="s">
         <v>491</v>
       </c>
-      <c r="D3" s="23" t="s">
-        <v>492</v>
-      </c>
       <c r="E3" s="23" t="s">
+        <v>490</v>
+      </c>
+      <c r="F3" s="23" t="s">
         <v>491</v>
       </c>
-      <c r="F3" s="23" t="s">
-        <v>492</v>
-      </c>
       <c r="G3" s="23" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">

--- a/GLIK Domain Mapping.xlsx
+++ b/GLIK Domain Mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toshiba\Documents\GitHub\GLIK-DM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B339AFF-38D6-4CEF-9A10-67329C17976D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D081466-F32C-4F9F-AB6A-93952A5BC884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="3" xr2:uid="{BC9BC3D9-6FF2-4CB4-96B2-33CE5FEE1DBD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{BC9BC3D9-6FF2-4CB4-96B2-33CE5FEE1DBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Fitur Item" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="537">
   <si>
     <t>Kode Fitur</t>
   </si>
@@ -1596,9 +1596,6 @@
     <t>FiturUmum.Notifikasi, FiturUmum.Repository, FiturUmum.CheckList, GPRM.Bank, GPRM.Jaringan, BDL, Aset, DocAset, DocGLIK, ChecklistAset, MasterStatus</t>
   </si>
   <si>
-    <t>FiturUmum.Notifikasi, FiturUmum.Repository, GPRM.Bank, GRPM.Jaringan, BDL, NilaiTimLikuidasi, PICPenilai, DataTimLikuidasi, DocKelengkapanDataTL, DocGLIK, MasterStatus</t>
-  </si>
-  <si>
     <t>FiturUmum.Repository, FiturUmum.TemplateDoc, GPRM.Bank, GPRM.Jaringan, BDL, KeputusanCIU, DocGLIK, DocSKCIU, DocKKE, DocTemplateKKE, DocDraftKKE, DocFinalKKE</t>
   </si>
   <si>
@@ -1692,34 +1689,25 @@
     <t>FiturUmum.Repository, FiturUmum.Notifikasi, GPRM.Bank, GPRM.Pengurus, BDL, ProfilBDL, PembubaranBadanHukum, DocBadanHukum, MasterStatus</t>
   </si>
   <si>
-    <t>FiturUmum.Repository, GPRM.Bank, GPRM.Pengurus, BDL, ProfilBDL, DocURLRepository, DocGLIK, DocSuratDanaTalangan, DocTransaksiDanaTalangan</t>
-  </si>
-  <si>
-    <t>FiturUmum.Repository, FiturUmum.Notifikasi, GPRM.Bank, GPRM.Pengurus, BDL, ProfilBDL, ChecklistDanaTalangan, DocURLRepository, DocGLIK</t>
-  </si>
-  <si>
-    <t>FiturUmum.Repository, FiturUmum.Notifikasi, GPRM.Bank, GPRM.Pengurus, BDL, ProfilBDL, KodeCabangBDL, TransaksiDataTalangan, JenisTransaksi, DocURLRepository, DocGLIK, DocTransaksiDanaTalangan, MasterStatus</t>
-  </si>
-  <si>
-    <t>FiturUmum.Notifikasi, GPRM.Bank, GPRM.Pengurus, BDL, ProfilBDL, TenagaPendukung, TugasTenagaPendukung, MasterStatus</t>
-  </si>
-  <si>
-    <t>GPRM.Bank, GPRM.Pengurus, ProfilBDL, BDL, PengurusBDL, KewajibanPegawai</t>
-  </si>
-  <si>
-    <t>GPRM.Bank, GPRM.Pengurus, FiturUmum.Notifikasi, ProfilBDL, BDL, PengurusBDL, KewajibanPegawai, PerhitunganPesangon</t>
-  </si>
-  <si>
-    <t>FiturUmum.Notifikasi, GPRM.Bank, GPRM.Pengurus, ProfilBDL, BDL, PengurusBDL, KewajibanPegawai, PerhitunganPesangon</t>
-  </si>
-  <si>
     <t>GPRM.Bank, GPRM.Pengurus, BDL, ProfilBDL, Debitur</t>
   </si>
   <si>
     <t>GPRM.Bank, GPRM.Pengurus, BDL, ProfilBDL, PengurusBDL, PeriodeBDL</t>
   </si>
   <si>
-    <t>GPRM.Bank, GPRM.Pengurus, ProfilBDL, BDL, PengurusBDL, HistoryGPDanTunjangan</t>
+    <t>FiturUmum.Notifikasi, GPRM.Bank, GPRM.Pengurus, BDL, ProfilBDL, PICTenagaPendukung, TugasTenagaPendukung, MasterStatus</t>
+  </si>
+  <si>
+    <t>FiturUmum.Notifikasi, FiturUmum.Repository, GPRM.Bank, GRPM.Jaringan, BDL, NilaiTimLikuidasi, PICPenilai, DataTimLikuidasi, DocKelengkapanTL, DocGLIK, MasterStatus</t>
+  </si>
+  <si>
+    <t>FiturUmum.Repository, FiturUmum.Notifikasi, GPRM.Bank, GPRM.Pengurus, BDL, ProfilBDL, KodeCabangBDL, TransaksiDanaTalangan, JenisTransaksi, DocURLRepository, DocGLIK, DocSuratDanaTalangan, DocTransaksiDanaTalangan, MasterStatus</t>
+  </si>
+  <si>
+    <t>FiturUmum.Notifikasi, GPRM.Bank, GPRM.Pengurus, ProfilBDL, BDL, PengurusBDL, HistoryGajiPokok, HistoryTunjangan, KewajibanPegawai, PerhitunganPesangon</t>
+  </si>
+  <si>
+    <t>FiturUmum.Notifikasi, GPRM.Bank, GPRM.Pengurus, BDL, ProfilBDL, KAP, JenisKAP, AdministrasiKAP, NilaiAspekAdministratif, KelengkapanDokumen, TeknisPengalamanKAP, RincianNilaiTeknis, RincianNilaiPengalaman, RincianNilaiPersonilAP, RincianNilaiBiaya, RincianHasilPenilaian</t>
   </si>
 </sst>
 </file>
@@ -4249,7 +4237,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15F4E332-D133-4B0A-92C1-5633636035DF}">
   <dimension ref="B3:G72"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -4932,8 +4920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B759393E-1290-4E33-A086-7F2745429EA5}">
   <dimension ref="B3:G72"/>
   <sheetViews>
-    <sheetView topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -4942,7 +4930,7 @@
     <col min="2" max="2" width="3.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41.453125" style="15" customWidth="1"/>
     <col min="4" max="4" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="105.54296875" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="133.7265625" style="15" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
@@ -4968,7 +4956,7 @@
         <v>453</v>
       </c>
       <c r="D4" s="9"/>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="14" t="s">
         <v>495</v>
       </c>
     </row>
@@ -4980,7 +4968,7 @@
         <v>454</v>
       </c>
       <c r="D5" s="9"/>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="14" t="s">
         <v>495</v>
       </c>
     </row>
@@ -4992,11 +4980,11 @@
         <v>455</v>
       </c>
       <c r="D6" s="9"/>
-      <c r="E6" s="16" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="26" x14ac:dyDescent="0.3">
+      <c r="E6" s="14" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="9">
         <v>4</v>
       </c>
@@ -5004,11 +4992,11 @@
         <v>456</v>
       </c>
       <c r="D7" s="9"/>
-      <c r="E7" s="16" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="26" x14ac:dyDescent="0.3">
+      <c r="E7" s="14" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="9">
         <v>5</v>
       </c>
@@ -5016,12 +5004,12 @@
         <v>457</v>
       </c>
       <c r="D8" s="9"/>
-      <c r="E8" s="16" t="s">
-        <v>503</v>
+      <c r="E8" s="14" t="s">
+        <v>502</v>
       </c>
       <c r="G8" s="10"/>
     </row>
-    <row r="9" spans="2:7" ht="26" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="9">
         <v>6</v>
       </c>
@@ -5029,11 +5017,11 @@
         <v>458</v>
       </c>
       <c r="D9" s="9"/>
-      <c r="E9" s="16" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="26" x14ac:dyDescent="0.3">
+      <c r="E9" s="14" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="9">
         <v>7</v>
       </c>
@@ -5041,8 +5029,8 @@
         <v>459</v>
       </c>
       <c r="D10" s="9"/>
-      <c r="E10" s="16" t="s">
-        <v>500</v>
+      <c r="E10" s="14" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
@@ -5053,7 +5041,7 @@
         <v>460</v>
       </c>
       <c r="D11" s="9"/>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="14" t="s">
         <v>497</v>
       </c>
     </row>
@@ -5065,11 +5053,11 @@
         <v>461</v>
       </c>
       <c r="D12" s="9"/>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="14" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="26" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="9">
         <v>10</v>
       </c>
@@ -5077,11 +5065,11 @@
         <v>462</v>
       </c>
       <c r="D13" s="9"/>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="14" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="26" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="9">
         <v>11</v>
       </c>
@@ -5089,11 +5077,11 @@
         <v>463</v>
       </c>
       <c r="D14" s="9"/>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="14" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="26" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="9">
         <v>12</v>
       </c>
@@ -5101,11 +5089,11 @@
         <v>496</v>
       </c>
       <c r="D15" s="9"/>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="14" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="16" spans="2:7" ht="26" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" s="9">
         <v>13</v>
       </c>
@@ -5113,11 +5101,11 @@
         <v>465</v>
       </c>
       <c r="D16" s="9"/>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="14" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="26" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="9">
         <v>14</v>
       </c>
@@ -5125,11 +5113,11 @@
         <v>466</v>
       </c>
       <c r="D17" s="9"/>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="14" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="26" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="9">
         <v>15</v>
       </c>
@@ -5137,11 +5125,11 @@
         <v>467</v>
       </c>
       <c r="D18" s="9"/>
-      <c r="E18" s="16" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="E18" s="14" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="9">
         <v>16</v>
       </c>
@@ -5149,11 +5137,11 @@
         <v>468</v>
       </c>
       <c r="D19" s="9"/>
-      <c r="E19" s="16" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="E19" s="14" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="9">
         <v>17</v>
       </c>
@@ -5161,11 +5149,11 @@
         <v>469</v>
       </c>
       <c r="D20" s="9"/>
-      <c r="E20" s="16" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="E20" s="14" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="9">
         <v>18</v>
       </c>
@@ -5173,11 +5161,11 @@
         <v>470</v>
       </c>
       <c r="D21" s="9"/>
-      <c r="E21" s="16" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="E21" s="14" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="9">
         <v>19</v>
       </c>
@@ -5185,11 +5173,11 @@
         <v>471</v>
       </c>
       <c r="D22" s="9"/>
-      <c r="E22" s="16" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="E22" s="14" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="9">
         <v>20</v>
       </c>
@@ -5197,11 +5185,11 @@
         <v>472</v>
       </c>
       <c r="D23" s="9"/>
-      <c r="E23" s="16" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="E23" s="14" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="9">
         <v>21</v>
       </c>
@@ -5209,11 +5197,11 @@
         <v>473</v>
       </c>
       <c r="D24" s="9"/>
-      <c r="E24" s="16" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="E24" s="14" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="9">
         <v>22</v>
       </c>
@@ -5221,11 +5209,11 @@
         <v>474</v>
       </c>
       <c r="D25" s="9"/>
-      <c r="E25" s="16" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="E25" s="14" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="9">
         <v>23</v>
       </c>
@@ -5233,8 +5221,8 @@
         <v>475</v>
       </c>
       <c r="D26" s="9"/>
-      <c r="E26" s="16" t="s">
-        <v>528</v>
+      <c r="E26" s="14" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
@@ -5243,7 +5231,7 @@
       </c>
       <c r="C27" s="14"/>
       <c r="D27" s="9"/>
-      <c r="E27" s="16"/>
+      <c r="E27" s="14"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="9">
@@ -5251,7 +5239,7 @@
       </c>
       <c r="C28" s="14"/>
       <c r="D28" s="9"/>
-      <c r="E28" s="16"/>
+      <c r="E28" s="14"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" s="9">
@@ -5259,7 +5247,7 @@
       </c>
       <c r="C29" s="14"/>
       <c r="D29" s="9"/>
-      <c r="E29" s="16"/>
+      <c r="E29" s="14"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" s="9">
@@ -5267,7 +5255,7 @@
       </c>
       <c r="C30" s="14"/>
       <c r="D30" s="9"/>
-      <c r="E30" s="16"/>
+      <c r="E30" s="14"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B31" s="9">
@@ -5275,7 +5263,7 @@
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="9"/>
-      <c r="E31" s="16"/>
+      <c r="E31" s="14"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B32" s="9">
@@ -5283,7 +5271,7 @@
       </c>
       <c r="C32" s="14"/>
       <c r="D32" s="9"/>
-      <c r="E32" s="16"/>
+      <c r="E32" s="14"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" s="9">
@@ -5291,7 +5279,7 @@
       </c>
       <c r="C33" s="14"/>
       <c r="D33" s="9"/>
-      <c r="E33" s="16"/>
+      <c r="E33" s="14"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34" s="9">
@@ -5299,7 +5287,7 @@
       </c>
       <c r="C34" s="14"/>
       <c r="D34" s="9"/>
-      <c r="E34" s="16"/>
+      <c r="E34" s="14"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" s="9">
@@ -5307,7 +5295,7 @@
       </c>
       <c r="C35" s="14"/>
       <c r="D35" s="9"/>
-      <c r="E35" s="16"/>
+      <c r="E35" s="14"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36" s="9">
@@ -5315,7 +5303,7 @@
       </c>
       <c r="C36" s="14"/>
       <c r="D36" s="9"/>
-      <c r="E36" s="16"/>
+      <c r="E36" s="14"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37" s="9">
@@ -5323,7 +5311,7 @@
       </c>
       <c r="C37" s="14"/>
       <c r="D37" s="9"/>
-      <c r="E37" s="16"/>
+      <c r="E37" s="14"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38" s="9">
@@ -5331,7 +5319,7 @@
       </c>
       <c r="C38" s="14"/>
       <c r="D38" s="9"/>
-      <c r="E38" s="16"/>
+      <c r="E38" s="14"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B39" s="9">
@@ -5339,7 +5327,7 @@
       </c>
       <c r="C39" s="14"/>
       <c r="D39" s="9"/>
-      <c r="E39" s="16"/>
+      <c r="E39" s="14"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B40" s="9">
@@ -5347,7 +5335,7 @@
       </c>
       <c r="C40" s="14"/>
       <c r="D40" s="9"/>
-      <c r="E40" s="16"/>
+      <c r="E40" s="14"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B41" s="9">
@@ -5355,7 +5343,7 @@
       </c>
       <c r="C41" s="14"/>
       <c r="D41" s="9"/>
-      <c r="E41" s="16"/>
+      <c r="E41" s="14"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B42" s="9">
@@ -5363,7 +5351,7 @@
       </c>
       <c r="C42" s="14"/>
       <c r="D42" s="9"/>
-      <c r="E42" s="16"/>
+      <c r="E42" s="14"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B43" s="9">
@@ -5371,7 +5359,7 @@
       </c>
       <c r="C43" s="14"/>
       <c r="D43" s="9"/>
-      <c r="E43" s="16"/>
+      <c r="E43" s="14"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B44" s="9">
@@ -5379,7 +5367,7 @@
       </c>
       <c r="C44" s="14"/>
       <c r="D44" s="9"/>
-      <c r="E44" s="16"/>
+      <c r="E44" s="14"/>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B45" s="9">
@@ -5387,7 +5375,7 @@
       </c>
       <c r="C45" s="14"/>
       <c r="D45" s="9"/>
-      <c r="E45" s="16"/>
+      <c r="E45" s="14"/>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B46" s="9">
@@ -5395,7 +5383,7 @@
       </c>
       <c r="C46" s="14"/>
       <c r="D46" s="9"/>
-      <c r="E46" s="16"/>
+      <c r="E46" s="14"/>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B47" s="9">
@@ -5403,7 +5391,7 @@
       </c>
       <c r="C47" s="14"/>
       <c r="D47" s="9"/>
-      <c r="E47" s="16"/>
+      <c r="E47" s="14"/>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B48" s="9">
@@ -5411,7 +5399,7 @@
       </c>
       <c r="C48" s="14"/>
       <c r="D48" s="9"/>
-      <c r="E48" s="16"/>
+      <c r="E48" s="14"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B49" s="9">
@@ -5419,7 +5407,7 @@
       </c>
       <c r="C49" s="14"/>
       <c r="D49" s="9"/>
-      <c r="E49" s="16"/>
+      <c r="E49" s="14"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B50" s="9">
@@ -5427,7 +5415,7 @@
       </c>
       <c r="C50" s="14"/>
       <c r="D50" s="9"/>
-      <c r="E50" s="16"/>
+      <c r="E50" s="14"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B51" s="9">
@@ -5435,7 +5423,7 @@
       </c>
       <c r="C51" s="14"/>
       <c r="D51" s="9"/>
-      <c r="E51" s="16"/>
+      <c r="E51" s="14"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B52" s="9">
@@ -5443,7 +5431,7 @@
       </c>
       <c r="C52" s="14"/>
       <c r="D52" s="9"/>
-      <c r="E52" s="16"/>
+      <c r="E52" s="14"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B53" s="9">
@@ -5451,7 +5439,7 @@
       </c>
       <c r="C53" s="14"/>
       <c r="D53" s="9"/>
-      <c r="E53" s="16"/>
+      <c r="E53" s="14"/>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B54" s="9">
@@ -5459,7 +5447,7 @@
       </c>
       <c r="C54" s="14"/>
       <c r="D54" s="9"/>
-      <c r="E54" s="16"/>
+      <c r="E54" s="14"/>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B55" s="9">
@@ -5467,7 +5455,7 @@
       </c>
       <c r="C55" s="14"/>
       <c r="D55" s="9"/>
-      <c r="E55" s="16"/>
+      <c r="E55" s="14"/>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B56" s="9">
@@ -5475,7 +5463,7 @@
       </c>
       <c r="C56" s="14"/>
       <c r="D56" s="9"/>
-      <c r="E56" s="16"/>
+      <c r="E56" s="14"/>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B57" s="9">
@@ -5483,7 +5471,7 @@
       </c>
       <c r="C57" s="14"/>
       <c r="D57" s="9"/>
-      <c r="E57" s="16"/>
+      <c r="E57" s="14"/>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B58" s="9">
@@ -5491,7 +5479,7 @@
       </c>
       <c r="C58" s="14"/>
       <c r="D58" s="9"/>
-      <c r="E58" s="16"/>
+      <c r="E58" s="14"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B59" s="9">
@@ -5499,7 +5487,7 @@
       </c>
       <c r="C59" s="14"/>
       <c r="D59" s="9"/>
-      <c r="E59" s="16"/>
+      <c r="E59" s="14"/>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B60" s="9">
@@ -5507,7 +5495,7 @@
       </c>
       <c r="C60" s="14"/>
       <c r="D60" s="9"/>
-      <c r="E60" s="16"/>
+      <c r="E60" s="14"/>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B61" s="9">
@@ -5515,7 +5503,7 @@
       </c>
       <c r="C61" s="14"/>
       <c r="D61" s="9"/>
-      <c r="E61" s="16"/>
+      <c r="E61" s="14"/>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B62" s="9">
@@ -5523,7 +5511,7 @@
       </c>
       <c r="C62" s="14"/>
       <c r="D62" s="9"/>
-      <c r="E62" s="16"/>
+      <c r="E62" s="14"/>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B63" s="9">
@@ -5531,7 +5519,7 @@
       </c>
       <c r="C63" s="14"/>
       <c r="D63" s="9"/>
-      <c r="E63" s="16"/>
+      <c r="E63" s="14"/>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B64" s="9">
@@ -5539,7 +5527,7 @@
       </c>
       <c r="C64" s="14"/>
       <c r="D64" s="9"/>
-      <c r="E64" s="16"/>
+      <c r="E64" s="14"/>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B65" s="9">
@@ -5547,7 +5535,7 @@
       </c>
       <c r="C65" s="14"/>
       <c r="D65" s="9"/>
-      <c r="E65" s="16"/>
+      <c r="E65" s="14"/>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B66" s="9">
@@ -5555,7 +5543,7 @@
       </c>
       <c r="C66" s="14"/>
       <c r="D66" s="9"/>
-      <c r="E66" s="16"/>
+      <c r="E66" s="14"/>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B67" s="9">
@@ -5563,7 +5551,7 @@
       </c>
       <c r="C67" s="14"/>
       <c r="D67" s="9"/>
-      <c r="E67" s="16"/>
+      <c r="E67" s="14"/>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B68" s="9">
@@ -5571,7 +5559,7 @@
       </c>
       <c r="C68" s="14"/>
       <c r="D68" s="9"/>
-      <c r="E68" s="16"/>
+      <c r="E68" s="14"/>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B69" s="9">
@@ -5579,7 +5567,7 @@
       </c>
       <c r="C69" s="14"/>
       <c r="D69" s="9"/>
-      <c r="E69" s="16"/>
+      <c r="E69" s="14"/>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B70" s="9">
@@ -5587,7 +5575,7 @@
       </c>
       <c r="C70" s="14"/>
       <c r="D70" s="9"/>
-      <c r="E70" s="16"/>
+      <c r="E70" s="14"/>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B71" s="9">
@@ -5595,7 +5583,7 @@
       </c>
       <c r="C71" s="14"/>
       <c r="D71" s="9"/>
-      <c r="E71" s="16"/>
+      <c r="E71" s="14"/>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B72" s="9">
@@ -5615,8 +5603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78815AC8-C3A4-42A1-9CFB-16EE2CA78EFD}">
   <dimension ref="B3:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26:E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -5625,7 +5613,7 @@
     <col min="2" max="2" width="3.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="58.81640625" style="15" customWidth="1"/>
     <col min="4" max="4" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="122.81640625" style="25" customWidth="1"/>
+    <col min="5" max="5" width="146.6328125" style="25" customWidth="1"/>
     <col min="6" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
@@ -5676,7 +5664,7 @@
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="16" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
@@ -5688,7 +5676,7 @@
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="16" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
@@ -5700,7 +5688,7 @@
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="16" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="G8" s="6"/>
     </row>
@@ -5713,7 +5701,7 @@
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="16" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="G9" s="6"/>
     </row>
@@ -5738,7 +5726,7 @@
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="16" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
@@ -5750,7 +5738,7 @@
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="16" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
@@ -5762,7 +5750,7 @@
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="16" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
@@ -5774,7 +5762,7 @@
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="16" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
@@ -5786,7 +5774,7 @@
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="16" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
@@ -5798,7 +5786,7 @@
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="16" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
@@ -5822,7 +5810,7 @@
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="16" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
@@ -5834,10 +5822,10 @@
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="16" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="26" x14ac:dyDescent="0.3">
       <c r="B20" s="9">
         <v>17</v>
       </c>
@@ -5846,10 +5834,10 @@
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="16" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="26" x14ac:dyDescent="0.3">
       <c r="B21" s="9">
         <v>18</v>
       </c>
@@ -5858,7 +5846,7 @@
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="16" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="26" x14ac:dyDescent="0.3">
@@ -5870,7 +5858,7 @@
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="16" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
@@ -5882,7 +5870,7 @@
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="16" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
@@ -5894,7 +5882,7 @@
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="16" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
@@ -5906,71 +5894,83 @@
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="16" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="9">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="B26" s="26">
         <v>23</v>
       </c>
       <c r="C26" s="14" t="s">
         <v>403</v>
       </c>
       <c r="D26" s="9"/>
-      <c r="E26" s="16"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="9">
+      <c r="E26" s="16" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="B27" s="26">
         <v>24</v>
       </c>
       <c r="C27" s="14" t="s">
         <v>404</v>
       </c>
       <c r="D27" s="9"/>
-      <c r="E27" s="16"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="9">
+      <c r="E27" s="16" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="B28" s="26">
         <v>25</v>
       </c>
       <c r="C28" s="14" t="s">
         <v>405</v>
       </c>
       <c r="D28" s="9"/>
-      <c r="E28" s="16"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="9">
+      <c r="E28" s="16" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="B29" s="26">
         <v>26</v>
       </c>
       <c r="C29" s="14" t="s">
         <v>406</v>
       </c>
       <c r="D29" s="9"/>
-      <c r="E29" s="16"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="9">
+      <c r="E29" s="16" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="B30" s="26">
         <v>27</v>
       </c>
       <c r="C30" s="14" t="s">
         <v>407</v>
       </c>
       <c r="D30" s="9"/>
-      <c r="E30" s="16"/>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B31" s="9">
+      <c r="E30" s="16" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="B31" s="26">
         <v>28</v>
       </c>
       <c r="C31" s="14" t="s">
         <v>408</v>
       </c>
       <c r="D31" s="9"/>
-      <c r="E31" s="16"/>
+      <c r="E31" s="16" t="s">
+        <v>536</v>
+      </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B32" s="9">
+      <c r="B32" s="26">
         <v>29</v>
       </c>
       <c r="C32" s="14" t="s">
@@ -6422,11 +6422,11 @@
         <v>1</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="27" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
@@ -6434,11 +6434,11 @@
         <v>2</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="28" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
@@ -6446,11 +6446,11 @@
         <v>3</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="28" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
@@ -6458,11 +6458,11 @@
         <v>4</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="29" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
@@ -6470,7 +6470,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="16"/>
@@ -6481,7 +6481,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="16"/>
@@ -6492,7 +6492,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="16"/>
@@ -6502,7 +6502,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="16"/>
@@ -6512,7 +6512,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="16"/>
@@ -6522,7 +6522,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="16"/>
@@ -6532,7 +6532,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="16"/>
@@ -6542,7 +6542,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="16"/>
@@ -6552,7 +6552,7 @@
         <v>13</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="16"/>
@@ -6562,7 +6562,7 @@
         <v>14</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="16"/>
@@ -6572,7 +6572,7 @@
         <v>15</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="16"/>
@@ -6582,7 +6582,7 @@
         <v>16</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="16"/>
@@ -6592,7 +6592,7 @@
         <v>17</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="16"/>
@@ -6602,7 +6602,7 @@
         <v>18</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="16"/>
@@ -6612,7 +6612,7 @@
         <v>19</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="16"/>
@@ -6622,7 +6622,7 @@
         <v>20</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="16"/>
@@ -6632,7 +6632,7 @@
         <v>21</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="16"/>
@@ -6642,7 +6642,7 @@
         <v>22</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="16"/>
@@ -6652,7 +6652,7 @@
         <v>23</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="16"/>
@@ -6662,7 +6662,7 @@
         <v>24</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="16"/>

--- a/GLIK Domain Mapping.xlsx
+++ b/GLIK Domain Mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toshiba\Documents\GitHub\GLIK-DM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D081466-F32C-4F9F-AB6A-93952A5BC884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{396E11BC-C1AF-48A9-9FD7-AC89B0E57786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{BC9BC3D9-6FF2-4CB4-96B2-33CE5FEE1DBD}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="537">
   <si>
     <t>Kode Fitur</t>
   </si>
@@ -1707,7 +1707,7 @@
     <t>FiturUmum.Notifikasi, GPRM.Bank, GPRM.Pengurus, ProfilBDL, BDL, PengurusBDL, HistoryGajiPokok, HistoryTunjangan, KewajibanPegawai, PerhitunganPesangon</t>
   </si>
   <si>
-    <t>FiturUmum.Notifikasi, GPRM.Bank, GPRM.Pengurus, BDL, ProfilBDL, KAP, JenisKAP, AdministrasiKAP, NilaiAspekAdministratif, KelengkapanDokumen, TeknisPengalamanKAP, RincianNilaiTeknis, RincianNilaiPengalaman, RincianNilaiPersonilAP, RincianNilaiBiaya, RincianHasilPenilaian</t>
+    <t>FiturUmum.Notifikasi, GPRM.Bank, GPRM.Pengurus, BDL, ProfilBDL, KAP, JenisKAP, AdministrasiKAP, NilaiAspekAdministratif, KelengkapanDokumen, TeknisPengalamanKAP, RincianNilaiTeknis, RincianNilaiPengalaman, RincianNilaiPersonilAP, RincianNilaiBiaya, RincianHasilPenilaian, RencianKecakupan</t>
   </si>
 </sst>
 </file>
@@ -1912,7 +1912,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1994,6 +1994,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2312,8 +2315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D12CE7C-BBBA-4F59-8D7F-3CFDA3C7ABC8}">
   <dimension ref="B2:E191"/>
   <sheetViews>
-    <sheetView topLeftCell="A171" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4237,7 +4240,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15F4E332-D133-4B0A-92C1-5633636035DF}">
   <dimension ref="B3:G72"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -4920,8 +4923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B759393E-1290-4E33-A086-7F2745429EA5}">
   <dimension ref="B3:G72"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -5603,8 +5606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78815AC8-C3A4-42A1-9CFB-16EE2CA78EFD}">
   <dimension ref="B3:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26:E31"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -5898,7 +5901,7 @@
       </c>
     </row>
     <row r="26" spans="2:5" ht="26" x14ac:dyDescent="0.3">
-      <c r="B26" s="26">
+      <c r="B26" s="35">
         <v>23</v>
       </c>
       <c r="C26" s="14" t="s">
@@ -5910,7 +5913,7 @@
       </c>
     </row>
     <row r="27" spans="2:5" ht="26" x14ac:dyDescent="0.3">
-      <c r="B27" s="26">
+      <c r="B27" s="35">
         <v>24</v>
       </c>
       <c r="C27" s="14" t="s">
@@ -5922,7 +5925,7 @@
       </c>
     </row>
     <row r="28" spans="2:5" ht="26" x14ac:dyDescent="0.3">
-      <c r="B28" s="26">
+      <c r="B28" s="35">
         <v>25</v>
       </c>
       <c r="C28" s="14" t="s">
@@ -5934,7 +5937,7 @@
       </c>
     </row>
     <row r="29" spans="2:5" ht="26" x14ac:dyDescent="0.3">
-      <c r="B29" s="26">
+      <c r="B29" s="35">
         <v>26</v>
       </c>
       <c r="C29" s="14" t="s">
@@ -5946,7 +5949,7 @@
       </c>
     </row>
     <row r="30" spans="2:5" ht="26" x14ac:dyDescent="0.3">
-      <c r="B30" s="26">
+      <c r="B30" s="35">
         <v>27</v>
       </c>
       <c r="C30" s="14" t="s">
@@ -5958,7 +5961,7 @@
       </c>
     </row>
     <row r="31" spans="2:5" ht="26" x14ac:dyDescent="0.3">
-      <c r="B31" s="26">
+      <c r="B31" s="35">
         <v>28</v>
       </c>
       <c r="C31" s="14" t="s">
@@ -5969,15 +5972,17 @@
         <v>536</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B32" s="26">
+    <row r="32" spans="2:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="B32" s="35">
         <v>29</v>
       </c>
       <c r="C32" s="14" t="s">
         <v>409</v>
       </c>
       <c r="D32" s="9"/>
-      <c r="E32" s="16"/>
+      <c r="E32" s="16" t="s">
+        <v>536</v>
+      </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" s="9">

--- a/GLIK Domain Mapping.xlsx
+++ b/GLIK Domain Mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toshiba\Documents\GitHub\GLIK-DM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{396E11BC-C1AF-48A9-9FD7-AC89B0E57786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AFEDA8B-D54A-46E1-81C6-7B2CF5D6E6A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{BC9BC3D9-6FF2-4CB4-96B2-33CE5FEE1DBD}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="538">
   <si>
     <t>Kode Fitur</t>
   </si>
@@ -1707,7 +1707,10 @@
     <t>FiturUmum.Notifikasi, GPRM.Bank, GPRM.Pengurus, ProfilBDL, BDL, PengurusBDL, HistoryGajiPokok, HistoryTunjangan, KewajibanPegawai, PerhitunganPesangon</t>
   </si>
   <si>
-    <t>FiturUmum.Notifikasi, GPRM.Bank, GPRM.Pengurus, BDL, ProfilBDL, KAP, JenisKAP, AdministrasiKAP, NilaiAspekAdministratif, KelengkapanDokumen, TeknisPengalamanKAP, RincianNilaiTeknis, RincianNilaiPengalaman, RincianNilaiPersonilAP, RincianNilaiBiaya, RincianHasilPenilaian, RencianKecakupan</t>
+    <t>FiturUmum.Notifikasi, GPRM.Bank, GPRM.Pengurus, BDL, ProfilBDL, KAP, JenisKAP, AdministrasiKAP, NilaiAspekAdministratif, KelengkapanDokumen, TeknisPengalamanKAP, RincianNilaiTeknis, RincianNilaiPengalaman, RincianNilaiPersonilAP, RincianNilaiBiaya, RincianHasilPenilaian, RincianKecakupan</t>
+  </si>
+  <si>
+    <t>FiturUmum.Notifikasi, FiturUmum.Repository, FiturUmum.CheckList, GPRM.Bank, GPRM.Jaringan, BDL, ProfilBDL, NeracaPenutupAudit, DocGLIK, DocNeracaPenutupAudit, KoreksiNeracaPA, KodeTransaksi, KodeCabangBDL, MasterStatus</t>
   </si>
 </sst>
 </file>
@@ -1981,6 +1984,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1994,9 +2000,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3144,7 +3147,7 @@
       <c r="E82" s="8"/>
     </row>
     <row r="83" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="30" t="s">
+      <c r="B83" s="31" t="s">
         <v>164</v>
       </c>
       <c r="C83" s="3" t="s">
@@ -3154,7 +3157,7 @@
       <c r="E83" s="8"/>
     </row>
     <row r="84" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="30"/>
+      <c r="B84" s="31"/>
       <c r="C84" s="4" t="s">
         <v>359</v>
       </c>
@@ -3162,7 +3165,7 @@
       <c r="E84" s="8"/>
     </row>
     <row r="85" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="30"/>
+      <c r="B85" s="31"/>
       <c r="C85" s="4" t="s">
         <v>360</v>
       </c>
@@ -3170,7 +3173,7 @@
       <c r="E85" s="8"/>
     </row>
     <row r="86" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="30"/>
+      <c r="B86" s="31"/>
       <c r="C86" s="4" t="s">
         <v>361</v>
       </c>
@@ -4923,8 +4926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B759393E-1290-4E33-A086-7F2745429EA5}">
   <dimension ref="B3:G72"/>
   <sheetViews>
-    <sheetView topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -5606,8 +5609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78815AC8-C3A4-42A1-9CFB-16EE2CA78EFD}">
   <dimension ref="B3:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="D25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33:E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -5901,7 +5904,7 @@
       </c>
     </row>
     <row r="26" spans="2:5" ht="26" x14ac:dyDescent="0.3">
-      <c r="B26" s="35">
+      <c r="B26" s="30">
         <v>23</v>
       </c>
       <c r="C26" s="14" t="s">
@@ -5913,7 +5916,7 @@
       </c>
     </row>
     <row r="27" spans="2:5" ht="26" x14ac:dyDescent="0.3">
-      <c r="B27" s="35">
+      <c r="B27" s="30">
         <v>24</v>
       </c>
       <c r="C27" s="14" t="s">
@@ -5925,7 +5928,7 @@
       </c>
     </row>
     <row r="28" spans="2:5" ht="26" x14ac:dyDescent="0.3">
-      <c r="B28" s="35">
+      <c r="B28" s="30">
         <v>25</v>
       </c>
       <c r="C28" s="14" t="s">
@@ -5937,7 +5940,7 @@
       </c>
     </row>
     <row r="29" spans="2:5" ht="26" x14ac:dyDescent="0.3">
-      <c r="B29" s="35">
+      <c r="B29" s="30">
         <v>26</v>
       </c>
       <c r="C29" s="14" t="s">
@@ -5949,7 +5952,7 @@
       </c>
     </row>
     <row r="30" spans="2:5" ht="26" x14ac:dyDescent="0.3">
-      <c r="B30" s="35">
+      <c r="B30" s="30">
         <v>27</v>
       </c>
       <c r="C30" s="14" t="s">
@@ -5961,7 +5964,7 @@
       </c>
     </row>
     <row r="31" spans="2:5" ht="26" x14ac:dyDescent="0.3">
-      <c r="B31" s="35">
+      <c r="B31" s="30">
         <v>28</v>
       </c>
       <c r="C31" s="14" t="s">
@@ -5973,7 +5976,7 @@
       </c>
     </row>
     <row r="32" spans="2:5" ht="26" x14ac:dyDescent="0.3">
-      <c r="B32" s="35">
+      <c r="B32" s="30">
         <v>29</v>
       </c>
       <c r="C32" s="14" t="s">
@@ -5984,28 +5987,32 @@
         <v>536</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B33" s="9">
+    <row r="33" spans="2:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="B33" s="26">
         <v>30</v>
       </c>
       <c r="C33" s="14" t="s">
         <v>410</v>
       </c>
       <c r="D33" s="9"/>
-      <c r="E33" s="16"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B34" s="9">
+      <c r="E33" s="16" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="B34" s="26">
         <v>31</v>
       </c>
       <c r="C34" s="14" t="s">
         <v>411</v>
       </c>
       <c r="D34" s="9"/>
-      <c r="E34" s="16"/>
+      <c r="E34" s="16" t="s">
+        <v>537</v>
+      </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B35" s="9">
+      <c r="B35" s="26">
         <v>32</v>
       </c>
       <c r="C35" s="14" t="s">
@@ -7078,24 +7085,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="34" t="s">
         <v>379</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="32" t="s">
         <v>492</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="34" t="s">
+      <c r="D2" s="33"/>
+      <c r="E2" s="35" t="s">
         <v>492</v>
       </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34" t="s">
+      <c r="F2" s="35"/>
+      <c r="G2" s="35" t="s">
         <v>493</v>
       </c>
-      <c r="H2" s="34"/>
+      <c r="H2" s="35"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="33"/>
+      <c r="B3" s="34"/>
       <c r="C3" s="23" t="s">
         <v>490</v>
       </c>

--- a/GLIK Domain Mapping.xlsx
+++ b/GLIK Domain Mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toshiba\Documents\GitHub\GLIK-DM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AFEDA8B-D54A-46E1-81C6-7B2CF5D6E6A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E5323B0-EC2E-4AF4-B3CD-6115308682CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{BC9BC3D9-6FF2-4CB4-96B2-33CE5FEE1DBD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="4" xr2:uid="{BC9BC3D9-6FF2-4CB4-96B2-33CE5FEE1DBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Fitur Item" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="541">
   <si>
     <t>Kode Fitur</t>
   </si>
@@ -1683,9 +1683,6 @@
     <t>FiturUmum.Notifikasi, FiturUmum.Repository, GPRM.Bank, GRPM.Jaringan, BDL,  Aset, PengamananAset, ChecklistDocRUPS, DocRUPS, DocGLIK, MasterStatus</t>
   </si>
   <si>
-    <t>SisaAsetHasilLikuidasi, DocHasilLikuidasi, ChecklistDocSisaAset, JenisDocHistory</t>
-  </si>
-  <si>
     <t>FiturUmum.Repository, FiturUmum.Notifikasi, GPRM.Bank, GPRM.Pengurus, BDL, ProfilBDL, PembubaranBadanHukum, DocBadanHukum, MasterStatus</t>
   </si>
   <si>
@@ -1710,14 +1707,26 @@
     <t>FiturUmum.Notifikasi, GPRM.Bank, GPRM.Pengurus, BDL, ProfilBDL, KAP, JenisKAP, AdministrasiKAP, NilaiAspekAdministratif, KelengkapanDokumen, TeknisPengalamanKAP, RincianNilaiTeknis, RincianNilaiPengalaman, RincianNilaiPersonilAP, RincianNilaiBiaya, RincianHasilPenilaian, RincianKecakupan</t>
   </si>
   <si>
-    <t>FiturUmum.Notifikasi, FiturUmum.Repository, FiturUmum.CheckList, GPRM.Bank, GPRM.Jaringan, BDL, ProfilBDL, NeracaPenutupAudit, DocGLIK, DocNeracaPenutupAudit, KoreksiNeracaPA, KodeTransaksi, KodeCabangBDL, MasterStatus</t>
+    <t>FiturUmum.Notifikasi, FiturUmum.Repository, FiturUmum.CheckList, GPRM.Bank, GPRM.Jaringan, BDL, ProfilBDL, NeracaPenutupAudit, DocGLIK, DocNeracaPenutupAudit, KoreksiNeracaPA, KodeTransaksi, JenisTransaksi, KodeCabangBDL, MasterStatus</t>
+  </si>
+  <si>
+    <t>FiturUmum.Repository, BDL, DocGLIK, PerpanjanganAnalisaEPPA, HistoryPerpanjanganEPPA</t>
+  </si>
+  <si>
+    <t>FiturUmum.Repository, BDL, DocGLIK, DocLPJTL, PengajuanLanir, Aset</t>
+  </si>
+  <si>
+    <t>FiturUmum.Repository, BDL, DocGLIK, DocLPJTL, PengajuanLanir, Aset, MasterStatus</t>
+  </si>
+  <si>
+    <t>SisaAsetHasilLikuidasi, DocHasilLikuidasi, ChecklistDocSisaAset</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1766,13 +1775,8 @@
       <color rgb="FF000000"/>
       <name val="Helvetica"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1815,8 +1819,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1874,48 +1884,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1981,9 +1954,6 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2001,6 +1971,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3147,7 +3123,7 @@
       <c r="E82" s="8"/>
     </row>
     <row r="83" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="31" t="s">
+      <c r="B83" s="28" t="s">
         <v>164</v>
       </c>
       <c r="C83" s="3" t="s">
@@ -3157,7 +3133,7 @@
       <c r="E83" s="8"/>
     </row>
     <row r="84" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="31"/>
+      <c r="B84" s="28"/>
       <c r="C84" s="4" t="s">
         <v>359</v>
       </c>
@@ -3165,7 +3141,7 @@
       <c r="E84" s="8"/>
     </row>
     <row r="85" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="31"/>
+      <c r="B85" s="28"/>
       <c r="C85" s="4" t="s">
         <v>360</v>
       </c>
@@ -3173,7 +3149,7 @@
       <c r="E85" s="8"/>
     </row>
     <row r="86" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="31"/>
+      <c r="B86" s="28"/>
       <c r="C86" s="4" t="s">
         <v>361</v>
       </c>
@@ -4926,8 +4902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B759393E-1290-4E33-A086-7F2745429EA5}">
   <dimension ref="B3:G72"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -5144,7 +5120,7 @@
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="14" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
@@ -5156,7 +5132,7 @@
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="14" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
@@ -5168,7 +5144,7 @@
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="14" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
@@ -5180,7 +5156,7 @@
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="14" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
@@ -5609,8 +5585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78815AC8-C3A4-42A1-9CFB-16EE2CA78EFD}">
   <dimension ref="B3:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33:E34"/>
+    <sheetView topLeftCell="A31" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -5670,7 +5646,7 @@
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="16" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
@@ -5682,7 +5658,7 @@
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="16" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
@@ -5694,7 +5670,7 @@
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="16" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G8" s="6"/>
     </row>
@@ -5707,7 +5683,7 @@
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="16" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G9" s="6"/>
     </row>
@@ -5732,7 +5708,7 @@
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="16" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
@@ -5744,7 +5720,7 @@
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="16" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
@@ -5756,7 +5732,7 @@
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="16" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
@@ -5768,7 +5744,7 @@
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="16" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
@@ -5780,7 +5756,7 @@
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="16" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
@@ -5792,7 +5768,7 @@
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="16" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
@@ -5804,7 +5780,7 @@
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="16" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
@@ -5816,7 +5792,7 @@
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="16" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
@@ -5828,7 +5804,7 @@
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="16" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="26" x14ac:dyDescent="0.3">
@@ -5840,7 +5816,7 @@
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="16" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="26" x14ac:dyDescent="0.3">
@@ -5852,7 +5828,7 @@
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="16" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="26" x14ac:dyDescent="0.3">
@@ -5864,7 +5840,7 @@
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="16" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
@@ -5876,7 +5852,7 @@
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="16" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
@@ -5888,7 +5864,7 @@
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="16" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
@@ -5900,11 +5876,11 @@
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="16" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="26" x14ac:dyDescent="0.3">
-      <c r="B26" s="30">
+      <c r="B26" s="27">
         <v>23</v>
       </c>
       <c r="C26" s="14" t="s">
@@ -5912,11 +5888,11 @@
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="16" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="26" x14ac:dyDescent="0.3">
-      <c r="B27" s="30">
+      <c r="B27" s="27">
         <v>24</v>
       </c>
       <c r="C27" s="14" t="s">
@@ -5924,11 +5900,11 @@
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="16" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="28" spans="2:5" ht="26" x14ac:dyDescent="0.3">
-      <c r="B28" s="30">
+      <c r="B28" s="27">
         <v>25</v>
       </c>
       <c r="C28" s="14" t="s">
@@ -5936,11 +5912,11 @@
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="16" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="29" spans="2:5" ht="26" x14ac:dyDescent="0.3">
-      <c r="B29" s="30">
+      <c r="B29" s="27">
         <v>26</v>
       </c>
       <c r="C29" s="14" t="s">
@@ -5948,11 +5924,11 @@
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="16" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="30" spans="2:5" ht="26" x14ac:dyDescent="0.3">
-      <c r="B30" s="30">
+      <c r="B30" s="27">
         <v>27</v>
       </c>
       <c r="C30" s="14" t="s">
@@ -5960,11 +5936,11 @@
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="16" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="26" x14ac:dyDescent="0.3">
-      <c r="B31" s="30">
+      <c r="B31" s="27">
         <v>28</v>
       </c>
       <c r="C31" s="14" t="s">
@@ -5972,11 +5948,11 @@
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="16" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="32" spans="2:5" ht="26" x14ac:dyDescent="0.3">
-      <c r="B32" s="30">
+      <c r="B32" s="27">
         <v>29</v>
       </c>
       <c r="C32" s="14" t="s">
@@ -5984,11 +5960,11 @@
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="16" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="33" spans="2:5" ht="26" x14ac:dyDescent="0.3">
-      <c r="B33" s="26">
+      <c r="B33" s="33">
         <v>30</v>
       </c>
       <c r="C33" s="14" t="s">
@@ -5996,11 +5972,11 @@
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="16" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="34" spans="2:5" ht="26" x14ac:dyDescent="0.3">
-      <c r="B34" s="26">
+      <c r="B34" s="33">
         <v>31</v>
       </c>
       <c r="C34" s="14" t="s">
@@ -6008,28 +5984,32 @@
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="16" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B35" s="26">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="B35" s="33">
         <v>32</v>
       </c>
       <c r="C35" s="14" t="s">
         <v>412</v>
       </c>
       <c r="D35" s="9"/>
-      <c r="E35" s="16"/>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B36" s="9">
+      <c r="E35" s="16" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="B36" s="33">
         <v>33</v>
       </c>
       <c r="C36" s="14" t="s">
         <v>413</v>
       </c>
       <c r="D36" s="9"/>
-      <c r="E36" s="16"/>
+      <c r="E36" s="16" t="s">
+        <v>536</v>
+      </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37" s="9">
@@ -6145,7 +6125,7 @@
       <c r="B48" s="9">
         <v>45</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="C48" s="34" t="s">
         <v>425</v>
       </c>
       <c r="D48" s="9"/>
@@ -6401,8 +6381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{527C0038-825B-49FE-8A49-D86AE1E3139F}">
   <dimension ref="B3:G72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -6430,51 +6410,51 @@
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="26">
+      <c r="B4" s="27">
         <v>1</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>503</v>
       </c>
       <c r="D4" s="9"/>
-      <c r="E4" s="27" t="s">
-        <v>528</v>
+      <c r="E4" s="22" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="26">
+      <c r="B5" s="27">
         <v>2</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>504</v>
       </c>
       <c r="D5" s="9"/>
-      <c r="E5" s="28" t="s">
-        <v>528</v>
+      <c r="E5" s="22" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="26">
+      <c r="B6" s="27">
         <v>3</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>505</v>
       </c>
       <c r="D6" s="9"/>
-      <c r="E6" s="28" t="s">
-        <v>528</v>
+      <c r="E6" s="22" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="26">
+      <c r="B7" s="27">
         <v>4</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>506</v>
       </c>
       <c r="D7" s="9"/>
-      <c r="E7" s="29" t="s">
-        <v>528</v>
+      <c r="E7" s="22" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
@@ -6485,7 +6465,9 @@
         <v>507</v>
       </c>
       <c r="D8" s="9"/>
-      <c r="E8" s="16"/>
+      <c r="E8" s="22" t="s">
+        <v>537</v>
+      </c>
       <c r="G8" s="6"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
@@ -6496,7 +6478,9 @@
         <v>508</v>
       </c>
       <c r="D9" s="9"/>
-      <c r="E9" s="16"/>
+      <c r="E9" s="22" t="s">
+        <v>537</v>
+      </c>
       <c r="G9" s="6"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
@@ -6507,30 +6491,36 @@
         <v>509</v>
       </c>
       <c r="D10" s="9"/>
-      <c r="E10" s="16"/>
+      <c r="E10" s="22" t="s">
+        <v>537</v>
+      </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="9">
+      <c r="B11" s="26">
         <v>8</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>510</v>
       </c>
       <c r="D11" s="9"/>
-      <c r="E11" s="16"/>
+      <c r="E11" s="16" t="s">
+        <v>539</v>
+      </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="9">
+      <c r="B12" s="26">
         <v>9</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>511</v>
       </c>
       <c r="D12" s="9"/>
-      <c r="E12" s="16"/>
+      <c r="E12" s="16" t="s">
+        <v>538</v>
+      </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="9">
+      <c r="B13" s="26">
         <v>10</v>
       </c>
       <c r="C13" s="14" t="s">
@@ -6540,7 +6530,7 @@
       <c r="E13" s="16"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="9">
+      <c r="B14" s="26">
         <v>11</v>
       </c>
       <c r="C14" s="14" t="s">
@@ -7085,24 +7075,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="31" t="s">
         <v>379</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="29" t="s">
         <v>492</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="35" t="s">
+      <c r="D2" s="30"/>
+      <c r="E2" s="32" t="s">
         <v>492</v>
       </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35" t="s">
+      <c r="F2" s="32"/>
+      <c r="G2" s="32" t="s">
         <v>493</v>
       </c>
-      <c r="H2" s="35"/>
+      <c r="H2" s="32"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="34"/>
+      <c r="B3" s="31"/>
       <c r="C3" s="23" t="s">
         <v>490</v>
       </c>

--- a/GLIK Domain Mapping.xlsx
+++ b/GLIK Domain Mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toshiba\Documents\GitHub\GLIK-DM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E5323B0-EC2E-4AF4-B3CD-6115308682CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F36DF0A0-BB80-49D8-857D-1E19E655E347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="4" xr2:uid="{BC9BC3D9-6FF2-4CB4-96B2-33CE5FEE1DBD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="4" xr2:uid="{BC9BC3D9-6FF2-4CB4-96B2-33CE5FEE1DBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Fitur Item" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="2. Pengawasan Likuidasi" sheetId="2" r:id="rId4"/>
     <sheet name="3. Pengakhiran Likuidasi " sheetId="8" r:id="rId5"/>
     <sheet name="Compare Table" sheetId="5" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="542">
   <si>
     <t>Kode Fitur</t>
   </si>
@@ -1713,13 +1714,16 @@
     <t>FiturUmum.Repository, BDL, DocGLIK, PerpanjanganAnalisaEPPA, HistoryPerpanjanganEPPA</t>
   </si>
   <si>
-    <t>FiturUmum.Repository, BDL, DocGLIK, DocLPJTL, PengajuanLanir, Aset</t>
-  </si>
-  <si>
     <t>FiturUmum.Repository, BDL, DocGLIK, DocLPJTL, PengajuanLanir, Aset, MasterStatus</t>
   </si>
   <si>
     <t>SisaAsetHasilLikuidasi, DocHasilLikuidasi, ChecklistDocSisaAset</t>
+  </si>
+  <si>
+    <t>Nama File</t>
+  </si>
+  <si>
+    <t>LANIR</t>
   </si>
 </sst>
 </file>
@@ -1957,6 +1961,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1971,12 +1981,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3123,7 +3127,7 @@
       <c r="E82" s="8"/>
     </row>
     <row r="83" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="28" t="s">
+      <c r="B83" s="30" t="s">
         <v>164</v>
       </c>
       <c r="C83" s="3" t="s">
@@ -3133,7 +3137,7 @@
       <c r="E83" s="8"/>
     </row>
     <row r="84" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="28"/>
+      <c r="B84" s="30"/>
       <c r="C84" s="4" t="s">
         <v>359</v>
       </c>
@@ -3141,7 +3145,7 @@
       <c r="E84" s="8"/>
     </row>
     <row r="85" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="28"/>
+      <c r="B85" s="30"/>
       <c r="C85" s="4" t="s">
         <v>360</v>
       </c>
@@ -3149,7 +3153,7 @@
       <c r="E85" s="8"/>
     </row>
     <row r="86" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="28"/>
+      <c r="B86" s="30"/>
       <c r="C86" s="4" t="s">
         <v>361</v>
       </c>
@@ -5964,7 +5968,7 @@
       </c>
     </row>
     <row r="33" spans="2:5" ht="26" x14ac:dyDescent="0.3">
-      <c r="B33" s="33">
+      <c r="B33" s="28">
         <v>30</v>
       </c>
       <c r="C33" s="14" t="s">
@@ -5976,7 +5980,7 @@
       </c>
     </row>
     <row r="34" spans="2:5" ht="26" x14ac:dyDescent="0.3">
-      <c r="B34" s="33">
+      <c r="B34" s="28">
         <v>31</v>
       </c>
       <c r="C34" s="14" t="s">
@@ -5988,7 +5992,7 @@
       </c>
     </row>
     <row r="35" spans="2:5" ht="26" x14ac:dyDescent="0.3">
-      <c r="B35" s="33">
+      <c r="B35" s="28">
         <v>32</v>
       </c>
       <c r="C35" s="14" t="s">
@@ -6000,7 +6004,7 @@
       </c>
     </row>
     <row r="36" spans="2:5" ht="26" x14ac:dyDescent="0.3">
-      <c r="B36" s="33">
+      <c r="B36" s="28">
         <v>33</v>
       </c>
       <c r="C36" s="14" t="s">
@@ -6125,7 +6129,7 @@
       <c r="B48" s="9">
         <v>45</v>
       </c>
-      <c r="C48" s="34" t="s">
+      <c r="C48" s="29" t="s">
         <v>425</v>
       </c>
       <c r="D48" s="9"/>
@@ -6381,7 +6385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{527C0038-825B-49FE-8A49-D86AE1E3139F}">
   <dimension ref="B3:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -6418,7 +6422,7 @@
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="22" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
@@ -6430,7 +6434,7 @@
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="22" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
@@ -6442,7 +6446,7 @@
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="22" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
@@ -6454,7 +6458,7 @@
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="22" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
@@ -6504,7 +6508,7 @@
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="16" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
@@ -7075,24 +7079,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="33" t="s">
         <v>379</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="31" t="s">
         <v>492</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="32" t="s">
+      <c r="D2" s="32"/>
+      <c r="E2" s="34" t="s">
         <v>492</v>
       </c>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32" t="s">
+      <c r="F2" s="34"/>
+      <c r="G2" s="34" t="s">
         <v>493</v>
       </c>
-      <c r="H2" s="32"/>
+      <c r="H2" s="34"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="31"/>
+      <c r="B3" s="33"/>
       <c r="C3" s="23" t="s">
         <v>490</v>
       </c>
@@ -7671,4 +7675,29 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D636A337-A364-4F1F-9059-C8EEE744AA9A}">
+  <dimension ref="E7:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="E5:G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="7" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E7" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="8" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E8" t="s">
+        <v>540</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/GLIK Domain Mapping.xlsx
+++ b/GLIK Domain Mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toshiba\Documents\GitHub\GLIK-DM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F36DF0A0-BB80-49D8-857D-1E19E655E347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F779513E-B96C-444F-8A6D-F0C3EE7B32C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="4" xr2:uid="{BC9BC3D9-6FF2-4CB4-96B2-33CE5FEE1DBD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="4" xr2:uid="{BC9BC3D9-6FF2-4CB4-96B2-33CE5FEE1DBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Fitur Item" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="542">
   <si>
     <t>Kode Fitur</t>
   </si>
@@ -1714,9 +1714,6 @@
     <t>FiturUmum.Repository, BDL, DocGLIK, PerpanjanganAnalisaEPPA, HistoryPerpanjanganEPPA</t>
   </si>
   <si>
-    <t>FiturUmum.Repository, BDL, DocGLIK, DocLPJTL, PengajuanLanir, Aset, MasterStatus</t>
-  </si>
-  <si>
     <t>SisaAsetHasilLikuidasi, DocHasilLikuidasi, ChecklistDocSisaAset</t>
   </si>
   <si>
@@ -1724,6 +1721,9 @@
   </si>
   <si>
     <t>LANIR</t>
+  </si>
+  <si>
+    <t>FiturUmum.Repository, FiturUmum.Notifikasi, BDL, DocGLIK, DocLPJTL, PengajuanLanir, Aset, MasterStatus</t>
   </si>
 </sst>
 </file>
@@ -1780,7 +1780,7 @@
       <name val="Helvetica"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1814,12 +1814,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1892,7 +1886,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1955,13 +1949,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2299,7 +2290,7 @@
   <dimension ref="B2:E191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3127,7 +3118,7 @@
       <c r="E82" s="8"/>
     </row>
     <row r="83" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="30" t="s">
+      <c r="B83" s="29" t="s">
         <v>164</v>
       </c>
       <c r="C83" s="3" t="s">
@@ -3137,7 +3128,7 @@
       <c r="E83" s="8"/>
     </row>
     <row r="84" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="30"/>
+      <c r="B84" s="29"/>
       <c r="C84" s="4" t="s">
         <v>359</v>
       </c>
@@ -3145,7 +3136,7 @@
       <c r="E84" s="8"/>
     </row>
     <row r="85" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="30"/>
+      <c r="B85" s="29"/>
       <c r="C85" s="4" t="s">
         <v>360</v>
       </c>
@@ -3153,7 +3144,7 @@
       <c r="E85" s="8"/>
     </row>
     <row r="86" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="30"/>
+      <c r="B86" s="29"/>
       <c r="C86" s="4" t="s">
         <v>361</v>
       </c>
@@ -5884,7 +5875,7 @@
       </c>
     </row>
     <row r="26" spans="2:5" ht="26" x14ac:dyDescent="0.3">
-      <c r="B26" s="27">
+      <c r="B26" s="26">
         <v>23</v>
       </c>
       <c r="C26" s="14" t="s">
@@ -5896,7 +5887,7 @@
       </c>
     </row>
     <row r="27" spans="2:5" ht="26" x14ac:dyDescent="0.3">
-      <c r="B27" s="27">
+      <c r="B27" s="26">
         <v>24</v>
       </c>
       <c r="C27" s="14" t="s">
@@ -5908,7 +5899,7 @@
       </c>
     </row>
     <row r="28" spans="2:5" ht="26" x14ac:dyDescent="0.3">
-      <c r="B28" s="27">
+      <c r="B28" s="26">
         <v>25</v>
       </c>
       <c r="C28" s="14" t="s">
@@ -5920,7 +5911,7 @@
       </c>
     </row>
     <row r="29" spans="2:5" ht="26" x14ac:dyDescent="0.3">
-      <c r="B29" s="27">
+      <c r="B29" s="26">
         <v>26</v>
       </c>
       <c r="C29" s="14" t="s">
@@ -5932,7 +5923,7 @@
       </c>
     </row>
     <row r="30" spans="2:5" ht="26" x14ac:dyDescent="0.3">
-      <c r="B30" s="27">
+      <c r="B30" s="26">
         <v>27</v>
       </c>
       <c r="C30" s="14" t="s">
@@ -5944,7 +5935,7 @@
       </c>
     </row>
     <row r="31" spans="2:5" ht="26" x14ac:dyDescent="0.3">
-      <c r="B31" s="27">
+      <c r="B31" s="26">
         <v>28</v>
       </c>
       <c r="C31" s="14" t="s">
@@ -5956,7 +5947,7 @@
       </c>
     </row>
     <row r="32" spans="2:5" ht="26" x14ac:dyDescent="0.3">
-      <c r="B32" s="27">
+      <c r="B32" s="26">
         <v>29</v>
       </c>
       <c r="C32" s="14" t="s">
@@ -5968,7 +5959,7 @@
       </c>
     </row>
     <row r="33" spans="2:5" ht="26" x14ac:dyDescent="0.3">
-      <c r="B33" s="28">
+      <c r="B33" s="27">
         <v>30</v>
       </c>
       <c r="C33" s="14" t="s">
@@ -5980,7 +5971,7 @@
       </c>
     </row>
     <row r="34" spans="2:5" ht="26" x14ac:dyDescent="0.3">
-      <c r="B34" s="28">
+      <c r="B34" s="27">
         <v>31</v>
       </c>
       <c r="C34" s="14" t="s">
@@ -5992,7 +5983,7 @@
       </c>
     </row>
     <row r="35" spans="2:5" ht="26" x14ac:dyDescent="0.3">
-      <c r="B35" s="28">
+      <c r="B35" s="27">
         <v>32</v>
       </c>
       <c r="C35" s="14" t="s">
@@ -6004,7 +5995,7 @@
       </c>
     </row>
     <row r="36" spans="2:5" ht="26" x14ac:dyDescent="0.3">
-      <c r="B36" s="28">
+      <c r="B36" s="27">
         <v>33</v>
       </c>
       <c r="C36" s="14" t="s">
@@ -6129,7 +6120,7 @@
       <c r="B48" s="9">
         <v>45</v>
       </c>
-      <c r="C48" s="29" t="s">
+      <c r="C48" s="28" t="s">
         <v>425</v>
       </c>
       <c r="D48" s="9"/>
@@ -6385,8 +6376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{527C0038-825B-49FE-8A49-D86AE1E3139F}">
   <dimension ref="B3:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -6414,7 +6405,7 @@
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="27">
+      <c r="B4" s="26">
         <v>1</v>
       </c>
       <c r="C4" s="14" t="s">
@@ -6422,11 +6413,11 @@
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="22" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="27">
+      <c r="B5" s="26">
         <v>2</v>
       </c>
       <c r="C5" s="14" t="s">
@@ -6434,11 +6425,11 @@
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="22" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="27">
+      <c r="B6" s="26">
         <v>3</v>
       </c>
       <c r="C6" s="14" t="s">
@@ -6446,11 +6437,11 @@
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="22" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="27">
+      <c r="B7" s="26">
         <v>4</v>
       </c>
       <c r="C7" s="14" t="s">
@@ -6458,7 +6449,7 @@
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="22" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
@@ -6508,7 +6499,7 @@
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="16" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
@@ -6520,7 +6511,7 @@
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="16" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
@@ -6531,7 +6522,9 @@
         <v>512</v>
       </c>
       <c r="D13" s="9"/>
-      <c r="E13" s="16"/>
+      <c r="E13" s="16" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="26">
@@ -6541,7 +6534,9 @@
         <v>513</v>
       </c>
       <c r="D14" s="9"/>
-      <c r="E14" s="16"/>
+      <c r="E14" s="16" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="9">
@@ -7079,24 +7074,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="32" t="s">
         <v>379</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="30" t="s">
         <v>492</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="34" t="s">
+      <c r="D2" s="31"/>
+      <c r="E2" s="33" t="s">
         <v>492</v>
       </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34" t="s">
+      <c r="F2" s="33"/>
+      <c r="G2" s="33" t="s">
         <v>493</v>
       </c>
-      <c r="H2" s="34"/>
+      <c r="H2" s="33"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="33"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="23" t="s">
         <v>490</v>
       </c>
@@ -7689,12 +7684,12 @@
   <sheetData>
     <row r="7" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E7" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="8" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E8" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
   </sheetData>

--- a/GLIK Domain Mapping.xlsx
+++ b/GLIK Domain Mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toshiba\Documents\GitHub\GLIK-DM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F779513E-B96C-444F-8A6D-F0C3EE7B32C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A99C05-0036-499A-86A1-1EA6273AC022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="4" xr2:uid="{BC9BC3D9-6FF2-4CB4-96B2-33CE5FEE1DBD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="3" xr2:uid="{BC9BC3D9-6FF2-4CB4-96B2-33CE5FEE1DBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Fitur Item" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="545">
   <si>
     <t>Kode Fitur</t>
   </si>
@@ -1724,6 +1724,15 @@
   </si>
   <si>
     <t>FiturUmum.Repository, FiturUmum.Notifikasi, BDL, DocGLIK, DocLPJTL, PengajuanLanir, Aset, MasterStatus</t>
+  </si>
+  <si>
+    <t>Keterangan</t>
+  </si>
+  <si>
+    <t>Belum ada Mockup untuk tab : "Kas, Aset Tetap, Aset RRA, Kewajiban, Realisasi Lebih/Kurang, Surplus/Defisit", pada Halaman Laporan Bulanan</t>
+  </si>
+  <si>
+    <t>Konfirmasi Ke BA, sumber data berasal dari mana</t>
   </si>
 </sst>
 </file>
@@ -1780,7 +1789,7 @@
       <name val="Helvetica"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1823,8 +1832,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1882,11 +1897,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1972,6 +2024,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5580,18 +5644,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78815AC8-C3A4-42A1-9CFB-16EE2CA78EFD}">
   <dimension ref="B3:G72"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.7265625" style="1"/>
     <col min="2" max="2" width="3.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="58.81640625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="68.1796875" style="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="146.6328125" style="25" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="1"/>
+    <col min="6" max="6" width="130.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
@@ -5607,6 +5672,9 @@
       <c r="E3" s="24" t="s">
         <v>380</v>
       </c>
+      <c r="F3" s="34" t="s">
+        <v>542</v>
+      </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="9">
@@ -5619,6 +5687,7 @@
       <c r="E4" s="16" t="s">
         <v>451</v>
       </c>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="9">
@@ -5631,6 +5700,7 @@
       <c r="E5" s="16" t="s">
         <v>451</v>
       </c>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="9">
@@ -5643,6 +5713,7 @@
       <c r="E6" s="16" t="s">
         <v>530</v>
       </c>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="9">
@@ -5655,6 +5726,7 @@
       <c r="E7" s="16" t="s">
         <v>529</v>
       </c>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="9">
@@ -5667,6 +5739,7 @@
       <c r="E8" s="16" t="s">
         <v>529</v>
       </c>
+      <c r="F8" s="8"/>
       <c r="G8" s="6"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
@@ -5680,6 +5753,7 @@
       <c r="E9" s="16" t="s">
         <v>529</v>
       </c>
+      <c r="F9" s="8"/>
       <c r="G9" s="6"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
@@ -5693,6 +5767,9 @@
       <c r="E10" s="16" t="s">
         <v>450</v>
       </c>
+      <c r="F10" s="8" t="s">
+        <v>544</v>
+      </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="9">
@@ -5705,6 +5782,7 @@
       <c r="E11" s="16" t="s">
         <v>528</v>
       </c>
+      <c r="F11" s="8"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="9">
@@ -5717,6 +5795,7 @@
       <c r="E12" s="16" t="s">
         <v>528</v>
       </c>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="9">
@@ -5729,6 +5808,7 @@
       <c r="E13" s="16" t="s">
         <v>528</v>
       </c>
+      <c r="F13" s="8"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="9">
@@ -5741,6 +5821,7 @@
       <c r="E14" s="16" t="s">
         <v>528</v>
       </c>
+      <c r="F14" s="8"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="9">
@@ -5753,6 +5834,7 @@
       <c r="E15" s="16" t="s">
         <v>534</v>
       </c>
+      <c r="F15" s="8"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" s="9">
@@ -5765,8 +5847,9 @@
       <c r="E16" s="16" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="9">
         <v>14</v>
       </c>
@@ -5777,8 +5860,9 @@
       <c r="E17" s="16" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="9">
         <v>15</v>
       </c>
@@ -5789,8 +5873,9 @@
       <c r="E18" s="16" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="9">
         <v>16</v>
       </c>
@@ -5801,8 +5886,9 @@
       <c r="E19" s="16" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="2:6" ht="26" x14ac:dyDescent="0.3">
       <c r="B20" s="9">
         <v>17</v>
       </c>
@@ -5813,8 +5899,9 @@
       <c r="E20" s="16" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="21" spans="2:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="2:6" ht="26" x14ac:dyDescent="0.3">
       <c r="B21" s="9">
         <v>18</v>
       </c>
@@ -5825,8 +5912,9 @@
       <c r="E21" s="16" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="22" spans="2:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" spans="2:6" ht="26" x14ac:dyDescent="0.3">
       <c r="B22" s="9">
         <v>19</v>
       </c>
@@ -5837,8 +5925,9 @@
       <c r="E22" s="16" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="9">
         <v>20</v>
       </c>
@@ -5849,8 +5938,9 @@
       <c r="E23" s="16" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="9">
         <v>21</v>
       </c>
@@ -5861,8 +5951,9 @@
       <c r="E24" s="16" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="9">
         <v>22</v>
       </c>
@@ -5873,8 +5964,9 @@
       <c r="E25" s="16" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="26" spans="2:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="F25" s="8"/>
+    </row>
+    <row r="26" spans="2:6" ht="26" x14ac:dyDescent="0.3">
       <c r="B26" s="26">
         <v>23</v>
       </c>
@@ -5885,8 +5977,9 @@
       <c r="E26" s="16" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="27" spans="2:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="F26" s="8"/>
+    </row>
+    <row r="27" spans="2:6" ht="26" x14ac:dyDescent="0.3">
       <c r="B27" s="26">
         <v>24</v>
       </c>
@@ -5897,8 +5990,9 @@
       <c r="E27" s="16" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="28" spans="2:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="F27" s="8"/>
+    </row>
+    <row r="28" spans="2:6" ht="26" x14ac:dyDescent="0.3">
       <c r="B28" s="26">
         <v>25</v>
       </c>
@@ -5909,8 +6003,9 @@
       <c r="E28" s="16" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="29" spans="2:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="F28" s="8"/>
+    </row>
+    <row r="29" spans="2:6" ht="26" x14ac:dyDescent="0.3">
       <c r="B29" s="26">
         <v>26</v>
       </c>
@@ -5921,8 +6016,9 @@
       <c r="E29" s="16" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="30" spans="2:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="F29" s="8"/>
+    </row>
+    <row r="30" spans="2:6" ht="26" x14ac:dyDescent="0.3">
       <c r="B30" s="26">
         <v>27</v>
       </c>
@@ -5933,8 +6029,9 @@
       <c r="E30" s="16" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="31" spans="2:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="F30" s="8"/>
+    </row>
+    <row r="31" spans="2:6" ht="26" x14ac:dyDescent="0.3">
       <c r="B31" s="26">
         <v>28</v>
       </c>
@@ -5945,8 +6042,9 @@
       <c r="E31" s="16" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="32" spans="2:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="F31" s="8"/>
+    </row>
+    <row r="32" spans="2:6" ht="26" x14ac:dyDescent="0.3">
       <c r="B32" s="26">
         <v>29</v>
       </c>
@@ -5957,8 +6055,9 @@
       <c r="E32" s="16" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="33" spans="2:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="F32" s="8"/>
+    </row>
+    <row r="33" spans="2:6" ht="26" x14ac:dyDescent="0.3">
       <c r="B33" s="27">
         <v>30</v>
       </c>
@@ -5969,8 +6068,9 @@
       <c r="E33" s="16" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="34" spans="2:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="F33" s="8"/>
+    </row>
+    <row r="34" spans="2:6" ht="26" x14ac:dyDescent="0.3">
       <c r="B34" s="27">
         <v>31</v>
       </c>
@@ -5981,8 +6081,9 @@
       <c r="E34" s="16" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="35" spans="2:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="F34" s="8"/>
+    </row>
+    <row r="35" spans="2:6" ht="26" x14ac:dyDescent="0.3">
       <c r="B35" s="27">
         <v>32</v>
       </c>
@@ -5993,8 +6094,9 @@
       <c r="E35" s="16" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="36" spans="2:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="F35" s="8"/>
+    </row>
+    <row r="36" spans="2:6" ht="26" x14ac:dyDescent="0.3">
       <c r="B36" s="27">
         <v>33</v>
       </c>
@@ -6005,8 +6107,9 @@
       <c r="E36" s="16" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F36" s="8"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37" s="9">
         <v>34</v>
       </c>
@@ -6014,9 +6117,14 @@
         <v>414</v>
       </c>
       <c r="D37" s="9"/>
-      <c r="E37" s="16"/>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E37" s="16" t="s">
+        <v>450</v>
+      </c>
+      <c r="F37" s="35" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B38" s="9">
         <v>35</v>
       </c>
@@ -6025,8 +6133,9 @@
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="16"/>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F38" s="36"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B39" s="9">
         <v>36</v>
       </c>
@@ -6035,8 +6144,9 @@
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="16"/>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F39" s="36"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B40" s="9">
         <v>37</v>
       </c>
@@ -6045,8 +6155,9 @@
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="16"/>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F40" s="36"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B41" s="9">
         <v>38</v>
       </c>
@@ -6055,8 +6166,9 @@
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="16"/>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F41" s="37"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B42" s="9">
         <v>39</v>
       </c>
@@ -6065,8 +6177,9 @@
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="16"/>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F42" s="14"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B43" s="9">
         <v>40</v>
       </c>
@@ -6075,8 +6188,9 @@
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="16"/>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F43" s="8"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B44" s="9">
         <v>41</v>
       </c>
@@ -6085,8 +6199,9 @@
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="16"/>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F44" s="8"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B45" s="9">
         <v>42</v>
       </c>
@@ -6095,8 +6210,9 @@
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="16"/>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F45" s="8"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B46" s="9">
         <v>43</v>
       </c>
@@ -6105,8 +6221,9 @@
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="16"/>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F46" s="8"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B47" s="9">
         <v>44</v>
       </c>
@@ -6115,8 +6232,9 @@
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="16"/>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F47" s="8"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B48" s="9">
         <v>45</v>
       </c>
@@ -6125,8 +6243,9 @@
       </c>
       <c r="D48" s="9"/>
       <c r="E48" s="16"/>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F48" s="8"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B49" s="9">
         <v>46</v>
       </c>
@@ -6135,8 +6254,9 @@
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="16"/>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F49" s="8"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B50" s="9">
         <v>47</v>
       </c>
@@ -6145,8 +6265,9 @@
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="16"/>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F50" s="8"/>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B51" s="9">
         <v>48</v>
       </c>
@@ -6155,8 +6276,9 @@
       </c>
       <c r="D51" s="9"/>
       <c r="E51" s="16"/>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F51" s="8"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B52" s="9">
         <v>49</v>
       </c>
@@ -6165,8 +6287,9 @@
       </c>
       <c r="D52" s="9"/>
       <c r="E52" s="16"/>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F52" s="8"/>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B53" s="9">
         <v>50</v>
       </c>
@@ -6175,8 +6298,9 @@
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="16"/>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F53" s="8"/>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B54" s="9">
         <v>51</v>
       </c>
@@ -6185,8 +6309,9 @@
       </c>
       <c r="D54" s="9"/>
       <c r="E54" s="16"/>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F54" s="8"/>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B55" s="9">
         <v>52</v>
       </c>
@@ -6195,8 +6320,9 @@
       </c>
       <c r="D55" s="9"/>
       <c r="E55" s="16"/>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F55" s="8"/>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B56" s="9">
         <v>53</v>
       </c>
@@ -6205,8 +6331,9 @@
       </c>
       <c r="D56" s="9"/>
       <c r="E56" s="16"/>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F56" s="8"/>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B57" s="9">
         <v>54</v>
       </c>
@@ -6215,8 +6342,9 @@
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="16"/>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F57" s="8"/>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B58" s="9">
         <v>55</v>
       </c>
@@ -6225,8 +6353,9 @@
       </c>
       <c r="D58" s="9"/>
       <c r="E58" s="16"/>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F58" s="8"/>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B59" s="9">
         <v>56</v>
       </c>
@@ -6235,8 +6364,9 @@
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="16"/>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F59" s="8"/>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B60" s="9">
         <v>57</v>
       </c>
@@ -6245,8 +6375,9 @@
       </c>
       <c r="D60" s="9"/>
       <c r="E60" s="16"/>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F60" s="8"/>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B61" s="9">
         <v>58</v>
       </c>
@@ -6255,8 +6386,9 @@
       </c>
       <c r="D61" s="9"/>
       <c r="E61" s="16"/>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F61" s="8"/>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B62" s="9">
         <v>59</v>
       </c>
@@ -6265,8 +6397,9 @@
       </c>
       <c r="D62" s="9"/>
       <c r="E62" s="16"/>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F62" s="8"/>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B63" s="9">
         <v>60</v>
       </c>
@@ -6275,8 +6408,9 @@
       </c>
       <c r="D63" s="9"/>
       <c r="E63" s="16"/>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F63" s="8"/>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B64" s="9">
         <v>61</v>
       </c>
@@ -6285,8 +6419,9 @@
       </c>
       <c r="D64" s="9"/>
       <c r="E64" s="16"/>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F64" s="8"/>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B65" s="9">
         <v>62</v>
       </c>
@@ -6295,8 +6430,9 @@
       </c>
       <c r="D65" s="9"/>
       <c r="E65" s="16"/>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F65" s="8"/>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B66" s="9">
         <v>63</v>
       </c>
@@ -6305,8 +6441,9 @@
       </c>
       <c r="D66" s="9"/>
       <c r="E66" s="16"/>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F66" s="8"/>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B67" s="9">
         <v>64</v>
       </c>
@@ -6315,8 +6452,9 @@
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="16"/>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F67" s="8"/>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B68" s="9">
         <v>65</v>
       </c>
@@ -6325,8 +6463,9 @@
       </c>
       <c r="D68" s="9"/>
       <c r="E68" s="16"/>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F68" s="8"/>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B69" s="9">
         <v>66</v>
       </c>
@@ -6335,8 +6474,9 @@
       </c>
       <c r="D69" s="9"/>
       <c r="E69" s="16"/>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F69" s="8"/>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B70" s="9">
         <v>67</v>
       </c>
@@ -6345,8 +6485,9 @@
       </c>
       <c r="D70" s="9"/>
       <c r="E70" s="16"/>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F70" s="8"/>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B71" s="9">
         <v>68</v>
       </c>
@@ -6355,8 +6496,9 @@
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="16"/>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F71" s="8"/>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B72" s="9">
         <v>69</v>
       </c>
@@ -6365,8 +6507,12 @@
       </c>
       <c r="D72" s="9"/>
       <c r="E72" s="16"/>
+      <c r="F72" s="8"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F37:F41"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6376,8 +6522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{527C0038-825B-49FE-8A49-D86AE1E3139F}">
   <dimension ref="B3:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>

--- a/GLIK Domain Mapping.xlsx
+++ b/GLIK Domain Mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toshiba\Documents\GitHub\GLIK-DM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A99C05-0036-499A-86A1-1EA6273AC022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB8CF55-A58D-4636-8B7E-9F24773B85F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="3" xr2:uid="{BC9BC3D9-6FF2-4CB4-96B2-33CE5FEE1DBD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="4" xr2:uid="{BC9BC3D9-6FF2-4CB4-96B2-33CE5FEE1DBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Fitur Item" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="547">
   <si>
     <t>Kode Fitur</t>
   </si>
@@ -1733,6 +1733,12 @@
   </si>
   <si>
     <t>Konfirmasi Ke BA, sumber data berasal dari mana</t>
+  </si>
+  <si>
+    <t>FiturUmum.Repository, BDL, LossSuccessRate</t>
+  </si>
+  <si>
+    <t>FiturUmum.Repository, BDL, NotulenRUPS, DocGLIK, DocRUPS</t>
   </si>
 </sst>
 </file>
@@ -2010,8 +2016,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2024,18 +2042,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3182,7 +3188,7 @@
       <c r="E82" s="8"/>
     </row>
     <row r="83" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="29" t="s">
+      <c r="B83" s="30" t="s">
         <v>164</v>
       </c>
       <c r="C83" s="3" t="s">
@@ -3192,7 +3198,7 @@
       <c r="E83" s="8"/>
     </row>
     <row r="84" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="29"/>
+      <c r="B84" s="30"/>
       <c r="C84" s="4" t="s">
         <v>359</v>
       </c>
@@ -3200,7 +3206,7 @@
       <c r="E84" s="8"/>
     </row>
     <row r="85" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="29"/>
+      <c r="B85" s="30"/>
       <c r="C85" s="4" t="s">
         <v>360</v>
       </c>
@@ -3208,7 +3214,7 @@
       <c r="E85" s="8"/>
     </row>
     <row r="86" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="29"/>
+      <c r="B86" s="30"/>
       <c r="C86" s="4" t="s">
         <v>361</v>
       </c>
@@ -5644,8 +5650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78815AC8-C3A4-42A1-9CFB-16EE2CA78EFD}">
   <dimension ref="B3:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11:F12"/>
+    <sheetView topLeftCell="A28" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -5672,7 +5678,7 @@
       <c r="E3" s="24" t="s">
         <v>380</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="29" t="s">
         <v>542</v>
       </c>
     </row>
@@ -6120,7 +6126,7 @@
       <c r="E37" s="16" t="s">
         <v>450</v>
       </c>
-      <c r="F37" s="35" t="s">
+      <c r="F37" s="31" t="s">
         <v>543</v>
       </c>
     </row>
@@ -6133,7 +6139,7 @@
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="16"/>
-      <c r="F38" s="36"/>
+      <c r="F38" s="32"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B39" s="9">
@@ -6144,7 +6150,7 @@
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="16"/>
-      <c r="F39" s="36"/>
+      <c r="F39" s="32"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B40" s="9">
@@ -6155,7 +6161,7 @@
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="16"/>
-      <c r="F40" s="36"/>
+      <c r="F40" s="32"/>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B41" s="9">
@@ -6166,7 +6172,7 @@
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="16"/>
-      <c r="F41" s="37"/>
+      <c r="F41" s="33"/>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B42" s="9">
@@ -6522,8 +6528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{527C0038-825B-49FE-8A49-D86AE1E3139F}">
   <dimension ref="B3:G72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -6685,27 +6691,31 @@
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="9">
+      <c r="B15" s="26">
         <v>12</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>514</v>
       </c>
       <c r="D15" s="9"/>
-      <c r="E15" s="16"/>
+      <c r="E15" s="16" t="s">
+        <v>546</v>
+      </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="9">
+      <c r="B16" s="26">
         <v>13</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>515</v>
       </c>
       <c r="D16" s="9"/>
-      <c r="E16" s="16"/>
+      <c r="E16" s="16" t="s">
+        <v>545</v>
+      </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="9">
+      <c r="B17" s="29">
         <v>14</v>
       </c>
       <c r="C17" s="14" t="s">
@@ -6715,7 +6725,7 @@
       <c r="E17" s="16"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="9">
+      <c r="B18" s="29">
         <v>15</v>
       </c>
       <c r="C18" s="14" t="s">
@@ -6725,7 +6735,7 @@
       <c r="E18" s="16"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="9">
+      <c r="B19" s="29">
         <v>16</v>
       </c>
       <c r="C19" s="14" t="s">
@@ -6735,7 +6745,7 @@
       <c r="E19" s="16"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="9">
+      <c r="B20" s="29">
         <v>17</v>
       </c>
       <c r="C20" s="14" t="s">
@@ -6745,7 +6755,7 @@
       <c r="E20" s="16"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="9">
+      <c r="B21" s="29">
         <v>18</v>
       </c>
       <c r="C21" s="14" t="s">
@@ -7220,24 +7230,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="36" t="s">
         <v>379</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="34" t="s">
         <v>492</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="33" t="s">
+      <c r="D2" s="35"/>
+      <c r="E2" s="37" t="s">
         <v>492</v>
       </c>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33" t="s">
+      <c r="F2" s="37"/>
+      <c r="G2" s="37" t="s">
         <v>493</v>
       </c>
-      <c r="H2" s="33"/>
+      <c r="H2" s="37"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="32"/>
+      <c r="B3" s="36"/>
       <c r="C3" s="23" t="s">
         <v>490</v>
       </c>

--- a/GLIK Domain Mapping.xlsx
+++ b/GLIK Domain Mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toshiba\Documents\GitHub\GLIK-DM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB8CF55-A58D-4636-8B7E-9F24773B85F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B32CBBD9-563F-432B-B4E8-17D234DC5FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="4" xr2:uid="{BC9BC3D9-6FF2-4CB4-96B2-33CE5FEE1DBD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{BC9BC3D9-6FF2-4CB4-96B2-33CE5FEE1DBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Fitur Item" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="547">
   <si>
     <t>Kode Fitur</t>
   </si>
@@ -1729,9 +1729,6 @@
     <t>Keterangan</t>
   </si>
   <si>
-    <t>Belum ada Mockup untuk tab : "Kas, Aset Tetap, Aset RRA, Kewajiban, Realisasi Lebih/Kurang, Surplus/Defisit", pada Halaman Laporan Bulanan</t>
-  </si>
-  <si>
     <t>Konfirmasi Ke BA, sumber data berasal dari mana</t>
   </si>
   <si>
@@ -1739,6 +1736,9 @@
   </si>
   <si>
     <t>FiturUmum.Repository, BDL, NotulenRUPS, DocGLIK, DocRUPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FiturUmum.Notifikasi, GPRM.Bank, BDL, ProfilBDL, MasterStatus </t>
   </si>
 </sst>
 </file>
@@ -1845,7 +1845,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1903,48 +1903,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2021,15 +1984,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2360,7 +2314,7 @@
   <dimension ref="B2:E191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C3" sqref="C3:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5650,8 +5604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78815AC8-C3A4-42A1-9CFB-16EE2CA78EFD}">
   <dimension ref="B3:G72"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -5661,7 +5615,7 @@
     <col min="3" max="3" width="68.1796875" style="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="146.6328125" style="25" customWidth="1"/>
-    <col min="6" max="6" width="130.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.08984375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
@@ -5774,7 +5728,7 @@
         <v>450</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
@@ -6124,11 +6078,9 @@
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="16" t="s">
-        <v>450</v>
-      </c>
-      <c r="F37" s="31" t="s">
-        <v>543</v>
-      </c>
+        <v>546</v>
+      </c>
+      <c r="F37" s="14"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B38" s="9">
@@ -6139,7 +6091,7 @@
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="16"/>
-      <c r="F38" s="32"/>
+      <c r="F38" s="14"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B39" s="9">
@@ -6150,7 +6102,7 @@
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="16"/>
-      <c r="F39" s="32"/>
+      <c r="F39" s="14"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B40" s="9">
@@ -6161,7 +6113,7 @@
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="16"/>
-      <c r="F40" s="32"/>
+      <c r="F40" s="14"/>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B41" s="9">
@@ -6172,7 +6124,7 @@
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="16"/>
-      <c r="F41" s="33"/>
+      <c r="F41" s="14"/>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B42" s="9">
@@ -6516,9 +6468,6 @@
       <c r="F72" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="F37:F41"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6528,8 +6477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{527C0038-825B-49FE-8A49-D86AE1E3139F}">
   <dimension ref="B3:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -6699,7 +6648,7 @@
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
@@ -6711,7 +6660,7 @@
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="16" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
@@ -7230,24 +7179,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="33" t="s">
         <v>379</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="31" t="s">
         <v>492</v>
       </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="37" t="s">
+      <c r="D2" s="32"/>
+      <c r="E2" s="34" t="s">
         <v>492</v>
       </c>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37" t="s">
+      <c r="F2" s="34"/>
+      <c r="G2" s="34" t="s">
         <v>493</v>
       </c>
-      <c r="H2" s="37"/>
+      <c r="H2" s="34"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="36"/>
+      <c r="B3" s="33"/>
       <c r="C3" s="23" t="s">
         <v>490</v>
       </c>

--- a/GLIK Domain Mapping.xlsx
+++ b/GLIK Domain Mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toshiba\Documents\GitHub\GLIK-DM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B32CBBD9-563F-432B-B4E8-17D234DC5FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B73A0B-3542-4D56-91F2-006B43BF4BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{BC9BC3D9-6FF2-4CB4-96B2-33CE5FEE1DBD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="3" xr2:uid="{BC9BC3D9-6FF2-4CB4-96B2-33CE5FEE1DBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Fitur Item" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="547">
   <si>
     <t>Kode Fitur</t>
   </si>
@@ -1738,7 +1738,7 @@
     <t>FiturUmum.Repository, BDL, NotulenRUPS, DocGLIK, DocRUPS</t>
   </si>
   <si>
-    <t xml:space="preserve">FiturUmum.Notifikasi, GPRM.Bank, BDL, ProfilBDL, MasterStatus </t>
+    <t xml:space="preserve">FiturUmum.Notifikasi, GPRM.Bank, BDL, ProfilBDL, LaporanBulanan, LaporanBulananABA, LaporanBulananKredit, JenisLaporanBulanan, MasterStatus </t>
   </si>
 </sst>
 </file>
@@ -2314,7 +2314,7 @@
   <dimension ref="B2:E191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C15"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5604,8 +5604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78815AC8-C3A4-42A1-9CFB-16EE2CA78EFD}">
   <dimension ref="B3:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:XFD41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -6090,7 +6090,9 @@
         <v>415</v>
       </c>
       <c r="D38" s="9"/>
-      <c r="E38" s="16"/>
+      <c r="E38" s="16" t="s">
+        <v>546</v>
+      </c>
       <c r="F38" s="14"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.3">
@@ -6101,7 +6103,9 @@
         <v>416</v>
       </c>
       <c r="D39" s="9"/>
-      <c r="E39" s="16"/>
+      <c r="E39" s="16" t="s">
+        <v>546</v>
+      </c>
       <c r="F39" s="14"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.3">
@@ -6112,7 +6116,9 @@
         <v>417</v>
       </c>
       <c r="D40" s="9"/>
-      <c r="E40" s="16"/>
+      <c r="E40" s="16" t="s">
+        <v>546</v>
+      </c>
       <c r="F40" s="14"/>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.3">
@@ -6123,7 +6129,9 @@
         <v>418</v>
       </c>
       <c r="D41" s="9"/>
-      <c r="E41" s="16"/>
+      <c r="E41" s="16" t="s">
+        <v>546</v>
+      </c>
       <c r="F41" s="14"/>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.3">

--- a/GLIK Domain Mapping.xlsx
+++ b/GLIK Domain Mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toshiba\Documents\GitHub\GLIK-DM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B73A0B-3542-4D56-91F2-006B43BF4BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA894DB-4FC3-4FF6-BB50-127E4DA8264B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="3" xr2:uid="{BC9BC3D9-6FF2-4CB4-96B2-33CE5FEE1DBD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{BC9BC3D9-6FF2-4CB4-96B2-33CE5FEE1DBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Fitur Item" sheetId="1" r:id="rId1"/>

--- a/GLIK Domain Mapping.xlsx
+++ b/GLIK Domain Mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toshiba\Documents\GitHub\GLIK-DM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA894DB-4FC3-4FF6-BB50-127E4DA8264B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D9B14E7-5439-47E2-8112-94DE705AF839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{BC9BC3D9-6FF2-4CB4-96B2-33CE5FEE1DBD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="3" xr2:uid="{BC9BC3D9-6FF2-4CB4-96B2-33CE5FEE1DBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Fitur Item" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="546">
   <si>
     <t>Kode Fitur</t>
   </si>
@@ -1711,34 +1711,31 @@
     <t>FiturUmum.Notifikasi, FiturUmum.Repository, FiturUmum.CheckList, GPRM.Bank, GPRM.Jaringan, BDL, ProfilBDL, NeracaPenutupAudit, DocGLIK, DocNeracaPenutupAudit, KoreksiNeracaPA, KodeTransaksi, JenisTransaksi, KodeCabangBDL, MasterStatus</t>
   </si>
   <si>
-    <t>FiturUmum.Repository, BDL, DocGLIK, PerpanjanganAnalisaEPPA, HistoryPerpanjanganEPPA</t>
-  </si>
-  <si>
-    <t>SisaAsetHasilLikuidasi, DocHasilLikuidasi, ChecklistDocSisaAset</t>
-  </si>
-  <si>
     <t>Nama File</t>
   </si>
   <si>
     <t>LANIR</t>
   </si>
   <si>
-    <t>FiturUmum.Repository, FiturUmum.Notifikasi, BDL, DocGLIK, DocLPJTL, PengajuanLanir, Aset, MasterStatus</t>
-  </si>
-  <si>
     <t>Keterangan</t>
   </si>
   <si>
     <t>Konfirmasi Ke BA, sumber data berasal dari mana</t>
   </si>
   <si>
-    <t>FiturUmum.Repository, BDL, LossSuccessRate</t>
-  </si>
-  <si>
-    <t>FiturUmum.Repository, BDL, NotulenRUPS, DocGLIK, DocRUPS</t>
-  </si>
-  <si>
     <t xml:space="preserve">FiturUmum.Notifikasi, GPRM.Bank, BDL, ProfilBDL, LaporanBulanan, LaporanBulananABA, LaporanBulananKredit, JenisLaporanBulanan, MasterStatus </t>
+  </si>
+  <si>
+    <t>Penjaminan.Bank, FiturUmum.Notifikasi, FiturUmum.Repository, MasterStatus, DocDistribusiHasilLikuidasi</t>
+  </si>
+  <si>
+    <t>Penjaminan.Bank, FiturUmum.Notifikasi, FiturUmum.Repository, MasterStatus, DocSisaAsetNonTunai</t>
+  </si>
+  <si>
+    <t>Penjaminan.Bank, FiturUmum.Notifikasi, FiturUmum.Repository, MasterStatus, AnalisaPencairanAset</t>
+  </si>
+  <si>
+    <t>Penjaminan.Bank, FiturUmum.Notifikasi, FiturUmum.Repository, MasterStatus, PengajuanLanir_LPJTL, DocLanir_PJTL</t>
   </si>
 </sst>
 </file>
@@ -5605,7 +5602,7 @@
   <dimension ref="B3:G72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:XFD41"/>
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -5633,7 +5630,7 @@
         <v>380</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
@@ -5728,7 +5725,7 @@
         <v>450</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
@@ -6078,7 +6075,7 @@
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="16" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="F37" s="14"/>
     </row>
@@ -6091,7 +6088,7 @@
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="16" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="F38" s="14"/>
     </row>
@@ -6104,7 +6101,7 @@
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="16" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="F39" s="14"/>
     </row>
@@ -6117,7 +6114,7 @@
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="16" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="F40" s="14"/>
     </row>
@@ -6130,7 +6127,7 @@
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="16" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="F41" s="14"/>
     </row>
@@ -6485,8 +6482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{527C0038-825B-49FE-8A49-D86AE1E3139F}">
   <dimension ref="B3:G72"/>
   <sheetViews>
-    <sheetView topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -6494,7 +6491,7 @@
     <col min="1" max="1" width="8.7265625" style="1"/>
     <col min="2" max="2" width="3.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="79.1796875" style="15" customWidth="1"/>
-    <col min="4" max="4" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7265625" style="2" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="122.81640625" style="25" customWidth="1"/>
     <col min="6" max="16384" width="8.7265625" style="1"/>
   </cols>
@@ -6522,7 +6519,7 @@
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="22" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
@@ -6534,7 +6531,7 @@
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="22" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
@@ -6546,7 +6543,7 @@
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="22" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
@@ -6558,7 +6555,7 @@
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="22" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
@@ -6570,7 +6567,7 @@
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="22" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="G8" s="6"/>
     </row>
@@ -6583,7 +6580,7 @@
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="22" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="G9" s="6"/>
     </row>
@@ -6596,7 +6593,7 @@
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="22" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
@@ -6607,8 +6604,8 @@
         <v>510</v>
       </c>
       <c r="D11" s="9"/>
-      <c r="E11" s="16" t="s">
-        <v>541</v>
+      <c r="E11" s="22" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
@@ -6619,8 +6616,8 @@
         <v>511</v>
       </c>
       <c r="D12" s="9"/>
-      <c r="E12" s="16" t="s">
-        <v>541</v>
+      <c r="E12" s="22" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
@@ -6631,8 +6628,8 @@
         <v>512</v>
       </c>
       <c r="D13" s="9"/>
-      <c r="E13" s="16" t="s">
-        <v>541</v>
+      <c r="E13" s="22" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
@@ -6643,8 +6640,8 @@
         <v>513</v>
       </c>
       <c r="D14" s="9"/>
-      <c r="E14" s="16" t="s">
-        <v>541</v>
+      <c r="E14" s="22" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
@@ -6655,9 +6652,7 @@
         <v>514</v>
       </c>
       <c r="D15" s="9"/>
-      <c r="E15" s="16" t="s">
-        <v>545</v>
-      </c>
+      <c r="E15" s="16"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" s="26">
@@ -6667,12 +6662,10 @@
         <v>515</v>
       </c>
       <c r="D16" s="9"/>
-      <c r="E16" s="16" t="s">
-        <v>544</v>
-      </c>
+      <c r="E16" s="16"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="29">
+      <c r="B17" s="26">
         <v>14</v>
       </c>
       <c r="C17" s="14" t="s">
@@ -6682,7 +6675,7 @@
       <c r="E17" s="16"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="29">
+      <c r="B18" s="26">
         <v>15</v>
       </c>
       <c r="C18" s="14" t="s">
@@ -6692,7 +6685,7 @@
       <c r="E18" s="16"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="29">
+      <c r="B19" s="26">
         <v>16</v>
       </c>
       <c r="C19" s="14" t="s">
@@ -6702,7 +6695,7 @@
       <c r="E19" s="16"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="29">
+      <c r="B20" s="26">
         <v>17</v>
       </c>
       <c r="C20" s="14" t="s">
@@ -6712,7 +6705,7 @@
       <c r="E20" s="16"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="29">
+      <c r="B21" s="26">
         <v>18</v>
       </c>
       <c r="C21" s="14" t="s">
@@ -7797,12 +7790,12 @@
   <sheetData>
     <row r="7" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E7" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="8" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E8" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
   </sheetData>

--- a/GLIK Domain Mapping.xlsx
+++ b/GLIK Domain Mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toshiba\Documents\GitHub\GLIK-DM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D9B14E7-5439-47E2-8112-94DE705AF839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F489FEB5-321F-41CF-B40B-D23960208CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="3" xr2:uid="{BC9BC3D9-6FF2-4CB4-96B2-33CE5FEE1DBD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="4" xr2:uid="{BC9BC3D9-6FF2-4CB4-96B2-33CE5FEE1DBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Fitur Item" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="552">
   <si>
     <t>Kode Fitur</t>
   </si>
@@ -1726,16 +1726,34 @@
     <t xml:space="preserve">FiturUmum.Notifikasi, GPRM.Bank, BDL, ProfilBDL, LaporanBulanan, LaporanBulananABA, LaporanBulananKredit, JenisLaporanBulanan, MasterStatus </t>
   </si>
   <si>
-    <t>Penjaminan.Bank, FiturUmum.Notifikasi, FiturUmum.Repository, MasterStatus, DocDistribusiHasilLikuidasi</t>
-  </si>
-  <si>
-    <t>Penjaminan.Bank, FiturUmum.Notifikasi, FiturUmum.Repository, MasterStatus, DocSisaAsetNonTunai</t>
-  </si>
-  <si>
-    <t>Penjaminan.Bank, FiturUmum.Notifikasi, FiturUmum.Repository, MasterStatus, AnalisaPencairanAset</t>
-  </si>
-  <si>
-    <t>Penjaminan.Bank, FiturUmum.Notifikasi, FiturUmum.Repository, MasterStatus, PengajuanLanir_LPJTL, DocLanir_PJTL</t>
+    <t>ID Dan Deskripsi</t>
+  </si>
+  <si>
+    <t>Penjaminan.Bank, FiturUmum.Notifikasi, FiturUmum.Repository, FiturUmum.WorkflowDocuments, MasterStatus, DistribusiHasilLikuidasi, DocDistribusiHasilLikuidasi</t>
+  </si>
+  <si>
+    <t>Penjaminan.Bank, FiturUmum.Notifikasi, FiturUmum.Repository, FiturUmum.Workflow, MasterStatus, DistribusiHasilLikuidasi, DocDistribusiHasilLikuidasi</t>
+  </si>
+  <si>
+    <t>Penjaminan.Bank, FiturUmum.Notifikasi, FiturUmum.Repository, FiturUmum.Workflow, FiturUmum.CheckList, MasterStatus, PenyerahanSisaAsetNonTunai, DocSisaAsetNonTunai</t>
+  </si>
+  <si>
+    <t>Penjaminan.Bank, FiturUmum.Notifikasi, FiturUmum.Workflow, MasterStatus, AnalisaPencairanAset</t>
+  </si>
+  <si>
+    <t>Penjaminan.Bank, FiturUmum.Notifikasi, FiturUmum.Repository, FiturUmum.Workflow, MasterStatus, PengajuanLanir_LPJTL, DocPengajuanLanir_PJTL</t>
+  </si>
+  <si>
+    <t>Penjaminan.Bank, FiturUmum.Repository, PelaksanaanRUPS_PJTL, DocPelaksanaanRUPS_PJTL</t>
+  </si>
+  <si>
+    <t>Penjaminan.Bank, LossSuccessRate</t>
+  </si>
+  <si>
+    <t>Penjaminan.Bank, FiturUmum.Notifikasi, FiturUmum.Workflow, MasterStatus, NilaiKinerjaBankTerlikuidasi, NilaiKinerjaBDL, NilaiKinerjaBankOlehTL, PengajuanKinerjaBank</t>
+  </si>
+  <si>
+    <t>Penjaminan.Bank, FiturUmum.Notifikasi, FiturUmum.Repository, FiturUmum.Workflow, MasterStatus, PengajuanTindakLanjutRUPS, DocTindakLanjutRUPS</t>
   </si>
 </sst>
 </file>
@@ -4918,8 +4936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B759393E-1290-4E33-A086-7F2745429EA5}">
   <dimension ref="B3:G72"/>
   <sheetViews>
-    <sheetView topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -4937,7 +4955,7 @@
         <v>379</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>452</v>
+        <v>542</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>2</v>
@@ -5601,8 +5619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78815AC8-C3A4-42A1-9CFB-16EE2CA78EFD}">
   <dimension ref="B3:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -5621,7 +5639,7 @@
         <v>379</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>452</v>
+        <v>542</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>2</v>
@@ -6482,8 +6500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{527C0038-825B-49FE-8A49-D86AE1E3139F}">
   <dimension ref="B3:G72"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21:E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -6492,7 +6510,7 @@
     <col min="2" max="2" width="3.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="79.1796875" style="15" customWidth="1"/>
     <col min="4" max="4" width="12.7265625" style="2" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="122.81640625" style="25" customWidth="1"/>
+    <col min="5" max="5" width="138.6328125" style="25" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
@@ -6501,7 +6519,7 @@
         <v>379</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>452</v>
+        <v>542</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>2</v>
@@ -6519,7 +6537,7 @@
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="22" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
@@ -6531,7 +6549,7 @@
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="22" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
@@ -6543,7 +6561,7 @@
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="22" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
@@ -6555,7 +6573,7 @@
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="22" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
@@ -6567,7 +6585,7 @@
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="22" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="G8" s="6"/>
     </row>
@@ -6580,7 +6598,7 @@
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="22" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="G9" s="6"/>
     </row>
@@ -6593,7 +6611,7 @@
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="22" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
@@ -6605,7 +6623,7 @@
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="22" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
@@ -6617,7 +6635,7 @@
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="22" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
@@ -6629,7 +6647,7 @@
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="22" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
@@ -6641,7 +6659,7 @@
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="22" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
@@ -6652,7 +6670,9 @@
         <v>514</v>
       </c>
       <c r="D15" s="9"/>
-      <c r="E15" s="16"/>
+      <c r="E15" s="22" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" s="26">
@@ -6662,7 +6682,9 @@
         <v>515</v>
       </c>
       <c r="D16" s="9"/>
-      <c r="E16" s="16"/>
+      <c r="E16" s="22" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="26">
@@ -6672,7 +6694,9 @@
         <v>516</v>
       </c>
       <c r="D17" s="9"/>
-      <c r="E17" s="16"/>
+      <c r="E17" s="16" t="s">
+        <v>550</v>
+      </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="26">
@@ -6682,7 +6706,9 @@
         <v>517</v>
       </c>
       <c r="D18" s="9"/>
-      <c r="E18" s="16"/>
+      <c r="E18" s="16" t="s">
+        <v>550</v>
+      </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="26">
@@ -6692,7 +6718,9 @@
         <v>518</v>
       </c>
       <c r="D19" s="9"/>
-      <c r="E19" s="16"/>
+      <c r="E19" s="16" t="s">
+        <v>550</v>
+      </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="26">
@@ -6702,7 +6730,9 @@
         <v>519</v>
       </c>
       <c r="D20" s="9"/>
-      <c r="E20" s="16"/>
+      <c r="E20" s="16" t="s">
+        <v>550</v>
+      </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="26">
@@ -6712,7 +6742,9 @@
         <v>520</v>
       </c>
       <c r="D21" s="9"/>
-      <c r="E21" s="16"/>
+      <c r="E21" s="16" t="s">
+        <v>550</v>
+      </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="9">
@@ -6722,7 +6754,9 @@
         <v>521</v>
       </c>
       <c r="D22" s="9"/>
-      <c r="E22" s="16"/>
+      <c r="E22" s="16" t="s">
+        <v>450</v>
+      </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="9">
@@ -6732,7 +6766,9 @@
         <v>522</v>
       </c>
       <c r="D23" s="9"/>
-      <c r="E23" s="16"/>
+      <c r="E23" s="16" t="s">
+        <v>450</v>
+      </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="9">
@@ -6742,7 +6778,9 @@
         <v>523</v>
       </c>
       <c r="D24" s="9"/>
-      <c r="E24" s="16"/>
+      <c r="E24" s="16" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="9">
@@ -6752,7 +6790,9 @@
         <v>524</v>
       </c>
       <c r="D25" s="9"/>
-      <c r="E25" s="16"/>
+      <c r="E25" s="16" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="9">
@@ -6762,7 +6802,9 @@
         <v>525</v>
       </c>
       <c r="D26" s="9"/>
-      <c r="E26" s="16"/>
+      <c r="E26" s="16" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="9">
@@ -6772,7 +6814,9 @@
         <v>526</v>
       </c>
       <c r="D27" s="9"/>
-      <c r="E27" s="16"/>
+      <c r="E27" s="22" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="9">
